--- a/sheets/estimate_mtow_mission3.xlsx
+++ b/sheets/estimate_mtow_mission3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82D37E-ABBE-394E-B255-489245A4B460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43C971-AB6C-5C4D-B8C7-300EAE2BA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15080" windowHeight="17260" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="186">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -532,6 +532,69 @@
   </si>
   <si>
     <t>mins</t>
+  </si>
+  <si>
+    <t>Fuselage parameters</t>
+  </si>
+  <si>
+    <t>n_pax</t>
+  </si>
+  <si>
+    <t>l_fuse</t>
+  </si>
+  <si>
+    <t>d_max</t>
+  </si>
+  <si>
+    <t>Landing gear parameters</t>
+  </si>
+  <si>
+    <t>l_sm</t>
+  </si>
+  <si>
+    <t>n_ult</t>
+  </si>
+  <si>
+    <t>Horizontal tail parameters</t>
+  </si>
+  <si>
+    <t>htail_AR</t>
+  </si>
+  <si>
+    <t>t_rh</t>
+  </si>
+  <si>
+    <t>htail_S</t>
+  </si>
+  <si>
+    <t>Vertical tail parameters</t>
+  </si>
+  <si>
+    <t>vtail_AR</t>
+  </si>
+  <si>
+    <t>vtail_S</t>
+  </si>
+  <si>
+    <t>t_rv</t>
+  </si>
+  <si>
+    <t>quarter_chord_sweep</t>
+  </si>
+  <si>
+    <t>Wing parameters</t>
+  </si>
+  <si>
+    <t>N_blade_lift_rotor</t>
+  </si>
+  <si>
+    <t>N_blade_propeller</t>
+  </si>
+  <si>
+    <t>Rotor parameters</t>
+  </si>
+  <si>
+    <t>k_prop</t>
   </si>
 </sst>
 </file>
@@ -647,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -732,27 +795,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,19 +1857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.69</c:v>
+                  <c:v>33.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.24</c:v>
+                  <c:v>14.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.46</c:v>
+                  <c:v>18.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.94</c:v>
+                  <c:v>29.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.67</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3472,11 +3536,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="32" t="s">
@@ -3487,16 +3551,16 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="F3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -3795,7 +3859,7 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15"/>
         <v>-183.26101568053718</v>
       </c>
       <c r="AP5" s="9">
@@ -3810,7 +3874,7 @@
         <v>1500</v>
       </c>
       <c r="AS5" s="8">
-        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>210.56838225672311</v>
       </c>
       <c r="AT5" s="8">
@@ -4186,11 +4250,11 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="F9"/>
       <c r="G9" s="24"/>
       <c r="J9" s="20" t="s">
@@ -4289,11 +4353,11 @@
       <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
@@ -4397,21 +4461,21 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="R11" s="38" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="R11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="V11" s="38" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="V11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
@@ -4504,11 +4568,11 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="N12" s="20" t="s">
         <v>102</v>
       </c>
@@ -4977,21 +5041,21 @@
       <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="R16" s="38" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="R16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="V16" s="38" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="V16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
       <c r="AB16" s="8">
         <v>12</v>
       </c>
@@ -5587,11 +5651,11 @@
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="J21" s="30" t="s">
         <v>87</v>
       </c>
@@ -5954,8 +6018,8 @@
       <c r="B24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="25" t="s">
         <v>121</v>
       </c>
@@ -6210,11 +6274,11 @@
       <c r="D26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="26" t="s">
         <v>78</v>
       </c>
@@ -7210,11 +7274,11 @@
       </c>
     </row>
     <row r="37" spans="6:48" x14ac:dyDescent="0.2">
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="AB37" s="32" t="s">
         <v>142</v>
       </c>
@@ -10179,11 +10243,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -10199,11 +10263,11 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F37:H37"/>
   </mergeCells>
   <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -10234,8 +10298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6A719E-19FD-DD4C-B095-5F00DAC7B3E8}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10278,11 +10342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="6" t="s">
@@ -10296,13 +10360,13 @@
       <c r="B3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="F3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -10405,7 +10469,7 @@
       </c>
       <c r="K4">
         <f>MAX(G6,G40)</f>
-        <v>202.77361610568394</v>
+        <v>325.9886425739644</v>
       </c>
       <c r="L4" t="s">
         <v>162</v>
@@ -10415,7 +10479,7 @@
       </c>
       <c r="O4">
         <f>$C$17*$C$31*COS(G16/180*PI())</f>
-        <v>9606.3640597704652</v>
+        <v>11692.788493728132</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
@@ -10425,7 +10489,7 @@
       </c>
       <c r="S4">
         <f xml:space="preserve"> $C$17 * $C$31</f>
-        <v>9640.9816304878495</v>
+        <v>11734.924720301116</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -10435,7 +10499,7 @@
       </c>
       <c r="W4">
         <f>$C$17*$C$31*COS(G32/180*PI())</f>
-        <v>9628.5336429388117</v>
+        <v>11719.773130721765</v>
       </c>
       <c r="X4" t="s">
         <v>31</v>
@@ -10448,14 +10512,14 @@
       </c>
       <c r="AD4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC4^2)) - AC4</f>
-        <v>0.85694178955430966</v>
+        <v>1.0921945342097461</v>
       </c>
       <c r="AE4" s="9">
         <v>1</v>
       </c>
       <c r="AF4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE4^2)) - AE4</f>
-        <v>-0.66793052131402197</v>
+        <v>-0.66140652402501099</v>
       </c>
       <c r="AG4" s="8">
         <f xml:space="preserve"> (AC4 + AE4)/2</f>
@@ -10463,15 +10527,15 @@
       </c>
       <c r="AH4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG4^2)) - AG4</f>
-        <v>-0.15299414423974039</v>
+        <v>-0.13996117563017896</v>
       </c>
       <c r="AI4" s="8">
         <f>AD4*AH4</f>
-        <v>-0.13110707575613331</v>
+        <v>-0.15286483102485177</v>
       </c>
       <c r="AJ4" s="8">
         <f>AF4*AH4</f>
-        <v>0.10218945852004248</v>
+        <v>9.2571234672010741E-2</v>
       </c>
       <c r="AK4" s="8">
         <f>AE4-AC4</f>
@@ -10483,17 +10547,17 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="8">
         <f>K30</f>
-        <v>6.6449956648284569E-10</v>
+        <v>-3.4685854188865051E-10</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8">
         <f>K30</f>
-        <v>6.6449956648284569E-10</v>
+        <v>-3.4685854188865051E-10</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8">
         <f>K30</f>
-        <v>6.6449956648284569E-10</v>
+        <v>-3.4685854188865051E-10</v>
       </c>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
@@ -10504,7 +10568,7 @@
         <v>144</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>119</v>
@@ -10520,7 +10584,7 @@
       </c>
       <c r="K5">
         <f>K4/$C$5</f>
-        <v>33.795602684280659</v>
+        <v>81.4971606434911</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -10564,7 +10628,7 @@
       </c>
       <c r="AD5" s="8">
         <f t="shared" ref="AD5:AD34" si="0" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC5^2)) - AC5</f>
-        <v>0.85694178955430966</v>
+        <v>1.0921945342097461</v>
       </c>
       <c r="AE5" s="8">
         <f>IF(AJ4&gt;0, AG4, AE4)</f>
@@ -10572,7 +10636,7 @@
       </c>
       <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF34" si="1" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE5^2)) - AE5</f>
-        <v>-0.15299414423974039</v>
+        <v>-0.13996117563017896</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ref="AG5:AG34" si="2" xml:space="preserve"> (AC5 + AE5)/2</f>
@@ -10580,15 +10644,15 @@
       </c>
       <c r="AH5" s="8">
         <f t="shared" ref="AH5:AH34" si="3" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG5^2)) - AG5</f>
-        <v>0.12663960880725844</v>
+        <v>0.15258636820717913</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ref="AI5:AI34" si="4">AD5*AH5</f>
-        <v>0.10852277299974976</v>
+        <v>0.16665399735079683</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ref="AJ5:AJ34" si="5">AF5*AH5</f>
-        <v>-1.9375118576321997E-2</v>
+        <v>-2.1356167479416155E-2</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" ref="AK5:AK34" si="6">AE5-AC5</f>
@@ -10601,31 +10665,31 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17"/>
-        <v>-244.3695500751972</v>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <v>-299.87788860553417</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
         <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>273.61938777900605</v>
+        <v>105.11631758556837</v>
       </c>
       <c r="AR5" s="8">
         <f>(AN5+AP5)/2</f>
         <v>1500</v>
       </c>
       <c r="AS5" s="8">
-        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>191.97163077250752</v>
+        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17"/>
+        <v>85.955123570641717</v>
       </c>
       <c r="AT5" s="8">
         <f>AO5*AS5</f>
-        <v>-46912.021039079547</v>
+        <v>-25776.040971191822</v>
       </c>
       <c r="AU5" s="8">
         <f>AQ5*AS5</f>
-        <v>52527.160082910908</v>
+        <v>9035.2860673583473</v>
       </c>
       <c r="AV5" s="8">
         <f>AP5-AN5</f>
@@ -10644,7 +10708,7 @@
       </c>
       <c r="G6">
         <f xml:space="preserve"> 1/1000 * ($C$17*$C$31)/$C$9 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) )</f>
-        <v>202.77361610568394</v>
+        <v>325.9886425739644</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
@@ -10654,7 +10718,7 @@
       </c>
       <c r="K6">
         <f>MAX(G18,G23,G34)</f>
-        <v>71.131341122925193</v>
+        <v>100.932902773311</v>
       </c>
       <c r="L6" t="s">
         <v>162</v>
@@ -10664,7 +10728,7 @@
       </c>
       <c r="O6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.24894655638052482</v>
+        <v>0.28379984779260853</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
@@ -10674,7 +10738,7 @@
       </c>
       <c r="S6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.24894655638052482</v>
+        <v>0.28379984779260853</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -10684,7 +10748,7 @@
       </c>
       <c r="W6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.24894655638052482</v>
+        <v>0.28379984779260853</v>
       </c>
       <c r="X6" t="s">
         <v>18</v>
@@ -10698,7 +10762,7 @@
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="0"/>
-        <v>0.12663960880725844</v>
+        <v>0.15258636820717913</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" ref="AE6:AE34" si="8">IF(AJ5&gt;0, AG5, AE5)</f>
@@ -10706,7 +10770,7 @@
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.15299414423974039</v>
+        <v>-0.13996117563017896</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="2"/>
@@ -10714,15 +10778,15 @@
       </c>
       <c r="AH6" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8072575550591219E-2</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2887038978664951E-3</v>
+        <v>-1.0924997566619494E-4</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" si="5"/>
-        <v>2.7649982305707585E-3</v>
+        <v>1.0021049200835271E-4</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" si="6"/>
@@ -10736,29 +10800,29 @@
         <v>500</v>
       </c>
       <c r="AO6" s="8">
-        <v>-244.3695500751972</v>
+        <v>-299.87788860553417</v>
       </c>
       <c r="AP6" s="8">
         <f>IF(AU5&gt;0,AR5,AP5)</f>
         <v>1500</v>
       </c>
       <c r="AQ6" s="8">
-        <v>191.97163077250752</v>
+        <v>85.955123570641717</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" ref="AR6:AR44" si="9">(AN6+AP6)/2</f>
         <v>1000</v>
       </c>
       <c r="AS6" s="8">
-        <v>7.5461778853259602</v>
+        <v>-71.729655406419965</v>
       </c>
       <c r="AT6" s="8">
         <f t="shared" ref="AT6:AT44" si="10">AO6*AS6</f>
-        <v>-1844.056094624508</v>
+        <v>21510.137613679759</v>
       </c>
       <c r="AU6" s="8">
         <f t="shared" ref="AU6:AU44" si="11">AQ6*AS6</f>
-        <v>1448.652074745457</v>
+        <v>-6165.5313941383765</v>
       </c>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV44" si="12">AP6-AN6</f>
@@ -10777,7 +10841,7 @@
       </c>
       <c r="G7">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>1606.8302717479748</v>
+        <v>2933.7311800752791</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -10787,7 +10851,7 @@
       </c>
       <c r="K7">
         <f>K6/$C$6</f>
-        <v>71.131341122925193</v>
+        <v>100.932902773311</v>
       </c>
       <c r="L7" t="s">
         <v>162</v>
@@ -10797,21 +10861,21 @@
       </c>
       <c r="O7">
         <f xml:space="preserve"> O6 / $C$21</f>
-        <v>3.1118319547565602E-2</v>
+        <v>3.5474980974076066E-2</v>
       </c>
       <c r="R7" t="s">
         <v>56</v>
       </c>
       <c r="S7">
         <f xml:space="preserve"> S6 / $C$21</f>
-        <v>3.1118319547565602E-2</v>
+        <v>3.5474980974076066E-2</v>
       </c>
       <c r="V7" t="s">
         <v>56</v>
       </c>
       <c r="W7">
         <f xml:space="preserve"> W6 / $C$21</f>
-        <v>3.1118319547565602E-2</v>
+        <v>3.5474980974076066E-2</v>
       </c>
       <c r="AB7" s="8">
         <v>3</v>
@@ -10822,7 +10886,7 @@
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="0"/>
-        <v>0.12663960880725844</v>
+        <v>0.15258636820717913</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="8"/>
@@ -10830,7 +10894,7 @@
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8072575550591219E-2</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG7" s="8">
         <f t="shared" si="2"/>
@@ -10838,15 +10902,15 @@
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="3"/>
-        <v>5.2336052909124298E-2</v>
+        <v>7.31390611544388E-2</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="4"/>
-        <v>6.6278172669274812E-3</v>
+        <v>1.1160023715638592E-2</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="5"/>
-        <v>-9.4584727021988823E-4</v>
+        <v>-5.2366674331756165E-5</v>
       </c>
       <c r="AK7" s="8">
         <f t="shared" si="6"/>
@@ -10857,32 +10921,32 @@
       </c>
       <c r="AN7" s="8">
         <f t="shared" ref="AN7:AN44" si="13">IF(AT6&gt;0,AR6,AN6)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO7" s="8">
-        <v>-244.3695500751972</v>
+        <v>-71.729655406419965</v>
       </c>
       <c r="AP7" s="8">
         <f t="shared" ref="AP7:AP44" si="14">IF(AU6&gt;0,AR6,AP6)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="AQ7" s="8">
-        <v>7.5461778853259602</v>
+        <v>85.955123570641717</v>
       </c>
       <c r="AR7" s="8">
         <f t="shared" si="9"/>
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="AS7" s="8">
-        <v>-111.58872615558255</v>
+        <v>17.388375255487404</v>
       </c>
       <c r="AT7" s="8">
         <f t="shared" si="10"/>
-        <v>27268.886804104095</v>
+        <v>-1247.2621651536313</v>
       </c>
       <c r="AU7" s="8">
         <f t="shared" si="11"/>
-        <v>-842.06837756695154</v>
+        <v>1494.6199437781086</v>
       </c>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
@@ -10911,7 +10975,7 @@
       </c>
       <c r="O8">
         <f xml:space="preserve"> O5 * $C$21 * O7</f>
-        <v>137.23178920476431</v>
+        <v>156.44466609567544</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -10921,7 +10985,7 @@
       </c>
       <c r="S8">
         <f xml:space="preserve"> S5 * $C$21 * S7</f>
-        <v>137.23178920476431</v>
+        <v>156.44466609567544</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -10931,7 +10995,7 @@
       </c>
       <c r="W8">
         <f xml:space="preserve"> W5*W7*$C$21</f>
-        <v>137.23178920476431</v>
+        <v>156.44466609567544</v>
       </c>
       <c r="X8" t="s">
         <v>31</v>
@@ -10945,7 +11009,7 @@
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="0"/>
-        <v>5.2336052909124298E-2</v>
+        <v>7.31390611544388E-2</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" si="8"/>
@@ -10953,7 +11017,7 @@
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8072575550591219E-2</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" si="2"/>
@@ -10961,15 +11025,15 @@
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="3"/>
-        <v>1.6775764197959453E-2</v>
+        <v>3.5700435717792356E-2</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="4"/>
-        <v>8.7797728265539903E-4</v>
+        <v>2.6110963512037265E-3</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="5"/>
-        <v>-3.0318126588652549E-4</v>
+        <v>-2.5561075863249135E-5</v>
       </c>
       <c r="AK8" s="8">
         <f t="shared" si="6"/>
@@ -10980,32 +11044,32 @@
       </c>
       <c r="AN8" s="8">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AO8" s="8">
-        <v>-111.58872615558255</v>
+        <v>-71.729655406419965</v>
       </c>
       <c r="AP8" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AQ8" s="8">
-        <v>7.5461778853259602</v>
+        <v>17.388375255487404</v>
       </c>
       <c r="AR8" s="8">
         <f t="shared" si="9"/>
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="AS8" s="8">
-        <v>-50.078534949673895</v>
+        <v>-24.765678149824794</v>
       </c>
       <c r="AT8" s="8">
         <f t="shared" si="10"/>
-        <v>5588.1999227719298</v>
+        <v>1776.4335595932369</v>
       </c>
       <c r="AU8" s="8">
         <f t="shared" si="11"/>
-        <v>-377.90153296675231</v>
+        <v>-430.63490512577852</v>
       </c>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
@@ -11049,7 +11113,7 @@
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="0"/>
-        <v>1.6775764197959453E-2</v>
+        <v>3.5700435717792356E-2</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="8"/>
@@ -11057,7 +11121,7 @@
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8072575550591219E-2</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" si="2"/>
@@ -11065,15 +11129,15 @@
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="3"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>1.7380909681138812E-2</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2178105611903928E-5</v>
+        <v>6.2050604878825094E-4</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="5"/>
-        <v>1.3119505683143997E-5</v>
+        <v>-1.2444519009342321E-5</v>
       </c>
       <c r="AK9" s="8">
         <f t="shared" si="6"/>
@@ -11084,32 +11148,32 @@
       </c>
       <c r="AN9" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="AO9" s="8">
-        <v>-50.078534949673895</v>
+        <v>-24.765678149824794</v>
       </c>
       <c r="AP9" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AQ9" s="8">
-        <v>7.5461778853259602</v>
+        <v>17.388375255487404</v>
       </c>
       <c r="AR9" s="8">
         <f t="shared" si="9"/>
-        <v>937.5</v>
+        <v>1187.5</v>
       </c>
       <c r="AS9" s="8">
-        <v>-20.754814382199356</v>
+        <v>-3.0664019508134288</v>
       </c>
       <c r="AT9" s="8">
         <f t="shared" si="10"/>
-        <v>1039.3706974129648</v>
+        <v>75.941523791840254</v>
       </c>
       <c r="AU9" s="8">
         <f t="shared" si="11"/>
-        <v>-156.61952130499796</v>
+        <v>-53.319747804902526</v>
       </c>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
@@ -11117,11 +11181,11 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="37" t="s">
         <v>34</v>
       </c>
@@ -11132,56 +11196,56 @@
       </c>
       <c r="O10">
         <f>O4/(O5*$C$21)</f>
-        <v>2.1783138457529398</v>
+        <v>2.6514259622966287</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
       </c>
       <c r="S10">
         <f xml:space="preserve"> S4 / (S5 * $C$21)</f>
-        <v>2.1861636350312583</v>
+        <v>2.6609806621997998</v>
       </c>
       <c r="V10" t="s">
         <v>138</v>
       </c>
       <c r="W10">
         <f>W4 / ( W5 * $C$21)</f>
-        <v>2.1833409621176445</v>
+        <v>2.6575449276013074</v>
       </c>
       <c r="AB10" s="8">
         <v>6</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="0"/>
-        <v>1.6775764197959453E-2</v>
+        <v>1.7380909681138812E-2</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" si="2"/>
-        <v>0.3515625</v>
+        <v>0.3671875</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="3"/>
-        <v>8.0042562844198639E-3</v>
+        <v>8.306388125758235E-3</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="4"/>
-        <v>1.342775160074627E-4</v>
+        <v>1.4437258179028777E-4</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="5"/>
-        <v>-5.8105656008366852E-6</v>
+        <v>-5.9472724285626028E-6</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" si="6"/>
@@ -11192,32 +11256,32 @@
       </c>
       <c r="AN10" s="8">
         <f t="shared" si="13"/>
-        <v>937.5</v>
+        <v>1187.5</v>
       </c>
       <c r="AO10" s="8">
-        <v>-20.754814382199356</v>
+        <v>-3.0664019508134288</v>
       </c>
       <c r="AP10" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AQ10" s="8">
-        <v>7.5461778853259602</v>
+        <v>17.388375255487404</v>
       </c>
       <c r="AR10" s="8">
         <f t="shared" si="9"/>
-        <v>968.75</v>
+        <v>1218.75</v>
       </c>
       <c r="AS10" s="8">
-        <v>-6.4736124846165239</v>
+        <v>7.3191217196931575</v>
       </c>
       <c r="AT10" s="8">
         <f t="shared" si="10"/>
-        <v>134.35862550050433</v>
+        <v>-22.443369119508038</v>
       </c>
       <c r="AU10" s="8">
         <f t="shared" si="11"/>
-        <v>-48.851031369583254</v>
+        <v>127.26763500261291</v>
       </c>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
@@ -11225,11 +11289,11 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="F11" s="4" t="s">
         <v>154</v>
       </c>
@@ -11245,7 +11309,7 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> (G6*G8 + G18*G19 + G23*G24 + G34*G35 + G40*G42)/3600</f>
-        <v>18.782108669083364</v>
+        <v>29.352554020723939</v>
       </c>
       <c r="L11" t="s">
         <v>163</v>
@@ -11255,56 +11319,56 @@
       </c>
       <c r="O11">
         <f>O7+O10^2/(PI()*O9*$C$22)</f>
-        <v>0.23074324468053092</v>
+        <v>0.33123050936355325</v>
       </c>
       <c r="R11" t="s">
         <v>59</v>
       </c>
       <c r="S11">
         <f xml:space="preserve"> S7 + S10^2 / ( PI() * S9 * $C$22 )</f>
-        <v>0.232184576976563</v>
+        <v>0.33336592403942034</v>
       </c>
       <c r="V11" t="s">
         <v>137</v>
       </c>
       <c r="W11">
         <f xml:space="preserve"> W7 + W10^2 / (PI() * W9 * $C$22)</f>
-        <v>0.23166569734999148</v>
+        <v>0.33259717475610817</v>
       </c>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="7"/>
-        <v>0.3515625</v>
+        <v>0.3671875</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="0"/>
-        <v>8.0042562844198639E-3</v>
+        <v>8.306388125758235E-3</v>
       </c>
       <c r="AE11" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG11" s="8">
         <f t="shared" si="2"/>
-        <v>0.35546875</v>
+        <v>0.37109375</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="3"/>
-        <v>3.6341644401130524E-3</v>
+        <v>3.7888854931052429E-3</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="4"/>
-        <v>2.9088783558390094E-5</v>
+        <v>3.1471953469787022E-5</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="5"/>
-        <v>-2.6381652627250064E-6</v>
+        <v>-2.7127957286571771E-6</v>
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="6"/>
@@ -11315,32 +11379,32 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="13"/>
-        <v>968.75</v>
+        <v>1187.5</v>
       </c>
       <c r="AO11" s="8">
-        <v>-6.4736124846165239</v>
+        <v>-3.0664019508134288</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1218.75</v>
       </c>
       <c r="AQ11" s="8">
-        <v>7.5461778853259602</v>
+        <v>7.3191217196931575</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" si="9"/>
-        <v>984.375</v>
+        <v>1203.125</v>
       </c>
       <c r="AS11" s="8">
-        <v>0.56930574020202585</v>
+        <v>2.1655742099676445</v>
       </c>
       <c r="AT11" s="8">
         <f t="shared" si="10"/>
-        <v>-3.6854647473356859</v>
+        <v>-6.6405209820760351</v>
       </c>
       <c r="AU11" s="8">
         <f t="shared" si="11"/>
-        <v>4.296082386701654</v>
+        <v>15.850101235781537</v>
       </c>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
@@ -11381,7 +11445,7 @@
       </c>
       <c r="O12">
         <f>O5*O11*$C$21</f>
-        <v>1017.5777090411414</v>
+        <v>1460.7265462932698</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -11391,7 +11455,7 @@
       </c>
       <c r="S12">
         <f xml:space="preserve"> S5 * S11 * $C$21</f>
-        <v>1023.9339844666429</v>
+        <v>1470.1437250138438</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -11401,7 +11465,7 @@
       </c>
       <c r="W12">
         <f xml:space="preserve"> W5 * $C$21 * W11</f>
-        <v>1021.6457253134624</v>
+        <v>1466.7535406744371</v>
       </c>
       <c r="X12" t="s">
         <v>31</v>
@@ -11411,35 +11475,35 @@
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="7"/>
-        <v>0.35546875</v>
+        <v>0.37109375</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="0"/>
-        <v>3.6341644401130524E-3</v>
+        <v>3.7888854931052429E-3</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" si="2"/>
-        <v>0.357421875</v>
+        <v>0.373046875</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="3"/>
-        <v>1.4528860962497725E-3</v>
+        <v>1.53489470666901E-3</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="4"/>
-        <v>5.280026986525593E-6</v>
+        <v>5.8155402875422389E-6</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0547001086453462E-6</v>
+        <v>-1.098965859952037E-6</v>
       </c>
       <c r="AK12" s="8">
         <f t="shared" si="6"/>
@@ -11450,32 +11514,32 @@
       </c>
       <c r="AN12" s="8">
         <f t="shared" si="13"/>
-        <v>968.75</v>
+        <v>1187.5</v>
       </c>
       <c r="AO12" s="8">
-        <v>-6.4736124846165239</v>
+        <v>-3.0664019508134288</v>
       </c>
       <c r="AP12" s="8">
         <f t="shared" si="14"/>
-        <v>984.375</v>
+        <v>1203.125</v>
       </c>
       <c r="AQ12" s="8">
-        <v>0.56930574020202585</v>
+        <v>2.1655742099676445</v>
       </c>
       <c r="AR12" s="8">
         <f t="shared" si="9"/>
-        <v>976.5625</v>
+        <v>1195.3125</v>
       </c>
       <c r="AS12" s="8">
-        <v>-2.9439407032704139</v>
+        <v>-0.44065043728301134</v>
       </c>
       <c r="AT12" s="8">
         <f t="shared" si="10"/>
-        <v>19.057931290662101</v>
+        <v>1.3512113605114164</v>
       </c>
       <c r="AU12" s="8">
         <f t="shared" si="11"/>
-        <v>-1.6760023411862355</v>
+        <v>-0.95426122259105439</v>
       </c>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
@@ -11503,56 +11567,56 @@
       </c>
       <c r="O13">
         <f>O4/O12</f>
-        <v>9.4404230501693043</v>
+        <v>8.0047757901023129</v>
       </c>
       <c r="R13" t="s">
         <v>106</v>
       </c>
       <c r="S13">
         <f>S10/S11</f>
-        <v>9.4156281330087328</v>
+        <v>7.9821615537559873</v>
       </c>
       <c r="V13" t="s">
         <v>106</v>
       </c>
       <c r="W13">
         <f>W4/W12</f>
-        <v>9.4245327948536897</v>
+        <v>7.990281124757213</v>
       </c>
       <c r="AB13" s="8">
         <v>9</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" si="7"/>
-        <v>0.357421875</v>
+        <v>0.373046875</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="0"/>
-        <v>1.4528860962497725E-3</v>
+        <v>1.53489470666901E-3</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" si="2"/>
-        <v>0.3583984375</v>
+        <v>0.3740234375</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="3"/>
-        <v>3.6317106956340606E-4</v>
+        <v>4.0906793425665722E-4</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="4"/>
-        <v>5.2764619752883159E-7</v>
+        <v>6.2787620695856975E-7</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.6363840050095801E-7</v>
+        <v>-2.9288764382071293E-7</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" si="6"/>
@@ -11563,32 +11627,32 @@
       </c>
       <c r="AN13" s="8">
         <f t="shared" si="13"/>
-        <v>976.5625</v>
+        <v>1195.3125</v>
       </c>
       <c r="AO13" s="8">
-        <v>-2.9439407032704139</v>
+        <v>-0.44065043728301134</v>
       </c>
       <c r="AP13" s="8">
         <f t="shared" si="14"/>
-        <v>984.375</v>
+        <v>1203.125</v>
       </c>
       <c r="AQ13" s="8">
-        <v>0.56930574020202585</v>
+        <v>2.1655742099676445</v>
       </c>
       <c r="AR13" s="8">
         <f t="shared" si="9"/>
-        <v>980.46875</v>
+        <v>1199.21875</v>
       </c>
       <c r="AS13" s="8">
-        <v>-1.1852588786429124</v>
+        <v>0.86490775005631804</v>
       </c>
       <c r="AT13" s="8">
         <f t="shared" si="10"/>
-        <v>3.4893318567495175</v>
+        <v>-0.38112197827178201</v>
       </c>
       <c r="AU13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.67477468323682632</v>
+        <v>1.8730219175231038</v>
       </c>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
@@ -11617,35 +11681,35 @@
       </c>
       <c r="AC14" s="8">
         <f t="shared" si="7"/>
-        <v>0.3583984375</v>
+        <v>0.3740234375</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="0"/>
-        <v>3.6317106956340606E-4</v>
+        <v>4.0906793425665722E-4</v>
       </c>
       <c r="AE14" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2593447715396664E-4</v>
+        <v>-7.1598778416337439E-4</v>
       </c>
       <c r="AG14" s="8">
         <f t="shared" si="2"/>
-        <v>0.35888671875</v>
+        <v>0.37451171875</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8145758153575997E-4</v>
+        <v>-1.5355593384475119E-4</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="4"/>
-        <v>-6.5900143966730909E-8</v>
+        <v>-6.2814808650724289E-8</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="5"/>
-        <v>1.3172631457778518E-7</v>
+        <v>1.0994417281864111E-7</v>
       </c>
       <c r="AK14" s="8">
         <f t="shared" si="6"/>
@@ -11656,32 +11720,32 @@
       </c>
       <c r="AN14" s="8">
         <f t="shared" si="13"/>
-        <v>980.46875</v>
+        <v>1195.3125</v>
       </c>
       <c r="AO14" s="8">
-        <v>-1.1852588786429124</v>
+        <v>-0.44065043728301134</v>
       </c>
       <c r="AP14" s="8">
         <f t="shared" si="14"/>
-        <v>984.375</v>
+        <v>1199.21875</v>
       </c>
       <c r="AQ14" s="8">
-        <v>0.56930574020202585</v>
+        <v>0.86490775005631804</v>
       </c>
       <c r="AR14" s="8">
         <f t="shared" si="9"/>
-        <v>982.421875</v>
+        <v>1197.265625</v>
       </c>
       <c r="AS14" s="8">
-        <v>-0.30746134770583922</v>
+        <v>0.2127393253823584</v>
       </c>
       <c r="AT14" s="8">
         <f t="shared" si="10"/>
-        <v>0.36442129220786157</v>
+        <v>-9.3743676757029062E-2</v>
       </c>
       <c r="AU14" s="8">
         <f t="shared" si="11"/>
-        <v>-0.17503951013918523</v>
+        <v>0.18399989126495456</v>
       </c>
       <c r="AV14" s="8">
         <f t="shared" si="12"/>
@@ -11704,17 +11768,17 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="43" t="s">
         <v>140</v>
       </c>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="43" t="s">
         <v>135</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="V15" s="40" t="s">
+      <c r="V15" s="43" t="s">
         <v>149</v>
       </c>
       <c r="W15" s="46"/>
@@ -11724,35 +11788,35 @@
       </c>
       <c r="AC15" s="8">
         <f t="shared" si="7"/>
-        <v>0.3583984375</v>
+        <v>0.3740234375</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="0"/>
-        <v>3.6317106956340606E-4</v>
+        <v>4.0906793425665722E-4</v>
       </c>
       <c r="AE15" s="8">
         <f t="shared" si="8"/>
-        <v>0.35888671875</v>
+        <v>0.37451171875</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8145758153575997E-4</v>
+        <v>-1.5355593384475119E-4</v>
       </c>
       <c r="AG15" s="8">
         <f t="shared" si="2"/>
-        <v>0.358642578125</v>
+        <v>0.374267578125</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="3"/>
-        <v>9.0837736300530825E-5</v>
+        <v>1.277319515258224E-4</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="4"/>
-        <v>3.2989637848982413E-8</v>
+        <v>5.2251045549239642E-8</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6483195941277435E-8</v>
+        <v>-1.9613999098360148E-8</v>
       </c>
       <c r="AK15" s="8">
         <f t="shared" si="6"/>
@@ -11763,32 +11827,32 @@
       </c>
       <c r="AN15" s="8">
         <f t="shared" si="13"/>
-        <v>982.421875</v>
+        <v>1195.3125</v>
       </c>
       <c r="AO15" s="8">
-        <v>-0.30746134770583922</v>
+        <v>-0.44065043728301134</v>
       </c>
       <c r="AP15" s="8">
         <f t="shared" si="14"/>
-        <v>984.375</v>
+        <v>1197.265625</v>
       </c>
       <c r="AQ15" s="8">
-        <v>0.56930574020202585</v>
+        <v>0.2127393253823584</v>
       </c>
       <c r="AR15" s="8">
         <f t="shared" si="9"/>
-        <v>983.3984375</v>
+        <v>1196.2890625</v>
       </c>
       <c r="AS15" s="8">
-        <v>0.13105106310069914</v>
+        <v>-0.11380304827116561</v>
       </c>
       <c r="AT15" s="8">
         <f t="shared" si="10"/>
-        <v>-4.0293136479223932E-2</v>
+        <v>5.0147362984828775E-2</v>
       </c>
       <c r="AU15" s="8">
         <f t="shared" si="11"/>
-        <v>7.4608122482805919E-2</v>
+        <v>-2.4210383715663739E-2</v>
       </c>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
@@ -11816,7 +11880,7 @@
       </c>
       <c r="K16" s="5">
         <f>C17</f>
-        <v>983.10652776308416</v>
+        <v>1196.629299536653</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -11856,35 +11920,35 @@
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="7"/>
-        <v>0.358642578125</v>
+        <v>0.374267578125</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="0"/>
-        <v>9.0837736300530825E-5</v>
+        <v>1.277319515258224E-4</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="8"/>
-        <v>0.35888671875</v>
+        <v>0.37451171875</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8145758153575997E-4</v>
+        <v>-1.5355593384475119E-4</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="2"/>
-        <v>0.3587646484375</v>
+        <v>0.3743896484375</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="3"/>
-        <v>-4.5314669753160342E-5</v>
+        <v>-1.2917997512962298E-5</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="4"/>
-        <v>-4.1162820215832192E-9</v>
+        <v>-1.6500410321363946E-9</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="5"/>
-        <v>8.2226903815001296E-9</v>
+        <v>1.9836351715070993E-9</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="6"/>
@@ -11895,32 +11959,32 @@
       </c>
       <c r="AN16" s="8">
         <f t="shared" si="13"/>
-        <v>982.421875</v>
+        <v>1196.2890625</v>
       </c>
       <c r="AO16" s="8">
-        <v>-0.30746134770583922</v>
+        <v>-0.11380304827116561</v>
       </c>
       <c r="AP16" s="8">
         <f t="shared" si="14"/>
-        <v>983.3984375</v>
+        <v>1197.265625</v>
       </c>
       <c r="AQ16" s="8">
-        <v>0.13105106310069914</v>
+        <v>0.2127393253823584</v>
       </c>
       <c r="AR16" s="8">
         <f t="shared" si="9"/>
-        <v>982.91015625</v>
+        <v>1196.77734375</v>
       </c>
       <c r="AS16" s="8">
-        <v>-8.8172797782021917E-2</v>
+        <v>4.9506416516123863E-2</v>
       </c>
       <c r="AT16" s="8">
         <f t="shared" si="10"/>
-        <v>2.710972723705489E-2</v>
+        <v>-5.633981108516874E-3</v>
       </c>
       <c r="AU16" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1555138885896939E-2</v>
+        <v>1.0531961651738237E-2</v>
       </c>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
@@ -11933,7 +11997,7 @@
       </c>
       <c r="C17" s="3">
         <f>AR44</f>
-        <v>983.10652776308416</v>
+        <v>1196.629299536653</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -11943,7 +12007,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> 1/1000 * (O22 + O17 * (O27 * O24 + $G$11 * SIN(O16/180*PI())))</f>
-        <v>71.131341122925193</v>
+        <v>100.932902773311</v>
       </c>
       <c r="H17" t="s">
         <v>162</v>
@@ -11953,7 +12017,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> 1000 * K11 / ($C$12 * $C$13 * $C$14)</f>
-        <v>110.48299217107862</v>
+        <v>172.6620824748467</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -11963,7 +12027,7 @@
       </c>
       <c r="O17">
         <f>(O12+$C$17*$C$31*SIN(G16/180*PI()))/$C$6</f>
-        <v>1833.8474870891127</v>
+        <v>2454.283505945431</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
@@ -11973,7 +12037,7 @@
       </c>
       <c r="S17">
         <f xml:space="preserve"> S12 / $C$6</f>
-        <v>1023.9339844666429</v>
+        <v>1470.1437250138438</v>
       </c>
       <c r="T17" t="s">
         <v>31</v>
@@ -11983,7 +12047,7 @@
       </c>
       <c r="W17">
         <f>(W12-$C$17*$C$31*SIN(G32/180*PI()))/$C$6</f>
-        <v>531.88385848467965</v>
+        <v>870.61936488314029</v>
       </c>
       <c r="X17" t="s">
         <v>31</v>
@@ -11993,35 +12057,35 @@
       </c>
       <c r="AC17" s="8">
         <f t="shared" si="7"/>
-        <v>0.358642578125</v>
+        <v>0.374267578125</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="0"/>
-        <v>9.0837736300530825E-5</v>
+        <v>1.277319515258224E-4</v>
       </c>
       <c r="AE17" s="8">
         <f t="shared" si="8"/>
-        <v>0.3587646484375</v>
+        <v>0.3743896484375</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5314669753160342E-5</v>
+        <v>-1.2917997512962298E-5</v>
       </c>
       <c r="AG17" s="8">
         <f t="shared" si="2"/>
-        <v>0.35870361328125</v>
+        <v>0.37432861328125</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="3"/>
-        <v>2.2760345891215117E-5</v>
+        <v>5.7405474691574199E-5</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="4"/>
-        <v>2.0674982981750692E-9</v>
+        <v>7.3325133106209798E-9</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0313775575281129E-9</v>
+        <v>-7.4156377929617565E-10</v>
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="6"/>
@@ -12032,32 +12096,32 @@
       </c>
       <c r="AN17" s="8">
         <f t="shared" si="13"/>
-        <v>982.91015625</v>
+        <v>1196.2890625</v>
       </c>
       <c r="AO17" s="8">
-        <v>-8.8172797782021917E-2</v>
+        <v>-0.11380304827116561</v>
       </c>
       <c r="AP17" s="8">
         <f t="shared" si="14"/>
-        <v>983.3984375</v>
+        <v>1196.77734375</v>
       </c>
       <c r="AQ17" s="8">
-        <v>0.13105106310069914</v>
+        <v>4.9506416516123863E-2</v>
       </c>
       <c r="AR17" s="8">
         <f t="shared" si="9"/>
-        <v>983.154296875</v>
+        <v>1196.533203125</v>
       </c>
       <c r="AS17" s="8">
-        <v>2.1447236065114339E-2</v>
+        <v>-3.2138711961579247E-2</v>
       </c>
       <c r="AT17" s="8">
         <f t="shared" si="10"/>
-        <v>-1.891062808552614E-3</v>
+        <v>3.6574833887366904E-3</v>
       </c>
       <c r="AU17" s="8">
         <f t="shared" si="11"/>
-        <v>2.8106830869048896E-3</v>
+        <v>-1.5910724606616744E-3</v>
       </c>
       <c r="AV17" s="8">
         <f t="shared" si="12"/>
@@ -12079,7 +12143,7 @@
       </c>
       <c r="G18">
         <f>$C$6*G17</f>
-        <v>71.131341122925193</v>
+        <v>100.932902773311</v>
       </c>
       <c r="H18" t="s">
         <v>162</v>
@@ -12088,8 +12152,8 @@
         <v>75</v>
       </c>
       <c r="K18">
-        <f xml:space="preserve"> $C$33 * ($C$5 * 0.144 * (2*$C$18*3.28084 * (K5*1000*0.00134102) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$19*3.28084 * (K7*1000*0.00134102) * 4^0.5)^0.782 * 0.453592)</f>
-        <v>60.140123313233453</v>
+        <f xml:space="preserve"> $C$33 * ($C$5 * $C$41 * (2*$C$18*3.28084 * (K5*1000*0.00134102) * $C$39^0.5)^0.782 * 0.453592 + C6 * $C$6 * $C$41 * (2*$C$19*3.28084 * (K7*1000*0.00134102) * $C$40^0.5)^0.782 * 0.453592)</f>
+        <v>73.094592336171786</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -12129,35 +12193,35 @@
       </c>
       <c r="AC18" s="8">
         <f t="shared" si="7"/>
-        <v>0.35870361328125</v>
+        <v>0.37432861328125</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="0"/>
-        <v>2.2760345891215117E-5</v>
+        <v>5.7405474691574199E-5</v>
       </c>
       <c r="AE18" s="8">
         <f t="shared" si="8"/>
-        <v>0.3587646484375</v>
+        <v>0.3743896484375</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5314669753160342E-5</v>
+        <v>-1.2917997512962298E-5</v>
       </c>
       <c r="AG18" s="8">
         <f t="shared" si="2"/>
-        <v>0.358734130859375</v>
+        <v>0.374359130859375</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="3"/>
-        <v>-1.1277458701774989E-5</v>
+        <v>2.224336310141517E-5</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5667886082629256E-10</v>
+        <v>1.276890817573784E-9</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="5"/>
-        <v>5.1103431672583804E-10</v>
+        <v>-2.8733970922399851E-10</v>
       </c>
       <c r="AK18" s="8">
         <f t="shared" si="6"/>
@@ -12168,32 +12232,32 @@
       </c>
       <c r="AN18" s="8">
         <f t="shared" si="13"/>
-        <v>982.91015625</v>
+        <v>1196.533203125</v>
       </c>
       <c r="AO18" s="8">
-        <v>-8.8172797782021917E-2</v>
+        <v>-3.2138711961579247E-2</v>
       </c>
       <c r="AP18" s="8">
         <f t="shared" si="14"/>
-        <v>983.154296875</v>
+        <v>1196.77734375</v>
       </c>
       <c r="AQ18" s="8">
-        <v>2.1447236065114339E-2</v>
+        <v>4.9506416516123863E-2</v>
       </c>
       <c r="AR18" s="8">
         <f t="shared" si="9"/>
-        <v>983.0322265625</v>
+        <v>1196.6552734375</v>
       </c>
       <c r="AS18" s="8">
-        <v>-3.3360837156237722E-2</v>
+        <v>8.6862580199067452E-3</v>
       </c>
       <c r="AT18" s="8">
         <f t="shared" si="10"/>
-        <v>2.9415183484159117E-3</v>
+        <v>-2.7916514452574055E-4</v>
       </c>
       <c r="AU18" s="8">
         <f t="shared" si="11"/>
-        <v>-7.154977498196681E-4</v>
+        <v>4.3002550750002465E-4</v>
       </c>
       <c r="AV18" s="8">
         <f t="shared" si="12"/>
@@ -12225,7 +12289,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> 0.2138 * (K4) + 0.2138 * (K6)</f>
-        <v>58.560879855476628</v>
+        <v>91.275826395247478</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -12256,35 +12320,35 @@
       </c>
       <c r="AC19" s="8">
         <f t="shared" si="7"/>
-        <v>0.35870361328125</v>
+        <v>0.374359130859375</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="0"/>
-        <v>2.2760345891215117E-5</v>
+        <v>2.224336310141517E-5</v>
       </c>
       <c r="AE19" s="8">
         <f t="shared" si="8"/>
-        <v>0.358734130859375</v>
+        <v>0.3743896484375</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1277458701774989E-5</v>
+        <v>-1.2917997512962298E-5</v>
       </c>
       <c r="AG19" s="8">
         <f t="shared" si="2"/>
-        <v>0.3587188720703125</v>
+        <v>0.3743743896484375</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="3"/>
-        <v>5.7413693926866571E-6</v>
+        <v>4.6625889336127102E-6</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="4"/>
-        <v>1.3067555326678399E-10</v>
+        <v>1.0371165864298766E-10</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="5"/>
-        <v>-6.4748056217658734E-11</v>
+        <v>-6.0231312248374527E-11</v>
       </c>
       <c r="AK19" s="8">
         <f t="shared" si="6"/>
@@ -12295,32 +12359,32 @@
       </c>
       <c r="AN19" s="8">
         <f t="shared" si="13"/>
-        <v>983.0322265625</v>
+        <v>1196.533203125</v>
       </c>
       <c r="AO19" s="8">
-        <v>-3.3360837156237722E-2</v>
+        <v>-3.2138711961579247E-2</v>
       </c>
       <c r="AP19" s="8">
         <f t="shared" si="14"/>
-        <v>983.154296875</v>
+        <v>1196.6552734375</v>
       </c>
       <c r="AQ19" s="8">
-        <v>2.1447236065114339E-2</v>
+        <v>8.6862580199067452E-3</v>
       </c>
       <c r="AR19" s="8">
         <f t="shared" si="9"/>
-        <v>983.09326171875</v>
+        <v>1196.59423828125</v>
       </c>
       <c r="AS19" s="8">
-        <v>-5.956235222356554E-3</v>
+        <v>-1.1725637710355841E-2</v>
       </c>
       <c r="AT19" s="8">
         <f t="shared" si="10"/>
-        <v>1.9870499331728437E-4</v>
+        <v>3.7684689293895793E-4</v>
       </c>
       <c r="AU19" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2774478287322981E-4</v>
+        <v>-1.0185191460009939E-4</v>
       </c>
       <c r="AV19" s="8">
         <f t="shared" si="12"/>
@@ -12342,7 +12406,7 @@
       </c>
       <c r="K20">
         <f>2.20462 * (49.9/398 * (K5 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (K7 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>33.286007045938419</v>
+        <v>52.772218597693524</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -12352,56 +12416,56 @@
       </c>
       <c r="O20">
         <f xml:space="preserve"> O17 / ( $C$30 * PI() * $C$19^2 * O18^2 * $C$19^2)</f>
-        <v>5.3645710090785392E-2</v>
+        <v>7.1795382313680406E-2</v>
       </c>
       <c r="R20" t="s">
         <v>45</v>
       </c>
       <c r="S20">
         <f xml:space="preserve"> S17 / ( $C$30 * PI() * $C$19^2 * S18^2 * $C$19^2)</f>
-        <v>2.9953235516869927E-2</v>
+        <v>4.3006250312050937E-2</v>
       </c>
       <c r="V20" t="s">
         <v>45</v>
       </c>
       <c r="W20">
         <f xml:space="preserve"> W17 / ( $C$30 * PI() * $C$19^2 * W18^2 * $C$19^2)</f>
-        <v>1.5559247688328032E-2</v>
+        <v>2.5468308775273358E-2</v>
       </c>
       <c r="AB20" s="8">
         <v>16</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3587188720703125</v>
+        <v>0.3743743896484375</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="0"/>
-        <v>5.7413693926866571E-6</v>
+        <v>4.6625889336127102E-6</v>
       </c>
       <c r="AE20" s="8">
         <f t="shared" si="8"/>
-        <v>0.358734130859375</v>
+        <v>0.3743896484375</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1277458701774989E-5</v>
+        <v>-1.2917997512962298E-5</v>
       </c>
       <c r="AG20" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872650146484375</v>
+        <v>0.37438201904296875</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="3"/>
-        <v>-2.7680632038729058E-6</v>
+        <v>-4.1277277534335077E-6</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5892473355738069E-11</v>
+        <v>-1.9245897744125128E-11</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="5"/>
-        <v>3.1216718465579657E-11</v>
+        <v>5.3321976853039506E-11</v>
       </c>
       <c r="AK20" s="8">
         <f t="shared" si="6"/>
@@ -12412,32 +12476,32 @@
       </c>
       <c r="AN20" s="8">
         <f t="shared" si="13"/>
-        <v>983.09326171875</v>
+        <v>1196.59423828125</v>
       </c>
       <c r="AO20" s="8">
-        <v>-5.956235222356554E-3</v>
+        <v>-1.1725637710355841E-2</v>
       </c>
       <c r="AP20" s="8">
         <f t="shared" si="14"/>
-        <v>983.154296875</v>
+        <v>1196.6552734375</v>
       </c>
       <c r="AQ20" s="8">
-        <v>2.1447236065114339E-2</v>
+        <v>8.6862580199067452E-3</v>
       </c>
       <c r="AR20" s="8">
         <f t="shared" si="9"/>
-        <v>983.123779296875</v>
+        <v>1196.624755859375</v>
       </c>
       <c r="AS20" s="8">
-        <v>7.7456128252606504E-3</v>
+        <v>-1.5194688112387666E-3</v>
       </c>
       <c r="AT20" s="8">
         <f t="shared" si="10"/>
-        <v>-4.6134691928554149E-5</v>
+        <v>1.7816740792770842E-5</v>
       </c>
       <c r="AU20" s="8">
         <f t="shared" si="11"/>
-        <v>1.661219867323424E-4</v>
+        <v>-1.3198498147620906E-5</v>
       </c>
       <c r="AV20" s="8">
         <f t="shared" si="12"/>
@@ -12454,17 +12518,17 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
       <c r="K21">
-        <f xml:space="preserve"> $C$33 * (14.86 * ($C$17*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
-        <v>114.12913662338299</v>
+        <f xml:space="preserve"> $C$33 * (14.86 * ($C$17*2.20462)^0.144 * ($C$45/(PI()*$C$46))^0.778 * ($C$45*3.28084)^0.383 * $C$44^0.455 * 0.453592)</f>
+        <v>165.3830294480795</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -12492,35 +12556,35 @@
       </c>
       <c r="AC21" s="8">
         <f t="shared" si="7"/>
-        <v>0.3587188720703125</v>
+        <v>0.3743743896484375</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="0"/>
-        <v>5.7413693926866571E-6</v>
+        <v>4.6625889336127102E-6</v>
       </c>
       <c r="AE21" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872650146484375</v>
+        <v>0.37438201904296875</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7680632038729058E-6</v>
+        <v>-4.1277277534335077E-6</v>
       </c>
       <c r="AG21" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872268676757812</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="3"/>
-        <v>1.4866484568942795E-6</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="4"/>
-        <v>8.5353979480976653E-12</v>
+        <v>1.2468915585870314E-12</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="5"/>
-        <v>-4.1151368906234909E-12</v>
+        <v>-1.1038564551118898E-12</v>
       </c>
       <c r="AK21" s="8">
         <f t="shared" si="6"/>
@@ -12531,32 +12595,32 @@
       </c>
       <c r="AN21" s="8">
         <f t="shared" si="13"/>
-        <v>983.09326171875</v>
+        <v>1196.624755859375</v>
       </c>
       <c r="AO21" s="8">
-        <v>-5.956235222356554E-3</v>
+        <v>-1.5194688112387666E-3</v>
       </c>
       <c r="AP21" s="8">
         <f t="shared" si="14"/>
-        <v>983.123779296875</v>
+        <v>1196.6552734375</v>
       </c>
       <c r="AQ21" s="8">
-        <v>7.7456128252606504E-3</v>
+        <v>8.6862580199067452E-3</v>
       </c>
       <c r="AR21" s="8">
         <f t="shared" si="9"/>
-        <v>983.1085205078125</v>
+        <v>1196.6400146484375</v>
       </c>
       <c r="AS21" s="8">
-        <v>8.945916506490903E-4</v>
+        <v>3.5834304466106914E-3</v>
       </c>
       <c r="AT21" s="8">
         <f t="shared" si="10"/>
-        <v>-5.3283982992222008E-6</v>
+        <v>-5.4449108008683498E-6</v>
       </c>
       <c r="AU21" s="8">
         <f t="shared" si="11"/>
-        <v>6.9291605626386895E-6</v>
+        <v>3.1126601455650129E-5</v>
       </c>
       <c r="AV21" s="8">
         <f t="shared" si="12"/>
@@ -12575,7 +12639,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 1/1000 * (S22 + S17 * (S27 * S24 + $C$20 * SIN(S16/180*PI())))</f>
-        <v>36.375856769129314</v>
+        <v>54.905512329222958</v>
       </c>
       <c r="H22" t="s">
         <v>162</v>
@@ -12584,8 +12648,8 @@
         <v>85</v>
       </c>
       <c r="K22">
-        <f xml:space="preserve"> $C$33 * (0.054 * (0.7*3.28084)^0.501 * ($C$17*2.20462*5.7)^0.684 * 0.453592)</f>
-        <v>18.70032868170539</v>
+        <f xml:space="preserve"> $C$33 * (0.054 * ($C$49*3.28084)^0.501 * ($C$17*2.20462*$C$50)^0.684 * 0.453592)</f>
+        <v>13.991957019077498</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -12625,35 +12689,35 @@
       </c>
       <c r="AC22" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872268676757812</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="0"/>
-        <v>1.4866484568942795E-6</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AE22" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872650146484375</v>
+        <v>0.37438201904296875</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7680632038729058E-6</v>
+        <v>-4.1277277534335077E-6</v>
       </c>
       <c r="AG22" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872459411621094</v>
+        <v>0.37438011169433594</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="3"/>
-        <v>-6.4070853283970663E-7</v>
+        <v>-1.9301529812221219E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="4"/>
-        <v>-9.525083516651477E-13</v>
+        <v>-5.1617062823564891E-13</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="5"/>
-        <v>1.7735217141609872E-12</v>
+        <v>7.967146028962976E-12</v>
       </c>
       <c r="AK22" s="8">
         <f t="shared" si="6"/>
@@ -12664,32 +12728,32 @@
       </c>
       <c r="AN22" s="8">
         <f t="shared" si="13"/>
-        <v>983.09326171875</v>
+        <v>1196.624755859375</v>
       </c>
       <c r="AO22" s="8">
-        <v>-5.956235222356554E-3</v>
+        <v>-1.5194688112387666E-3</v>
       </c>
       <c r="AP22" s="8">
         <f t="shared" si="14"/>
-        <v>983.1085205078125</v>
+        <v>1196.6400146484375</v>
       </c>
       <c r="AQ22" s="8">
-        <v>8.945916506490903E-4</v>
+        <v>3.5834304466106914E-3</v>
       </c>
       <c r="AR22" s="8">
         <f t="shared" si="9"/>
-        <v>983.10089111328125</v>
+        <v>1196.6323852539062</v>
       </c>
       <c r="AS22" s="8">
-        <v>-2.5307502211262545E-3</v>
+        <v>1.0320030197590313E-3</v>
       </c>
       <c r="AT22" s="8">
         <f t="shared" si="10"/>
-        <v>1.5073743606058835E-5</v>
+        <v>-1.5680964016280726E-6</v>
       </c>
       <c r="AU22" s="8">
         <f t="shared" si="11"/>
-        <v>-2.2639880176978864E-6</v>
+        <v>3.6981110419986878E-6</v>
       </c>
       <c r="AV22" s="8">
         <f t="shared" si="12"/>
@@ -12708,7 +12772,7 @@
       </c>
       <c r="G23">
         <f xml:space="preserve"> $C$6 * G22</f>
-        <v>36.375856769129314</v>
+        <v>54.905512329222958</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
@@ -12717,8 +12781,8 @@
         <v>77</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> $C$33 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * 3^0.397 * $C$22^1.712 * 0.453592)</f>
-        <v>141.85634890934588</v>
+        <f xml:space="preserve"> $C$33 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * $C$53^0.397 * $C$22^1.712 * 0.453592)</f>
+        <v>153.36855355081843</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -12728,56 +12792,56 @@
       </c>
       <c r="O23" s="5">
         <f>AG69</f>
-        <v>0.38634714158251882</v>
+        <v>0.40543355094268918</v>
       </c>
       <c r="R23" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="5">
         <f>AG34</f>
-        <v>0.35872401995584369</v>
+        <v>0.37437843671068549</v>
       </c>
       <c r="V23" t="s">
         <v>47</v>
       </c>
       <c r="W23" s="5">
         <f>AG104</f>
-        <v>0.33991006994619966</v>
+        <v>0.3530561369843781</v>
       </c>
       <c r="AB23" s="8">
         <v>19</v>
       </c>
       <c r="AC23" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872268676757812</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="0"/>
-        <v>1.4866484568942795E-6</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AE23" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872459411621094</v>
+        <v>0.37438011169433594</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="1"/>
-        <v>-6.4070853283970663E-7</v>
+        <v>-1.9301529812221219E-6</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872364044189453</v>
+        <v>0.37437915802001953</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="3"/>
-        <v>4.2296967217581027E-7</v>
+        <v>-8.3136449524623401E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="4"/>
-        <v>6.2880721045324763E-13</v>
+        <v>-2.2232742066504519E-13</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7100027809545507E-13</v>
+        <v>1.6046606589817431E-12</v>
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="6"/>
@@ -12788,32 +12852,32 @@
       </c>
       <c r="AN23" s="8">
         <f t="shared" si="13"/>
-        <v>983.10089111328125</v>
+        <v>1196.624755859375</v>
       </c>
       <c r="AO23" s="8">
-        <v>-2.5307502211262545E-3</v>
+        <v>-1.5194688112387666E-3</v>
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="14"/>
-        <v>983.1085205078125</v>
+        <v>1196.6323852539062</v>
       </c>
       <c r="AQ23" s="8">
-        <v>8.945916506490903E-4</v>
+        <v>1.0320030197590313E-3</v>
       </c>
       <c r="AR23" s="8">
         <f t="shared" si="9"/>
-        <v>983.10470581054688</v>
+        <v>1196.6285705566406</v>
       </c>
       <c r="AS23" s="8">
-        <v>-8.1795001653972577E-4</v>
+        <v>-2.4382670721934119E-4</v>
       </c>
       <c r="AT23" s="8">
         <f t="shared" si="10"/>
-        <v>2.0700271852281347E-6</v>
+        <v>3.7048707696683518E-7</v>
       </c>
       <c r="AU23" s="8">
         <f t="shared" si="11"/>
-        <v>-7.3173125544472396E-7</v>
+        <v>-2.516298981482613E-7</v>
       </c>
       <c r="AV23" s="8">
         <f t="shared" si="12"/>
@@ -12835,8 +12899,8 @@
         <v>86</v>
       </c>
       <c r="K24">
-        <f xml:space="preserve"> $C$33 * 0</f>
-        <v>0</v>
+        <f xml:space="preserve"> $C$33 * (3.184 * ($C$17*2.20462)^0.887 * ($C$57*3.28084*3.28084)^0.101 * ($C$56)^0.138 ) / ( 174.04 * ($C$58*3.28084)^0.223 ) * 0.453592</f>
+        <v>12.022582913558791</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -12846,7 +12910,7 @@
       </c>
       <c r="O24">
         <f xml:space="preserve"> O18 * $C$19 * O23 - $G$11 * SIN(O16/180*PI())</f>
-        <v>6.526519309179335</v>
+        <v>8.3253710120588948</v>
       </c>
       <c r="P24" t="s">
         <v>16</v>
@@ -12856,7 +12920,7 @@
       </c>
       <c r="S24">
         <f xml:space="preserve"> S18 * $C$19 * S23 - $C$20 * SIN(S16/180*PI())</f>
-        <v>3.9231014300319345</v>
+        <v>5.3984954502292553</v>
       </c>
       <c r="T24" t="s">
         <v>16</v>
@@ -12866,7 +12930,7 @@
       </c>
       <c r="W24">
         <f xml:space="preserve"> W18 * $C$19 * W23 - $G$27 * SIN(W16/180*PI())</f>
-        <v>2.1499284159728376</v>
+        <v>3.3889160448950477</v>
       </c>
       <c r="X24" t="s">
         <v>16</v>
@@ -12876,35 +12940,35 @@
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872364044189453</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="0"/>
-        <v>4.2296967217581027E-7</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872459411621094</v>
+        <v>0.37437915802001953</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.4070853283970663E-7</v>
+        <v>-8.3136449524623401E-7</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872411727905273</v>
+        <v>0.37437868118286133</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="3"/>
-        <v>-1.0886950280175611E-7</v>
+        <v>-2.8196997731155804E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.6048497910002244E-14</v>
+        <v>-7.5405743352189406E-14</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="5"/>
-        <v>6.9753619411101486E-14</v>
+        <v>2.3441982786221549E-13</v>
       </c>
       <c r="AK24" s="8">
         <f t="shared" si="6"/>
@@ -12915,32 +12979,32 @@
       </c>
       <c r="AN24" s="8">
         <f t="shared" si="13"/>
-        <v>983.10470581054688</v>
+        <v>1196.6285705566406</v>
       </c>
       <c r="AO24" s="8">
-        <v>-8.1795001653972577E-4</v>
+        <v>-2.4382670721934119E-4</v>
       </c>
       <c r="AP24" s="8">
         <f t="shared" si="14"/>
-        <v>983.1085205078125</v>
+        <v>1196.6323852539062</v>
       </c>
       <c r="AQ24" s="8">
-        <v>8.945916506490903E-4</v>
+        <v>1.0320030197590313E-3</v>
       </c>
       <c r="AR24" s="8">
         <f t="shared" si="9"/>
-        <v>983.10661315917969</v>
+        <v>1196.6304779052734</v>
       </c>
       <c r="AS24" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>3.9420057964889565E-4</v>
       </c>
       <c r="AT24" s="8">
         <f t="shared" si="10"/>
-        <v>-3.1396734957012461E-8</v>
+        <v>-9.6116629319745862E-8</v>
       </c>
       <c r="AU24" s="8">
         <f t="shared" si="11"/>
-        <v>3.4338598181104927E-8</v>
+        <v>4.0681618858842085E-7</v>
       </c>
       <c r="AV24" s="8">
         <f t="shared" si="12"/>
@@ -12958,8 +13022,8 @@
         <v>87</v>
       </c>
       <c r="K25">
-        <f xml:space="preserve"> $C$33 * 0</f>
-        <v>0</v>
+        <f xml:space="preserve"> $C$33 * ( 1.68 * ($C$17*2.20462)^0.567 * ($C$62*3.28084*3.28084)^1.249 * ($C$61)^0.482 ) / (639.95 * ($C$63*3.28084)^0.747 * (COS($C$64/180*PI()))^0.882 ) * 0.453592</f>
+        <v>5.9442535331194115</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -12969,56 +13033,56 @@
       </c>
       <c r="O25">
         <f xml:space="preserve"> 1/$C$9 - O22 * SQRT( (2*$C$30*PI()*$C$19^2) / O17^3 )</f>
-        <v>1.3110593126757131</v>
+        <v>1.3189467936896213</v>
       </c>
       <c r="R25" t="s">
         <v>49</v>
       </c>
       <c r="S25">
         <f xml:space="preserve"> 1/$C$9 - S22 * SQRT( (2*$C$30*PI()*$C$19^2) / S17^3 )</f>
-        <v>1.2799463349865809</v>
+        <v>1.3023017633810059</v>
       </c>
       <c r="V25" t="s">
         <v>49</v>
       </c>
       <c r="W25">
         <f xml:space="preserve"> 1/$C$9 - W22 * SQRT( (2*$C$30*PI()*$C$19^2) / W17^3 )</f>
-        <v>1.1907337607127801</v>
+        <v>1.2652405705263301</v>
       </c>
       <c r="AB25" s="8">
         <v>21</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872364044189453</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="0"/>
-        <v>4.2296967217581027E-7</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872411727905273</v>
+        <v>0.37437868118286133</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0886950280175611E-7</v>
+        <v>-2.8196997731155804E-7</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872387886047363</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="3"/>
-        <v>1.5705006661814735E-7</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="4"/>
-        <v>6.642741519266695E-14</v>
+        <v>-1.9448863101617703E-15</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7097962667700379E-14</v>
+        <v>2.0506688409190112E-15</v>
       </c>
       <c r="AK25" s="8">
         <f t="shared" si="6"/>
@@ -13029,32 +13093,32 @@
       </c>
       <c r="AN25" s="8">
         <f t="shared" si="13"/>
-        <v>983.10470581054688</v>
+        <v>1196.6285705566406</v>
       </c>
       <c r="AO25" s="8">
-        <v>-8.1795001653972577E-4</v>
+        <v>-2.4382670721934119E-4</v>
       </c>
       <c r="AP25" s="8">
         <f t="shared" si="14"/>
-        <v>983.10661315917969</v>
+        <v>1196.6304779052734</v>
       </c>
       <c r="AQ25" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>3.9420057964889565E-4</v>
       </c>
       <c r="AR25" s="8">
         <f t="shared" si="9"/>
-        <v>983.10565948486328</v>
+        <v>1196.629524230957</v>
       </c>
       <c r="AS25" s="8">
-        <v>-3.8977341012014222E-4</v>
+        <v>7.5283127557668195E-5</v>
       </c>
       <c r="AT25" s="8">
         <f t="shared" si="10"/>
-        <v>3.1881516725451565E-7</v>
+        <v>-1.835603710155988E-8</v>
       </c>
       <c r="AU25" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4961320622748189E-8</v>
+        <v>2.9676652521014552E-8</v>
       </c>
       <c r="AV25" s="8">
         <f t="shared" si="12"/>
@@ -13065,23 +13129,24 @@
       <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="47">
+        <f>C44*100</f>
         <v>400</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="15" t="s">
         <v>88</v>
       </c>
       <c r="K26">
         <f xml:space="preserve"> $C$33 * (0.0268 * $C$17)</f>
-        <v>21.077803955240526</v>
+        <v>25.65573218206584</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -13109,35 +13174,35 @@
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872387886047363</v>
+        <v>0.37437820434570312</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="0"/>
-        <v>1.5705006661814735E-7</v>
+        <v>2.6742472397645045E-7</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872411727905273</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0886950280175611E-7</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872399806976318</v>
+        <v>0.37437832355499268</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="3"/>
-        <v>2.4090277384036796E-8</v>
+        <v>1.300760315015026E-7</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="4"/>
-        <v>3.7833796680126271E-15</v>
+        <v>3.4785546820241404E-14</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="5"/>
-        <v>-2.622696521156476E-15</v>
+        <v>-9.4599739764421094E-16</v>
       </c>
       <c r="AK26" s="8">
         <f t="shared" si="6"/>
@@ -13148,32 +13213,32 @@
       </c>
       <c r="AN26" s="8">
         <f t="shared" si="13"/>
-        <v>983.10565948486328</v>
+        <v>1196.6285705566406</v>
       </c>
       <c r="AO26" s="8">
-        <v>-3.8977341012014222E-4</v>
+        <v>-2.4382670721934119E-4</v>
       </c>
       <c r="AP26" s="8">
         <f t="shared" si="14"/>
-        <v>983.10661315917969</v>
+        <v>1196.629524230957</v>
       </c>
       <c r="AQ26" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>7.5283127557668195E-5</v>
       </c>
       <c r="AR26" s="8">
         <f t="shared" si="9"/>
-        <v>983.10613632202148</v>
+        <v>1196.6290473937988</v>
       </c>
       <c r="AS26" s="8">
-        <v>-1.7583087299044564E-4</v>
+        <v>-8.4461287656267814E-5</v>
       </c>
       <c r="AT26" s="8">
         <f t="shared" si="10"/>
-        <v>6.8534198969887612E-8</v>
+        <v>2.0593917656733369E-8</v>
       </c>
       <c r="AU26" s="8">
         <f t="shared" si="11"/>
-        <v>-6.749208637338569E-9</v>
+        <v>-6.3585098923117162E-9</v>
       </c>
       <c r="AV26" s="8">
         <f t="shared" si="12"/>
@@ -13205,7 +13270,7 @@
       </c>
       <c r="K27">
         <f xml:space="preserve"> $C$33 * (11.5 * ($C$17*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>5.6862630002723114</v>
+        <v>6.1513517779440274</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -13215,56 +13280,56 @@
       </c>
       <c r="O27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * O25) + EXP($C$36 * O26) )</f>
-        <v>1.3113240030682365</v>
+        <v>1.3191558850642338</v>
       </c>
       <c r="R27" t="s">
         <v>51</v>
       </c>
       <c r="S27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * S25) + EXP($C$36 * S26) )</f>
-        <v>1.2806153927993775</v>
+        <v>1.3026455766348668</v>
       </c>
       <c r="V27" t="s">
         <v>51</v>
       </c>
       <c r="W27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * W25) + EXP($C$36 * W26) )</f>
-        <v>1.1993414265605467</v>
+        <v>1.2662749329529661</v>
       </c>
       <c r="AB27" s="8">
         <v>23</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872399806976318</v>
+        <v>0.37437832355499268</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="0"/>
-        <v>2.4090277384036796E-8</v>
+        <v>1.300760315015026E-7</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872411727905273</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0886950280175611E-7</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872405767440796</v>
+        <v>0.37437838315963745</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="3"/>
-        <v>-4.2389613819082683E-8</v>
+        <v>6.1401689510631741E-8</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0211775551039013E-15</v>
+        <v>7.9868880990304152E-15</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="5"/>
-        <v>4.6149361804419821E-15</v>
+        <v>-4.4655297226948753E-16</v>
       </c>
       <c r="AK27" s="8">
         <f t="shared" si="6"/>
@@ -13275,32 +13340,32 @@
       </c>
       <c r="AN27" s="8">
         <f t="shared" si="13"/>
-        <v>983.10613632202148</v>
+        <v>1196.6290473937988</v>
       </c>
       <c r="AO27" s="8">
-        <v>-1.7583087299044564E-4</v>
+        <v>-8.4461287656267814E-5</v>
       </c>
       <c r="AP27" s="8">
         <f t="shared" si="14"/>
-        <v>983.10661315917969</v>
+        <v>1196.629524230957</v>
       </c>
       <c r="AQ27" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>7.5283127557668195E-5</v>
       </c>
       <c r="AR27" s="8">
         <f t="shared" si="9"/>
-        <v>983.10637474060059</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AS27" s="8">
-        <v>-6.8649941908915935E-5</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AT27" s="8">
         <f t="shared" si="10"/>
-        <v>1.2070779216588068E-8</v>
+        <v>3.9549441970424197E-10</v>
       </c>
       <c r="AU27" s="8">
         <f t="shared" si="11"/>
-        <v>-2.6351048197868137E-9</v>
+        <v>-3.5251720253321165E-10</v>
       </c>
       <c r="AV27" s="8">
         <f t="shared" si="12"/>
@@ -13322,7 +13387,7 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> $C$33 * (8 * ($C$17/1000))</f>
-        <v>6.2918817776837388</v>
+        <v>7.6584275170345792</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -13332,35 +13397,35 @@
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872399806976318</v>
+        <v>0.37437838315963745</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="0"/>
-        <v>2.4090277384036796E-8</v>
+        <v>6.1401689510631741E-8</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872405767440796</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="1"/>
-        <v>-4.2389613819082683E-8</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872402787208557</v>
+        <v>0.37437841296195984</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="3"/>
-        <v>-9.1496685228342756E-9</v>
+        <v>2.7064519625419337E-8</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2041805268706791E-16</v>
+        <v>1.6618072307943973E-15</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="5"/>
-        <v>3.8785091525556166E-16</v>
+        <v>-1.9683076765638881E-16</v>
       </c>
       <c r="AK28" s="8">
         <f t="shared" si="6"/>
@@ -13371,32 +13436,32 @@
       </c>
       <c r="AN28" s="8">
         <f t="shared" si="13"/>
-        <v>983.10637474060059</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AO28" s="8">
-        <v>-6.8649941908915935E-5</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AP28" s="8">
         <f t="shared" si="14"/>
-        <v>983.10661315917969</v>
+        <v>1196.629524230957</v>
       </c>
       <c r="AQ28" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>7.5283127557668195E-5</v>
       </c>
       <c r="AR28" s="8">
         <f t="shared" si="9"/>
-        <v>983.10649394989014</v>
+        <v>1196.6294050216675</v>
       </c>
       <c r="AS28" s="8">
-        <v>-1.5141787343964097E-5</v>
+        <v>3.5281908026263409E-5</v>
       </c>
       <c r="AT28" s="8">
         <f t="shared" si="10"/>
-        <v>1.0394828215602938E-9</v>
+        <v>-1.6520938915462985E-10</v>
       </c>
       <c r="AU28" s="8">
         <f t="shared" si="11"/>
-        <v>-5.8121239000035796E-10</v>
+        <v>2.6561323824191057E-9</v>
       </c>
       <c r="AV28" s="8">
         <f t="shared" si="12"/>
@@ -13423,7 +13488,7 @@
       </c>
       <c r="K29">
         <f xml:space="preserve"> $C$33 * (13 * ($C$17*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>12.894762429061593</v>
+        <v>16.648691791342085</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -13433,35 +13498,35 @@
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872399806976318</v>
+        <v>0.37437841296195984</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="0"/>
-        <v>2.4090277384036796E-8</v>
+        <v>2.7064519625419337E-8</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402787208557</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1496685228342756E-9</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872401297092438</v>
+        <v>0.37437842786312103</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="3"/>
-        <v>7.4703043750901088E-9</v>
+        <v>9.8959349048577394E-9</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="4"/>
-        <v>1.7996170453910438E-16</v>
+        <v>2.678287244443945E-16</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="5"/>
-        <v>-6.8350808796753142E-17</v>
+        <v>-7.1969666964692055E-17</v>
       </c>
       <c r="AK29" s="8">
         <f t="shared" si="6"/>
@@ -13472,32 +13537,32 @@
       </c>
       <c r="AN29" s="8">
         <f t="shared" si="13"/>
-        <v>983.10649394989014</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AO29" s="8">
-        <v>-1.5141787343964097E-5</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AP29" s="8">
         <f t="shared" si="14"/>
-        <v>983.10661315917969</v>
+        <v>1196.6294050216675</v>
       </c>
       <c r="AQ29" s="8">
-        <v>3.8384662047974416E-5</v>
+        <v>3.5281908026263409E-5</v>
       </c>
       <c r="AR29" s="8">
         <f t="shared" si="9"/>
-        <v>983.10655355453491</v>
+        <v>1196.6293454170227</v>
       </c>
       <c r="AS29" s="8">
-        <v>1.1494058298922027E-5</v>
+        <v>1.5222008300952439E-5</v>
       </c>
       <c r="AT29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7404058648140305E-10</v>
+        <v>-7.127785411251166E-11</v>
       </c>
       <c r="AU29" s="8">
         <f t="shared" si="11"/>
-        <v>4.4119554336383772E-10</v>
+        <v>5.3706149684922207E-10</v>
       </c>
       <c r="AV29" s="8">
         <f t="shared" si="12"/>
@@ -13529,7 +13594,7 @@
       </c>
       <c r="K30" s="3">
         <f>$C$17 - $C$26 - SUM(K17:K29)</f>
-        <v>6.6449956648284569E-10</v>
+        <v>-3.4685854188865051E-10</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>12</v>
@@ -13539,35 +13604,35 @@
       </c>
       <c r="AC30" s="8">
         <f>IF(AI29&gt;0, AG29, AC29)</f>
-        <v>0.35872401297092438</v>
+        <v>0.37437842786312103</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="0"/>
-        <v>7.4703043750901088E-9</v>
+        <v>9.8959349048577394E-9</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402787208557</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1496685228342756E-9</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872402042150497</v>
+        <v>0.37437843531370163</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="3"/>
-        <v>-8.3968210162765899E-10</v>
+        <v>1.3116426833548189E-9</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="4"/>
-        <v>-6.2726808774739584E-18</v>
+        <v>1.297993061291222E-17</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="5"/>
-        <v>7.6828128944499227E-18</v>
+        <v>-9.5391176281265558E-18</v>
       </c>
       <c r="AK30" s="8">
         <f t="shared" si="6"/>
@@ -13578,32 +13643,32 @@
       </c>
       <c r="AN30" s="8">
         <f t="shared" si="13"/>
-        <v>983.10649394989014</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AO30" s="8">
-        <v>-1.5141787343964097E-5</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AP30" s="8">
         <f t="shared" si="14"/>
-        <v>983.10655355453491</v>
+        <v>1196.6293454170227</v>
       </c>
       <c r="AQ30" s="8">
-        <v>1.1494058298922027E-5</v>
+        <v>1.5222008300952439E-5</v>
       </c>
       <c r="AR30" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652375221252</v>
+        <v>1196.6293156147003</v>
       </c>
       <c r="AS30" s="8">
-        <v>-1.7507079519418767E-6</v>
+        <v>5.3632094250133377E-6</v>
       </c>
       <c r="AT30" s="8">
         <f t="shared" si="10"/>
-        <v>2.6508847509690813E-11</v>
+        <v>-2.5113510084410422E-11</v>
       </c>
       <c r="AU30" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0122739264006314E-11</v>
+        <v>8.1638818387299383E-11</v>
       </c>
       <c r="AV30" s="8">
         <f t="shared" si="12"/>
@@ -13642,35 +13707,35 @@
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872401297092438</v>
+        <v>0.37437843531370163</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="0"/>
-        <v>7.4703043750901088E-9</v>
+        <v>1.3116426833548189E-9</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402042150497</v>
+        <v>0.37437844276428223</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3968210162765899E-10</v>
+        <v>-7.2726495936592528E-9</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872401669621468</v>
+        <v>0.37437843903899193</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="3"/>
-        <v>3.3153111367312249E-9</v>
+        <v>-2.9805034551522169E-9</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="4"/>
-        <v>2.4766383289508231E-17</v>
+        <v>-3.909355549664163E-18</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7838074228400581E-18</v>
+        <v>2.1676157242012769E-17</v>
       </c>
       <c r="AK31" s="8">
         <f t="shared" si="6"/>
@@ -13681,32 +13746,32 @@
       </c>
       <c r="AN31" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652375221252</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AO31" s="8">
-        <v>-1.7507079519418767E-6</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AP31" s="8">
         <f t="shared" si="14"/>
-        <v>983.10655355453491</v>
+        <v>1196.6293156147003</v>
       </c>
       <c r="AQ31" s="8">
-        <v>1.1494058298922027E-5</v>
+        <v>5.3632094250133377E-6</v>
       </c>
       <c r="AR31" s="8">
         <f t="shared" si="9"/>
-        <v>983.10653865337372</v>
+        <v>1196.6293007135391</v>
       </c>
       <c r="AS31" s="8">
-        <v>4.8801892944538849E-6</v>
+        <v>4.3638010538415983E-7</v>
       </c>
       <c r="AT31" s="8">
         <f t="shared" si="10"/>
-        <v>-8.543786204782033E-12</v>
+        <v>-2.043372784603489E-12</v>
       </c>
       <c r="AU31" s="8">
         <f t="shared" si="11"/>
-        <v>5.609318026022811E-11</v>
+        <v>2.3403978940846396E-12</v>
       </c>
       <c r="AV31" s="8">
         <f t="shared" si="12"/>
@@ -13738,35 +13803,35 @@
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872401669621468</v>
+        <v>0.37437843531370163</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="0"/>
-        <v>3.3153111367312249E-9</v>
+        <v>1.3116426833548189E-9</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402042150497</v>
+        <v>0.37437843903899193</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3968210162765899E-10</v>
+        <v>-2.9805034551522169E-9</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872401855885983</v>
+        <v>0.37437843717634678</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="3"/>
-        <v>1.237814517551783E-9</v>
+        <v>-8.3443041365427462E-10</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="4"/>
-        <v>4.1037402552470143E-18</v>
+        <v>-1.0944745468383643E-18</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0393706955231079E-18</v>
+        <v>2.4870227309806591E-18</v>
       </c>
       <c r="AK32" s="8">
         <f t="shared" si="6"/>
@@ -13777,32 +13842,32 @@
       </c>
       <c r="AN32" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652375221252</v>
+        <v>1196.6292858123779</v>
       </c>
       <c r="AO32" s="8">
-        <v>-1.7507079519418767E-6</v>
+        <v>-4.6825525714666583E-6</v>
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="14"/>
-        <v>983.10653865337372</v>
+        <v>1196.6293007135391</v>
       </c>
       <c r="AQ32" s="8">
-        <v>4.8801892944538849E-6</v>
+        <v>4.3638010538415983E-7</v>
       </c>
       <c r="AR32" s="8">
         <f t="shared" si="9"/>
-        <v>983.10653120279312</v>
+        <v>1196.6292932629585</v>
       </c>
       <c r="AS32" s="8">
-        <v>1.483070150243293E-6</v>
+        <v>-2.1414681441456196E-6</v>
       </c>
       <c r="AT32" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5964227053185669E-12</v>
+        <v>1.0027537165083003E-11</v>
       </c>
       <c r="AU32" s="8">
         <f t="shared" si="11"/>
-        <v>7.2376630701414333E-12</v>
+        <v>-9.3449409441908666E-13</v>
       </c>
       <c r="AV32" s="8">
         <f t="shared" si="12"/>
@@ -13821,7 +13886,7 @@
       </c>
       <c r="G33">
         <f>1/1000 * (W22 + W17 * (W27 * W24 + $G$27 * SIN(W16/180*PI())))</f>
-        <v>17.897758511303511</v>
+        <v>30.385780789171172</v>
       </c>
       <c r="H33" t="s">
         <v>162</v>
@@ -13836,35 +13901,35 @@
       </c>
       <c r="AC33" s="8">
         <f t="shared" si="7"/>
-        <v>0.35872401855885983</v>
+        <v>0.37437843531370163</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="0"/>
-        <v>1.237814517551783E-9</v>
+        <v>1.3116426833548189E-9</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402042150497</v>
+        <v>0.37437843717634678</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3968210162765899E-10</v>
+        <v>-8.3443041365427462E-10</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="2"/>
-        <v>0.3587240194901824</v>
+        <v>0.3743784362450242</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="3"/>
-        <v>1.9906620796206198E-10</v>
+        <v>2.3860613485027216E-10</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="4"/>
-        <v>2.4640704216942265E-19</v>
+        <v>3.1296599097993275E-19</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6715233186463283E-19</v>
+        <v>-1.9910021580356023E-19</v>
       </c>
       <c r="AK33" s="8">
         <f t="shared" si="6"/>
@@ -13875,32 +13940,32 @@
       </c>
       <c r="AN33" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652375221252</v>
+        <v>1196.6292932629585</v>
       </c>
       <c r="AO33" s="8">
-        <v>-1.7507079519418767E-6</v>
+        <v>-2.1414681441456196E-6</v>
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="14"/>
-        <v>983.10653120279312</v>
+        <v>1196.6293007135391</v>
       </c>
       <c r="AQ33" s="8">
-        <v>1.483070150243293E-6</v>
+        <v>4.3638010538415983E-7</v>
       </c>
       <c r="AR33" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652747750282</v>
+        <v>1196.6292969882488</v>
       </c>
       <c r="AS33" s="8">
-        <v>-1.3445401236822363E-7</v>
+        <v>-9.4602523859066423E-7</v>
       </c>
       <c r="AT33" s="8">
         <f t="shared" si="10"/>
-        <v>2.3538970862354055E-13</v>
+        <v>2.0258829119996667E-12</v>
       </c>
       <c r="AU33" s="8">
         <f t="shared" si="11"/>
-        <v>-1.99404732323755E-13</v>
+        <v>-4.1282659331226901E-13</v>
       </c>
       <c r="AV33" s="8">
         <f t="shared" si="12"/>
@@ -13913,7 +13978,7 @@
       </c>
       <c r="G34">
         <f>$C$6*G33</f>
-        <v>17.897758511303511</v>
+        <v>30.385780789171172</v>
       </c>
       <c r="H34" t="s">
         <v>162</v>
@@ -13923,7 +13988,7 @@
       </c>
       <c r="K34">
         <f>ROUND($C$26/$C$17 * 100, 2)</f>
-        <v>40.69</v>
+        <v>33.43</v>
       </c>
       <c r="L34" t="s">
         <v>82</v>
@@ -13933,35 +13998,35 @@
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="7"/>
-        <v>0.3587240194901824</v>
+        <v>0.3743784362450242</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="0"/>
-        <v>1.9906620796206198E-10</v>
+        <v>2.3860613485027216E-10</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" si="8"/>
-        <v>0.35872402042150497</v>
+        <v>0.37437843717634678</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3968210162765899E-10</v>
+        <v>-8.3443041365427462E-10</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" si="2"/>
-        <v>0.35872401995584369</v>
+        <v>0.37437843671068549</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="3"/>
-        <v>-3.2030794683279851E-10</v>
+        <v>-2.9791213940200123E-10</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="4"/>
-        <v>-6.376248835611896E-20</v>
+        <v>-7.1083664107686982E-20</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="5"/>
-        <v>2.6895684996460471E-19</v>
+        <v>2.4858694971384181E-19</v>
       </c>
       <c r="AK34" s="8">
         <f t="shared" si="6"/>
@@ -13972,32 +14037,32 @@
       </c>
       <c r="AN34" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652747750282</v>
+        <v>1196.6292969882488</v>
       </c>
       <c r="AO34" s="8">
-        <v>-1.3445401236822363E-7</v>
+        <v>-9.4602523859066423E-7</v>
       </c>
       <c r="AP34" s="8">
         <f t="shared" si="14"/>
-        <v>983.10653120279312</v>
+        <v>1196.6293007135391</v>
       </c>
       <c r="AQ34" s="8">
-        <v>1.483070150243293E-6</v>
+        <v>4.3638010538415983E-7</v>
       </c>
       <c r="AR34" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652934014797</v>
+        <v>1196.629298850894</v>
       </c>
       <c r="AS34" s="8">
-        <v>6.0178695093782153E-7</v>
+        <v>-2.5482268029008992E-7</v>
       </c>
       <c r="AT34" s="8">
         <f t="shared" si="10"/>
-        <v>-8.0912670144429443E-14</v>
+        <v>2.4106868691974487E-13</v>
       </c>
       <c r="AU34" s="8">
         <f t="shared" si="11"/>
-        <v>8.9249226374180819E-13</v>
+        <v>-1.1119954807926351E-13</v>
       </c>
       <c r="AV34" s="8">
         <f t="shared" si="12"/>
@@ -14025,7 +14090,7 @@
       </c>
       <c r="K35">
         <f>ROUND(K17/$C$17 * 100, 2)</f>
-        <v>11.24</v>
+        <v>14.43</v>
       </c>
       <c r="L35" t="s">
         <v>82</v>
@@ -14035,32 +14100,32 @@
       </c>
       <c r="AN35" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652747750282</v>
+        <v>1196.629298850894</v>
       </c>
       <c r="AO35">
-        <v>-1.3445401236822363E-7</v>
+        <v>-2.5482268029008992E-7</v>
       </c>
       <c r="AP35" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652934014797</v>
+        <v>1196.6293007135391</v>
       </c>
       <c r="AQ35">
-        <v>6.0178695093782153E-7</v>
+        <v>4.3638010538415983E-7</v>
       </c>
       <c r="AR35" s="8">
         <f t="shared" si="9"/>
-        <v>983.1065284088254</v>
+        <v>1196.6292997822165</v>
       </c>
       <c r="AS35">
-        <v>1.6114495338115375E-7</v>
+        <v>9.0778598860197235E-8</v>
       </c>
       <c r="AT35" s="8">
         <f t="shared" si="10"/>
-        <v>-2.1666585554986467E-14</v>
+        <v>-2.3132445874534361E-14</v>
       </c>
       <c r="AU35" s="8">
         <f t="shared" si="11"/>
-        <v>9.6974930154261912E-14</v>
+        <v>3.9613974537239241E-14</v>
       </c>
       <c r="AV35" s="8">
         <f t="shared" si="12"/>
@@ -14079,7 +14144,7 @@
       </c>
       <c r="K36">
         <f>ROUND(SUM(K18:K20)/$C$17 * 100, 2)</f>
-        <v>15.46</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="L36" t="s">
         <v>82</v>
@@ -14089,32 +14154,32 @@
       </c>
       <c r="AN36" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652747750282</v>
+        <v>1196.629298850894</v>
       </c>
       <c r="AO36">
-        <v>-1.3445401236822363E-7</v>
+        <v>-2.5482268029008992E-7</v>
       </c>
       <c r="AP36" s="8">
         <f t="shared" si="14"/>
-        <v>983.1065284088254</v>
+        <v>1196.6292997822165</v>
       </c>
       <c r="AQ36">
-        <v>1.6114495338115375E-7</v>
+        <v>9.0778598860197235E-8</v>
       </c>
       <c r="AR36" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652794316411</v>
+        <v>1196.6292993165553</v>
       </c>
       <c r="AS36">
-        <v>8.5866872723272536E-8</v>
+        <v>-8.2022097558365203E-8</v>
       </c>
       <c r="AT36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.154514556715557E-14</v>
+        <v>2.0901090742837861E-14</v>
       </c>
       <c r="AU36" s="8">
         <f t="shared" si="11"/>
-        <v>1.3837013201977216E-14</v>
+        <v>-7.4458510919227979E-15</v>
       </c>
       <c r="AV36" s="8">
         <f t="shared" si="12"/>
@@ -14132,7 +14197,7 @@
       </c>
       <c r="K37">
         <f>ROUND(SUM(K21:K25)/$C$17 * 100, 2)</f>
-        <v>27.94</v>
+        <v>29.31</v>
       </c>
       <c r="L37" t="s">
         <v>82</v>
@@ -14145,32 +14210,32 @@
       </c>
       <c r="AN37" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652747750282</v>
+        <v>1196.6292993165553</v>
       </c>
       <c r="AO37">
-        <v>-1.3445401236822363E-7</v>
+        <v>-8.2022097558365203E-8</v>
       </c>
       <c r="AP37" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652794316411</v>
+        <v>1196.6292997822165</v>
       </c>
       <c r="AQ37">
-        <v>8.5866872723272536E-8</v>
+        <v>9.0778598860197235E-8</v>
       </c>
       <c r="AR37" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652771033347</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AS37">
-        <v>-2.4293512979056686E-8</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AT37" s="8">
         <f t="shared" si="10"/>
-        <v>3.266360294553689E-15</v>
+        <v>-3.5911796444085675E-16</v>
       </c>
       <c r="AU37" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0860079869738299E-15</v>
+        <v>3.9745661971482103E-16</v>
       </c>
       <c r="AV37" s="8">
         <f t="shared" si="12"/>
@@ -14178,6 +14243,11 @@
       </c>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="F38" t="s">
         <v>117</v>
       </c>
@@ -14192,7 +14262,7 @@
       </c>
       <c r="K38">
         <f>ROUND(SUM(K26:K29)/$C$17*100, 2)</f>
-        <v>4.67</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L38" t="s">
         <v>82</v>
@@ -14232,32 +14302,32 @@
       </c>
       <c r="AN38" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652771033347</v>
+        <v>1196.6292993165553</v>
       </c>
       <c r="AO38">
-        <v>-2.4293512979056686E-8</v>
+        <v>-8.2022097558365203E-8</v>
       </c>
       <c r="AP38" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652794316411</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AQ38">
-        <v>8.5866872723272536E-8</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AR38" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652782674879</v>
+        <v>1196.6292994329706</v>
       </c>
       <c r="AS38">
-        <v>3.0786736715526786E-8</v>
+        <v>-3.8821781345177442E-8</v>
       </c>
       <c r="AT38" s="8">
         <f t="shared" si="10"/>
-        <v>-7.4791798798145098E-16</v>
+        <v>3.1842439368836665E-15</v>
       </c>
       <c r="AU38" s="8">
         <f t="shared" si="11"/>
-        <v>2.6435608031170401E-15</v>
+        <v>-1.699736962070203E-16</v>
       </c>
       <c r="AV38" s="8">
         <f t="shared" si="12"/>
@@ -14265,6 +14335,12 @@
       </c>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
       <c r="F39" t="s">
         <v>123</v>
       </c>
@@ -14279,7 +14355,7 @@
       </c>
       <c r="K39" s="3">
         <f>SUM(K34:K38)</f>
-        <v>100</v>
+        <v>100.00999999999999</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>82</v>
@@ -14292,14 +14368,14 @@
       </c>
       <c r="AD39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC39^2)) - AC39</f>
-        <v>1.2839480987213301</v>
+        <v>1.6110572204093649</v>
       </c>
       <c r="AE39" s="9">
         <v>1</v>
       </c>
       <c r="AF39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE39^2)) - AE39</f>
-        <v>-0.65608884011503554</v>
+        <v>-0.64701749420479282</v>
       </c>
       <c r="AG39" s="8">
         <f xml:space="preserve"> (AC39 + AE39)/2</f>
@@ -14307,15 +14383,15 @@
       </c>
       <c r="AH39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG39^2)) - AG39</f>
-        <v>-0.12933805541659193</v>
+        <v>-0.11121625657804707</v>
       </c>
       <c r="AI39" s="8">
         <f>AD39*AH39</f>
-        <v>-0.16606335034444725</v>
+        <v>-0.17917575318696327</v>
       </c>
       <c r="AJ39" s="8">
         <f>AF39*AH39</f>
-        <v>8.4857254761005987E-2</v>
+        <v>7.1958863645965321E-2</v>
       </c>
       <c r="AK39" s="8">
         <f>AE39-AC39</f>
@@ -14326,32 +14402,32 @@
       </c>
       <c r="AN39" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652771033347</v>
+        <v>1196.6292994329706</v>
       </c>
       <c r="AO39">
-        <v>-2.4293512979056686E-8</v>
+        <v>-3.8821781345177442E-8</v>
       </c>
       <c r="AP39" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652782674879</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AQ39">
-        <v>3.0786736715526786E-8</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AR39" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652776854113</v>
+        <v>1196.6292994911782</v>
       </c>
       <c r="AS39">
-        <v>3.2464413379784673E-9</v>
+        <v>-1.7221850612259004E-8</v>
       </c>
       <c r="AT39" s="8">
         <f t="shared" si="10"/>
-        <v>-7.886746477992605E-17</v>
+        <v>6.6858291882842932E-16</v>
       </c>
       <c r="AU39" s="8">
         <f t="shared" si="11"/>
-        <v>9.9947334734745583E-17</v>
+        <v>-7.540255760196928E-17</v>
       </c>
       <c r="AV39" s="8">
         <f t="shared" si="12"/>
@@ -14359,12 +14435,18 @@
       </c>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
       <c r="F40" t="s">
         <v>115</v>
       </c>
       <c r="G40">
         <f xml:space="preserve"> 1/1000 * IF( $G$38&gt;=2*SQRT(($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18)), ($C$17*$C$31)/$C$9 * ( ($G$38/2) - SQRT( ($G$38/2)^2 - ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) ), 1/$C$9 * SQRT(($C$17*$C$31)^3/(2*$C$30*$C$5*PI()*$C$18*$C$18)) )</f>
-        <v>185.73212001178592</v>
+        <v>305.47187055985864</v>
       </c>
       <c r="H40" t="s">
         <v>162</v>
@@ -14378,7 +14460,7 @@
       </c>
       <c r="AD40" s="8">
         <f t="shared" ref="AD40:AD69" si="15" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC40^2)) - AC40</f>
-        <v>1.2839480987213301</v>
+        <v>1.6110572204093649</v>
       </c>
       <c r="AE40" s="8">
         <f>IF(AJ39&gt;0, AG39, AE39)</f>
@@ -14386,7 +14468,7 @@
       </c>
       <c r="AF40" s="8">
         <f t="shared" ref="AF40:AF69" si="16" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE40^2)) - AE40</f>
-        <v>-0.12933805541659193</v>
+        <v>-0.11121625657804707</v>
       </c>
       <c r="AG40" s="8">
         <f t="shared" ref="AG40:AG69" si="17" xml:space="preserve"> (AC40 + AE40)/2</f>
@@ -14394,15 +14476,15 @@
       </c>
       <c r="AH40" s="8">
         <f t="shared" ref="AH40:AH69" si="18" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG40^2)) - AG40</f>
-        <v>0.17373546727399958</v>
+        <v>0.20981335316812566</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" ref="AI40:AI69" si="19">AD40*AH40</f>
-        <v>0.22306732288691361</v>
+        <v>0.33802131755980896</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" ref="AJ40:AJ69" si="20">AF40*AH40</f>
-        <v>-2.2470607494112053E-2</v>
+        <v>-2.3334655719446668E-2</v>
       </c>
       <c r="AK40" s="8">
         <f t="shared" ref="AK40:AK69" si="21">AE40-AC40</f>
@@ -14413,32 +14495,32 @@
       </c>
       <c r="AN40" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652771033347</v>
+        <v>1196.6292994911782</v>
       </c>
       <c r="AO40">
-        <v>-2.4293512979056686E-8</v>
+        <v>-1.7221850612259004E-8</v>
       </c>
       <c r="AP40" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652776854113</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AQ40">
-        <v>3.2464413379784673E-9</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AR40" s="8">
         <f t="shared" si="9"/>
-        <v>983.1065277394373</v>
+        <v>1196.6292995202821</v>
       </c>
       <c r="AS40">
-        <v>-1.0523535820539109E-8</v>
+        <v>-6.4216010287054814E-9</v>
       </c>
       <c r="AT40" s="8">
         <f t="shared" si="10"/>
-        <v>2.5565365404183481E-16</v>
+        <v>1.1059185360789455E-16</v>
       </c>
       <c r="AU40" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4164041709495315E-17</v>
+        <v>-2.8115743909609762E-17</v>
       </c>
       <c r="AV40" s="8">
         <f t="shared" si="12"/>
@@ -14446,12 +14528,18 @@
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="F41" t="s">
         <v>30</v>
       </c>
       <c r="G41">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>1606.8302717479748</v>
+        <v>2933.7311800752791</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -14465,7 +14553,7 @@
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="15"/>
-        <v>0.17373546727399958</v>
+        <v>0.20981335316812566</v>
       </c>
       <c r="AE41" s="8">
         <f t="shared" ref="AE41:AE69" si="23">IF(AJ40&gt;0, AG40, AE40)</f>
@@ -14473,7 +14561,7 @@
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="16"/>
-        <v>-0.12933805541659193</v>
+        <v>-0.11121625657804707</v>
       </c>
       <c r="AG41" s="8">
         <f t="shared" si="17"/>
@@ -14481,15 +14569,15 @@
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="18"/>
-        <v>1.3431296987562957E-2</v>
+        <v>3.756490779024696E-2</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="19"/>
-        <v>2.3334926582301132E-3</v>
+        <v>7.881619264923161E-3</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="20"/>
-        <v>-1.737177834094122E-3</v>
+        <v>-4.1778284231307854E-3</v>
       </c>
       <c r="AK41" s="8">
         <f t="shared" si="21"/>
@@ -14500,32 +14588,32 @@
       </c>
       <c r="AN41" s="8">
         <f t="shared" si="13"/>
-        <v>983.1065277394373</v>
+        <v>1196.6292995202821</v>
       </c>
       <c r="AO41">
-        <v>-1.0523535820539109E-8</v>
+        <v>-6.4216010287054814E-9</v>
       </c>
       <c r="AP41" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652776854113</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AQ41">
-        <v>3.2464413379784673E-9</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AR41" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652775398921</v>
+        <v>1196.629299534834</v>
       </c>
       <c r="AS41">
-        <v>-3.6384335544425994E-9</v>
+        <v>-1.0219309842796065E-9</v>
       </c>
       <c r="AT41" s="8">
         <f t="shared" si="10"/>
-        <v>3.8289185840828129E-17</v>
+        <v>6.5624330599159262E-18</v>
       </c>
       <c r="AU41" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1811961096630383E-17</v>
+        <v>-4.474328087164418E-18</v>
       </c>
       <c r="AV41" s="8">
         <f t="shared" si="12"/>
@@ -14552,7 +14640,7 @@
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="15"/>
-        <v>1.3431296987562957E-2</v>
+        <v>3.756490779024696E-2</v>
       </c>
       <c r="AE42" s="8">
         <f t="shared" si="23"/>
@@ -14560,7 +14648,7 @@
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="16"/>
-        <v>-0.12933805541659193</v>
+        <v>-0.11121625657804707</v>
       </c>
       <c r="AG42" s="8">
         <f t="shared" si="17"/>
@@ -14568,15 +14656,15 @@
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="18"/>
-        <v>-5.9214888687156242E-2</v>
+        <v>-3.8513983761552573E-2</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="19"/>
-        <v>-7.9533275604267751E-4</v>
+        <v>-1.4467742486377912E-3</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="20"/>
-        <v>7.6587385545067365E-3</v>
+        <v>4.2833810998675692E-3</v>
       </c>
       <c r="AK42" s="8">
         <f t="shared" si="21"/>
@@ -14587,32 +14675,32 @@
       </c>
       <c r="AN42" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652775398921</v>
+        <v>1196.629299534834</v>
       </c>
       <c r="AO42">
-        <v>-3.6384335544425994E-9</v>
+        <v>-1.0219309842796065E-9</v>
       </c>
       <c r="AP42" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652776854113</v>
+        <v>1196.6292995493859</v>
       </c>
       <c r="AQ42">
-        <v>3.2464413379784673E-9</v>
+        <v>4.3783074943348765E-9</v>
       </c>
       <c r="AR42" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652776126517</v>
+        <v>1196.6292995421099</v>
       </c>
       <c r="AS42">
-        <v>-1.9610979506978765E-10</v>
+        <v>1.6783587852842174E-9</v>
       </c>
       <c r="AT42" s="8">
         <f t="shared" si="10"/>
-        <v>7.1353245873677724E-19</v>
+        <v>-1.7151668454198251E-18</v>
       </c>
       <c r="AU42" s="8">
         <f t="shared" si="11"/>
-        <v>-6.3665894549704446E-19</v>
+        <v>7.3483708477926691E-18</v>
       </c>
       <c r="AV42" s="8">
         <f t="shared" si="12"/>
@@ -14620,6 +14708,11 @@
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B43" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="AB43" s="8">
         <v>4</v>
       </c>
@@ -14629,7 +14722,7 @@
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="15"/>
-        <v>1.3431296987562957E-2</v>
+        <v>3.756490779024696E-2</v>
       </c>
       <c r="AE43" s="8">
         <f t="shared" si="23"/>
@@ -14637,7 +14730,7 @@
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="16"/>
-        <v>-5.9214888687156242E-2</v>
+        <v>-3.8513983761552573E-2</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="17"/>
@@ -14645,15 +14738,15 @@
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="18"/>
-        <v>-2.327930595999661E-2</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="19"/>
-        <v>-3.1267127201305888E-4</v>
+        <v>-3.7307676921054285E-5</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="20"/>
-        <v>1.3784815111354521E-3</v>
+        <v>3.8250253964200887E-5</v>
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="21"/>
@@ -14664,32 +14757,32 @@
       </c>
       <c r="AN43" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652776126517</v>
+        <v>1196.629299534834</v>
       </c>
       <c r="AO43">
-        <v>-1.9610979506978765E-10</v>
+        <v>-1.0219309842796065E-9</v>
       </c>
       <c r="AP43" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652776854113</v>
+        <v>1196.6292995421099</v>
       </c>
       <c r="AQ43">
-        <v>3.2464413379784673E-9</v>
+        <v>1.6783587852842174E-9</v>
       </c>
       <c r="AR43" s="8">
         <f t="shared" si="9"/>
-        <v>983.10652776490315</v>
+        <v>1196.629299538472</v>
       </c>
       <c r="AS43">
-        <v>1.5254499885486439E-9</v>
+        <v>3.2832758734002709E-10</v>
       </c>
       <c r="AT43" s="8">
         <f t="shared" si="10"/>
-        <v>-2.9915568464348447E-19</v>
+        <v>-3.3552813449654236E-19</v>
       </c>
       <c r="AU43" s="8">
         <f t="shared" si="11"/>
-        <v>4.9522839018430972E-18</v>
+        <v>5.5105149066330568E-19</v>
       </c>
       <c r="AV43" s="8">
         <f t="shared" si="12"/>
@@ -14697,6 +14790,12 @@
       </c>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
       <c r="AB44" s="8">
         <v>5</v>
       </c>
@@ -14706,7 +14805,7 @@
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="15"/>
-        <v>1.3431296987562957E-2</v>
+        <v>3.756490779024696E-2</v>
       </c>
       <c r="AE44" s="8">
         <f t="shared" si="23"/>
@@ -14714,7 +14813,7 @@
       </c>
       <c r="AF44" s="8">
         <f t="shared" si="16"/>
-        <v>-2.327930595999661E-2</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG44" s="8">
         <f t="shared" si="17"/>
@@ -14722,15 +14821,15 @@
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="18"/>
-        <v>-5.0323935278850929E-3</v>
+        <v>1.8140817975201007E-2</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="19"/>
-        <v>-6.7591572031314376E-5</v>
+        <v>6.8145815447808041E-4</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="20"/>
-        <v>1.1715062864674381E-4</v>
+        <v>-1.8016596230755822E-5</v>
       </c>
       <c r="AK44" s="8">
         <f t="shared" si="21"/>
@@ -14741,32 +14840,32 @@
       </c>
       <c r="AN44" s="8">
         <f t="shared" si="13"/>
-        <v>983.10652776126517</v>
+        <v>1196.629299534834</v>
       </c>
       <c r="AO44">
-        <v>-1.9610979506978765E-10</v>
+        <v>-1.0219309842796065E-9</v>
       </c>
       <c r="AP44" s="8">
         <f t="shared" si="14"/>
-        <v>983.10652776490315</v>
+        <v>1196.629299538472</v>
       </c>
       <c r="AQ44">
-        <v>1.5254499885486439E-9</v>
+        <v>3.2832758734002709E-10</v>
       </c>
       <c r="AR44" s="11">
         <f t="shared" si="9"/>
-        <v>983.10652776308416</v>
+        <v>1196.629299536653</v>
       </c>
       <c r="AS44">
-        <v>6.6449956648284569E-10</v>
+        <v>-3.4685854188865051E-10</v>
       </c>
       <c r="AT44" s="8">
         <f t="shared" si="10"/>
-        <v>-1.303148738069136E-19</v>
+        <v>3.5446549111805773E-19</v>
       </c>
       <c r="AU44" s="8">
         <f t="shared" si="11"/>
-        <v>1.0136608560818358E-18</v>
+        <v>-1.1388322820658035E-19</v>
       </c>
       <c r="AV44" s="8">
         <f t="shared" si="12"/>
@@ -14774,40 +14873,49 @@
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
       <c r="AB45" s="8">
         <v>6</v>
       </c>
       <c r="AC45" s="8">
         <f t="shared" si="22"/>
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="AD45" s="8">
         <f t="shared" si="15"/>
-        <v>1.3431296987562957E-2</v>
+        <v>1.8140817975201007E-2</v>
       </c>
       <c r="AE45" s="8">
         <f t="shared" si="23"/>
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="AF45" s="8">
         <f t="shared" si="16"/>
-        <v>-5.0323935278850929E-3</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG45" s="8">
         <f t="shared" si="17"/>
-        <v>0.3828125</v>
+        <v>0.3984375</v>
       </c>
       <c r="AH45" s="8">
         <f t="shared" si="18"/>
-        <v>4.1707125639185438E-3</v>
+        <v>8.5396801669347377E-3</v>
       </c>
       <c r="AI45" s="8">
         <f t="shared" si="19"/>
-        <v>5.6018079095750116E-5</v>
+        <v>1.5491678347479722E-4</v>
       </c>
       <c r="AJ45" s="8">
         <f t="shared" si="20"/>
-        <v>-2.0988666913332721E-5</v>
+        <v>-8.481203533257538E-6</v>
       </c>
       <c r="AK45" s="8">
         <f t="shared" si="21"/>
@@ -14815,40 +14923,49 @@
       </c>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
       <c r="AB46" s="8">
         <v>7</v>
       </c>
       <c r="AC46" s="8">
         <f t="shared" si="22"/>
-        <v>0.3828125</v>
+        <v>0.3984375</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="15"/>
-        <v>4.1707125639185438E-3</v>
+        <v>8.5396801669347377E-3</v>
       </c>
       <c r="AE46" s="8">
         <f t="shared" si="23"/>
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="AF46" s="8">
         <f t="shared" si="16"/>
-        <v>-5.0323935278850929E-3</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG46" s="8">
         <f t="shared" si="17"/>
-        <v>0.38671875</v>
+        <v>0.40234375</v>
       </c>
       <c r="AH46" s="8">
         <f t="shared" si="18"/>
-        <v>-4.3780980245844425E-4</v>
+        <v>3.7649720524713937E-3</v>
       </c>
       <c r="AI46" s="8">
         <f t="shared" si="19"/>
-        <v>-1.8259788437201292E-6</v>
+        <v>3.2151657165553533E-5</v>
       </c>
       <c r="AJ46" s="8">
         <f t="shared" si="20"/>
-        <v>2.2032312163365259E-6</v>
+        <v>-3.7391908888664936E-6</v>
       </c>
       <c r="AK46" s="8">
         <f t="shared" si="21"/>
@@ -14861,35 +14978,35 @@
       </c>
       <c r="AC47" s="8">
         <f t="shared" si="22"/>
-        <v>0.3828125</v>
+        <v>0.40234375</v>
       </c>
       <c r="AD47" s="8">
         <f t="shared" si="15"/>
-        <v>4.1707125639185438E-3</v>
+        <v>3.7649720524713937E-3</v>
       </c>
       <c r="AE47" s="8">
         <f t="shared" si="23"/>
-        <v>0.38671875</v>
+        <v>0.40625</v>
       </c>
       <c r="AF47" s="8">
         <f t="shared" si="16"/>
-        <v>-4.3780980245844425E-4</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG47" s="8">
         <f t="shared" si="17"/>
-        <v>0.384765625</v>
+        <v>0.404296875</v>
       </c>
       <c r="AH47" s="8">
         <f t="shared" si="18"/>
-        <v>1.8646827914431952E-3</v>
+        <v>1.3838666424935697E-3</v>
       </c>
       <c r="AI47" s="8">
         <f t="shared" si="19"/>
-        <v>7.7770559459948362E-6</v>
+        <v>5.2102192333357117E-6</v>
       </c>
       <c r="AJ47" s="8">
         <f t="shared" si="20"/>
-        <v>-8.1637640456940571E-7</v>
+        <v>-1.3743904254539051E-6</v>
       </c>
       <c r="AK47" s="8">
         <f t="shared" si="21"/>
@@ -14897,327 +15014,363 @@
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B48" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="AB48" s="8">
         <v>9</v>
       </c>
       <c r="AC48" s="8">
         <f t="shared" si="22"/>
-        <v>0.384765625</v>
+        <v>0.404296875</v>
       </c>
       <c r="AD48" s="8">
         <f t="shared" si="15"/>
-        <v>1.8646827914431952E-3</v>
+        <v>1.3838666424935697E-3</v>
       </c>
       <c r="AE48" s="8">
         <f t="shared" si="23"/>
-        <v>0.38671875</v>
+        <v>0.40625</v>
       </c>
       <c r="AF48" s="8">
         <f t="shared" si="16"/>
-        <v>-4.3780980245844425E-4</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG48" s="8">
         <f t="shared" si="17"/>
-        <v>0.3857421875</v>
+        <v>0.4052734375</v>
       </c>
       <c r="AH48" s="8">
         <f t="shared" si="18"/>
-        <v>7.1299767057986241E-4</v>
+        <v>1.9484999733965225E-4</v>
       </c>
       <c r="AI48" s="8">
         <f t="shared" si="19"/>
-        <v>1.3295144866693536E-6</v>
+        <v>2.6964641160830554E-7</v>
       </c>
       <c r="AJ48" s="8">
         <f t="shared" si="20"/>
-        <v>-3.1215736930990045E-7</v>
+        <v>-1.9351573520176189E-7</v>
       </c>
       <c r="AK48" s="8">
         <f t="shared" si="21"/>
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="49" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
       <c r="AB49" s="8">
         <v>10</v>
       </c>
       <c r="AC49" s="8">
         <f t="shared" si="22"/>
-        <v>0.3857421875</v>
+        <v>0.4052734375</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="15"/>
-        <v>7.1299767057986241E-4</v>
+        <v>1.9484999733965225E-4</v>
       </c>
       <c r="AE49" s="8">
         <f t="shared" si="23"/>
-        <v>0.38671875</v>
+        <v>0.40625</v>
       </c>
       <c r="AF49" s="8">
         <f t="shared" si="16"/>
-        <v>-4.3780980245844425E-4</v>
+        <v>-9.9315236255526074E-4</v>
       </c>
       <c r="AG49" s="8">
         <f t="shared" si="17"/>
-        <v>0.38623046875</v>
+        <v>0.40576171875</v>
       </c>
       <c r="AH49" s="8">
         <f t="shared" si="18"/>
-        <v>1.3748463987989235E-4</v>
+        <v>-3.9927751482349283E-4</v>
       </c>
       <c r="AI49" s="8">
         <f t="shared" si="19"/>
-        <v>9.8026227974874502E-8</v>
+        <v>-7.779922270114054E-8</v>
       </c>
       <c r="AJ49" s="8">
         <f t="shared" si="20"/>
-        <v>-6.0192123026886014E-8</v>
+        <v>3.9654340716214503E-7</v>
       </c>
       <c r="AK49" s="8">
         <f t="shared" si="21"/>
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="50" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.7</v>
+      </c>
       <c r="AB50" s="8">
         <v>11</v>
       </c>
       <c r="AC50" s="8">
         <f t="shared" si="22"/>
-        <v>0.38623046875</v>
+        <v>0.4052734375</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="15"/>
-        <v>1.3748463987989235E-4</v>
+        <v>1.9484999733965225E-4</v>
       </c>
       <c r="AE50" s="8">
         <f t="shared" si="23"/>
-        <v>0.38671875</v>
+        <v>0.40576171875</v>
       </c>
       <c r="AF50" s="8">
         <f t="shared" si="16"/>
-        <v>-4.3780980245844425E-4</v>
+        <v>-3.9927751482349283E-4</v>
       </c>
       <c r="AG50" s="8">
         <f t="shared" si="17"/>
-        <v>0.386474609375</v>
+        <v>0.405517578125</v>
       </c>
       <c r="AH50" s="8">
         <f t="shared" si="18"/>
-        <v>-1.5018985358450365E-4</v>
+        <v>-1.0224539830744339E-4</v>
       </c>
       <c r="AI50" s="8">
         <f t="shared" si="19"/>
-        <v>-2.0648797933679243E-8</v>
+        <v>-1.992251558819703E-8</v>
       </c>
       <c r="AJ50" s="8">
         <f t="shared" si="20"/>
-        <v>6.5754590129094204E-8</v>
+        <v>4.082428853833416E-8</v>
       </c>
       <c r="AK50" s="8">
         <f t="shared" si="21"/>
         <v>4.8828125E-4</v>
       </c>
     </row>
-    <row r="51" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AB51" s="8">
         <v>12</v>
       </c>
       <c r="AC51" s="8">
         <f t="shared" si="22"/>
-        <v>0.38623046875</v>
+        <v>0.4052734375</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="15"/>
-        <v>1.3748463987989235E-4</v>
+        <v>1.9484999733965225E-4</v>
       </c>
       <c r="AE51" s="8">
         <f t="shared" si="23"/>
-        <v>0.386474609375</v>
+        <v>0.405517578125</v>
       </c>
       <c r="AF51" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5018985358450365E-4</v>
+        <v>-1.0224539830744339E-4</v>
       </c>
       <c r="AG51" s="8">
         <f t="shared" si="17"/>
-        <v>0.3863525390625</v>
+        <v>0.4053955078125</v>
       </c>
       <c r="AH51" s="8">
         <f t="shared" si="18"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>4.629438254605267E-5</v>
       </c>
       <c r="AI51" s="8">
         <f t="shared" si="19"/>
-        <v>-8.7432412519805238E-10</v>
+        <v>9.0204603159392065E-9</v>
       </c>
       <c r="AJ51" s="8">
         <f t="shared" si="20"/>
-        <v>9.5512205918866422E-10</v>
+        <v>-4.733387582818311E-9</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="21"/>
         <v>2.44140625E-4</v>
       </c>
     </row>
-    <row r="52" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B52" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="AB52" s="8">
         <v>13</v>
       </c>
       <c r="AC52" s="8">
         <f t="shared" si="22"/>
-        <v>0.38623046875</v>
+        <v>0.4053955078125</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="15"/>
-        <v>1.3748463987989235E-4</v>
+        <v>4.629438254605267E-5</v>
       </c>
       <c r="AE52" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863525390625</v>
+        <v>0.405517578125</v>
       </c>
       <c r="AF52" s="8">
         <f t="shared" si="16"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>-1.0224539830744339E-4</v>
       </c>
       <c r="AG52" s="8">
         <f t="shared" si="17"/>
-        <v>0.38629150390625</v>
+        <v>0.40545654296875</v>
       </c>
       <c r="AH52" s="8">
         <f t="shared" si="18"/>
-        <v>6.5560897360872339E-5</v>
+        <v>-2.797748623772911E-5</v>
       </c>
       <c r="AI52" s="8">
         <f t="shared" si="19"/>
-        <v>9.0136163638621175E-9</v>
+        <v>-1.2952004505663552E-9</v>
       </c>
       <c r="AJ52" s="8">
         <f t="shared" si="20"/>
-        <v>-4.169300241999433E-10</v>
+        <v>2.8605692240176287E-9</v>
       </c>
       <c r="AK52" s="8">
         <f t="shared" si="21"/>
         <v>1.220703125E-4</v>
       </c>
     </row>
-    <row r="53" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
       <c r="AB53" s="8">
         <v>14</v>
       </c>
       <c r="AC53" s="8">
         <f t="shared" si="22"/>
-        <v>0.38629150390625</v>
+        <v>0.4053955078125</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="15"/>
-        <v>6.5560897360872339E-5</v>
+        <v>4.629438254605267E-5</v>
       </c>
       <c r="AE53" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863525390625</v>
+        <v>0.40545654296875</v>
       </c>
       <c r="AF53" s="8">
         <f t="shared" si="16"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>-2.797748623772911E-5</v>
       </c>
       <c r="AG53" s="8">
         <f t="shared" si="17"/>
-        <v>0.386322021484375</v>
+        <v>0.405426025390625</v>
       </c>
       <c r="AH53" s="8">
         <f t="shared" si="18"/>
-        <v>2.960030638987643E-5</v>
+        <v>9.157953454297374E-6</v>
       </c>
       <c r="AI53" s="8">
         <f t="shared" si="19"/>
-        <v>1.9406226490770624E-9</v>
+        <v>4.2396180055218711E-10</v>
       </c>
       <c r="AJ53" s="8">
         <f t="shared" si="20"/>
-        <v>-1.8824111560776699E-10</v>
+        <v>-2.5621651673336856E-10</v>
       </c>
       <c r="AK53" s="8">
         <f t="shared" si="21"/>
         <v>6.103515625E-5</v>
       </c>
     </row>
-    <row r="54" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AB54" s="8">
         <v>15</v>
       </c>
       <c r="AC54" s="8">
         <f t="shared" si="22"/>
-        <v>0.386322021484375</v>
+        <v>0.405426025390625</v>
       </c>
       <c r="AD54" s="8">
         <f t="shared" si="15"/>
-        <v>2.960030638987643E-5</v>
+        <v>9.157953454297374E-6</v>
       </c>
       <c r="AE54" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863525390625</v>
+        <v>0.40545654296875</v>
       </c>
       <c r="AF54" s="8">
         <f t="shared" si="16"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>-2.797748623772911E-5</v>
       </c>
       <c r="AG54" s="8">
         <f t="shared" si="17"/>
-        <v>0.3863372802734375</v>
+        <v>0.4054412841796875</v>
       </c>
       <c r="AH54" s="8">
         <f t="shared" si="18"/>
-        <v>1.1620330888917341E-5</v>
+        <v>-9.4098900528249985E-6</v>
       </c>
       <c r="AI54" s="8">
         <f t="shared" si="19"/>
-        <v>3.4396535466369839E-10</v>
+        <v>-8.6175335113827195E-11</v>
       </c>
       <c r="AJ54" s="8">
         <f t="shared" si="20"/>
-        <v>-7.3898696231377987E-11</v>
+        <v>2.6326506945145546E-10</v>
       </c>
       <c r="AK54" s="8">
         <f t="shared" si="21"/>
         <v>3.0517578125E-5</v>
       </c>
     </row>
-    <row r="55" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B55" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="AB55" s="8">
         <v>16</v>
       </c>
       <c r="AC55" s="8">
         <f t="shared" si="22"/>
-        <v>0.3863372802734375</v>
+        <v>0.405426025390625</v>
       </c>
       <c r="AD55" s="8">
         <f t="shared" si="15"/>
-        <v>1.1620330888917341E-5</v>
+        <v>9.157953454297374E-6</v>
       </c>
       <c r="AE55" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863525390625</v>
+        <v>0.4054412841796875</v>
       </c>
       <c r="AF55" s="8">
         <f t="shared" si="16"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>-9.4098900528249985E-6</v>
       </c>
       <c r="AG55" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634490966796875</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AH55" s="8">
         <f t="shared" si="18"/>
-        <v>2.6304231236506936E-6</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AI55" s="8">
         <f t="shared" si="19"/>
-        <v>3.0566387074680592E-11</v>
+        <v>-1.1538949579954386E-12</v>
       </c>
       <c r="AJ55" s="8">
         <f t="shared" si="20"/>
-        <v>-1.6727995203651705E-11</v>
+        <v>1.1856387719628629E-12</v>
       </c>
       <c r="AK55" s="8">
         <f t="shared" si="21"/>
@@ -15225,41 +15378,47 @@
       </c>
       <c r="AM55" s="8"/>
     </row>
-    <row r="56" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
       <c r="AB56" s="8">
         <v>17</v>
       </c>
       <c r="AC56" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634490966796875</v>
+        <v>0.405426025390625</v>
       </c>
       <c r="AD56" s="8">
         <f t="shared" si="15"/>
-        <v>2.6304231236506936E-6</v>
+        <v>9.157953454297374E-6</v>
       </c>
       <c r="AE56" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863525390625</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF56" s="8">
         <f t="shared" si="16"/>
-        <v>-6.3594313223780397E-6</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG56" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634872436523438</v>
+        <v>0.40542984008789062</v>
       </c>
       <c r="AH56" s="8">
         <f t="shared" si="18"/>
-        <v>-1.8645107641157566E-6</v>
+        <v>4.5159693895513442E-6</v>
       </c>
       <c r="AI56" s="8">
         <f t="shared" si="19"/>
-        <v>-4.9044522282257098E-12</v>
+        <v>4.1357037470542934E-11</v>
       </c>
       <c r="AJ56" s="8">
         <f t="shared" si="20"/>
-        <v>1.1857228154228755E-11</v>
+        <v>-5.6900860384039099E-13</v>
       </c>
       <c r="AK56" s="8">
         <f t="shared" si="21"/>
@@ -15267,41 +15426,50 @@
       </c>
       <c r="AM56" s="8"/>
     </row>
-    <row r="57" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
       <c r="AB57" s="8">
         <v>18</v>
       </c>
       <c r="AC57" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634490966796875</v>
+        <v>0.40542984008789062</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="15"/>
-        <v>2.6304231236506936E-6</v>
+        <v>4.5159693895513442E-6</v>
       </c>
       <c r="AE57" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634872436523438</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF57" s="8">
         <f t="shared" si="16"/>
-        <v>-1.8645107641157566E-6</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG57" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634681701660156</v>
+        <v>0.40543174743652344</v>
       </c>
       <c r="AH57" s="8">
         <f t="shared" si="18"/>
-        <v>3.8295451354475318E-7</v>
+        <v>2.1949831542911191E-6</v>
       </c>
       <c r="AI57" s="8">
         <f t="shared" si="19"/>
-        <v>1.0073324077345215E-12</v>
+        <v>9.9124767353595489E-12</v>
       </c>
       <c r="AJ57" s="8">
         <f t="shared" si="20"/>
-        <v>-7.1402281267090562E-13</v>
+        <v>-2.765661571945354E-13</v>
       </c>
       <c r="AK57" s="8">
         <f t="shared" si="21"/>
@@ -15309,287 +15477,336 @@
       </c>
       <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="1">
+        <f>0.15*1.25</f>
+        <v>0.1875</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
       <c r="AB58" s="8">
         <v>19</v>
       </c>
       <c r="AC58" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634681701660156</v>
+        <v>0.40543174743652344</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="15"/>
-        <v>3.8295451354475318E-7</v>
+        <v>2.1949831542911191E-6</v>
       </c>
       <c r="AE58" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634872436523438</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF58" s="8">
         <f t="shared" si="16"/>
-        <v>-1.8645107641157566E-6</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG58" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634777069091797</v>
+        <v>0.40543270111083984</v>
       </c>
       <c r="AH58" s="8">
         <f t="shared" si="18"/>
-        <v>-7.4077854184118053E-7</v>
+        <v>1.0344914859183874E-6</v>
       </c>
       <c r="AI58" s="8">
         <f t="shared" si="19"/>
-        <v>-2.8368448613518089E-13</v>
+        <v>2.2706913848484486E-12</v>
       </c>
       <c r="AJ58" s="8">
         <f t="shared" si="20"/>
-        <v>1.3811895650888554E-12</v>
+        <v>-1.303451164769018E-13</v>
       </c>
       <c r="AK58" s="8">
         <f t="shared" si="21"/>
         <v>1.9073486328125E-6</v>
       </c>
     </row>
-    <row r="59" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AB59" s="8">
         <v>20</v>
       </c>
       <c r="AC59" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634681701660156</v>
+        <v>0.40543270111083984</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="15"/>
-        <v>3.8295451354475318E-7</v>
+        <v>1.0344914859183874E-6</v>
       </c>
       <c r="AE59" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634777069091797</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF59" s="8">
         <f t="shared" si="16"/>
-        <v>-7.4077854184118053E-7</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG59" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634729385375977</v>
+        <v>0.40543317794799805</v>
       </c>
       <c r="AH59" s="8">
         <f t="shared" si="18"/>
-        <v>-1.7891211823162223E-7</v>
+        <v>4.5424601402554998E-7</v>
       </c>
       <c r="AI59" s="8">
         <f t="shared" si="19"/>
-        <v>-6.851520320465226E-14</v>
+        <v>4.6991363402179584E-13</v>
       </c>
       <c r="AJ59" s="8">
         <f t="shared" si="20"/>
-        <v>1.3253425806133801E-13</v>
+        <v>-5.7234641766785652E-14</v>
       </c>
       <c r="AK59" s="8">
         <f t="shared" si="21"/>
         <v>9.5367431640625E-7</v>
       </c>
     </row>
-    <row r="60" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B60" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="AB60" s="8">
         <v>21</v>
       </c>
       <c r="AC60" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634681701660156</v>
+        <v>0.40543317794799805</v>
       </c>
       <c r="AD60" s="8">
         <f t="shared" si="15"/>
-        <v>3.8295451354475318E-7</v>
+        <v>4.5424601402554998E-7</v>
       </c>
       <c r="AE60" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634729385375977</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF60" s="8">
         <f t="shared" si="16"/>
-        <v>-1.7891211823162223E-7</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG60" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634705543518066</v>
+        <v>0.40543341636657715</v>
       </c>
       <c r="AH60" s="8">
         <f t="shared" si="18"/>
-        <v>1.0202117162183555E-7</v>
+        <v>1.6412336867333011E-7</v>
       </c>
       <c r="AI60" s="8">
         <f t="shared" si="19"/>
-        <v>3.9069468149705812E-14</v>
+        <v>7.4552386028306016E-14</v>
       </c>
       <c r="AJ60" s="8">
         <f t="shared" si="20"/>
-        <v>-1.8252823919334464E-14</v>
+        <v>-2.0679415826525623E-14</v>
       </c>
       <c r="AK60" s="8">
         <f t="shared" si="21"/>
         <v>4.76837158203125E-7</v>
       </c>
     </row>
-    <row r="61" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AB61" s="8">
         <v>22</v>
       </c>
       <c r="AC61" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634705543518066</v>
+        <v>0.40543341636657715</v>
       </c>
       <c r="AD61" s="8">
         <f t="shared" si="15"/>
-        <v>1.0202117162183555E-7</v>
+        <v>1.6412336867333011E-7</v>
       </c>
       <c r="AE61" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634729385375977</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF61" s="8">
         <f t="shared" si="16"/>
-        <v>-1.7891211823162223E-7</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG61" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634717464447021</v>
+        <v>0.4054335355758667</v>
       </c>
       <c r="AH61" s="8">
         <f t="shared" si="18"/>
-        <v>-3.8445479799698035E-8</v>
+        <v>1.906206864576987E-8</v>
       </c>
       <c r="AI61" s="8">
         <f t="shared" si="19"/>
-        <v>-3.9222528927288052E-15</v>
+        <v>3.1285309200260145E-15</v>
       </c>
       <c r="AJ61" s="8">
         <f t="shared" si="20"/>
-        <v>6.8783622273950192E-15</v>
+        <v>-2.4018057100951231E-15</v>
       </c>
       <c r="AK61" s="8">
         <f t="shared" si="21"/>
         <v>2.384185791015625E-7</v>
       </c>
     </row>
-    <row r="62" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
       <c r="AB62" s="8">
         <v>23</v>
       </c>
       <c r="AC62" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634705543518066</v>
+        <v>0.4054335355758667</v>
       </c>
       <c r="AD62" s="8">
         <f t="shared" si="15"/>
-        <v>1.0202117162183555E-7</v>
+        <v>1.906206864576987E-8</v>
       </c>
       <c r="AE62" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634717464447021</v>
+        <v>0.40543365478515625</v>
       </c>
       <c r="AF62" s="8">
         <f t="shared" si="16"/>
-        <v>-3.8445479799698035E-8</v>
+        <v>-1.2599921628275723E-7</v>
       </c>
       <c r="AG62" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634711503982544</v>
+        <v>0.40543359518051147</v>
       </c>
       <c r="AH62" s="8">
         <f t="shared" si="18"/>
-        <v>3.178784424573422E-8</v>
+        <v>-5.3468575733628398E-8</v>
       </c>
       <c r="AI62" s="8">
         <f t="shared" si="19"/>
-        <v>3.2430331132822286E-15</v>
+        <v>-1.0192216610259695E-15</v>
       </c>
       <c r="AJ62" s="8">
         <f t="shared" si="20"/>
-        <v>-1.2220989238253223E-15</v>
+        <v>6.7369986381924292E-15</v>
       </c>
       <c r="AK62" s="8">
         <f t="shared" si="21"/>
         <v>1.1920928955078125E-7</v>
       </c>
     </row>
-    <row r="63" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1">
+        <f>0.12*2.92</f>
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
       <c r="AB63" s="8">
         <v>24</v>
       </c>
       <c r="AC63" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634711503982544</v>
+        <v>0.4054335355758667</v>
       </c>
       <c r="AD63" s="8">
         <f t="shared" si="15"/>
-        <v>3.178784424573422E-8</v>
+        <v>1.906206864576987E-8</v>
       </c>
       <c r="AE63" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634717464447021</v>
+        <v>0.40543359518051147</v>
       </c>
       <c r="AF63" s="8">
         <f t="shared" si="16"/>
-        <v>-3.8445479799698035E-8</v>
+        <v>-5.3468575733628398E-8</v>
       </c>
       <c r="AG63" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634714484214783</v>
+        <v>0.40543356537818909</v>
       </c>
       <c r="AH63" s="8">
         <f t="shared" si="18"/>
-        <v>-3.328818221071117E-9</v>
+        <v>-1.7203253988018474E-8</v>
       </c>
       <c r="AI63" s="8">
         <f t="shared" si="19"/>
-        <v>-1.0581595513377073E-16</v>
+        <v>-3.2792960845022241E-16</v>
       </c>
       <c r="AJ63" s="8">
         <f t="shared" si="20"/>
-        <v>1.2797801367505636E-16</v>
+        <v>9.1983348872321064E-16</v>
       </c>
       <c r="AK63" s="8">
         <f t="shared" si="21"/>
         <v>5.9604644775390625E-8</v>
       </c>
     </row>
-    <row r="64" spans="28:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="1">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
       <c r="AB64" s="8">
         <v>25</v>
       </c>
       <c r="AC64" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634711503982544</v>
+        <v>0.4054335355758667</v>
       </c>
       <c r="AD64" s="8">
         <f t="shared" si="15"/>
-        <v>3.178784424573422E-8</v>
+        <v>1.906206864576987E-8</v>
       </c>
       <c r="AE64" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634714484214783</v>
+        <v>0.40543356537818909</v>
       </c>
       <c r="AF64" s="8">
         <f t="shared" si="16"/>
-        <v>-3.328818221071117E-9</v>
+        <v>-1.7203253988018474E-8</v>
       </c>
       <c r="AG64" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634712994098663</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AH64" s="8">
         <f t="shared" si="18"/>
-        <v>1.42295129568204E-8</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AI64" s="8">
         <f t="shared" si="19"/>
-        <v>4.5232554156406388E-16</v>
+        <v>1.7716424186595411E-17</v>
       </c>
       <c r="AJ64" s="8">
         <f t="shared" si="20"/>
-        <v>-4.7367462007631296E-17</v>
+        <v>-1.5988828427029576E-17</v>
       </c>
       <c r="AK64" s="8">
         <f t="shared" si="21"/>
@@ -15602,35 +15819,35 @@
       </c>
       <c r="AC65" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634712994098663</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AD65" s="8">
         <f t="shared" si="15"/>
-        <v>1.42295129568204E-8</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AE65" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634714484214783</v>
+        <v>0.40543356537818909</v>
       </c>
       <c r="AF65" s="8">
         <f t="shared" si="16"/>
-        <v>-3.328818221071117E-9</v>
+        <v>-1.7203253988018474E-8</v>
       </c>
       <c r="AG65" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634713739156723</v>
+        <v>0.40543355792760849</v>
       </c>
       <c r="AH65" s="8">
         <f t="shared" si="18"/>
-        <v>5.4503473401190661E-9</v>
+        <v>-8.1369234128381152E-9</v>
       </c>
       <c r="AI65" s="8">
         <f t="shared" si="19"/>
-        <v>7.7555788095395853E-17</v>
+        <v>-7.562515351012026E-18</v>
       </c>
       <c r="AJ65" s="8">
         <f t="shared" si="20"/>
-        <v>-1.8143215536954844E-17</v>
+        <v>1.3998156015210821E-16</v>
       </c>
       <c r="AK65" s="8">
         <f t="shared" si="21"/>
@@ -15643,35 +15860,35 @@
       </c>
       <c r="AC66" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634713739156723</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AD66" s="8">
         <f t="shared" si="15"/>
-        <v>5.4503473401190661E-9</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AE66" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634714484214783</v>
+        <v>0.40543355792760849</v>
       </c>
       <c r="AF66" s="8">
         <f t="shared" si="16"/>
-        <v>-3.328818221071117E-9</v>
+        <v>-8.1369234128381152E-9</v>
       </c>
       <c r="AG66" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634714111685753</v>
+        <v>0.40543355420231819</v>
       </c>
       <c r="AH66" s="8">
         <f t="shared" si="18"/>
-        <v>1.0607645872795501E-9</v>
+        <v>-3.6037581252479356E-9</v>
       </c>
       <c r="AI66" s="8">
         <f t="shared" si="19"/>
-        <v>5.781535446771595E-18</v>
+        <v>-3.3493588130032511E-18</v>
       </c>
       <c r="AJ66" s="8">
         <f t="shared" si="20"/>
-        <v>-3.5310924864031498E-18</v>
+        <v>2.9323503863535523E-17</v>
       </c>
       <c r="AK66" s="8">
         <f t="shared" si="21"/>
@@ -15684,35 +15901,35 @@
       </c>
       <c r="AC67" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634714111685753</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AD67" s="8">
         <f t="shared" si="15"/>
-        <v>1.0607645872795501E-9</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AE67" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634714484214783</v>
+        <v>0.40543355420231819</v>
       </c>
       <c r="AF67" s="8">
         <f t="shared" si="16"/>
-        <v>-3.328818221071117E-9</v>
+        <v>-3.6037581252479356E-9</v>
       </c>
       <c r="AG67" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634714297950268</v>
+        <v>0.40543355233967304</v>
       </c>
       <c r="AH67" s="8">
         <f t="shared" si="18"/>
-        <v>-1.1340268168957834E-9</v>
+        <v>-1.3371754814528458E-9</v>
       </c>
       <c r="AI67" s="8">
         <f t="shared" si="19"/>
-        <v>-1.2029354883883977E-18</v>
+        <v>-1.2427805439988637E-18</v>
       </c>
       <c r="AJ67" s="8">
         <f t="shared" si="20"/>
-        <v>3.7749691312659632E-18</v>
+        <v>4.8188570061680133E-18</v>
       </c>
       <c r="AK67" s="8">
         <f t="shared" si="21"/>
@@ -15725,35 +15942,35 @@
       </c>
       <c r="AC68" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634714111685753</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AD68" s="8">
         <f t="shared" si="15"/>
-        <v>1.0607645872795501E-9</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AE68" s="8">
         <f t="shared" si="23"/>
-        <v>0.38634714297950268</v>
+        <v>0.40543355233967304</v>
       </c>
       <c r="AF68" s="8">
         <f t="shared" si="16"/>
-        <v>-1.1340268168957834E-9</v>
+        <v>-1.3371754814528458E-9</v>
       </c>
       <c r="AG68" s="8">
         <f t="shared" si="17"/>
-        <v>0.3863471420481801</v>
+        <v>0.40543355140835047</v>
       </c>
       <c r="AH68" s="8">
         <f t="shared" si="18"/>
-        <v>-3.6631142563692265E-11</v>
+        <v>-2.0388413179972531E-10</v>
       </c>
       <c r="AI68" s="8">
         <f t="shared" si="19"/>
-        <v>-3.8857018823153388E-20</v>
+        <v>-1.8949138370043764E-19</v>
       </c>
       <c r="AJ68" s="8">
         <f t="shared" si="20"/>
-        <v>4.1540698000759587E-20</v>
+        <v>2.7262886209989316E-19</v>
       </c>
       <c r="AK68" s="8">
         <f t="shared" si="21"/>
@@ -15766,35 +15983,35 @@
       </c>
       <c r="AC69" s="8">
         <f t="shared" si="22"/>
-        <v>0.38634714111685753</v>
+        <v>0.40543355047702789</v>
       </c>
       <c r="AD69" s="8">
         <f t="shared" si="15"/>
-        <v>1.0607645872795501E-9</v>
+        <v>9.294072178533952E-10</v>
       </c>
       <c r="AE69" s="8">
         <f t="shared" si="23"/>
-        <v>0.3863471420481801</v>
+        <v>0.40543355140835047</v>
       </c>
       <c r="AF69" s="8">
         <f t="shared" si="16"/>
-        <v>-3.6631142563692265E-11</v>
+        <v>-2.0388413179972531E-10</v>
       </c>
       <c r="AG69" s="8">
         <f t="shared" si="17"/>
-        <v>0.38634714158251882</v>
+        <v>0.40543355094268918</v>
       </c>
       <c r="AH69" s="8">
         <f t="shared" si="18"/>
-        <v>5.1206672235792894E-10</v>
+        <v>3.6276154302683494E-10</v>
       </c>
       <c r="AI69" s="8">
         <f t="shared" si="19"/>
-        <v>5.4318224540160048E-19</v>
+        <v>3.3715319644877538E-19</v>
       </c>
       <c r="AJ69" s="8">
         <f t="shared" si="20"/>
-        <v>-1.875758910881592E-20</v>
+        <v>-7.3961322250354939E-20</v>
       </c>
       <c r="AK69" s="8">
         <f t="shared" si="21"/>
@@ -15847,14 +16064,14 @@
       </c>
       <c r="AD74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC74^2)) - AC74</f>
-        <v>0.5975208667762576</v>
+        <v>0.77611055308557608</v>
       </c>
       <c r="AE74" s="9">
         <v>1</v>
       </c>
       <c r="AF74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE74^2)) - AE74</f>
-        <v>-0.67512474724917793</v>
+        <v>-0.67017212222865452</v>
       </c>
       <c r="AG74" s="8">
         <f xml:space="preserve"> (AC74 + AE74)/2</f>
@@ -15862,15 +16079,15 @@
       </c>
       <c r="AH74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG74^2)) - AG74</f>
-        <v>-0.16736602648146237</v>
+        <v>-0.15747218324885809</v>
       </c>
       <c r="AI74" s="8">
         <f>AD74*AH74</f>
-        <v>-0.10000469321210148</v>
+        <v>-0.12221582323686445</v>
       </c>
       <c r="AJ74" s="8">
         <f>AF74*AH74</f>
-        <v>0.1129929463263965</v>
+        <v>0.10553346723986681</v>
       </c>
       <c r="AK74" s="8">
         <f>AE74-AC74</f>
@@ -15887,7 +16104,7 @@
       </c>
       <c r="AD75" s="8">
         <f t="shared" ref="AD75:AD104" si="24" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC75^2)) - AC75</f>
-        <v>0.5975208667762576</v>
+        <v>0.77611055308557608</v>
       </c>
       <c r="AE75" s="8">
         <f>IF(AJ74&gt;0, AG74, AE74)</f>
@@ -15895,7 +16112,7 @@
       </c>
       <c r="AF75" s="8">
         <f t="shared" ref="AF75:AF104" si="25" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE75^2)) - AE75</f>
-        <v>-0.16736602648146237</v>
+        <v>-0.15747218324885809</v>
       </c>
       <c r="AG75" s="8">
         <f t="shared" ref="AG75:AG104" si="26" xml:space="preserve"> (AC75 + AE75)/2</f>
@@ -15903,15 +16120,15 @@
       </c>
       <c r="AH75" s="8">
         <f t="shared" ref="AH75:AH104" si="27" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG75^2)) - AG75</f>
-        <v>9.8027265616592196E-2</v>
+        <v>0.11772447947380832</v>
       </c>
       <c r="AI75" s="8">
         <f t="shared" ref="AI75:AI104" si="28">AD75*AH75</f>
-        <v>5.8573336718932605E-2</v>
+        <v>9.1367210876128924E-2</v>
       </c>
       <c r="AJ75" s="8">
         <f t="shared" ref="AJ75:AJ104" si="29">AF75*AH75</f>
-        <v>-1.6406433933091914E-2</v>
+        <v>-1.8538330804575977E-2</v>
       </c>
       <c r="AK75" s="8">
         <f t="shared" ref="AK75:AK104" si="30">AE75-AC75</f>
@@ -15928,7 +16145,7 @@
       </c>
       <c r="AD76" s="8">
         <f t="shared" si="24"/>
-        <v>9.8027265616592196E-2</v>
+        <v>0.11772447947380832</v>
       </c>
       <c r="AE76" s="8">
         <f t="shared" ref="AE76:AE104" si="32">IF(AJ75&gt;0, AG75, AE75)</f>
@@ -15936,7 +16153,7 @@
       </c>
       <c r="AF76" s="8">
         <f t="shared" si="25"/>
-        <v>-0.16736602648146237</v>
+        <v>-0.15747218324885809</v>
       </c>
       <c r="AG76" s="8">
         <f t="shared" si="26"/>
@@ -15944,15 +16161,15 @@
       </c>
       <c r="AH76" s="8">
         <f t="shared" si="27"/>
-        <v>-3.7212254542391243E-2</v>
+        <v>-2.4036180575022714E-2</v>
       </c>
       <c r="AI76" s="8">
         <f t="shared" si="28"/>
-        <v>-3.647815560219226E-3</v>
+        <v>-2.8296468467330117E-3</v>
       </c>
       <c r="AJ76" s="8">
         <f t="shared" si="29"/>
-        <v>6.228067179176771E-3</v>
+        <v>3.7850298321126202E-3</v>
       </c>
       <c r="AK76" s="8">
         <f t="shared" si="30"/>
@@ -15969,7 +16186,7 @@
       </c>
       <c r="AD77" s="8">
         <f t="shared" si="24"/>
-        <v>9.8027265616592196E-2</v>
+        <v>0.11772447947380832</v>
       </c>
       <c r="AE77" s="8">
         <f t="shared" si="32"/>
@@ -15977,7 +16194,7 @@
       </c>
       <c r="AF77" s="8">
         <f t="shared" si="25"/>
-        <v>-3.7212254542391243E-2</v>
+        <v>-2.4036180575022714E-2</v>
       </c>
       <c r="AG77" s="8">
         <f t="shared" si="26"/>
@@ -15985,15 +16202,15 @@
       </c>
       <c r="AH77" s="8">
         <f t="shared" si="27"/>
-        <v>2.9395892940052515E-2</v>
+        <v>4.5188281344542169E-2</v>
       </c>
       <c r="AI77" s="8">
         <f t="shared" si="28"/>
-        <v>2.8815990052714351E-3</v>
+        <v>5.3197668996022296E-3</v>
       </c>
       <c r="AJ77" s="8">
         <f t="shared" si="29"/>
-        <v>-1.0938874505861159E-3</v>
+        <v>-1.0861536902723459E-3</v>
       </c>
       <c r="AK77" s="8">
         <f t="shared" si="30"/>
@@ -16010,7 +16227,7 @@
       </c>
       <c r="AD78" s="8">
         <f t="shared" si="24"/>
-        <v>2.9395892940052515E-2</v>
+        <v>4.5188281344542169E-2</v>
       </c>
       <c r="AE78" s="8">
         <f t="shared" si="32"/>
@@ -16018,7 +16235,7 @@
       </c>
       <c r="AF78" s="8">
         <f t="shared" si="25"/>
-        <v>-3.7212254542391243E-2</v>
+        <v>-2.4036180575022714E-2</v>
       </c>
       <c r="AG78" s="8">
         <f t="shared" si="26"/>
@@ -16026,15 +16243,15 @@
       </c>
       <c r="AH78" s="8">
         <f t="shared" si="27"/>
-        <v>-4.0930922149050586E-3</v>
+        <v>1.0273376304661075E-2</v>
       </c>
       <c r="AI78" s="8">
         <f t="shared" si="28"/>
-        <v>-1.2032010054311153E-4</v>
+        <v>4.6423621881337761E-4</v>
       </c>
       <c r="AJ78" s="8">
         <f t="shared" si="29"/>
-        <v>1.5231318936652699E-4</v>
+        <v>-2.4693272797399315E-4</v>
       </c>
       <c r="AK78" s="8">
         <f t="shared" si="30"/>
@@ -16047,35 +16264,35 @@
       </c>
       <c r="AC79" s="8">
         <f t="shared" si="31"/>
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="AD79" s="8">
         <f t="shared" si="24"/>
-        <v>2.9395892940052515E-2</v>
+        <v>1.0273376304661075E-2</v>
       </c>
       <c r="AE79" s="8">
         <f t="shared" si="32"/>
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="AF79" s="8">
         <f t="shared" si="25"/>
-        <v>-4.0930922149050586E-3</v>
+        <v>-2.4036180575022714E-2</v>
       </c>
       <c r="AG79" s="8">
         <f t="shared" si="26"/>
-        <v>0.328125</v>
+        <v>0.359375</v>
       </c>
       <c r="AH79" s="8">
         <f t="shared" si="27"/>
-        <v>1.259865960423584E-2</v>
+        <v>-6.9473224741575246E-3</v>
       </c>
       <c r="AI79" s="8">
         <f t="shared" si="28"/>
-        <v>3.7034884891428115E-4</v>
+        <v>-7.1372458086849263E-5</v>
       </c>
       <c r="AJ79" s="8">
         <f t="shared" si="29"/>
-        <v>-5.1567475544336564E-5</v>
+        <v>1.6698709750176383E-4</v>
       </c>
       <c r="AK79" s="8">
         <f t="shared" si="30"/>
@@ -16088,35 +16305,35 @@
       </c>
       <c r="AC80" s="8">
         <f t="shared" si="31"/>
-        <v>0.328125</v>
+        <v>0.34375</v>
       </c>
       <c r="AD80" s="8">
         <f t="shared" si="24"/>
-        <v>1.259865960423584E-2</v>
+        <v>1.0273376304661075E-2</v>
       </c>
       <c r="AE80" s="8">
         <f t="shared" si="32"/>
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="AF80" s="8">
         <f t="shared" si="25"/>
-        <v>-4.0930922149050586E-3</v>
+        <v>-6.9473224741575246E-3</v>
       </c>
       <c r="AG80" s="8">
         <f t="shared" si="26"/>
-        <v>0.3359375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AH80" s="8">
         <f t="shared" si="27"/>
-        <v>4.2405056803919705E-3</v>
+        <v>1.6454615677055084E-3</v>
       </c>
       <c r="AI80" s="8">
         <f t="shared" si="28"/>
-        <v>5.3424687617086936E-5</v>
+        <v>1.6904445879896237E-5</v>
       </c>
       <c r="AJ80" s="8">
         <f t="shared" si="29"/>
-        <v>-1.7356780787673053E-5</v>
+        <v>-1.1431552129682953E-5</v>
       </c>
       <c r="AK80" s="8">
         <f t="shared" si="30"/>
@@ -16129,35 +16346,35 @@
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="31"/>
-        <v>0.3359375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="24"/>
-        <v>4.2405056803919705E-3</v>
+        <v>1.6454615677055084E-3</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="32"/>
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="25"/>
-        <v>-4.0930922149050586E-3</v>
+        <v>-6.9473224741575246E-3</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="26"/>
-        <v>0.33984375</v>
+        <v>0.35546875</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="27"/>
-        <v>7.074165775849961E-5</v>
+        <v>-2.6551787914610436E-3</v>
       </c>
       <c r="AI81" s="8">
         <f t="shared" si="28"/>
-        <v>2.9998040156526229E-7</v>
+        <v>-4.3689946567359057E-6</v>
       </c>
       <c r="AJ81" s="8">
         <f t="shared" si="29"/>
-        <v>-2.895521286407928E-7</v>
+        <v>1.8446383290823725E-5</v>
       </c>
       <c r="AK81" s="8">
         <f t="shared" si="30"/>
@@ -16170,35 +16387,35 @@
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>1.6454615677055084E-3</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="32"/>
-        <v>0.34375</v>
+        <v>0.35546875</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="25"/>
-        <v>-4.0930922149050586E-3</v>
+        <v>-2.6551787914610436E-3</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="26"/>
-        <v>0.341796875</v>
+        <v>0.353515625</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="27"/>
-        <v>-2.0119040072004157E-3</v>
+        <v>-5.0593808509785676E-4</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="28"/>
-        <v>-1.4232542472032574E-7</v>
+        <v>-8.3250167466704237E-7</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="29"/>
-        <v>8.2349086290083132E-6</v>
+        <v>1.3433560733442419E-6</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="30"/>
@@ -16211,35 +16428,35 @@
       </c>
       <c r="AC83" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AD83" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>1.6454615677055084E-3</v>
       </c>
       <c r="AE83" s="8">
         <f t="shared" si="32"/>
-        <v>0.341796875</v>
+        <v>0.353515625</v>
       </c>
       <c r="AF83" s="8">
         <f t="shared" si="25"/>
-        <v>-2.0119040072004157E-3</v>
+        <v>-5.0593808509785676E-4</v>
       </c>
       <c r="AG83" s="8">
         <f t="shared" si="26"/>
-        <v>0.3408203125</v>
+        <v>0.3525390625</v>
       </c>
       <c r="AH83" s="8">
         <f t="shared" si="27"/>
-        <v>-9.7076490230724177E-4</v>
+        <v>5.6948965791703277E-4</v>
       </c>
       <c r="AI83" s="8">
         <f t="shared" si="28"/>
-        <v>-6.8673518482982205E-8</v>
+        <v>9.3707334530823441E-7</v>
       </c>
       <c r="AJ83" s="8">
         <f t="shared" si="29"/>
-        <v>1.9530857970014599E-6</v>
+        <v>-2.8812650700957704E-7</v>
       </c>
       <c r="AK83" s="8">
         <f t="shared" si="30"/>
@@ -16252,35 +16469,35 @@
       </c>
       <c r="AC84" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.3525390625</v>
       </c>
       <c r="AD84" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>5.6948965791703277E-4</v>
       </c>
       <c r="AE84" s="8">
         <f t="shared" si="32"/>
-        <v>0.3408203125</v>
+        <v>0.353515625</v>
       </c>
       <c r="AF84" s="8">
         <f t="shared" si="25"/>
-        <v>-9.7076490230724177E-4</v>
+        <v>-5.0593808509785676E-4</v>
       </c>
       <c r="AG84" s="8">
         <f t="shared" si="26"/>
-        <v>0.34033203125</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AH84" s="8">
         <f t="shared" si="27"/>
-        <v>-4.5005774925765962E-4</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AI84" s="8">
         <f t="shared" si="28"/>
-        <v>-3.1837831269545987E-8</v>
+        <v>1.8057403320671692E-8</v>
       </c>
       <c r="AJ84" s="8">
         <f t="shared" si="29"/>
-        <v>4.3690026699072908E-7</v>
+        <v>-1.6042307232261104E-8</v>
       </c>
       <c r="AK84" s="8">
         <f t="shared" si="30"/>
@@ -16293,35 +16510,35 @@
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="32"/>
-        <v>0.34033203125</v>
+        <v>0.353515625</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="25"/>
-        <v>-4.5005774925765962E-4</v>
+        <v>-5.0593808509785676E-4</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="26"/>
-        <v>0.340087890625</v>
+        <v>0.353271484375</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="27"/>
-        <v>-1.8966960200172966E-4</v>
+        <v>-2.3713192122087889E-4</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="28"/>
-        <v>-1.3417542071997193E-8</v>
+        <v>-7.5189894709466121E-9</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="29"/>
-        <v>8.5362274179494548E-8</v>
+        <v>1.199740701380673E-7</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="30"/>
@@ -16334,35 +16551,35 @@
       </c>
       <c r="AC86" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AD86" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AE86" s="8">
         <f t="shared" si="32"/>
-        <v>0.340087890625</v>
+        <v>0.353271484375</v>
       </c>
       <c r="AF86" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8966960200172966E-4</v>
+        <v>-2.3713192122087889E-4</v>
       </c>
       <c r="AG86" s="8">
         <f t="shared" si="26"/>
-        <v>0.3399658203125</v>
+        <v>0.3531494140625</v>
       </c>
       <c r="AH86" s="8">
         <f t="shared" si="27"/>
-        <v>-5.9466864255508511E-5</v>
+        <v>-1.0271616798102068E-4</v>
       </c>
       <c r="AI86" s="8">
         <f t="shared" si="28"/>
-        <v>-4.2067845591343372E-9</v>
+        <v>-3.2569288081037858E-9</v>
       </c>
       <c r="AJ86" s="8">
         <f t="shared" si="29"/>
-        <v>1.1279056475633183E-8</v>
+        <v>2.4357282253785958E-8</v>
       </c>
       <c r="AK86" s="8">
         <f t="shared" si="30"/>
@@ -16375,35 +16592,35 @@
       </c>
       <c r="AC87" s="8">
         <f t="shared" si="31"/>
-        <v>0.33984375</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AD87" s="8">
         <f t="shared" si="24"/>
-        <v>7.074165775849961E-5</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AE87" s="8">
         <f t="shared" si="32"/>
-        <v>0.3399658203125</v>
+        <v>0.3531494140625</v>
       </c>
       <c r="AF87" s="8">
         <f t="shared" si="25"/>
-        <v>-5.9466864255508511E-5</v>
+        <v>-1.0271616798102068E-4</v>
       </c>
       <c r="AG87" s="8">
         <f t="shared" si="26"/>
-        <v>0.33990478515625</v>
+        <v>0.35308837890625</v>
       </c>
       <c r="AH87" s="8">
         <f t="shared" si="27"/>
-        <v>5.6366733336976615E-6</v>
+        <v>-3.5505119749701386E-5</v>
       </c>
       <c r="AI87" s="8">
         <f t="shared" si="28"/>
-        <v>3.9874761586890104E-10</v>
+        <v>-1.1257979110878047E-9</v>
       </c>
       <c r="AJ87" s="8">
         <f t="shared" si="29"/>
-        <v>-3.3519528798764348E-10</v>
+        <v>3.6469498443965822E-9</v>
       </c>
       <c r="AK87" s="8">
         <f t="shared" si="30"/>
@@ -16416,35 +16633,35 @@
       </c>
       <c r="AC88" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990478515625</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AD88" s="8">
         <f t="shared" si="24"/>
-        <v>5.6366733336976615E-6</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AE88" s="8">
         <f t="shared" si="32"/>
-        <v>0.3399658203125</v>
+        <v>0.35308837890625</v>
       </c>
       <c r="AF88" s="8">
         <f t="shared" si="25"/>
-        <v>-5.9466864255508511E-5</v>
+        <v>-3.5505119749701386E-5</v>
       </c>
       <c r="AG88" s="8">
         <f t="shared" si="26"/>
-        <v>0.339935302734375</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AH88" s="8">
         <f t="shared" si="27"/>
-        <v>-2.6915276267303057E-5</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AI88" s="8">
         <f t="shared" si="28"/>
-        <v>-1.5171262000501266E-10</v>
+        <v>-6.0207306157191187E-11</v>
       </c>
       <c r="AJ88" s="8">
         <f t="shared" si="29"/>
-        <v>1.6005670801872208E-9</v>
+        <v>6.7417201528989903E-11</v>
       </c>
       <c r="AK88" s="8">
         <f t="shared" si="30"/>
@@ -16457,35 +16674,35 @@
       </c>
       <c r="AC89" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990478515625</v>
+        <v>0.35302734375</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" si="24"/>
-        <v>5.6366733336976615E-6</v>
+        <v>3.1708044333444985E-5</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" si="32"/>
-        <v>0.339935302734375</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" si="25"/>
-        <v>-2.6915276267303057E-5</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" si="26"/>
-        <v>0.3399200439453125</v>
+        <v>0.3530426025390625</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" si="27"/>
-        <v>-1.0639346674445882E-5</v>
+        <v>1.4904554892281041E-5</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" si="28"/>
-        <v>-5.9970521687814002E-11</v>
+        <v>4.725942872947116E-10</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" si="29"/>
-        <v>2.8636095504632294E-10</v>
+        <v>-2.8300802474585493E-11</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" si="30"/>
@@ -16498,35 +16715,35 @@
       </c>
       <c r="AC90" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990478515625</v>
+        <v>0.3530426025390625</v>
       </c>
       <c r="AD90" s="8">
         <f t="shared" si="24"/>
-        <v>5.6366733336976615E-6</v>
+        <v>1.4904554892281041E-5</v>
       </c>
       <c r="AE90" s="8">
         <f t="shared" si="32"/>
-        <v>0.3399200439453125</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AF90" s="8">
         <f t="shared" si="25"/>
-        <v>-1.0639346674445882E-5</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AG90" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991241455078125</v>
+        <v>0.35305023193359375</v>
       </c>
       <c r="AH90" s="8">
         <f t="shared" si="27"/>
-        <v>-2.501347973027368E-6</v>
+        <v>6.5028597820981915E-6</v>
       </c>
       <c r="AI90" s="8">
         <f t="shared" si="28"/>
-        <v>-1.4099281417862063E-11</v>
+        <v>9.6922230579089225E-11</v>
       </c>
       <c r="AJ90" s="8">
         <f t="shared" si="29"/>
-        <v>2.6612708238460676E-11</v>
+        <v>-1.2347644833620488E-11</v>
       </c>
       <c r="AK90" s="8">
         <f t="shared" si="30"/>
@@ -16539,35 +16756,35 @@
       </c>
       <c r="AC91" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990478515625</v>
+        <v>0.35305023193359375</v>
       </c>
       <c r="AD91" s="8">
         <f t="shared" si="24"/>
-        <v>5.6366733336976615E-6</v>
+        <v>6.5028597820981915E-6</v>
       </c>
       <c r="AE91" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991241455078125</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AF91" s="8">
         <f t="shared" si="25"/>
-        <v>-2.501347973027368E-6</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AG91" s="8">
         <f t="shared" si="26"/>
-        <v>0.33990859985351562</v>
+        <v>0.35305404663085938</v>
       </c>
       <c r="AH91" s="8">
         <f t="shared" si="27"/>
-        <v>1.5676598545955045E-6</v>
+        <v>2.3020246286420409E-6</v>
       </c>
       <c r="AI91" s="8">
         <f t="shared" si="28"/>
-        <v>8.836386498706834E-12</v>
+        <v>1.4969743374995854E-11</v>
       </c>
       <c r="AJ91" s="8">
         <f t="shared" si="29"/>
-        <v>-3.9212627996888434E-12</v>
+        <v>-4.3710895613910402E-12</v>
       </c>
       <c r="AK91" s="8">
         <f t="shared" si="30"/>
@@ -16580,35 +16797,35 @@
       </c>
       <c r="AC92" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990859985351562</v>
+        <v>0.35305404663085938</v>
       </c>
       <c r="AD92" s="8">
         <f t="shared" si="24"/>
-        <v>1.5676598545955045E-6</v>
+        <v>2.3020246286420409E-6</v>
       </c>
       <c r="AE92" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991241455078125</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AF92" s="8">
         <f t="shared" si="25"/>
-        <v>-2.501347973027368E-6</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AG92" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991050720214844</v>
+        <v>0.35305595397949219</v>
       </c>
       <c r="AH92" s="8">
         <f t="shared" si="27"/>
-        <v>-4.6684476562308674E-7</v>
+        <v>2.016101522395175E-7</v>
       </c>
       <c r="AI92" s="8">
         <f t="shared" si="28"/>
-        <v>-7.3185379739536055E-13</v>
+        <v>4.6411153583964061E-13</v>
       </c>
       <c r="AJ92" s="8">
         <f t="shared" si="29"/>
-        <v>1.1677412082097447E-12</v>
+        <v>-3.8281781218147279E-13</v>
       </c>
       <c r="AK92" s="8">
         <f t="shared" si="30"/>
@@ -16621,35 +16838,35 @@
       </c>
       <c r="AC93" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990859985351562</v>
+        <v>0.35305595397949219</v>
       </c>
       <c r="AD93" s="8">
         <f t="shared" si="24"/>
-        <v>1.5676598545955045E-6</v>
+        <v>2.016101522395175E-7</v>
       </c>
       <c r="AE93" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991050720214844</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="AF93" s="8">
         <f t="shared" si="25"/>
-        <v>-4.6684476562308674E-7</v>
+        <v>-1.8988022573718233E-6</v>
       </c>
       <c r="AG93" s="8">
         <f t="shared" si="26"/>
-        <v>0.33990955352783203</v>
+        <v>0.35305690765380859</v>
       </c>
       <c r="AH93" s="8">
         <f t="shared" si="27"/>
-        <v>5.5040736784972566E-7</v>
+        <v>-8.4859631088729515E-7</v>
       </c>
       <c r="AI93" s="8">
         <f t="shared" si="28"/>
-        <v>8.6285153425159528E-13</v>
+        <v>-1.7108563142788049E-13</v>
       </c>
       <c r="AJ93" s="8">
         <f t="shared" si="29"/>
-        <v>-2.5695479864102528E-13</v>
+        <v>1.6113165907101976E-12</v>
       </c>
       <c r="AK93" s="8">
         <f t="shared" si="30"/>
@@ -16662,35 +16879,35 @@
       </c>
       <c r="AC94" s="8">
         <f t="shared" si="31"/>
-        <v>0.33990955352783203</v>
+        <v>0.35305595397949219</v>
       </c>
       <c r="AD94" s="8">
         <f t="shared" si="24"/>
-        <v>5.5040736784972566E-7</v>
+        <v>2.016101522395175E-7</v>
       </c>
       <c r="AE94" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991050720214844</v>
+        <v>0.35305690765380859</v>
       </c>
       <c r="AF94" s="8">
         <f t="shared" si="25"/>
-        <v>-4.6684476562308674E-7</v>
+        <v>-8.4859631088729515E-7</v>
       </c>
       <c r="AG94" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991003036499023</v>
+        <v>0.35305643081665039</v>
       </c>
       <c r="AH94" s="8">
         <f t="shared" si="27"/>
-        <v>4.1781256954198653E-8</v>
+        <v>-3.2349314393886885E-7</v>
       </c>
       <c r="AI94" s="8">
         <f t="shared" si="28"/>
-        <v>2.2996711665613527E-14</v>
+        <v>-6.52195019979555E-14</v>
       </c>
       <c r="AJ94" s="8">
         <f t="shared" si="29"/>
-        <v>-1.9505361110220835E-14</v>
+        <v>2.7451508854385687E-13</v>
       </c>
       <c r="AK94" s="8">
         <f t="shared" si="30"/>
@@ -16703,35 +16920,35 @@
       </c>
       <c r="AC95" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991003036499023</v>
+        <v>0.35305595397949219</v>
       </c>
       <c r="AD95" s="8">
         <f t="shared" si="24"/>
-        <v>4.1781256954198653E-8</v>
+        <v>2.016101522395175E-7</v>
       </c>
       <c r="AE95" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991050720214844</v>
+        <v>0.35305643081665039</v>
       </c>
       <c r="AF95" s="8">
         <f t="shared" si="25"/>
-        <v>-4.6684476562308674E-7</v>
+        <v>-3.2349314393886885E-7</v>
       </c>
       <c r="AG95" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991026878356934</v>
+        <v>0.35305619239807129</v>
       </c>
       <c r="AH95" s="8">
         <f t="shared" si="27"/>
-        <v>-2.1253176540891872E-7</v>
+        <v>-6.0941512003420684E-8</v>
       </c>
       <c r="AI95" s="8">
         <f t="shared" si="28"/>
-        <v>-8.8798443014795027E-15</v>
+        <v>-1.2286427512716028E-14</v>
       </c>
       <c r="AJ95" s="8">
         <f t="shared" si="29"/>
-        <v>9.9219342209787508E-14</v>
+        <v>1.971416131437487E-14</v>
       </c>
       <c r="AK95" s="8">
         <f t="shared" si="30"/>
@@ -16744,35 +16961,35 @@
       </c>
       <c r="AC96" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991003036499023</v>
+        <v>0.35305595397949219</v>
       </c>
       <c r="AD96" s="8">
         <f t="shared" si="24"/>
-        <v>4.1781256954198653E-8</v>
+        <v>2.016101522395175E-7</v>
       </c>
       <c r="AE96" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991026878356934</v>
+        <v>0.35305619239807129</v>
       </c>
       <c r="AF96" s="8">
         <f t="shared" si="25"/>
-        <v>-2.1253176540891872E-7</v>
+        <v>-6.0941512003420684E-8</v>
       </c>
       <c r="AG96" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991014957427979</v>
+        <v>0.35305607318878174</v>
       </c>
       <c r="AH96" s="8">
         <f t="shared" si="27"/>
-        <v>-8.5375256975162017E-8</v>
+        <v>7.0334316093489946E-8</v>
       </c>
       <c r="AI96" s="8">
         <f t="shared" si="28"/>
-        <v>-3.5670855492099851E-15</v>
+        <v>1.4180112175270854E-14</v>
       </c>
       <c r="AJ96" s="8">
         <f t="shared" si="29"/>
-        <v>1.8144954087171285E-14</v>
+        <v>-4.2862795684638022E-15</v>
       </c>
       <c r="AK96" s="8">
         <f t="shared" si="30"/>
@@ -16785,35 +17002,35 @@
       </c>
       <c r="AC97" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991003036499023</v>
+        <v>0.35305607318878174</v>
       </c>
       <c r="AD97" s="8">
         <f t="shared" si="24"/>
-        <v>4.1781256954198653E-8</v>
+        <v>7.0334316093489946E-8</v>
       </c>
       <c r="AE97" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991014957427979</v>
+        <v>0.35305619239807129</v>
       </c>
       <c r="AF97" s="8">
         <f t="shared" si="25"/>
-        <v>-8.5375256975162017E-8</v>
+        <v>-6.0941512003420684E-8</v>
       </c>
       <c r="AG97" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991008996963501</v>
+        <v>0.35305613279342651</v>
       </c>
       <c r="AH97" s="8">
         <f t="shared" si="27"/>
-        <v>-2.1797000704371072E-8</v>
+        <v>4.6964010458339089E-9</v>
       </c>
       <c r="AI97" s="8">
         <f t="shared" si="28"/>
-        <v>-9.1070608726017689E-16</v>
+        <v>3.3031815565947889E-16</v>
       </c>
       <c r="AJ97" s="8">
         <f t="shared" si="29"/>
-        <v>1.8609245364234678E-15</v>
+        <v>-2.8620578070756459E-16</v>
       </c>
       <c r="AK97" s="8">
         <f t="shared" si="30"/>
@@ -16826,35 +17043,35 @@
       </c>
       <c r="AC98" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991003036499023</v>
+        <v>0.35305613279342651</v>
       </c>
       <c r="AD98" s="8">
         <f t="shared" si="24"/>
-        <v>4.1781256954198653E-8</v>
+        <v>4.6964010458339089E-9</v>
       </c>
       <c r="AE98" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991008996963501</v>
+        <v>0.35305619239807129</v>
       </c>
       <c r="AF98" s="8">
         <f t="shared" si="25"/>
-        <v>-2.1797000704371072E-8</v>
+        <v>-6.0941512003420684E-8</v>
       </c>
       <c r="AG98" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991006016731262</v>
+        <v>0.3530561625957489</v>
       </c>
       <c r="AH98" s="8">
         <f t="shared" si="27"/>
-        <v>9.9921279583803368E-9</v>
+        <v>-2.8122555728593568E-8</v>
       </c>
       <c r="AI98" s="8">
         <f t="shared" si="28"/>
-        <v>4.1748366574832126E-16</v>
+        <v>-1.3207480013528922E-16</v>
       </c>
       <c r="AJ98" s="8">
         <f t="shared" si="29"/>
-        <v>-2.1779842014698209E-16</v>
+        <v>1.713831067500952E-15</v>
       </c>
       <c r="AK98" s="8">
         <f t="shared" si="30"/>
@@ -16867,35 +17084,35 @@
       </c>
       <c r="AC99" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006016731262</v>
+        <v>0.35305613279342651</v>
       </c>
       <c r="AD99" s="8">
         <f t="shared" si="24"/>
-        <v>9.9921279583803368E-9</v>
+        <v>4.6964010458339089E-9</v>
       </c>
       <c r="AE99" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991008996963501</v>
+        <v>0.3530561625957489</v>
       </c>
       <c r="AF99" s="8">
         <f t="shared" si="25"/>
-        <v>-2.1797000704371072E-8</v>
+        <v>-2.8122555728593568E-8</v>
       </c>
       <c r="AG99" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991007506847382</v>
+        <v>0.35305614769458771</v>
       </c>
       <c r="AH99" s="8">
         <f t="shared" si="27"/>
-        <v>-5.902436428506519E-9</v>
+        <v>-1.1713077396890981E-8</v>
       </c>
       <c r="AI99" s="8">
         <f t="shared" si="28"/>
-        <v>-5.8977900059842576E-17</v>
+        <v>-5.5009308936692321E-17</v>
       </c>
       <c r="AJ99" s="8">
         <f t="shared" si="29"/>
-        <v>1.2865541098966206E-16</v>
+        <v>3.2940167184739626E-16</v>
       </c>
       <c r="AK99" s="8">
         <f t="shared" si="30"/>
@@ -16908,35 +17125,35 @@
       </c>
       <c r="AC100" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006016731262</v>
+        <v>0.35305613279342651</v>
       </c>
       <c r="AD100" s="8">
         <f t="shared" si="24"/>
-        <v>9.9921279583803368E-9</v>
+        <v>4.6964010458339089E-9</v>
       </c>
       <c r="AE100" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991007506847382</v>
+        <v>0.35305614769458771</v>
       </c>
       <c r="AF100" s="8">
         <f t="shared" si="25"/>
-        <v>-5.902436428506519E-9</v>
+        <v>-1.1713077396890981E-8</v>
       </c>
       <c r="AG100" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991006761789322</v>
+        <v>0.35305614024400711</v>
       </c>
       <c r="AH100" s="8">
         <f t="shared" si="27"/>
-        <v>2.0448457371813333E-9</v>
+        <v>-3.5083381755285359E-9</v>
       </c>
       <c r="AI100" s="8">
         <f t="shared" si="28"/>
-        <v>2.0432360261064451E-17</v>
+        <v>-1.6476563076691244E-17</v>
       </c>
       <c r="AJ100" s="8">
         <f t="shared" si="29"/>
-        <v>-1.2069571969815369E-17</v>
+        <v>4.1093436584433036E-17</v>
       </c>
       <c r="AK100" s="8">
         <f t="shared" si="30"/>
@@ -16949,35 +17166,35 @@
       </c>
       <c r="AC101" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006761789322</v>
+        <v>0.35305613279342651</v>
       </c>
       <c r="AD101" s="8">
         <f t="shared" si="24"/>
-        <v>2.0448457371813333E-9</v>
+        <v>4.6964010458339089E-9</v>
       </c>
       <c r="AE101" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991007506847382</v>
+        <v>0.35305614024400711</v>
       </c>
       <c r="AF101" s="8">
         <f t="shared" si="25"/>
-        <v>-5.902436428506519E-9</v>
+        <v>-3.5083381755285359E-9</v>
       </c>
       <c r="AG101" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991007134318352</v>
+        <v>0.35305613651871681</v>
       </c>
       <c r="AH101" s="8">
         <f t="shared" si="27"/>
-        <v>-1.9287953456625928E-9</v>
+        <v>5.9403143515268653E-10</v>
       </c>
       <c r="AI101" s="8">
         <f t="shared" si="28"/>
-        <v>-3.9440889404733492E-18</v>
+        <v>2.7898098533092949E-18</v>
       </c>
       <c r="AJ101" s="8">
         <f t="shared" si="29"/>
-        <v>1.1384591911372711E-17</v>
+        <v>-2.084063161410174E-18</v>
       </c>
       <c r="AK101" s="8">
         <f t="shared" si="30"/>
@@ -16990,35 +17207,35 @@
       </c>
       <c r="AC102" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006761789322</v>
+        <v>0.35305613651871681</v>
       </c>
       <c r="AD102" s="8">
         <f t="shared" si="24"/>
-        <v>2.0448457371813333E-9</v>
+        <v>5.9403143515268653E-10</v>
       </c>
       <c r="AE102" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991007134318352</v>
+        <v>0.35305614024400711</v>
       </c>
       <c r="AF102" s="8">
         <f t="shared" si="25"/>
-        <v>-1.9287953456625928E-9</v>
+        <v>-3.5083381755285359E-9</v>
       </c>
       <c r="AG102" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991006948053837</v>
+        <v>0.35305613838136196</v>
       </c>
       <c r="AH102" s="8">
         <f t="shared" si="27"/>
-        <v>5.8025195759370263E-11</v>
+        <v>-1.4571533979435003E-9</v>
       </c>
       <c r="AI102" s="8">
         <f t="shared" si="28"/>
-        <v>1.1865257419766066E-19</v>
+        <v>-8.6559492421799122E-19</v>
       </c>
       <c r="AJ102" s="8">
         <f t="shared" si="29"/>
-        <v>-1.1191872751183418E-19</v>
+        <v>5.1121868936063064E-18</v>
       </c>
       <c r="AK102" s="8">
         <f t="shared" si="30"/>
@@ -17031,35 +17248,35 @@
       </c>
       <c r="AC103" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006948053837</v>
+        <v>0.35305613651871681</v>
       </c>
       <c r="AD103" s="8">
         <f t="shared" si="24"/>
-        <v>5.8025195759370263E-11</v>
+        <v>5.9403143515268653E-10</v>
       </c>
       <c r="AE103" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991007134318352</v>
+        <v>0.35305613838136196</v>
       </c>
       <c r="AF103" s="8">
         <f t="shared" si="25"/>
-        <v>-1.9287953456625928E-9</v>
+        <v>-1.4571533979435003E-9</v>
       </c>
       <c r="AG103" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991007041186094</v>
+        <v>0.35305613745003939</v>
       </c>
       <c r="AH103" s="8">
         <f t="shared" si="27"/>
-        <v>-9.3538504719603566E-10</v>
+        <v>-4.315610091509825E-10</v>
       </c>
       <c r="AI103" s="8">
         <f t="shared" si="28"/>
-        <v>-5.4275900473937761E-20</v>
+        <v>-2.5636080562189982E-19</v>
       </c>
       <c r="AJ103" s="8">
         <f t="shared" si="29"/>
-        <v>1.8041663254340983E-18</v>
+        <v>6.2885059090428017E-19</v>
       </c>
       <c r="AK103" s="8">
         <f t="shared" si="30"/>
@@ -17072,35 +17289,35 @@
       </c>
       <c r="AC104" s="8">
         <f t="shared" si="31"/>
-        <v>0.33991006948053837</v>
+        <v>0.35305613651871681</v>
       </c>
       <c r="AD104" s="8">
         <f t="shared" si="24"/>
-        <v>5.8025195759370263E-11</v>
+        <v>5.9403143515268653E-10</v>
       </c>
       <c r="AE104" s="8">
         <f t="shared" si="32"/>
-        <v>0.33991007041186094</v>
+        <v>0.35305613745003939</v>
       </c>
       <c r="AF104" s="8">
         <f t="shared" si="25"/>
-        <v>-9.3538504719603566E-10</v>
+        <v>-4.315610091509825E-10</v>
       </c>
       <c r="AG104" s="8">
         <f t="shared" si="26"/>
-        <v>0.33991006994619966</v>
+        <v>0.3530561369843781</v>
       </c>
       <c r="AH104" s="8">
         <f t="shared" si="27"/>
-        <v>-4.386799257183327E-10</v>
+        <v>8.1235185245276398E-11</v>
       </c>
       <c r="AI104" s="8">
         <f t="shared" si="28"/>
-        <v>-2.545448856551226E-20</v>
+        <v>4.8256253676145884E-20</v>
       </c>
       <c r="AJ104" s="8">
         <f t="shared" si="29"/>
-        <v>4.1033464302199605E-19</v>
+        <v>-3.5057938523018486E-20</v>
       </c>
       <c r="AK104" s="8">
         <f t="shared" si="30"/>
@@ -17108,14 +17325,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="24">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="V15:X15"/>
@@ -17127,6 +17343,13 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">

--- a/sheets/estimate_mtow_mission3.xlsx
+++ b/sheets/estimate_mtow_mission3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43C971-AB6C-5C4D-B8C7-300EAE2BA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986787CF-BA57-4440-9361-B2EB70D06857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15080" windowHeight="17260" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -710,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -795,28 +795,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,19 +1856,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33.43</c:v>
+                  <c:v>46.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.43</c:v>
+                  <c:v>6.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.149999999999999</c:v>
+                  <c:v>12.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.31</c:v>
+                  <c:v>29.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6900000000000004</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,11 +3535,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="32" t="s">
@@ -3551,16 +3550,16 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="F3" s="39" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="F3" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -3859,14 +3858,14 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>-183.26101568053718</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C15"/>
         <v>344.59124258861675</v>
       </c>
       <c r="AR5" s="8">
@@ -4250,11 +4249,11 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="F9"/>
       <c r="G9" s="24"/>
       <c r="J9" s="20" t="s">
@@ -4353,11 +4352,11 @@
       <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
@@ -4461,21 +4460,21 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="R11" s="39" t="s">
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="R11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="V11" s="39" t="s">
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="V11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
@@ -4568,11 +4567,11 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="N12" s="20" t="s">
         <v>102</v>
       </c>
@@ -5041,21 +5040,21 @@
       <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="R16" s="39" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="R16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="V16" s="39" t="s">
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="V16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
       <c r="AB16" s="8">
         <v>12</v>
       </c>
@@ -5651,11 +5650,11 @@
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="J21" s="30" t="s">
         <v>87</v>
       </c>
@@ -6018,8 +6017,8 @@
       <c r="B24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="F24" s="25" t="s">
         <v>121</v>
       </c>
@@ -6274,11 +6273,11 @@
       <c r="D26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="J26" s="26" t="s">
         <v>78</v>
       </c>
@@ -7274,11 +7273,11 @@
       </c>
     </row>
     <row r="37" spans="6:48" x14ac:dyDescent="0.2">
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
       <c r="AB37" s="32" t="s">
         <v>142</v>
       </c>
@@ -10243,11 +10242,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -10263,11 +10262,11 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -10298,8 +10297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6A719E-19FD-DD4C-B095-5F00DAC7B3E8}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10342,11 +10341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="6" t="s">
@@ -10360,13 +10359,13 @@
       <c r="B3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="F3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="F3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -10469,7 +10468,7 @@
       </c>
       <c r="K4">
         <f>MAX(G6,G40)</f>
-        <v>325.9886425739644</v>
+        <v>120.06775785612803</v>
       </c>
       <c r="L4" t="s">
         <v>162</v>
@@ -10479,7 +10478,7 @@
       </c>
       <c r="O4">
         <f>$C$17*$C$31*COS(G16/180*PI())</f>
-        <v>11692.788493728132</v>
+        <v>8345.5922602360861</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
@@ -10489,7 +10488,7 @@
       </c>
       <c r="S4">
         <f xml:space="preserve"> $C$17 * $C$31</f>
-        <v>11734.924720301116</v>
+        <v>8360.0753052316741</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -10499,7 +10498,7 @@
       </c>
       <c r="W4">
         <f>$C$17*$C$31*COS(G32/180*PI())</f>
-        <v>11719.773130721765</v>
+        <v>8354.8643012638422</v>
       </c>
       <c r="X4" t="s">
         <v>31</v>
@@ -10512,14 +10511,14 @@
       </c>
       <c r="AD4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC4^2)) - AC4</f>
-        <v>1.0921945342097461</v>
+        <v>0.66496961520254083</v>
       </c>
       <c r="AE4" s="9">
         <v>1</v>
       </c>
       <c r="AF4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE4^2)) - AE4</f>
-        <v>-0.66140652402501099</v>
+        <v>-0.57866252164169485</v>
       </c>
       <c r="AG4" s="8">
         <f xml:space="preserve"> (AC4 + AE4)/2</f>
@@ -10527,15 +10526,15 @@
       </c>
       <c r="AH4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG4^2)) - AG4</f>
-        <v>-0.13996117563017896</v>
+        <v>-6.9588646381804897E-2</v>
       </c>
       <c r="AI4" s="8">
         <f>AD4*AH4</f>
-        <v>-0.15286483102485177</v>
+        <v>-4.6274335406974489E-2</v>
       </c>
       <c r="AJ4" s="8">
         <f>AF4*AH4</f>
-        <v>9.2571234672010741E-2</v>
+        <v>4.0268341592927429E-2</v>
       </c>
       <c r="AK4" s="8">
         <f>AE4-AC4</f>
@@ -10547,17 +10546,17 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="8">
         <f>K30</f>
-        <v>-3.4685854188865051E-10</v>
+        <v>-7.6630612966255285E-10</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8">
         <f>K30</f>
-        <v>-3.4685854188865051E-10</v>
+        <v>-7.6630612966255285E-10</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8">
         <f>K30</f>
-        <v>-3.4685854188865051E-10</v>
+        <v>-7.6630612966255285E-10</v>
       </c>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
@@ -10584,7 +10583,7 @@
       </c>
       <c r="K5">
         <f>K4/$C$5</f>
-        <v>81.4971606434911</v>
+        <v>30.016939464032006</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -10594,7 +10593,7 @@
       </c>
       <c r="O5">
         <f>0.5*$C$30*$G$11^2</f>
-        <v>551.25</v>
+        <v>1141.4849512500002</v>
       </c>
       <c r="P5" t="s">
         <v>38</v>
@@ -10604,7 +10603,7 @@
       </c>
       <c r="S5">
         <f xml:space="preserve"> 0.5 * $C$30 * $C$20^2</f>
-        <v>551.25</v>
+        <v>1141.4849512500002</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
@@ -10614,7 +10613,7 @@
       </c>
       <c r="W5">
         <f>0.5*$C$30*$G$27^2</f>
-        <v>551.25</v>
+        <v>1141.4849512500002</v>
       </c>
       <c r="X5" t="s">
         <v>38</v>
@@ -10628,7 +10627,7 @@
       </c>
       <c r="AD5" s="8">
         <f t="shared" ref="AD5:AD34" si="0" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC5^2)) - AC5</f>
-        <v>1.0921945342097461</v>
+        <v>0.66496961520254083</v>
       </c>
       <c r="AE5" s="8">
         <f>IF(AJ4&gt;0, AG4, AE4)</f>
@@ -10636,7 +10635,7 @@
       </c>
       <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF34" si="1" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE5^2)) - AE5</f>
-        <v>-0.13996117563017896</v>
+        <v>-6.9588646381804897E-2</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ref="AG5:AG34" si="2" xml:space="preserve"> (AC5 + AE5)/2</f>
@@ -10644,15 +10643,15 @@
       </c>
       <c r="AH5" s="8">
         <f t="shared" ref="AH5:AH34" si="3" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG5^2)) - AG5</f>
-        <v>0.15258636820717913</v>
+        <v>0.19831540404458048</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ref="AI5:AI34" si="4">AD5*AH5</f>
-        <v>0.16665399735079683</v>
+        <v>0.1318737179162611</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ref="AJ5:AJ34" si="5">AF5*AH5</f>
-        <v>-2.1356167479416155E-2</v>
+        <v>-1.3800500524123072E-2</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" ref="AK5:AK34" si="6">AE5-AC5</f>
@@ -10665,31 +10664,31 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>-299.87788860553417</v>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17"/>
+        <v>-222.15251534111007</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
         <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>105.11631758556837</v>
+        <v>833.93788242421033</v>
       </c>
       <c r="AR5" s="8">
         <f>(AN5+AP5)/2</f>
         <v>1500</v>
       </c>
       <c r="AS5" s="8">
-        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17"/>
-        <v>85.955123570641717</v>
+        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <v>374.14992801424194</v>
       </c>
       <c r="AT5" s="8">
         <f>AO5*AS5</f>
-        <v>-25776.040971191822</v>
+        <v>-83118.347623059119</v>
       </c>
       <c r="AU5" s="8">
         <f>AQ5*AS5</f>
-        <v>9035.2860673583473</v>
+        <v>312017.79867736762</v>
       </c>
       <c r="AV5" s="8">
         <f>AP5-AN5</f>
@@ -10708,7 +10707,7 @@
       </c>
       <c r="G6">
         <f xml:space="preserve"> 1/1000 * ($C$17*$C$31)/$C$9 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) )</f>
-        <v>325.9886425739644</v>
+        <v>120.06775785612803</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
@@ -10718,7 +10717,7 @@
       </c>
       <c r="K6">
         <f>MAX(G18,G23,G34)</f>
-        <v>100.932902773311</v>
+        <v>51.390092600903856</v>
       </c>
       <c r="L6" t="s">
         <v>162</v>
@@ -10728,7 +10727,7 @@
       </c>
       <c r="O6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.28379984779260853</v>
+        <v>0.22637688478394008</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
@@ -10738,7 +10737,7 @@
       </c>
       <c r="S6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.28379984779260853</v>
+        <v>0.22637688478394008</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -10748,7 +10747,7 @@
       </c>
       <c r="W6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.28379984779260853</v>
+        <v>0.22637688478394008</v>
       </c>
       <c r="X6" t="s">
         <v>18</v>
@@ -10762,7 +10761,7 @@
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="0"/>
-        <v>0.15258636820717913</v>
+        <v>0.19831540404458048</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" ref="AE6:AE34" si="8">IF(AJ5&gt;0, AG5, AE5)</f>
@@ -10770,7 +10769,7 @@
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13996117563017896</v>
+        <v>-6.9588646381804897E-2</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="2"/>
@@ -10778,15 +10777,15 @@
       </c>
       <c r="AH6" s="8">
         <f t="shared" si="3"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>6.1423749393111682E-2</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0924997566619494E-4</v>
+        <v>1.2181275678827997E-2</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" si="5"/>
-        <v>1.0021049200835271E-4</v>
+        <v>-4.2743955759618523E-3</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" si="6"/>
@@ -10800,29 +10799,29 @@
         <v>500</v>
       </c>
       <c r="AO6" s="8">
-        <v>-299.87788860553417</v>
+        <v>-222.15251534111007</v>
       </c>
       <c r="AP6" s="8">
         <f>IF(AU5&gt;0,AR5,AP5)</f>
         <v>1500</v>
       </c>
       <c r="AQ6" s="8">
-        <v>85.955123570641717</v>
+        <v>374.14992801424194</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" ref="AR6:AR44" si="9">(AN6+AP6)/2</f>
         <v>1000</v>
       </c>
       <c r="AS6" s="8">
-        <v>-71.729655406419965</v>
+        <v>89.645908600196776</v>
       </c>
       <c r="AT6" s="8">
         <f t="shared" ref="AT6:AT44" si="10">AO6*AS6</f>
-        <v>21510.137613679759</v>
+        <v>-19915.064085572965</v>
       </c>
       <c r="AU6" s="8">
         <f t="shared" ref="AU6:AU44" si="11">AQ6*AS6</f>
-        <v>-6165.5313941383765</v>
+        <v>33541.010249534935</v>
       </c>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV44" si="12">AP6-AN6</f>
@@ -10841,7 +10840,7 @@
       </c>
       <c r="G7">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>2933.7311800752791</v>
+        <v>2090.0188263079185</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -10851,7 +10850,7 @@
       </c>
       <c r="K7">
         <f>K6/$C$6</f>
-        <v>100.932902773311</v>
+        <v>51.390092600903856</v>
       </c>
       <c r="L7" t="s">
         <v>162</v>
@@ -10861,56 +10860,56 @@
       </c>
       <c r="O7">
         <f xml:space="preserve"> O6 / $C$21</f>
-        <v>3.5474980974076066E-2</v>
+        <v>1.8555482359339352E-2</v>
       </c>
       <c r="R7" t="s">
         <v>56</v>
       </c>
       <c r="S7">
         <f xml:space="preserve"> S6 / $C$21</f>
-        <v>3.5474980974076066E-2</v>
+        <v>1.8555482359339352E-2</v>
       </c>
       <c r="V7" t="s">
         <v>56</v>
       </c>
       <c r="W7">
         <f xml:space="preserve"> W6 / $C$21</f>
-        <v>3.5474980974076066E-2</v>
+        <v>1.8555482359339352E-2</v>
       </c>
       <c r="AB7" s="8">
         <v>3</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="0"/>
-        <v>0.15258636820717913</v>
+        <v>6.1423749393111682E-2</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-6.9588646381804897E-2</v>
       </c>
       <c r="AG7" s="8">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="3"/>
-        <v>7.31390611544388E-2</v>
+        <v>-4.5074975994607858E-3</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="4"/>
-        <v>1.1160023715638592E-2</v>
+        <v>-2.7686740293933178E-4</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="5"/>
-        <v>-5.2366674331756165E-5</v>
+        <v>3.136706565157111E-4</v>
       </c>
       <c r="AK7" s="8">
         <f t="shared" si="6"/>
@@ -10921,32 +10920,32 @@
       </c>
       <c r="AN7" s="8">
         <f t="shared" ref="AN7:AN44" si="13">IF(AT6&gt;0,AR6,AN6)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" s="8">
-        <v>-71.729655406419965</v>
+        <v>-222.15251534111007</v>
       </c>
       <c r="AP7" s="8">
         <f t="shared" ref="AP7:AP44" si="14">IF(AU6&gt;0,AR6,AP6)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AQ7" s="8">
-        <v>85.955123570641717</v>
+        <v>89.645908600196776</v>
       </c>
       <c r="AR7" s="8">
         <f t="shared" si="9"/>
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="AS7" s="8">
-        <v>17.388375255487404</v>
+        <v>-63.582520585164332</v>
       </c>
       <c r="AT7" s="8">
         <f t="shared" si="10"/>
-        <v>-1247.2621651536313</v>
+        <v>14125.016879722167</v>
       </c>
       <c r="AU7" s="8">
         <f t="shared" si="11"/>
-        <v>1494.6199437781086</v>
+        <v>-5699.9128289477721</v>
       </c>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
@@ -10975,7 +10974,7 @@
       </c>
       <c r="O8">
         <f xml:space="preserve"> O5 * $C$21 * O7</f>
-        <v>156.44466609567544</v>
+        <v>258.40580729172279</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -10985,7 +10984,7 @@
       </c>
       <c r="S8">
         <f xml:space="preserve"> S5 * $C$21 * S7</f>
-        <v>156.44466609567544</v>
+        <v>258.40580729172279</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -10995,7 +10994,7 @@
       </c>
       <c r="W8">
         <f xml:space="preserve"> W5*W7*$C$21</f>
-        <v>156.44466609567544</v>
+        <v>258.40580729172274</v>
       </c>
       <c r="X8" t="s">
         <v>31</v>
@@ -11005,35 +11004,35 @@
       </c>
       <c r="AC8" s="8">
         <f t="shared" si="7"/>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="0"/>
-        <v>7.31390611544388E-2</v>
+        <v>6.1423749393111682E-2</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.5074975994607858E-3</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" si="2"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="3"/>
-        <v>3.5700435717792356E-2</v>
+        <v>2.8327708857929623E-2</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="4"/>
-        <v>2.6110963512037265E-3</v>
+        <v>1.7399940897704991E-3</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5561075863249135E-5</v>
+        <v>-1.2768707967534182E-4</v>
       </c>
       <c r="AK8" s="8">
         <f t="shared" si="6"/>
@@ -11044,32 +11043,32 @@
       </c>
       <c r="AN8" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AO8" s="8">
-        <v>-71.729655406419965</v>
+        <v>-63.582520585164332</v>
       </c>
       <c r="AP8" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AQ8" s="8">
-        <v>17.388375255487404</v>
+        <v>89.645908600196776</v>
       </c>
       <c r="AR8" s="8">
         <f t="shared" si="9"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AS8" s="8">
-        <v>-24.765678149824794</v>
+        <v>13.827767391850898</v>
       </c>
       <c r="AT8" s="8">
         <f t="shared" si="10"/>
-        <v>1776.4335595932369</v>
+        <v>-879.20430483922382</v>
       </c>
       <c r="AU8" s="8">
         <f t="shared" si="11"/>
-        <v>-430.63490512577852</v>
+        <v>1239.6027717546469</v>
       </c>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
@@ -11088,56 +11087,56 @@
       </c>
       <c r="O9">
         <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$22^0.68) - 0.64</f>
-        <v>0.75661729604956662</v>
+        <v>0.86912098200199439</v>
       </c>
       <c r="R9" t="s">
         <v>58</v>
       </c>
       <c r="S9">
         <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$22^0.68) - 0.64</f>
-        <v>0.75661729604956662</v>
+        <v>0.86912098200199439</v>
       </c>
       <c r="V9" t="s">
         <v>58</v>
       </c>
       <c r="W9">
         <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$22^0.68) - 0.64</f>
-        <v>0.75661729604956662</v>
+        <v>0.86912098200199439</v>
       </c>
       <c r="AB9" s="8">
         <v>5</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="0"/>
-        <v>3.5700435717792356E-2</v>
+        <v>2.8327708857929623E-2</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.5074975994607858E-3</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" si="2"/>
-        <v>0.359375</v>
+        <v>0.421875</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="3"/>
-        <v>1.7380909681138812E-2</v>
+        <v>1.1881069714876735E-2</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="4"/>
-        <v>6.2050604878825094E-4</v>
+        <v>3.365634838037931E-4</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2444519009342321E-5</v>
+        <v>-5.3553893218833127E-5</v>
       </c>
       <c r="AK9" s="8">
         <f t="shared" si="6"/>
@@ -11148,32 +11147,32 @@
       </c>
       <c r="AN9" s="8">
         <f t="shared" si="13"/>
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="AO9" s="8">
-        <v>-24.765678149824794</v>
+        <v>-63.582520585164332</v>
       </c>
       <c r="AP9" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="AQ9" s="8">
-        <v>17.388375255487404</v>
+        <v>13.827767391850898</v>
       </c>
       <c r="AR9" s="8">
         <f t="shared" si="9"/>
-        <v>1187.5</v>
+        <v>812.5</v>
       </c>
       <c r="AS9" s="8">
-        <v>-3.0664019508134288</v>
+        <v>-24.690548186880733</v>
       </c>
       <c r="AT9" s="8">
         <f t="shared" si="10"/>
-        <v>75.941523791840254</v>
+        <v>1569.8872883513361</v>
       </c>
       <c r="AU9" s="8">
         <f t="shared" si="11"/>
-        <v>-53.319747804902526</v>
+        <v>-341.4151571054727</v>
       </c>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
@@ -11181,11 +11180,11 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="J10" s="37" t="s">
         <v>34</v>
       </c>
@@ -11196,56 +11195,56 @@
       </c>
       <c r="O10">
         <f>O4/(O5*$C$21)</f>
-        <v>2.6514259622966287</v>
+        <v>0.59927635367817866</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
       </c>
       <c r="S10">
         <f xml:space="preserve"> S4 / (S5 * $C$21)</f>
-        <v>2.6609806621997998</v>
+        <v>0.6003163453437752</v>
       </c>
       <c r="V10" t="s">
         <v>138</v>
       </c>
       <c r="W10">
         <f>W4 / ( W5 * $C$21)</f>
-        <v>2.6575449276013074</v>
+        <v>0.59994215602809009</v>
       </c>
       <c r="AB10" s="8">
         <v>6</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="7"/>
-        <v>0.359375</v>
+        <v>0.421875</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="0"/>
-        <v>1.7380909681138812E-2</v>
+        <v>1.1881069714876735E-2</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.5074975994607858E-3</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" si="2"/>
-        <v>0.3671875</v>
+        <v>0.4296875</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="3"/>
-        <v>8.306388125758235E-3</v>
+        <v>3.6799173926581608E-3</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="4"/>
-        <v>1.4437258179028777E-4</v>
+        <v>4.3721355087159034E-5</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="5"/>
-        <v>-5.9472724285626028E-6</v>
+        <v>-1.6587218813620654E-5</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" si="6"/>
@@ -11256,32 +11255,32 @@
       </c>
       <c r="AN10" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>812.5</v>
       </c>
       <c r="AO10" s="8">
-        <v>-3.0664019508134288</v>
+        <v>-24.690548186880733</v>
       </c>
       <c r="AP10" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="AQ10" s="8">
-        <v>17.388375255487404</v>
+        <v>13.827767391850898</v>
       </c>
       <c r="AR10" s="8">
         <f t="shared" si="9"/>
-        <v>1218.75</v>
+        <v>843.75</v>
       </c>
       <c r="AS10" s="8">
-        <v>7.3191217196931575</v>
+        <v>-5.3830176133223517</v>
       </c>
       <c r="AT10" s="8">
         <f t="shared" si="10"/>
-        <v>-22.443369119508038</v>
+        <v>132.90965577256324</v>
       </c>
       <c r="AU10" s="8">
         <f t="shared" si="11"/>
-        <v>127.26763500261291</v>
+        <v>-74.435115423257855</v>
       </c>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
@@ -11289,17 +11288,17 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="4" t="s">
         <v>154</v>
       </c>
       <c r="G11" s="1">
         <f>$C$20</f>
-        <v>30</v>
+        <v>43.17</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -11309,7 +11308,7 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> (G6*G8 + G18*G19 + G23*G24 + G34*G35 + G40*G42)/3600</f>
-        <v>29.352554020723939</v>
+        <v>10.082065798254614</v>
       </c>
       <c r="L11" t="s">
         <v>163</v>
@@ -11319,56 +11318,56 @@
       </c>
       <c r="O11">
         <f>O7+O10^2/(PI()*O9*$C$22)</f>
-        <v>0.33123050936355325</v>
+        <v>4.0477116505958602E-2</v>
       </c>
       <c r="R11" t="s">
         <v>59</v>
       </c>
       <c r="S11">
         <f xml:space="preserve"> S7 + S10^2 / ( PI() * S9 * $C$22 )</f>
-        <v>0.33336592403942034</v>
+        <v>4.0553268681530003E-2</v>
       </c>
       <c r="V11" t="s">
         <v>137</v>
       </c>
       <c r="W11">
         <f xml:space="preserve"> W7 + W10^2 / (PI() * W9 * $C$22)</f>
-        <v>0.33259717475610817</v>
+        <v>4.0525853898324304E-2</v>
       </c>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="7"/>
-        <v>0.3671875</v>
+        <v>0.4296875</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="0"/>
-        <v>8.306388125758235E-3</v>
+        <v>3.6799173926581608E-3</v>
       </c>
       <c r="AE11" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.5074975994607858E-3</v>
       </c>
       <c r="AG11" s="8">
         <f t="shared" si="2"/>
-        <v>0.37109375</v>
+        <v>0.43359375</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="3"/>
-        <v>3.7888854931052429E-3</v>
+        <v>-4.1546150311205787E-4</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="4"/>
-        <v>3.1471953469787022E-5</v>
+        <v>-1.5288640112819644E-6</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7127957286571771E-6</v>
+        <v>1.8726917279459707E-6</v>
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="6"/>
@@ -11379,32 +11378,32 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>843.75</v>
       </c>
       <c r="AO11" s="8">
-        <v>-3.0664019508134288</v>
+        <v>-5.3830176133223517</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="14"/>
-        <v>1218.75</v>
+        <v>875</v>
       </c>
       <c r="AQ11" s="8">
-        <v>7.3191217196931575</v>
+        <v>13.827767391850898</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" si="9"/>
-        <v>1203.125</v>
+        <v>859.375</v>
       </c>
       <c r="AS11" s="8">
-        <v>2.1655742099676445</v>
+        <v>4.2346616490440852</v>
       </c>
       <c r="AT11" s="8">
         <f t="shared" si="10"/>
-        <v>-6.6405209820760351</v>
+        <v>-22.795258243264986</v>
       </c>
       <c r="AU11" s="8">
         <f t="shared" si="11"/>
-        <v>15.850101235781537</v>
+        <v>58.555916266173355</v>
       </c>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
@@ -11435,7 +11434,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> (G8 + G19 + G24 + G35 +G42)/60</f>
-        <v>19.344818515808399</v>
+        <v>14.254326423845301</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -11445,7 +11444,7 @@
       </c>
       <c r="O12">
         <f>O5*O11*$C$21</f>
-        <v>1460.7265462932698</v>
+        <v>563.68903621084564</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -11455,7 +11454,7 @@
       </c>
       <c r="S12">
         <f xml:space="preserve"> S5 * S11 * $C$21</f>
-        <v>1470.1437250138438</v>
+        <v>564.74954027236606</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -11465,7 +11464,7 @@
       </c>
       <c r="W12">
         <f xml:space="preserve"> W5 * $C$21 * W11</f>
-        <v>1466.7535406744371</v>
+        <v>564.3677588102189</v>
       </c>
       <c r="X12" t="s">
         <v>31</v>
@@ -11475,35 +11474,35 @@
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="7"/>
-        <v>0.37109375</v>
+        <v>0.4296875</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="0"/>
-        <v>3.7888854931052429E-3</v>
+        <v>3.6799173926581608E-3</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.43359375</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.1546150311205787E-4</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" si="2"/>
-        <v>0.373046875</v>
+        <v>0.431640625</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="3"/>
-        <v>1.53489470666901E-3</v>
+        <v>1.6318045011970428E-3</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="4"/>
-        <v>5.8155402875422389E-6</v>
+        <v>6.0049057653728719E-6</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="5"/>
-        <v>-1.098965859952037E-6</v>
+        <v>-6.7795195085234521E-7</v>
       </c>
       <c r="AK12" s="8">
         <f t="shared" si="6"/>
@@ -11514,32 +11513,32 @@
       </c>
       <c r="AN12" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>843.75</v>
       </c>
       <c r="AO12" s="8">
-        <v>-3.0664019508134288</v>
+        <v>-5.3830176133223517</v>
       </c>
       <c r="AP12" s="8">
         <f t="shared" si="14"/>
-        <v>1203.125</v>
+        <v>859.375</v>
       </c>
       <c r="AQ12" s="8">
-        <v>2.1655742099676445</v>
+        <v>4.2346616490440852</v>
       </c>
       <c r="AR12" s="8">
         <f t="shared" si="9"/>
-        <v>1195.3125</v>
+        <v>851.5625</v>
       </c>
       <c r="AS12" s="8">
-        <v>-0.44065043728301134</v>
+        <v>-0.57112992852563593</v>
       </c>
       <c r="AT12" s="8">
         <f t="shared" si="10"/>
-        <v>1.3512113605114164</v>
+        <v>3.074402464749034</v>
       </c>
       <c r="AU12" s="8">
         <f t="shared" si="11"/>
-        <v>-0.95426122259105439</v>
+        <v>-2.4185420049488</v>
       </c>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
@@ -11567,56 +11566,56 @@
       </c>
       <c r="O13">
         <f>O4/O12</f>
-        <v>8.0047757901023129</v>
+        <v>14.805312369273137</v>
       </c>
       <c r="R13" t="s">
         <v>106</v>
       </c>
       <c r="S13">
         <f>S10/S11</f>
-        <v>7.9821615537559873</v>
+        <v>14.803155574415866</v>
       </c>
       <c r="V13" t="s">
         <v>106</v>
       </c>
       <c r="W13">
         <f>W4/W12</f>
-        <v>7.990281124757213</v>
+        <v>14.803936211517975</v>
       </c>
       <c r="AB13" s="8">
         <v>9</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" si="7"/>
-        <v>0.373046875</v>
+        <v>0.431640625</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="0"/>
-        <v>1.53489470666901E-3</v>
+        <v>1.6318045011970428E-3</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.43359375</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.1546150311205787E-4</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" si="2"/>
-        <v>0.3740234375</v>
+        <v>0.4326171875</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="3"/>
-        <v>4.0906793425665722E-4</v>
+        <v>6.0806634510945923E-4</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="4"/>
-        <v>6.2787620695856975E-7</v>
+        <v>9.9224539897604998E-7</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.9288764382071293E-7</v>
+        <v>-2.5262815773103125E-7</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" si="6"/>
@@ -11627,32 +11626,32 @@
       </c>
       <c r="AN13" s="8">
         <f t="shared" si="13"/>
-        <v>1195.3125</v>
+        <v>851.5625</v>
       </c>
       <c r="AO13" s="8">
-        <v>-0.44065043728301134</v>
+        <v>-0.57112992852563593</v>
       </c>
       <c r="AP13" s="8">
         <f t="shared" si="14"/>
-        <v>1203.125</v>
+        <v>859.375</v>
       </c>
       <c r="AQ13" s="8">
-        <v>2.1655742099676445</v>
+        <v>4.2346616490440852</v>
       </c>
       <c r="AR13" s="8">
         <f t="shared" si="9"/>
-        <v>1199.21875</v>
+        <v>855.46875</v>
       </c>
       <c r="AS13" s="8">
-        <v>0.86490775005631804</v>
+        <v>1.8325308638025604</v>
       </c>
       <c r="AT13" s="8">
         <f t="shared" si="10"/>
-        <v>-0.38112197827178201</v>
+        <v>-1.0466132212645782</v>
       </c>
       <c r="AU13" s="8">
         <f t="shared" si="11"/>
-        <v>1.8730219175231038</v>
+        <v>7.7601481696343324</v>
       </c>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
@@ -11671,7 +11670,7 @@
       </c>
       <c r="G14">
         <f>SQRT($G$11^2-$G$12^2)</f>
-        <v>29.892279939810546</v>
+        <v>43.095212031036581</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -11681,35 +11680,35 @@
       </c>
       <c r="AC14" s="8">
         <f t="shared" si="7"/>
-        <v>0.3740234375</v>
+        <v>0.4326171875</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="0"/>
-        <v>4.0906793425665722E-4</v>
+        <v>6.0806634510945923E-4</v>
       </c>
       <c r="AE14" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.43359375</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1598778416337439E-4</v>
+        <v>-4.1546150311205787E-4</v>
       </c>
       <c r="AG14" s="8">
         <f t="shared" si="2"/>
-        <v>0.37451171875</v>
+        <v>0.43310546875</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5355593384475119E-4</v>
+        <v>9.6276220200253171E-5</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="4"/>
-        <v>-6.2814808650724289E-8</v>
+        <v>5.8542329338121436E-8</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="5"/>
-        <v>1.0994417281864111E-7</v>
+        <v>-3.9999063158344653E-8</v>
       </c>
       <c r="AK14" s="8">
         <f t="shared" si="6"/>
@@ -11720,32 +11719,32 @@
       </c>
       <c r="AN14" s="8">
         <f t="shared" si="13"/>
-        <v>1195.3125</v>
+        <v>851.5625</v>
       </c>
       <c r="AO14" s="8">
-        <v>-0.44065043728301134</v>
+        <v>-0.57112992852563593</v>
       </c>
       <c r="AP14" s="8">
         <f t="shared" si="14"/>
-        <v>1199.21875</v>
+        <v>855.46875</v>
       </c>
       <c r="AQ14" s="8">
-        <v>0.86490775005631804</v>
+        <v>1.8325308638025604</v>
       </c>
       <c r="AR14" s="8">
         <f t="shared" si="9"/>
-        <v>1197.265625</v>
+        <v>853.515625</v>
       </c>
       <c r="AS14" s="8">
-        <v>0.2127393253823584</v>
+        <v>0.63089131933401177</v>
       </c>
       <c r="AT14" s="8">
         <f t="shared" si="10"/>
-        <v>-9.3743676757029062E-2</v>
+        <v>-0.36032091411867828</v>
       </c>
       <c r="AU14" s="8">
         <f t="shared" si="11"/>
-        <v>0.18399989126495456</v>
+        <v>1.1561278143846936</v>
       </c>
       <c r="AV14" s="8">
         <f t="shared" si="12"/>
@@ -11758,7 +11757,7 @@
       </c>
       <c r="G15">
         <f>$G$14 * ($G$13/$G$12)</f>
-        <v>3587.0735927772657</v>
+        <v>5171.4254437243899</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -11768,17 +11767,17 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="40" t="s">
         <v>140</v>
       </c>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
-      <c r="R15" s="43" t="s">
+      <c r="R15" s="40" t="s">
         <v>135</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="40" t="s">
         <v>149</v>
       </c>
       <c r="W15" s="46"/>
@@ -11788,35 +11787,35 @@
       </c>
       <c r="AC15" s="8">
         <f t="shared" si="7"/>
-        <v>0.3740234375</v>
+        <v>0.43310546875</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="0"/>
-        <v>4.0906793425665722E-4</v>
+        <v>9.6276220200253171E-5</v>
       </c>
       <c r="AE15" s="8">
         <f t="shared" si="8"/>
-        <v>0.37451171875</v>
+        <v>0.43359375</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5355593384475119E-4</v>
+        <v>-4.1546150311205787E-4</v>
       </c>
       <c r="AG15" s="8">
         <f t="shared" si="2"/>
-        <v>0.374267578125</v>
+        <v>0.433349609375</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="3"/>
-        <v>1.277319515258224E-4</v>
+        <v>-1.5959918073737978E-4</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="4"/>
-        <v>5.2251045549239642E-8</v>
+        <v>-1.5365605868451978E-8</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9613999098360148E-8</v>
+        <v>6.6307315524604791E-8</v>
       </c>
       <c r="AK15" s="8">
         <f t="shared" si="6"/>
@@ -11827,32 +11826,32 @@
       </c>
       <c r="AN15" s="8">
         <f t="shared" si="13"/>
-        <v>1195.3125</v>
+        <v>851.5625</v>
       </c>
       <c r="AO15" s="8">
-        <v>-0.44065043728301134</v>
+        <v>-0.57112992852563593</v>
       </c>
       <c r="AP15" s="8">
         <f t="shared" si="14"/>
-        <v>1197.265625</v>
+        <v>853.515625</v>
       </c>
       <c r="AQ15" s="8">
-        <v>0.2127393253823584</v>
+        <v>0.63089131933401177</v>
       </c>
       <c r="AR15" s="8">
         <f t="shared" si="9"/>
-        <v>1196.2890625</v>
+        <v>852.5390625</v>
       </c>
       <c r="AS15" s="8">
-        <v>-0.11380304827116561</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AT15" s="8">
         <f t="shared" si="10"/>
-        <v>5.0147362984828775E-2</v>
+        <v>-1.7092999418689026E-2</v>
       </c>
       <c r="AU15" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4210383715663739E-2</v>
+        <v>1.8881561648275921E-2</v>
       </c>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
@@ -11870,7 +11869,7 @@
       </c>
       <c r="G16">
         <f>ATAN(G12/G14)/PI()*180</f>
-        <v>4.8568571798064104</v>
+        <v>3.3730687514309912</v>
       </c>
       <c r="H16" t="s">
         <v>62</v>
@@ -11880,7 +11879,7 @@
       </c>
       <c r="K16" s="5">
         <f>C17</f>
-        <v>1196.629299536653</v>
+        <v>852.49043304611405</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -11920,35 +11919,35 @@
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="7"/>
-        <v>0.374267578125</v>
+        <v>0.43310546875</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="0"/>
-        <v>1.277319515258224E-4</v>
+        <v>9.6276220200253171E-5</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="8"/>
-        <v>0.37451171875</v>
+        <v>0.433349609375</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5355593384475119E-4</v>
+        <v>-1.5959918073737978E-4</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="2"/>
-        <v>0.3743896484375</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2917997512962298E-5</v>
+        <v>-3.1663116451807749E-5</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6500410321363946E-9</v>
+        <v>-3.0484051717405018E-9</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="5"/>
-        <v>1.9836351715070993E-9</v>
+        <v>5.0534074453007677E-9</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="6"/>
@@ -11959,32 +11958,32 @@
       </c>
       <c r="AN16" s="8">
         <f t="shared" si="13"/>
-        <v>1196.2890625</v>
+        <v>851.5625</v>
       </c>
       <c r="AO16" s="8">
-        <v>-0.11380304827116561</v>
+        <v>-0.57112992852563593</v>
       </c>
       <c r="AP16" s="8">
         <f t="shared" si="14"/>
-        <v>1197.265625</v>
+        <v>852.5390625</v>
       </c>
       <c r="AQ16" s="8">
-        <v>0.2127393253823584</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AR16" s="8">
         <f t="shared" si="9"/>
-        <v>1196.77734375</v>
+        <v>852.05078125</v>
       </c>
       <c r="AS16" s="8">
-        <v>4.9506416516123863E-2</v>
+        <v>-0.27058882543411755</v>
       </c>
       <c r="AT16" s="8">
         <f t="shared" si="10"/>
-        <v>-5.633981108516874E-3</v>
+        <v>0.15454137653002334</v>
       </c>
       <c r="AU16" s="8">
         <f t="shared" si="11"/>
-        <v>1.0531961651738237E-2</v>
+        <v>-8.0982879811410738E-3</v>
       </c>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
@@ -11997,7 +11996,7 @@
       </c>
       <c r="C17" s="3">
         <f>AR44</f>
-        <v>1196.629299536653</v>
+        <v>852.49043304611405</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -12007,7 +12006,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> 1/1000 * (O22 + O17 * (O27 * O24 + $G$11 * SIN(O16/180*PI())))</f>
-        <v>100.932902773311</v>
+        <v>51.390092600903856</v>
       </c>
       <c r="H17" t="s">
         <v>162</v>
@@ -12017,7 +12016,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> 1000 * K11 / ($C$12 * $C$13 * $C$14)</f>
-        <v>172.6620824748467</v>
+        <v>59.30626940149773</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -12027,7 +12026,7 @@
       </c>
       <c r="O17">
         <f>(O12+$C$17*$C$31*SIN(G16/180*PI()))/$C$6</f>
-        <v>2454.283505945431</v>
+        <v>1055.5720863680949</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
@@ -12037,7 +12036,7 @@
       </c>
       <c r="S17">
         <f xml:space="preserve"> S12 / $C$6</f>
-        <v>1470.1437250138438</v>
+        <v>564.74954027236606</v>
       </c>
       <c r="T17" t="s">
         <v>31</v>
@@ -12047,7 +12046,7 @@
       </c>
       <c r="W17">
         <f>(W12-$C$17*$C$31*SIN(G32/180*PI()))/$C$6</f>
-        <v>870.61936488314029</v>
+        <v>269.23792871586932</v>
       </c>
       <c r="X17" t="s">
         <v>31</v>
@@ -12057,35 +12056,35 @@
       </c>
       <c r="AC17" s="8">
         <f t="shared" si="7"/>
-        <v>0.374267578125</v>
+        <v>0.43310546875</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="0"/>
-        <v>1.277319515258224E-4</v>
+        <v>9.6276220200253171E-5</v>
       </c>
       <c r="AE17" s="8">
         <f t="shared" si="8"/>
-        <v>0.3743896484375</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2917997512962298E-5</v>
+        <v>-3.1663116451807749E-5</v>
       </c>
       <c r="AG17" s="8">
         <f t="shared" si="2"/>
-        <v>0.37432861328125</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="3"/>
-        <v>5.7405474691574199E-5</v>
+        <v>3.2306142657922976E-5</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="4"/>
-        <v>7.3325133106209798E-9</v>
+        <v>3.1103133043549847E-9</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="5"/>
-        <v>-7.4156377929617565E-10</v>
+        <v>-1.022913157086529E-9</v>
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="6"/>
@@ -12096,32 +12095,32 @@
       </c>
       <c r="AN17" s="8">
         <f t="shared" si="13"/>
-        <v>1196.2890625</v>
+        <v>852.05078125</v>
       </c>
       <c r="AO17" s="8">
-        <v>-0.11380304827116561</v>
+        <v>-0.27058882543411755</v>
       </c>
       <c r="AP17" s="8">
         <f t="shared" si="14"/>
-        <v>1196.77734375</v>
+        <v>852.5390625</v>
       </c>
       <c r="AQ17" s="8">
-        <v>4.9506416516123863E-2</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AR17" s="8">
         <f t="shared" si="9"/>
-        <v>1196.533203125</v>
+        <v>852.294921875</v>
       </c>
       <c r="AS17" s="8">
-        <v>-3.2138711961579247E-2</v>
+        <v>-0.12032722915927252</v>
       </c>
       <c r="AT17" s="8">
         <f t="shared" si="10"/>
-        <v>3.6574833887366904E-3</v>
+        <v>3.2559203605949452E-2</v>
       </c>
       <c r="AU17" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5910724606616744E-3</v>
+        <v>-3.6012002792103481E-3</v>
       </c>
       <c r="AV17" s="8">
         <f t="shared" si="12"/>
@@ -12133,7 +12132,7 @@
         <v>147</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -12143,7 +12142,7 @@
       </c>
       <c r="G18">
         <f>$C$6*G17</f>
-        <v>100.932902773311</v>
+        <v>51.390092600903856</v>
       </c>
       <c r="H18" t="s">
         <v>162</v>
@@ -12153,7 +12152,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> $C$33 * ($C$5 * $C$41 * (2*$C$18*3.28084 * (K5*1000*0.00134102) * $C$39^0.5)^0.782 * 0.453592 + C6 * $C$6 * $C$41 * (2*$C$19*3.28084 * (K7*1000*0.00134102) * $C$40^0.5)^0.782 * 0.453592)</f>
-        <v>73.094592336171786</v>
+        <v>48.485561882580932</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -12163,7 +12162,7 @@
       </c>
       <c r="O18">
         <f xml:space="preserve"> PI() * $G$11 / ($C$19 * $C$23)</f>
-        <v>94.247779607693786</v>
+        <v>121.3081886006005</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -12173,7 +12172,7 @@
       </c>
       <c r="S18">
         <f xml:space="preserve"> PI() * $C$20 / ($C$19 * $C$23)</f>
-        <v>94.247779607693786</v>
+        <v>121.3081886006005</v>
       </c>
       <c r="T18" t="s">
         <v>43</v>
@@ -12183,7 +12182,7 @@
       </c>
       <c r="W18">
         <f xml:space="preserve"> PI() * $G$27 / ($C$19 * $C$23)</f>
-        <v>94.247779607693786</v>
+        <v>121.3081886006005</v>
       </c>
       <c r="X18" t="s">
         <v>43</v>
@@ -12193,35 +12192,35 @@
       </c>
       <c r="AC18" s="8">
         <f t="shared" si="7"/>
-        <v>0.37432861328125</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="0"/>
-        <v>5.7405474691574199E-5</v>
+        <v>3.2306142657922976E-5</v>
       </c>
       <c r="AE18" s="8">
         <f t="shared" si="8"/>
-        <v>0.3743896484375</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2917997512962298E-5</v>
+        <v>-3.1663116451807749E-5</v>
       </c>
       <c r="AG18" s="8">
         <f t="shared" si="2"/>
-        <v>0.374359130859375</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="3"/>
-        <v>2.224336310141517E-5</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="4"/>
-        <v>1.276890817573784E-9</v>
+        <v>1.0383543812154139E-11</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8733970922399851E-10</v>
+        <v>-1.0176868231777375E-11</v>
       </c>
       <c r="AK18" s="8">
         <f t="shared" si="6"/>
@@ -12232,32 +12231,32 @@
       </c>
       <c r="AN18" s="8">
         <f t="shared" si="13"/>
-        <v>1196.533203125</v>
+        <v>852.294921875</v>
       </c>
       <c r="AO18" s="8">
-        <v>-3.2138711961579247E-2</v>
+        <v>-0.12032722915927252</v>
       </c>
       <c r="AP18" s="8">
         <f t="shared" si="14"/>
-        <v>1196.77734375</v>
+        <v>852.5390625</v>
       </c>
       <c r="AQ18" s="8">
-        <v>4.9506416516123863E-2</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AR18" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6552734375</v>
+        <v>852.4169921875</v>
       </c>
       <c r="AS18" s="8">
-        <v>8.6862580199067452E-3</v>
+        <v>-4.519875566063547E-2</v>
       </c>
       <c r="AT18" s="8">
         <f t="shared" si="10"/>
-        <v>-2.7916514452574055E-4</v>
+        <v>5.4386410300912499E-3</v>
       </c>
       <c r="AU18" s="8">
         <f t="shared" si="11"/>
-        <v>4.3002550750002465E-4</v>
+        <v>-1.3527260009418873E-3</v>
       </c>
       <c r="AV18" s="8">
         <f t="shared" si="12"/>
@@ -12269,7 +12268,7 @@
         <v>146</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -12289,7 +12288,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> 0.2138 * (K4) + 0.2138 * (K6)</f>
-        <v>91.275826395247478</v>
+        <v>36.65768842771341</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -12299,56 +12298,56 @@
       </c>
       <c r="O19">
         <f xml:space="preserve"> $G$11 * COS(O16/180*PI()) / (O18 * $C$19)</f>
-        <v>2.7742534554270875E-2</v>
+        <v>3.6065294920552139E-2</v>
       </c>
       <c r="R19" t="s">
         <v>44</v>
       </c>
       <c r="S19">
         <f xml:space="preserve"> $C$20 * COS(S16/180*PI()) / (S18 * $C$19)</f>
-        <v>2.7742534554270875E-2</v>
+        <v>3.6065294920552139E-2</v>
       </c>
       <c r="V19" t="s">
         <v>44</v>
       </c>
       <c r="W19">
         <f xml:space="preserve"> $G$27 * COS(W16/180*PI()) / (W18 * $C$19)</f>
-        <v>2.7742534554270875E-2</v>
+        <v>3.6065294920552139E-2</v>
       </c>
       <c r="AB19" s="8">
         <v>15</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" si="7"/>
-        <v>0.374359130859375</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="0"/>
-        <v>2.224336310141517E-5</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE19" s="8">
         <f t="shared" si="8"/>
-        <v>0.3743896484375</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2917997512962298E-5</v>
+        <v>-3.1663116451807749E-5</v>
       </c>
       <c r="AG19" s="8">
         <f t="shared" si="2"/>
-        <v>0.3743743896484375</v>
+        <v>0.4332122802734375</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="3"/>
-        <v>4.6625889336127102E-6</v>
+        <v>-1.5670878383777787E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="4"/>
-        <v>1.0371165864298766E-10</v>
+        <v>-5.0367898760265492E-12</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="5"/>
-        <v>-6.0231312248374527E-11</v>
+        <v>4.9618884716767285E-10</v>
       </c>
       <c r="AK19" s="8">
         <f t="shared" si="6"/>
@@ -12359,32 +12358,32 @@
       </c>
       <c r="AN19" s="8">
         <f t="shared" si="13"/>
-        <v>1196.533203125</v>
+        <v>852.4169921875</v>
       </c>
       <c r="AO19" s="8">
-        <v>-3.2138711961579247E-2</v>
+        <v>-4.519875566063547E-2</v>
       </c>
       <c r="AP19" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6552734375</v>
+        <v>852.5390625</v>
       </c>
       <c r="AQ19" s="8">
-        <v>8.6862580199067452E-3</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AR19" s="8">
         <f t="shared" si="9"/>
-        <v>1196.59423828125</v>
+        <v>852.47802734375</v>
       </c>
       <c r="AS19" s="8">
-        <v>-1.1725637710355841E-2</v>
+        <v>-7.6349858816797678E-3</v>
       </c>
       <c r="AT19" s="8">
         <f t="shared" si="10"/>
-        <v>3.7684689293895793E-4</v>
+        <v>3.4509186133844529E-4</v>
       </c>
       <c r="AU19" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0185191460009939E-4</v>
+        <v>-2.2850283747893858E-4</v>
       </c>
       <c r="AV19" s="8">
         <f t="shared" si="12"/>
@@ -12396,7 +12395,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>30</v>
+        <v>43.17</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -12406,7 +12405,7 @@
       </c>
       <c r="K20">
         <f>2.20462 * (49.9/398 * (K5 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (K7 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>52.772218597693524</v>
+        <v>20.743040666743497</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -12416,56 +12415,56 @@
       </c>
       <c r="O20">
         <f xml:space="preserve"> O17 / ( $C$30 * PI() * $C$19^2 * O18^2 * $C$19^2)</f>
-        <v>7.1795382313680406E-2</v>
+        <v>3.4074374730290541E-2</v>
       </c>
       <c r="R20" t="s">
         <v>45</v>
       </c>
       <c r="S20">
         <f xml:space="preserve"> S17 / ( $C$30 * PI() * $C$19^2 * S18^2 * $C$19^2)</f>
-        <v>4.3006250312050937E-2</v>
+        <v>1.823038683242463E-2</v>
       </c>
       <c r="V20" t="s">
         <v>45</v>
       </c>
       <c r="W20">
         <f xml:space="preserve"> W17 / ( $C$30 * PI() * $C$19^2 * W18^2 * $C$19^2)</f>
-        <v>2.5468308775273358E-2</v>
+        <v>8.6911298556947847E-3</v>
       </c>
       <c r="AB20" s="8">
         <v>16</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3743743896484375</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="0"/>
-        <v>4.6625889336127102E-6</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3743896484375</v>
+        <v>0.4332122802734375</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2917997512962298E-5</v>
+        <v>-1.5670878383777787E-5</v>
       </c>
       <c r="AG20" s="8">
         <f t="shared" si="2"/>
-        <v>0.37438201904296875</v>
+        <v>0.43320465087890625</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="3"/>
-        <v>-4.1277277534335077E-6</v>
+        <v>-7.6747401741017462E-6</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="4"/>
-        <v>-1.9245897744125128E-11</v>
+        <v>-2.4667445348861854E-12</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="5"/>
-        <v>5.3321976853039506E-11</v>
+        <v>1.2026991989544201E-10</v>
       </c>
       <c r="AK20" s="8">
         <f t="shared" si="6"/>
@@ -12476,32 +12475,32 @@
       </c>
       <c r="AN20" s="8">
         <f t="shared" si="13"/>
-        <v>1196.59423828125</v>
+        <v>852.47802734375</v>
       </c>
       <c r="AO20" s="8">
-        <v>-1.1725637710355841E-2</v>
+        <v>-7.6349858816797678E-3</v>
       </c>
       <c r="AP20" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6552734375</v>
+        <v>852.5390625</v>
       </c>
       <c r="AQ20" s="8">
-        <v>8.6862580199067452E-3</v>
+        <v>2.9928390310089981E-2</v>
       </c>
       <c r="AR20" s="8">
         <f t="shared" si="9"/>
-        <v>1196.624755859375</v>
+        <v>852.508544921875</v>
       </c>
       <c r="AS20" s="8">
-        <v>-1.5194688112387666E-3</v>
+        <v>1.1146752410979843E-2</v>
       </c>
       <c r="AT20" s="8">
         <f t="shared" si="10"/>
-        <v>1.7816740792770842E-5</v>
+        <v>-8.5105297284411016E-5</v>
       </c>
       <c r="AU20" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3198498147620906E-5</v>
+        <v>3.3360435684574126E-4</v>
       </c>
       <c r="AV20" s="8">
         <f t="shared" si="12"/>
@@ -12513,22 +12512,22 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>12.2</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
       <c r="K21">
         <f xml:space="preserve"> $C$33 * (14.86 * ($C$17*2.20462)^0.144 * ($C$45/(PI()*$C$46))^0.778 * ($C$45*3.28084)^0.383 * $C$44^0.455 * 0.453592)</f>
-        <v>165.3830294480795</v>
+        <v>157.50126487557895</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -12556,35 +12555,35 @@
       </c>
       <c r="AC21" s="8">
         <f t="shared" si="7"/>
-        <v>0.3743743896484375</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="0"/>
-        <v>4.6625889336127102E-6</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE21" s="8">
         <f t="shared" si="8"/>
-        <v>0.37438201904296875</v>
+        <v>0.43320465087890625</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1277277534335077E-6</v>
+        <v>-7.6747401741017462E-6</v>
       </c>
       <c r="AG21" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437820434570312</v>
+        <v>0.43320083618164062</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="3"/>
-        <v>2.6742472397645045E-7</v>
+        <v>-3.67666627504315E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="4"/>
-        <v>1.2468915585870314E-12</v>
+        <v>-1.1817203234016354E-12</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1038564551118898E-12</v>
+        <v>2.8217458367838685E-11</v>
       </c>
       <c r="AK21" s="8">
         <f t="shared" si="6"/>
@@ -12595,32 +12594,32 @@
       </c>
       <c r="AN21" s="8">
         <f t="shared" si="13"/>
-        <v>1196.624755859375</v>
+        <v>852.47802734375</v>
       </c>
       <c r="AO21" s="8">
-        <v>-1.5194688112387666E-3</v>
+        <v>-7.6349858816797678E-3</v>
       </c>
       <c r="AP21" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6552734375</v>
+        <v>852.508544921875</v>
       </c>
       <c r="AQ21" s="8">
-        <v>8.6862580199067452E-3</v>
+        <v>1.1146752410979843E-2</v>
       </c>
       <c r="AR21" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6400146484375</v>
+        <v>852.4932861328125</v>
       </c>
       <c r="AS21" s="8">
-        <v>3.5834304466106914E-3</v>
+        <v>1.7559189707867517E-3</v>
       </c>
       <c r="AT21" s="8">
         <f t="shared" si="10"/>
-        <v>-5.4449108008683498E-6</v>
+        <v>-1.3406416551330518E-5</v>
       </c>
       <c r="AU21" s="8">
         <f t="shared" si="11"/>
-        <v>3.1126601455650129E-5</v>
+        <v>1.9572794021102471E-5</v>
       </c>
       <c r="AV21" s="8">
         <f t="shared" si="12"/>
@@ -12632,14 +12631,14 @@
         <v>5</v>
       </c>
       <c r="C22" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G22">
         <f xml:space="preserve"> 1/1000 * (S22 + S17 * (S27 * S24 + $C$20 * SIN(S16/180*PI())))</f>
-        <v>54.905512329222958</v>
+        <v>26.434169974281307</v>
       </c>
       <c r="H22" t="s">
         <v>162</v>
@@ -12649,7 +12648,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> $C$33 * (0.054 * ($C$49*3.28084)^0.501 * ($C$17*2.20462*$C$50)^0.684 * 0.453592)</f>
-        <v>13.991957019077498</v>
+        <v>11.095469944902691</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -12659,7 +12658,7 @@
       </c>
       <c r="O22">
         <f xml:space="preserve"> ($C$8 * $O$21 / 8) * (1 + 4.65 * O19^2) * ( PI() * $C$30 * O18^3 * $C$19^ 5)</f>
-        <v>630.50053776545394</v>
+        <v>634.01860977186379</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -12669,7 +12668,7 @@
       </c>
       <c r="S22">
         <f xml:space="preserve"> ($C$8 * $S$21 / 8) * (1 + 4.65 * S19^2) * ( PI() * $C$30 * S18^3 * $C$19^5)</f>
-        <v>630.50053776545394</v>
+        <v>634.01860977186379</v>
       </c>
       <c r="T22" t="s">
         <v>29</v>
@@ -12679,7 +12678,7 @@
       </c>
       <c r="W22">
         <f xml:space="preserve"> ($C$8 * $W$21 / 8) * (1 + 4.65 * W19^2) * ( PI() * $C$30 * W18^3 * $C$19^ 5)</f>
-        <v>630.50053776545394</v>
+        <v>634.01860977186379</v>
       </c>
       <c r="X22" t="s">
         <v>29</v>
@@ -12689,35 +12688,35 @@
       </c>
       <c r="AC22" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437820434570312</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="0"/>
-        <v>2.6742472397645045E-7</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE22" s="8">
         <f t="shared" si="8"/>
-        <v>0.37438201904296875</v>
+        <v>0.43320083618164062</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1277277534335077E-6</v>
+        <v>-3.67666627504315E-6</v>
       </c>
       <c r="AG22" s="8">
         <f t="shared" si="2"/>
-        <v>0.37438011169433594</v>
+        <v>0.43319892883300781</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="3"/>
-        <v>-1.9301529812221219E-6</v>
+        <v>-1.6776281269170745E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="4"/>
-        <v>-5.1617062823564891E-13</v>
+        <v>-5.3920783241738695E-13</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="5"/>
-        <v>7.967146028962976E-12</v>
+        <v>6.168078756299817E-12</v>
       </c>
       <c r="AK22" s="8">
         <f t="shared" si="6"/>
@@ -12728,32 +12727,32 @@
       </c>
       <c r="AN22" s="8">
         <f t="shared" si="13"/>
-        <v>1196.624755859375</v>
+        <v>852.47802734375</v>
       </c>
       <c r="AO22" s="8">
-        <v>-1.5194688112387666E-3</v>
+        <v>-7.6349858816797678E-3</v>
       </c>
       <c r="AP22" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6400146484375</v>
+        <v>852.4932861328125</v>
       </c>
       <c r="AQ22" s="8">
-        <v>3.5834304466106914E-3</v>
+        <v>1.7559189707867517E-3</v>
       </c>
       <c r="AR22" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6323852539062</v>
+        <v>852.48565673828125</v>
       </c>
       <c r="AS22" s="8">
-        <v>1.0320030197590313E-3</v>
+        <v>-2.9395051113283444E-3</v>
       </c>
       <c r="AT22" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5680964016280726E-6</v>
+        <v>2.2443080024117424E-5</v>
       </c>
       <c r="AU22" s="8">
         <f t="shared" si="11"/>
-        <v>3.6981110419986878E-6</v>
+        <v>-5.1615327897060628E-6</v>
       </c>
       <c r="AV22" s="8">
         <f t="shared" si="12"/>
@@ -12765,14 +12764,14 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G23">
         <f xml:space="preserve"> $C$6 * G22</f>
-        <v>54.905512329222958</v>
+        <v>26.434169974281307</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
@@ -12782,7 +12781,7 @@
       </c>
       <c r="K23">
         <f xml:space="preserve"> $C$33 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * $C$53^0.397 * $C$22^1.712 * 0.453592)</f>
-        <v>153.36855355081843</v>
+        <v>65.079194513094166</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -12792,56 +12791,56 @@
       </c>
       <c r="O23" s="5">
         <f>AG69</f>
-        <v>0.40543355094268918</v>
+        <v>0.44997010426595807</v>
       </c>
       <c r="R23" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="5">
         <f>AG34</f>
-        <v>0.37437843671068549</v>
+        <v>0.43319732835516334</v>
       </c>
       <c r="V23" t="s">
         <v>47</v>
       </c>
       <c r="W23" s="5">
         <f>AG104</f>
-        <v>0.3530561369843781</v>
+        <v>0.42247685650363564</v>
       </c>
       <c r="AB23" s="8">
         <v>19</v>
       </c>
       <c r="AC23" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437820434570312</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="0"/>
-        <v>2.6742472397645045E-7</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE23" s="8">
         <f t="shared" si="8"/>
-        <v>0.37438011169433594</v>
+        <v>0.43319892883300781</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9301529812221219E-6</v>
+        <v>-1.6776281269170745E-6</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437915802001953</v>
+        <v>0.43319797515869141</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="3"/>
-        <v>-8.3136449524623401E-7</v>
+        <v>-6.7810875320484243E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2232742066504519E-13</v>
+        <v>-2.1795149061476934E-13</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="5"/>
-        <v>1.6046606589817431E-12</v>
+        <v>1.1376143174851125E-12</v>
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="6"/>
@@ -12852,32 +12851,32 @@
       </c>
       <c r="AN23" s="8">
         <f t="shared" si="13"/>
-        <v>1196.624755859375</v>
+        <v>852.48565673828125</v>
       </c>
       <c r="AO23" s="8">
-        <v>-1.5194688112387666E-3</v>
+        <v>-2.9395051113283444E-3</v>
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6323852539062</v>
+        <v>852.4932861328125</v>
       </c>
       <c r="AQ23" s="8">
-        <v>1.0320030197590313E-3</v>
+        <v>1.7559189707867517E-3</v>
       </c>
       <c r="AR23" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6285705566406</v>
+        <v>852.48947143554688</v>
       </c>
       <c r="AS23" s="8">
-        <v>-2.4382670721934119E-4</v>
+        <v>-5.9179727941227611E-4</v>
       </c>
       <c r="AT23" s="8">
         <f t="shared" si="10"/>
-        <v>3.7048707696683518E-7</v>
+        <v>1.7395911277025941E-6</v>
       </c>
       <c r="AU23" s="8">
         <f t="shared" si="11"/>
-        <v>-2.516298981482613E-7</v>
+        <v>-1.0391480697800035E-6</v>
       </c>
       <c r="AV23" s="8">
         <f t="shared" si="12"/>
@@ -12890,7 +12889,7 @@
       </c>
       <c r="G24">
         <f xml:space="preserve"> ($C$27-G15-G31)/$C$20</f>
-        <v>680.68911094850387</v>
+        <v>375.25958543071806</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -12900,7 +12899,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> $C$33 * (3.184 * ($C$17*2.20462)^0.887 * ($C$57*3.28084*3.28084)^0.101 * ($C$56)^0.138 ) / ( 174.04 * ($C$58*3.28084)^0.223 ) * 0.453592</f>
-        <v>12.022582913558791</v>
+        <v>8.8995733279115363</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -12910,7 +12909,7 @@
       </c>
       <c r="O24">
         <f xml:space="preserve"> O18 * $C$19 * O23 - $G$11 * SIN(O16/180*PI())</f>
-        <v>8.3253710120588948</v>
+        <v>3.9374249980963185</v>
       </c>
       <c r="P24" t="s">
         <v>16</v>
@@ -12920,7 +12919,7 @@
       </c>
       <c r="S24">
         <f xml:space="preserve"> S18 * $C$19 * S23 - $C$20 * SIN(S16/180*PI())</f>
-        <v>5.3984954502292553</v>
+        <v>2.187604443449942</v>
       </c>
       <c r="T24" t="s">
         <v>16</v>
@@ -12930,7 +12929,7 @@
       </c>
       <c r="W24">
         <f xml:space="preserve"> W18 * $C$19 * W23 - $G$27 * SIN(W16/180*PI())</f>
-        <v>3.3889160448950477</v>
+        <v>1.069190765172749</v>
       </c>
       <c r="X24" t="s">
         <v>16</v>
@@ -12940,35 +12939,35 @@
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437820434570312</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="0"/>
-        <v>2.6742472397645045E-7</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437915802001953</v>
+        <v>0.43319797515869141</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3136449524623401E-7</v>
+        <v>-6.7810875320484243E-7</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437868118286133</v>
+        <v>0.4331974983215332</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8196997731155804E-7</v>
+        <v>-1.7834899140867222E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="4"/>
-        <v>-7.5405743352189406E-14</v>
+        <v>-5.732329562691629E-14</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="5"/>
-        <v>2.3441982786221549E-13</v>
+        <v>1.2094001219947587E-13</v>
       </c>
       <c r="AK24" s="8">
         <f t="shared" si="6"/>
@@ -12979,32 +12978,32 @@
       </c>
       <c r="AN24" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6285705566406</v>
+        <v>852.48947143554688</v>
       </c>
       <c r="AO24" s="8">
-        <v>-2.4382670721934119E-4</v>
+        <v>-5.9179727941227611E-4</v>
       </c>
       <c r="AP24" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6323852539062</v>
+        <v>852.4932861328125</v>
       </c>
       <c r="AQ24" s="8">
-        <v>1.0320030197590313E-3</v>
+        <v>1.7559189707867517E-3</v>
       </c>
       <c r="AR24" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6304779052734</v>
+        <v>852.49137878417969</v>
       </c>
       <c r="AS24" s="8">
-        <v>3.9420057964889565E-4</v>
+        <v>5.820659393407368E-4</v>
       </c>
       <c r="AT24" s="8">
         <f t="shared" si="10"/>
-        <v>-9.6116629319745862E-8</v>
+        <v>-3.44465039340399E-7</v>
       </c>
       <c r="AU24" s="8">
         <f t="shared" si="11"/>
-        <v>4.0681618858842085E-7</v>
+        <v>1.0220606251372104E-6</v>
       </c>
       <c r="AV24" s="8">
         <f t="shared" si="12"/>
@@ -13023,7 +13022,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> $C$33 * ( 1.68 * ($C$17*2.20462)^0.567 * ($C$62*3.28084*3.28084)^1.249 * ($C$61)^0.482 ) / (639.95 * ($C$63*3.28084)^0.747 * (COS($C$64/180*PI()))^0.882 ) * 0.453592</f>
-        <v>5.9442535331194115</v>
+        <v>4.9045048395424793</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -13033,56 +13032,56 @@
       </c>
       <c r="O25">
         <f xml:space="preserve"> 1/$C$9 - O22 * SQRT( (2*$C$30*PI()*$C$19^2) / O17^3 )</f>
-        <v>1.3189467936896213</v>
+        <v>1.2892243965504608</v>
       </c>
       <c r="R25" t="s">
         <v>49</v>
       </c>
       <c r="S25">
         <f xml:space="preserve"> 1/$C$9 - S22 * SQRT( (2*$C$30*PI()*$C$19^2) / S17^3 )</f>
-        <v>1.3023017633810059</v>
+        <v>1.2206201784021593</v>
       </c>
       <c r="V25" t="s">
         <v>49</v>
       </c>
       <c r="W25">
         <f xml:space="preserve"> 1/$C$9 - W22 * SQRT( (2*$C$30*PI()*$C$19^2) / W17^3 )</f>
-        <v>1.2652405705263301</v>
+        <v>0.99091731408672867</v>
       </c>
       <c r="AB25" s="8">
         <v>21</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437820434570312</v>
+        <v>0.433197021484375</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="0"/>
-        <v>2.6742472397645045E-7</v>
+        <v>3.2141082029202295E-7</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437868118286133</v>
+        <v>0.4331974983215332</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8196997731155804E-7</v>
+        <v>-1.7834899140867222E-7</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437844276428223</v>
+        <v>0.4331972599029541</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="3"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>7.153090819667085E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="4"/>
-        <v>-1.9448863101617703E-15</v>
+        <v>2.2990807879725367E-14</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="5"/>
-        <v>2.0506688409190112E-15</v>
+        <v>-1.2757465331422571E-14</v>
       </c>
       <c r="AK25" s="8">
         <f t="shared" si="6"/>
@@ -13093,32 +13092,32 @@
       </c>
       <c r="AN25" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6285705566406</v>
+        <v>852.48947143554688</v>
       </c>
       <c r="AO25" s="8">
-        <v>-2.4382670721934119E-4</v>
+        <v>-5.9179727941227611E-4</v>
       </c>
       <c r="AP25" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6304779052734</v>
+        <v>852.49137878417969</v>
       </c>
       <c r="AQ25" s="8">
-        <v>3.9420057964889565E-4</v>
+        <v>5.820659393407368E-4</v>
       </c>
       <c r="AR25" s="8">
         <f t="shared" si="9"/>
-        <v>1196.629524230957</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AS25" s="8">
-        <v>7.5283127557668195E-5</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AT25" s="8">
         <f t="shared" si="10"/>
-        <v>-1.835603710155988E-8</v>
+        <v>2.9211850653338486E-9</v>
       </c>
       <c r="AU25" s="8">
         <f t="shared" si="11"/>
-        <v>2.9676652521014552E-8</v>
+        <v>-2.8731499589357643E-9</v>
       </c>
       <c r="AV25" s="8">
         <f t="shared" si="12"/>
@@ -13129,24 +13128,24 @@
       <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26">
         <f>C44*100</f>
         <v>400</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="J26" s="15" t="s">
         <v>88</v>
       </c>
       <c r="K26">
         <f xml:space="preserve"> $C$33 * (0.0268 * $C$17)</f>
-        <v>25.65573218206584</v>
+        <v>18.277394884508688</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -13174,35 +13173,35 @@
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437820434570312</v>
+        <v>0.4331972599029541</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="0"/>
-        <v>2.6742472397645045E-7</v>
+        <v>7.153090819667085E-8</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.4331974983215332</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-1.7834899140867222E-7</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437832355499268</v>
+        <v>0.43319737911224365</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="3"/>
-        <v>1.300760315015026E-7</v>
+        <v>-5.3409043188068495E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="4"/>
-        <v>3.4785546820241404E-14</v>
+        <v>-3.8203973651577564E-15</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="5"/>
-        <v>-9.4599739764421094E-16</v>
+        <v>9.5254489846942308E-15</v>
       </c>
       <c r="AK26" s="8">
         <f t="shared" si="6"/>
@@ -13213,32 +13212,32 @@
       </c>
       <c r="AN26" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6285705566406</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO26" s="8">
-        <v>-2.4382670721934119E-4</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP26" s="8">
         <f t="shared" si="14"/>
-        <v>1196.629524230957</v>
+        <v>852.49137878417969</v>
       </c>
       <c r="AQ26" s="8">
-        <v>7.5283127557668195E-5</v>
+        <v>5.820659393407368E-4</v>
       </c>
       <c r="AR26" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6290473937988</v>
+        <v>852.49090194702148</v>
       </c>
       <c r="AS26" s="8">
-        <v>-8.4461287656267814E-5</v>
+        <v>2.8859043305828891E-4</v>
       </c>
       <c r="AT26" s="8">
         <f t="shared" si="10"/>
-        <v>2.0593917656733369E-8</v>
+        <v>-1.4245183145913155E-9</v>
       </c>
       <c r="AU26" s="8">
         <f t="shared" si="11"/>
-        <v>-6.3585098923117162E-9</v>
+        <v>1.6797866150282296E-7</v>
       </c>
       <c r="AV26" s="8">
         <f t="shared" si="12"/>
@@ -13260,7 +13259,7 @@
       </c>
       <c r="G27" s="1">
         <f>$C$20</f>
-        <v>30</v>
+        <v>43.17</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -13270,7 +13269,7 @@
       </c>
       <c r="K27">
         <f xml:space="preserve"> $C$33 * (11.5 * ($C$17*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>6.1513517779440274</v>
+        <v>5.3710910728097794</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -13280,56 +13279,56 @@
       </c>
       <c r="O27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * O25) + EXP($C$36 * O26) )</f>
-        <v>1.3191558850642338</v>
+        <v>1.2897321294994277</v>
       </c>
       <c r="R27" t="s">
         <v>51</v>
       </c>
       <c r="S27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * S25) + EXP($C$36 * S26) )</f>
-        <v>1.3026455766348668</v>
+        <v>1.2244037277177158</v>
       </c>
       <c r="V27" t="s">
         <v>51</v>
       </c>
       <c r="W27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * W25) + EXP($C$36 * W26) )</f>
-        <v>1.2662749329529661</v>
+        <v>1.1502807930011643</v>
       </c>
       <c r="AB27" s="8">
         <v>23</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437832355499268</v>
+        <v>0.4331972599029541</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="0"/>
-        <v>1.300760315015026E-7</v>
+        <v>7.153090819667085E-8</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.43319737911224365</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-5.3409043188068495E-8</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437838315963745</v>
+        <v>0.43319731950759888</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="3"/>
-        <v>6.1401689510631741E-8</v>
+        <v>9.0609321157231193E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="4"/>
-        <v>7.9868880990304152E-15</v>
+        <v>6.4813670334605699E-16</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="5"/>
-        <v>-4.4655297226948753E-16</v>
+        <v>-4.8393571469281294E-16</v>
       </c>
       <c r="AK27" s="8">
         <f t="shared" si="6"/>
@@ -13340,32 +13339,32 @@
       </c>
       <c r="AN27" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6290473937988</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO27" s="8">
-        <v>-8.4461287656267814E-5</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP27" s="8">
         <f t="shared" si="14"/>
-        <v>1196.629524230957</v>
+        <v>852.49090194702148</v>
       </c>
       <c r="AQ27" s="8">
-        <v>7.5283127557668195E-5</v>
+        <v>2.8859043305828891E-4</v>
       </c>
       <c r="AR27" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292858123779</v>
+        <v>852.49066352844238</v>
       </c>
       <c r="AS27" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>1.418721412846935E-4</v>
       </c>
       <c r="AT27" s="8">
         <f t="shared" si="10"/>
-        <v>3.9549441970424197E-10</v>
+        <v>-7.0029855615315184E-10</v>
       </c>
       <c r="AU27" s="8">
         <f t="shared" si="11"/>
-        <v>-3.5251720253321165E-10</v>
+        <v>4.0942942692256443E-8</v>
       </c>
       <c r="AV27" s="8">
         <f t="shared" si="12"/>
@@ -13387,7 +13386,7 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> $C$33 * (8 * ($C$17/1000))</f>
-        <v>7.6584275170345792</v>
+        <v>5.4559387714951306</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -13397,35 +13396,35 @@
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437838315963745</v>
+        <v>0.43319731950759888</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="0"/>
-        <v>6.1401689510631741E-8</v>
+        <v>9.0609321157231193E-9</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.43319737911224365</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-5.3409043188068495E-8</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437841296195984</v>
+        <v>0.43319734930992126</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="3"/>
-        <v>2.7064519625419337E-8</v>
+        <v>-2.217405564719499E-8</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="4"/>
-        <v>1.6618072307943973E-15</v>
+        <v>-2.0091761294950069E-16</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9683076765638881E-16</v>
+        <v>1.1842950957156714E-15</v>
       </c>
       <c r="AK28" s="8">
         <f t="shared" si="6"/>
@@ -13436,32 +13435,32 @@
       </c>
       <c r="AN28" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292858123779</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO28" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP28" s="8">
         <f t="shared" si="14"/>
-        <v>1196.629524230957</v>
+        <v>852.49066352844238</v>
       </c>
       <c r="AQ28" s="8">
-        <v>7.5283127557668195E-5</v>
+        <v>1.418721412846935E-4</v>
       </c>
       <c r="AR28" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6294050216675</v>
+        <v>852.49054431915283</v>
       </c>
       <c r="AS28" s="8">
-        <v>3.5281908026263409E-5</v>
+        <v>6.8472925818241492E-5</v>
       </c>
       <c r="AT28" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6520938915462985E-10</v>
+        <v>-3.3799088849919159E-10</v>
       </c>
       <c r="AU28" s="8">
         <f t="shared" si="11"/>
-        <v>2.6561323824191057E-9</v>
+        <v>9.7144006058618936E-9</v>
       </c>
       <c r="AV28" s="8">
         <f t="shared" si="12"/>
@@ -13488,7 +13487,7 @@
       </c>
       <c r="K29">
         <f xml:space="preserve"> $C$33 * (13 * ($C$17*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>16.648691791342085</v>
+        <v>10.713440438501381</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -13498,35 +13497,35 @@
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437841296195984</v>
+        <v>0.43319731950759888</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="0"/>
-        <v>2.7064519625419337E-8</v>
+        <v>9.0609321157231193E-9</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.43319734930992126</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-2.217405564719499E-8</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437842786312103</v>
+        <v>0.43319733440876007</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="3"/>
-        <v>9.8959349048577394E-9</v>
+        <v>-6.556561793491511E-9</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="4"/>
-        <v>2.678287244443945E-16</v>
+        <v>-5.94085613233704E-17</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="5"/>
-        <v>-7.1969666964692055E-17</v>
+        <v>1.4538556606315336E-16</v>
       </c>
       <c r="AK29" s="8">
         <f t="shared" si="6"/>
@@ -13537,32 +13536,32 @@
       </c>
       <c r="AN29" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292858123779</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO29" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP29" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6294050216675</v>
+        <v>852.49054431915283</v>
       </c>
       <c r="AQ29" s="8">
-        <v>3.5281908026263409E-5</v>
+        <v>6.8472925818241492E-5</v>
       </c>
       <c r="AR29" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6293454170227</v>
+        <v>852.49048471450806</v>
       </c>
       <c r="AS29" s="8">
-        <v>1.5222008300952439E-5</v>
+        <v>3.1768400788223516E-5</v>
       </c>
       <c r="AT29" s="8">
         <f t="shared" si="10"/>
-        <v>-7.127785411251166E-11</v>
+        <v>-1.5681278228291489E-10</v>
       </c>
       <c r="AU29" s="8">
         <f t="shared" si="11"/>
-        <v>5.3706149684922207E-10</v>
+        <v>2.1752753505361935E-9</v>
       </c>
       <c r="AV29" s="8">
         <f t="shared" si="12"/>
@@ -13584,7 +13583,7 @@
       </c>
       <c r="G30">
         <f>SQRT($G$27^2-$G$28^2)</f>
-        <v>29.96126539383809</v>
+        <v>43.143091266157555</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -13594,7 +13593,7 @@
       </c>
       <c r="K30" s="3">
         <f>$C$17 - $C$26 - SUM(K17:K29)</f>
-        <v>-3.4685854188865051E-10</v>
+        <v>-7.6630612966255285E-10</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>12</v>
@@ -13604,35 +13603,35 @@
       </c>
       <c r="AC30" s="8">
         <f>IF(AI29&gt;0, AG29, AC29)</f>
-        <v>0.37437842786312103</v>
+        <v>0.43319731950759888</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="0"/>
-        <v>9.8959349048577394E-9</v>
+        <v>9.0609321157231193E-9</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.43319733440876007</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-6.556561793491511E-9</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437843531370163</v>
+        <v>0.43319732695817947</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="3"/>
-        <v>1.3116426833548189E-9</v>
+        <v>1.2521851333602285E-9</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="4"/>
-        <v>1.297993061291222E-17</v>
+        <v>1.1345964489694732E-17</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="5"/>
-        <v>-9.5391176281265558E-18</v>
+        <v>-8.2100292037677468E-18</v>
       </c>
       <c r="AK30" s="8">
         <f t="shared" si="6"/>
@@ -13643,32 +13642,32 @@
       </c>
       <c r="AN30" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292858123779</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO30" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP30" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293454170227</v>
+        <v>852.49048471450806</v>
       </c>
       <c r="AQ30" s="8">
-        <v>1.5222008300952439E-5</v>
+        <v>3.1768400788223516E-5</v>
       </c>
       <c r="AR30" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6293156147003</v>
+        <v>852.49045491218567</v>
       </c>
       <c r="AS30" s="8">
-        <v>5.3632094250133377E-6</v>
+        <v>1.3466039149534481E-5</v>
       </c>
       <c r="AT30" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5113510084410422E-11</v>
+        <v>-6.6470046114248912E-11</v>
       </c>
       <c r="AU30" s="8">
         <f t="shared" si="11"/>
-        <v>8.1638818387299383E-11</v>
+        <v>4.2779452873231996E-10</v>
       </c>
       <c r="AV30" s="8">
         <f t="shared" si="12"/>
@@ -13690,7 +13689,7 @@
       </c>
       <c r="G31">
         <f>$G$30 * ($G$29/$G$28)</f>
-        <v>5992.2530787676178</v>
+        <v>8628.6182532315106</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -13707,35 +13706,35 @@
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437843531370163</v>
+        <v>0.43319732695817947</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="0"/>
-        <v>1.3116426833548189E-9</v>
+        <v>1.2521851333602285E-9</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437844276428223</v>
+        <v>0.43319733440876007</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2726495936592528E-9</v>
+        <v>-6.556561793491511E-9</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437843903899193</v>
+        <v>0.43319733068346977</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="3"/>
-        <v>-2.9805034551522169E-9</v>
+        <v>-2.6521883023100656E-9</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.909355549664163E-18</v>
+        <v>-3.3210307630245676E-18</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="5"/>
-        <v>2.1676157242012769E-17</v>
+        <v>1.738923649207129E-17</v>
       </c>
       <c r="AK31" s="8">
         <f t="shared" si="6"/>
@@ -13746,32 +13745,32 @@
       </c>
       <c r="AN31" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292858123779</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO31" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP31" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293156147003</v>
+        <v>852.49045491218567</v>
       </c>
       <c r="AQ31" s="8">
-        <v>5.3632094250133377E-6</v>
+        <v>1.3466039149534481E-5</v>
       </c>
       <c r="AR31" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6293007135391</v>
+        <v>852.49044001102448</v>
       </c>
       <c r="AS31" s="8">
-        <v>4.3638010538415983E-7</v>
+        <v>4.2405709450576978E-6</v>
       </c>
       <c r="AT31" s="8">
         <f t="shared" si="10"/>
-        <v>-2.043372784603489E-12</v>
+        <v>-2.0931986246191296E-11</v>
       </c>
       <c r="AU31" s="8">
         <f t="shared" si="11"/>
-        <v>2.3403978940846396E-12</v>
+        <v>5.7103694362525392E-11</v>
       </c>
       <c r="AV31" s="8">
         <f t="shared" si="12"/>
@@ -13793,7 +13792,7 @@
       </c>
       <c r="G32">
         <f>ATAN(G28/G30)/PI()*180</f>
-        <v>2.9118789347687013</v>
+        <v>2.0230927732322703</v>
       </c>
       <c r="H32" t="s">
         <v>62</v>
@@ -13803,35 +13802,35 @@
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437843531370163</v>
+        <v>0.43319732695817947</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="0"/>
-        <v>1.3116426833548189E-9</v>
+        <v>1.2521851333602285E-9</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437843903899193</v>
+        <v>0.43319733068346977</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.9805034551522169E-9</v>
+        <v>-2.6521883023100656E-9</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437843717634678</v>
+        <v>0.43319732882082462</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="3"/>
-        <v>-8.3443041365427462E-10</v>
+        <v>-7.0000155671934294E-10</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0944745468383643E-18</v>
+        <v>-8.7653154265297801E-19</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="5"/>
-        <v>2.4870227309806591E-18</v>
+        <v>1.8565359403298773E-18</v>
       </c>
       <c r="AK32" s="8">
         <f t="shared" si="6"/>
@@ -13842,32 +13841,32 @@
       </c>
       <c r="AN32" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292858123779</v>
+        <v>852.49042510986328</v>
       </c>
       <c r="AO32" s="8">
-        <v>-4.6825525714666583E-6</v>
+        <v>-4.9361245260115538E-6</v>
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293007135391</v>
+        <v>852.49044001102448</v>
       </c>
       <c r="AQ32" s="8">
-        <v>4.3638010538415983E-7</v>
+        <v>4.2405709450576978E-6</v>
       </c>
       <c r="AR32" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292932629585</v>
+        <v>852.49043256044388</v>
       </c>
       <c r="AS32" s="8">
-        <v>-2.1414681441456196E-6</v>
+        <v>-3.0279250040621264E-7</v>
       </c>
       <c r="AT32" s="8">
         <f t="shared" si="10"/>
-        <v>1.0027537165083003E-11</v>
+        <v>1.4946214875474696E-12</v>
       </c>
       <c r="AU32" s="8">
         <f t="shared" si="11"/>
-        <v>-9.3449409441908666E-13</v>
+        <v>-1.2840130796039565E-12</v>
       </c>
       <c r="AV32" s="8">
         <f t="shared" si="12"/>
@@ -13886,7 +13885,7 @@
       </c>
       <c r="G33">
         <f>1/1000 * (W22 + W17 * (W27 * W24 + $G$27 * SIN(W16/180*PI())))</f>
-        <v>30.385780789171172</v>
+        <v>12.54391850712128</v>
       </c>
       <c r="H33" t="s">
         <v>162</v>
@@ -13901,35 +13900,35 @@
       </c>
       <c r="AC33" s="8">
         <f t="shared" si="7"/>
-        <v>0.37437843531370163</v>
+        <v>0.43319732695817947</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="0"/>
-        <v>1.3116426833548189E-9</v>
+        <v>1.2521851333602285E-9</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437843717634678</v>
+        <v>0.43319732882082462</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3443041365427462E-10</v>
+        <v>-7.0000155671934294E-10</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="2"/>
-        <v>0.3743784362450242</v>
+        <v>0.43319732788950205</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="3"/>
-        <v>2.3860613485027216E-10</v>
+        <v>2.760918160760184E-10</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="4"/>
-        <v>3.1296599097993275E-19</v>
+        <v>3.4571806753281679E-19</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9910021580356023E-19</v>
+        <v>-1.932647010506834E-19</v>
       </c>
       <c r="AK33" s="8">
         <f t="shared" si="6"/>
@@ -13940,32 +13939,32 @@
       </c>
       <c r="AN33" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292932629585</v>
+        <v>852.49043256044388</v>
       </c>
       <c r="AO33" s="8">
-        <v>-2.1414681441456196E-6</v>
+        <v>-3.0279250040621264E-7</v>
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293007135391</v>
+        <v>852.49044001102448</v>
       </c>
       <c r="AQ33" s="8">
-        <v>4.3638010538415983E-7</v>
+        <v>4.2405709450576978E-6</v>
       </c>
       <c r="AR33" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292969882488</v>
+        <v>852.49043628573418</v>
       </c>
       <c r="AS33" s="8">
-        <v>-9.4602523859066423E-7</v>
+        <v>2.0138732566010731E-6</v>
       </c>
       <c r="AT33" s="8">
         <f t="shared" si="10"/>
-        <v>2.0258829119996667E-12</v>
+        <v>-6.0978571886744119E-13</v>
       </c>
       <c r="AU33" s="8">
         <f t="shared" si="11"/>
-        <v>-4.1282659331226901E-13</v>
+        <v>8.5399724189712361E-12</v>
       </c>
       <c r="AV33" s="8">
         <f t="shared" si="12"/>
@@ -13978,7 +13977,7 @@
       </c>
       <c r="G34">
         <f>$C$6*G33</f>
-        <v>30.385780789171172</v>
+        <v>12.54391850712128</v>
       </c>
       <c r="H34" t="s">
         <v>162</v>
@@ -13988,7 +13987,7 @@
       </c>
       <c r="K34">
         <f>ROUND($C$26/$C$17 * 100, 2)</f>
-        <v>33.43</v>
+        <v>46.92</v>
       </c>
       <c r="L34" t="s">
         <v>82</v>
@@ -13998,35 +13997,35 @@
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="7"/>
-        <v>0.3743784362450242</v>
+        <v>0.43319732788950205</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="0"/>
-        <v>2.3860613485027216E-10</v>
+        <v>2.760918160760184E-10</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" si="8"/>
-        <v>0.37437843717634678</v>
+        <v>0.43319732882082462</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3443041365427462E-10</v>
+        <v>-7.0000155671934294E-10</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" si="2"/>
-        <v>0.37437843671068549</v>
+        <v>0.43319732835516334</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="3"/>
-        <v>-2.9791213940200123E-10</v>
+        <v>-2.1195489807723789E-10</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="4"/>
-        <v>-7.1083664107686982E-20</v>
+        <v>-5.8519012736351989E-20</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="5"/>
-        <v>2.4858694971384181E-19</v>
+        <v>1.4836875860835619E-19</v>
       </c>
       <c r="AK34" s="8">
         <f t="shared" si="6"/>
@@ -14037,32 +14036,32 @@
       </c>
       <c r="AN34" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292969882488</v>
+        <v>852.49043256044388</v>
       </c>
       <c r="AO34" s="8">
-        <v>-9.4602523859066423E-7</v>
+        <v>-3.0279250040621264E-7</v>
       </c>
       <c r="AP34" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293007135391</v>
+        <v>852.49043628573418</v>
       </c>
       <c r="AQ34" s="8">
-        <v>4.3638010538415983E-7</v>
+        <v>2.0138732566010731E-6</v>
       </c>
       <c r="AR34" s="8">
         <f t="shared" si="9"/>
-        <v>1196.629298850894</v>
+        <v>852.49043442308903</v>
       </c>
       <c r="AS34" s="8">
-        <v>-2.5482268029008992E-7</v>
+        <v>8.5554046336255851E-7</v>
       </c>
       <c r="AT34" s="8">
         <f t="shared" si="10"/>
-        <v>2.4106868691974487E-13</v>
+        <v>-2.5905123610023885E-13</v>
       </c>
       <c r="AU34" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1119954807926351E-13</v>
+        <v>1.7229500591059468E-12</v>
       </c>
       <c r="AV34" s="8">
         <f t="shared" si="12"/>
@@ -14090,7 +14089,7 @@
       </c>
       <c r="K35">
         <f>ROUND(K17/$C$17 * 100, 2)</f>
-        <v>14.43</v>
+        <v>6.96</v>
       </c>
       <c r="L35" t="s">
         <v>82</v>
@@ -14100,32 +14099,32 @@
       </c>
       <c r="AN35" s="8">
         <f t="shared" si="13"/>
-        <v>1196.629298850894</v>
+        <v>852.49043256044388</v>
       </c>
       <c r="AO35">
-        <v>-2.5482268029008992E-7</v>
+        <v>-3.0279250040621264E-7</v>
       </c>
       <c r="AP35" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6293007135391</v>
+        <v>852.49043442308903</v>
       </c>
       <c r="AQ35">
-        <v>4.3638010538415983E-7</v>
+        <v>8.5554046336255851E-7</v>
       </c>
       <c r="AR35" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292997822165</v>
+        <v>852.49043349176645</v>
       </c>
       <c r="AS35">
-        <v>9.0778598860197235E-8</v>
+        <v>2.7637389621304465E-7</v>
       </c>
       <c r="AT35" s="8">
         <f t="shared" si="10"/>
-        <v>-2.3132445874534361E-14</v>
+        <v>-8.3683943081354891E-14</v>
       </c>
       <c r="AU35" s="8">
         <f t="shared" si="11"/>
-        <v>3.9613974537239241E-14</v>
+        <v>2.3644905122742387E-13</v>
       </c>
       <c r="AV35" s="8">
         <f t="shared" si="12"/>
@@ -14144,7 +14143,7 @@
       </c>
       <c r="K36">
         <f>ROUND(SUM(K18:K20)/$C$17 * 100, 2)</f>
-        <v>18.149999999999999</v>
+        <v>12.42</v>
       </c>
       <c r="L36" t="s">
         <v>82</v>
@@ -14154,32 +14153,32 @@
       </c>
       <c r="AN36" s="8">
         <f t="shared" si="13"/>
-        <v>1196.629298850894</v>
+        <v>852.49043256044388</v>
       </c>
       <c r="AO36">
-        <v>-2.5482268029008992E-7</v>
+        <v>-3.0279250040621264E-7</v>
       </c>
       <c r="AP36" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292997822165</v>
+        <v>852.49043349176645</v>
       </c>
       <c r="AQ36">
-        <v>9.0778598860197235E-8</v>
+        <v>2.7637389621304465E-7</v>
       </c>
       <c r="AR36" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292993165553</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AS36">
-        <v>-8.2022097558365203E-8</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AT36" s="8">
         <f t="shared" si="10"/>
-        <v>2.0901090742837861E-14</v>
+        <v>3.9997206398480166E-15</v>
       </c>
       <c r="AU36" s="8">
         <f t="shared" si="11"/>
-        <v>-7.4458510919227979E-15</v>
+        <v>-3.6507455617809202E-15</v>
       </c>
       <c r="AV36" s="8">
         <f t="shared" si="12"/>
@@ -14197,7 +14196,7 @@
       </c>
       <c r="K37">
         <f>ROUND(SUM(K21:K25)/$C$17 * 100, 2)</f>
-        <v>29.31</v>
+        <v>29.03</v>
       </c>
       <c r="L37" t="s">
         <v>82</v>
@@ -14210,32 +14209,32 @@
       </c>
       <c r="AN37" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292993165553</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AO37">
-        <v>-8.2022097558365203E-8</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AP37" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292997822165</v>
+        <v>852.49043349176645</v>
       </c>
       <c r="AQ37">
-        <v>9.0778598860197235E-8</v>
+        <v>2.7637389621304465E-7</v>
       </c>
       <c r="AR37" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292995493859</v>
+        <v>852.49043325893581</v>
       </c>
       <c r="AS37">
-        <v>4.3783074943348765E-9</v>
+        <v>1.3158233969079447E-7</v>
       </c>
       <c r="AT37" s="8">
         <f t="shared" si="10"/>
-        <v>-3.5911796444085675E-16</v>
+        <v>-1.7381295745261634E-15</v>
       </c>
       <c r="AU37" s="8">
         <f t="shared" si="11"/>
-        <v>3.9745661971482103E-16</v>
+        <v>3.6365923893173216E-14</v>
       </c>
       <c r="AV37" s="8">
         <f t="shared" si="12"/>
@@ -14262,7 +14261,7 @@
       </c>
       <c r="K38">
         <f>ROUND(SUM(K26:K29)/$C$17*100, 2)</f>
-        <v>4.6900000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="L38" t="s">
         <v>82</v>
@@ -14302,32 +14301,32 @@
       </c>
       <c r="AN38" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292993165553</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AO38">
-        <v>-8.2022097558365203E-8</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AP38" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995493859</v>
+        <v>852.49043325893581</v>
       </c>
       <c r="AQ38">
-        <v>4.3783074943348765E-9</v>
+        <v>1.3158233969079447E-7</v>
       </c>
       <c r="AR38" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292994329706</v>
+        <v>852.49043314252049</v>
       </c>
       <c r="AS38">
-        <v>-3.8821781345177442E-8</v>
+        <v>5.9186504586250521E-8</v>
       </c>
       <c r="AT38" s="8">
         <f t="shared" si="10"/>
-        <v>3.1842439368836665E-15</v>
+        <v>-7.8182083002881512E-16</v>
       </c>
       <c r="AU38" s="8">
         <f t="shared" si="11"/>
-        <v>-1.699736962070203E-16</v>
+        <v>7.7878987515787809E-15</v>
       </c>
       <c r="AV38" s="8">
         <f t="shared" si="12"/>
@@ -14355,7 +14354,7 @@
       </c>
       <c r="K39" s="3">
         <f>SUM(K34:K38)</f>
-        <v>100.00999999999999</v>
+        <v>100</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>82</v>
@@ -14368,14 +14367,14 @@
       </c>
       <c r="AD39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC39^2)) - AC39</f>
-        <v>1.6110572204093649</v>
+        <v>0.88462660030093621</v>
       </c>
       <c r="AE39" s="9">
         <v>1</v>
       </c>
       <c r="AF39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE39^2)) - AE39</f>
-        <v>-0.64701749420479282</v>
+        <v>-0.57074567476273019</v>
       </c>
       <c r="AG39" s="8">
         <f xml:space="preserve"> (AC39 + AE39)/2</f>
@@ -14383,15 +14382,15 @@
       </c>
       <c r="AH39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG39^2)) - AG39</f>
-        <v>-0.11121625657804707</v>
+        <v>-5.3785715069967044E-2</v>
       </c>
       <c r="AI39" s="8">
         <f>AD39*AH39</f>
-        <v>-0.17917575318696327</v>
+        <v>-4.7580274267099779E-2</v>
       </c>
       <c r="AJ39" s="8">
         <f>AF39*AH39</f>
-        <v>7.1958863645965321E-2</v>
+        <v>3.0697964240204285E-2</v>
       </c>
       <c r="AK39" s="8">
         <f>AE39-AC39</f>
@@ -14402,32 +14401,32 @@
       </c>
       <c r="AN39" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292994329706</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AO39">
-        <v>-3.8821781345177442E-8</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AP39" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995493859</v>
+        <v>852.49043314252049</v>
       </c>
       <c r="AQ39">
-        <v>4.3783074943348765E-9</v>
+        <v>5.9186504586250521E-8</v>
       </c>
       <c r="AR39" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292994911782</v>
+        <v>852.49043308431283</v>
       </c>
       <c r="AS39">
-        <v>-1.7221850612259004E-8</v>
+        <v>2.2988388082012534E-8</v>
       </c>
       <c r="AT39" s="8">
         <f t="shared" si="10"/>
-        <v>6.6858291882842932E-16</v>
+        <v>-3.0366382973524644E-16</v>
       </c>
       <c r="AU39" s="8">
         <f t="shared" si="11"/>
-        <v>-7.540255760196928E-17</v>
+        <v>1.3606023366465417E-15</v>
       </c>
       <c r="AV39" s="8">
         <f t="shared" si="12"/>
@@ -14446,7 +14445,7 @@
       </c>
       <c r="G40">
         <f xml:space="preserve"> 1/1000 * IF( $G$38&gt;=2*SQRT(($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18)), ($C$17*$C$31)/$C$9 * ( ($G$38/2) - SQRT( ($G$38/2)^2 - ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) ), 1/$C$9 * SQRT(($C$17*$C$31)^3/(2*$C$30*$C$5*PI()*$C$18*$C$18)) )</f>
-        <v>305.47187055985864</v>
+        <v>104.96100923062279</v>
       </c>
       <c r="H40" t="s">
         <v>162</v>
@@ -14460,7 +14459,7 @@
       </c>
       <c r="AD40" s="8">
         <f t="shared" ref="AD40:AD69" si="15" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC40^2)) - AC40</f>
-        <v>1.6110572204093649</v>
+        <v>0.88462660030093621</v>
       </c>
       <c r="AE40" s="8">
         <f>IF(AJ39&gt;0, AG39, AE39)</f>
@@ -14468,7 +14467,7 @@
       </c>
       <c r="AF40" s="8">
         <f t="shared" ref="AF40:AF69" si="16" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE40^2)) - AE40</f>
-        <v>-0.11121625657804707</v>
+        <v>-5.3785715069967044E-2</v>
       </c>
       <c r="AG40" s="8">
         <f t="shared" ref="AG40:AG69" si="17" xml:space="preserve"> (AC40 + AE40)/2</f>
@@ -14476,15 +14475,15 @@
       </c>
       <c r="AH40" s="8">
         <f t="shared" ref="AH40:AH69" si="18" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG40^2)) - AG40</f>
-        <v>0.20981335316812566</v>
+        <v>0.22967870502306154</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" ref="AI40:AI69" si="19">AD40*AH40</f>
-        <v>0.33802131755980896</v>
+        <v>0.20317989198607248</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" ref="AJ40:AJ69" si="20">AF40*AH40</f>
-        <v>-2.3334655719446668E-2</v>
+        <v>-1.2353433386009397E-2</v>
       </c>
       <c r="AK40" s="8">
         <f t="shared" ref="AK40:AK69" si="21">AE40-AC40</f>
@@ -14495,32 +14494,32 @@
       </c>
       <c r="AN40" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292994911782</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AO40">
-        <v>-1.7221850612259004E-8</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AP40" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995493859</v>
+        <v>852.49043308431283</v>
       </c>
       <c r="AQ40">
-        <v>4.3783074943348765E-9</v>
+        <v>2.2988388082012534E-8</v>
       </c>
       <c r="AR40" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292995202821</v>
+        <v>852.490433055209</v>
       </c>
       <c r="AS40">
-        <v>-6.4216010287054814E-9</v>
+        <v>4.8895572035689838E-9</v>
       </c>
       <c r="AT40" s="8">
         <f t="shared" si="10"/>
-        <v>1.1059185360789455E-16</v>
+        <v>-6.4588333068341579E-17</v>
       </c>
       <c r="AU40" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8115743909609762E-17</v>
+        <v>1.1240303854484376E-16</v>
       </c>
       <c r="AV40" s="8">
         <f t="shared" si="12"/>
@@ -14539,7 +14538,7 @@
       </c>
       <c r="G41">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>2933.7311800752791</v>
+        <v>2090.0188263079185</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -14553,7 +14552,7 @@
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="15"/>
-        <v>0.20981335316812566</v>
+        <v>0.22967870502306154</v>
       </c>
       <c r="AE41" s="8">
         <f t="shared" ref="AE41:AE69" si="23">IF(AJ40&gt;0, AG40, AE40)</f>
@@ -14561,7 +14560,7 @@
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="16"/>
-        <v>-0.11121625657804707</v>
+        <v>-5.3785715069967044E-2</v>
       </c>
       <c r="AG41" s="8">
         <f t="shared" si="17"/>
@@ -14569,15 +14568,15 @@
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="18"/>
-        <v>3.756490779024696E-2</v>
+        <v>8.2452040252752934E-2</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="19"/>
-        <v>7.881619264923161E-3</v>
+        <v>1.8937477831761636E-2</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="20"/>
-        <v>-4.1778284231307854E-3</v>
+        <v>-4.4347419439720228E-3</v>
       </c>
       <c r="AK41" s="8">
         <f t="shared" si="21"/>
@@ -14588,32 +14587,32 @@
       </c>
       <c r="AN41" s="8">
         <f t="shared" si="13"/>
-        <v>1196.6292995202821</v>
+        <v>852.49043302610517</v>
       </c>
       <c r="AO41">
-        <v>-6.4216010287054814E-9</v>
+        <v>-1.3209444205131149E-8</v>
       </c>
       <c r="AP41" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995493859</v>
+        <v>852.490433055209</v>
       </c>
       <c r="AQ41">
-        <v>4.3783074943348765E-9</v>
+        <v>4.8895572035689838E-9</v>
       </c>
       <c r="AR41" s="8">
         <f t="shared" si="9"/>
-        <v>1196.629299534834</v>
+        <v>852.49043304065708</v>
       </c>
       <c r="AS41">
-        <v>-1.0219309842796065E-9</v>
+        <v>-4.1599150790716521E-9</v>
       </c>
       <c r="AT41" s="8">
         <f t="shared" si="10"/>
-        <v>6.5624330599159262E-18</v>
+        <v>5.4950166135080721E-17</v>
       </c>
       <c r="AU41" s="8">
         <f t="shared" si="11"/>
-        <v>-4.474328087164418E-18</v>
+        <v>-2.0340142741110036E-17</v>
       </c>
       <c r="AV41" s="8">
         <f t="shared" si="12"/>
@@ -14640,7 +14639,7 @@
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="15"/>
-        <v>3.756490779024696E-2</v>
+        <v>8.2452040252752934E-2</v>
       </c>
       <c r="AE42" s="8">
         <f t="shared" si="23"/>
@@ -14648,7 +14647,7 @@
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="16"/>
-        <v>-0.11121625657804707</v>
+        <v>-5.3785715069967044E-2</v>
       </c>
       <c r="AG42" s="8">
         <f t="shared" si="17"/>
@@ -14656,15 +14655,15 @@
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="18"/>
-        <v>-3.8513983761552573E-2</v>
+        <v>1.353870427190873E-2</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="19"/>
-        <v>-1.4467742486377912E-3</v>
+        <v>1.1162937895975366E-3</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="20"/>
-        <v>4.2833810998675692E-3</v>
+        <v>-7.2818889038542864E-4</v>
       </c>
       <c r="AK42" s="8">
         <f t="shared" si="21"/>
@@ -14675,32 +14674,32 @@
       </c>
       <c r="AN42" s="8">
         <f t="shared" si="13"/>
-        <v>1196.629299534834</v>
+        <v>852.49043304065708</v>
       </c>
       <c r="AO42">
-        <v>-1.0219309842796065E-9</v>
+        <v>-4.1599150790716521E-9</v>
       </c>
       <c r="AP42" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995493859</v>
+        <v>852.490433055209</v>
       </c>
       <c r="AQ42">
-        <v>4.3783074943348765E-9</v>
+        <v>4.8895572035689838E-9</v>
       </c>
       <c r="AR42" s="8">
         <f t="shared" si="9"/>
-        <v>1196.6292995421099</v>
+        <v>852.49043304793304</v>
       </c>
       <c r="AS42">
-        <v>1.6783587852842174E-9</v>
+        <v>3.6487790566752665E-10</v>
       </c>
       <c r="AT42" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7151668454198251E-18</v>
+        <v>-1.5178611018064279E-18</v>
       </c>
       <c r="AU42" s="8">
         <f t="shared" si="11"/>
-        <v>7.3483708477926691E-18</v>
+        <v>1.7840913920798191E-18</v>
       </c>
       <c r="AV42" s="8">
         <f t="shared" si="12"/>
@@ -14718,35 +14717,35 @@
       </c>
       <c r="AC43" s="8">
         <f t="shared" si="22"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="15"/>
-        <v>3.756490779024696E-2</v>
+        <v>1.353870427190873E-2</v>
       </c>
       <c r="AE43" s="8">
         <f t="shared" si="23"/>
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="16"/>
-        <v>-3.8513983761552573E-2</v>
+        <v>-5.3785715069967044E-2</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="17"/>
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="18"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-2.0282895651084432E-2</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="19"/>
-        <v>-3.7307676921054285E-5</v>
+        <v>-2.746041259980158E-4</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="20"/>
-        <v>3.8250253964200887E-5</v>
+        <v>1.090930046283101E-3</v>
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="21"/>
@@ -14757,32 +14756,32 @@
       </c>
       <c r="AN43" s="8">
         <f t="shared" si="13"/>
-        <v>1196.629299534834</v>
+        <v>852.49043304065708</v>
       </c>
       <c r="AO43">
-        <v>-1.0219309842796065E-9</v>
+        <v>-4.1599150790716521E-9</v>
       </c>
       <c r="AP43" s="8">
         <f t="shared" si="14"/>
-        <v>1196.6292995421099</v>
+        <v>852.49043304793304</v>
       </c>
       <c r="AQ43">
-        <v>1.6783587852842174E-9</v>
+        <v>3.6487790566752665E-10</v>
       </c>
       <c r="AR43" s="8">
         <f t="shared" si="9"/>
-        <v>1196.629299538472</v>
+        <v>852.49043304429506</v>
       </c>
       <c r="AS43">
-        <v>3.2832758734002709E-10</v>
+        <v>-1.8975470084114932E-9</v>
       </c>
       <c r="AT43" s="8">
         <f t="shared" si="10"/>
-        <v>-3.3552813449654236E-19</v>
+        <v>7.8936344135382735E-18</v>
       </c>
       <c r="AU43" s="8">
         <f t="shared" si="11"/>
-        <v>5.5105149066330568E-19</v>
+        <v>-6.9237297833486619E-19</v>
       </c>
       <c r="AV43" s="8">
         <f t="shared" si="12"/>
@@ -14796,40 +14795,43 @@
       <c r="C44" s="1">
         <v>4</v>
       </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
       <c r="AB44" s="8">
         <v>5</v>
       </c>
       <c r="AC44" s="8">
         <f t="shared" si="22"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="15"/>
-        <v>3.756490779024696E-2</v>
+        <v>1.353870427190873E-2</v>
       </c>
       <c r="AE44" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="AF44" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-2.0282895651084432E-2</v>
       </c>
       <c r="AG44" s="8">
         <f t="shared" si="17"/>
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="18"/>
-        <v>1.8140817975201007E-2</v>
+        <v>-3.4160146250438728E-3</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="19"/>
-        <v>6.8145815447808041E-4</v>
+        <v>-4.6248411796984182E-5</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="20"/>
-        <v>-1.8016596230755822E-5</v>
+        <v>6.9286668182343182E-5</v>
       </c>
       <c r="AK44" s="8">
         <f t="shared" si="21"/>
@@ -14840,32 +14842,32 @@
       </c>
       <c r="AN44" s="8">
         <f t="shared" si="13"/>
-        <v>1196.629299534834</v>
+        <v>852.49043304429506</v>
       </c>
       <c r="AO44">
-        <v>-1.0219309842796065E-9</v>
+        <v>-1.8975470084114932E-9</v>
       </c>
       <c r="AP44" s="8">
         <f t="shared" si="14"/>
-        <v>1196.629299538472</v>
+        <v>852.49043304793304</v>
       </c>
       <c r="AQ44">
-        <v>3.2832758734002709E-10</v>
+        <v>3.6487790566752665E-10</v>
       </c>
       <c r="AR44" s="11">
         <f t="shared" si="9"/>
-        <v>1196.629299536653</v>
+        <v>852.49043304611405</v>
       </c>
       <c r="AS44">
-        <v>-3.4685854188865051E-10</v>
+        <v>-7.6630612966255285E-10</v>
       </c>
       <c r="AT44" s="8">
         <f t="shared" si="10"/>
-        <v>3.5446549111805773E-19</v>
+        <v>1.4541019038685669E-18</v>
       </c>
       <c r="AU44" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1388322820658035E-19</v>
+        <v>-2.796081756914604E-19</v>
       </c>
       <c r="AV44" s="8">
         <f t="shared" si="12"/>
@@ -14882,40 +14884,43 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
       <c r="AB45" s="8">
         <v>6</v>
       </c>
       <c r="AC45" s="8">
         <f t="shared" si="22"/>
-        <v>0.390625</v>
+        <v>0.4375</v>
       </c>
       <c r="AD45" s="8">
         <f t="shared" si="15"/>
-        <v>1.8140817975201007E-2</v>
+        <v>1.353870427190873E-2</v>
       </c>
       <c r="AE45" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="AF45" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-3.4160146250438728E-3</v>
       </c>
       <c r="AG45" s="8">
         <f t="shared" si="17"/>
-        <v>0.3984375</v>
+        <v>0.4453125</v>
       </c>
       <c r="AH45" s="8">
         <f t="shared" si="18"/>
-        <v>8.5396801669347377E-3</v>
+        <v>5.0497946592003573E-3</v>
       </c>
       <c r="AI45" s="8">
         <f t="shared" si="19"/>
-        <v>1.5491678347479722E-4</v>
+        <v>6.8367676524777772E-5</v>
       </c>
       <c r="AJ45" s="8">
         <f t="shared" si="20"/>
-        <v>-8.481203533257538E-6</v>
+        <v>-1.725017240929686E-5</v>
       </c>
       <c r="AK45" s="8">
         <f t="shared" si="21"/>
@@ -14932,40 +14937,43 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
+      <c r="G46" s="1">
+        <v>50</v>
+      </c>
       <c r="AB46" s="8">
         <v>7</v>
       </c>
       <c r="AC46" s="8">
         <f t="shared" si="22"/>
-        <v>0.3984375</v>
+        <v>0.4453125</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="15"/>
-        <v>8.5396801669347377E-3</v>
+        <v>5.0497946592003573E-3</v>
       </c>
       <c r="AE46" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="AF46" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-3.4160146250438728E-3</v>
       </c>
       <c r="AG46" s="8">
         <f t="shared" si="17"/>
-        <v>0.40234375</v>
+        <v>0.44921875</v>
       </c>
       <c r="AH46" s="8">
         <f t="shared" si="18"/>
-        <v>3.7649720524713937E-3</v>
+        <v>8.1407683025191968E-4</v>
       </c>
       <c r="AI46" s="8">
         <f t="shared" si="19"/>
-        <v>3.2151657165553533E-5</v>
+        <v>4.1109208295848999E-6</v>
       </c>
       <c r="AJ46" s="8">
         <f t="shared" si="20"/>
-        <v>-3.7391908888664936E-6</v>
+        <v>-2.7808983580499158E-6</v>
       </c>
       <c r="AK46" s="8">
         <f t="shared" si="21"/>
@@ -14973,40 +14981,43 @@
       </c>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
       <c r="AB47" s="8">
         <v>8</v>
       </c>
       <c r="AC47" s="8">
         <f t="shared" si="22"/>
-        <v>0.40234375</v>
+        <v>0.44921875</v>
       </c>
       <c r="AD47" s="8">
         <f t="shared" si="15"/>
-        <v>3.7649720524713937E-3</v>
+        <v>8.1407683025191968E-4</v>
       </c>
       <c r="AE47" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="AF47" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-3.4160146250438728E-3</v>
       </c>
       <c r="AG47" s="8">
         <f t="shared" si="17"/>
-        <v>0.404296875</v>
+        <v>0.451171875</v>
       </c>
       <c r="AH47" s="8">
         <f t="shared" si="18"/>
-        <v>1.3838666424935697E-3</v>
+        <v>-1.3016631769356413E-3</v>
       </c>
       <c r="AI47" s="8">
         <f t="shared" si="19"/>
-        <v>5.2102192333357117E-6</v>
+        <v>-1.0596538331354106E-6</v>
       </c>
       <c r="AJ47" s="8">
         <f t="shared" si="20"/>
-        <v>-1.3743904254539051E-6</v>
+        <v>4.4465004492932207E-6</v>
       </c>
       <c r="AK47" s="8">
         <f t="shared" si="21"/>
@@ -15019,40 +15030,43 @@
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
       <c r="AB48" s="8">
         <v>9</v>
       </c>
       <c r="AC48" s="8">
         <f t="shared" si="22"/>
-        <v>0.404296875</v>
+        <v>0.44921875</v>
       </c>
       <c r="AD48" s="8">
         <f t="shared" si="15"/>
-        <v>1.3838666424935697E-3</v>
+        <v>8.1407683025191968E-4</v>
       </c>
       <c r="AE48" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.451171875</v>
       </c>
       <c r="AF48" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-1.3016631769356413E-3</v>
       </c>
       <c r="AG48" s="8">
         <f t="shared" si="17"/>
-        <v>0.4052734375</v>
+        <v>0.4501953125</v>
       </c>
       <c r="AH48" s="8">
         <f t="shared" si="18"/>
-        <v>1.9484999733965225E-4</v>
+        <v>-2.4396785834363E-4</v>
       </c>
       <c r="AI48" s="8">
         <f t="shared" si="19"/>
-        <v>2.6964641160830554E-7</v>
+        <v>-1.9860858080373166E-7</v>
       </c>
       <c r="AJ48" s="8">
         <f t="shared" si="20"/>
-        <v>-1.9351573520176189E-7</v>
+        <v>3.1756397756175391E-7</v>
       </c>
       <c r="AK48" s="8">
         <f t="shared" si="21"/>
@@ -15069,40 +15083,43 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
       <c r="AB49" s="8">
         <v>10</v>
       </c>
       <c r="AC49" s="8">
         <f t="shared" si="22"/>
-        <v>0.4052734375</v>
+        <v>0.44921875</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="15"/>
-        <v>1.9484999733965225E-4</v>
+        <v>8.1407683025191968E-4</v>
       </c>
       <c r="AE49" s="8">
         <f t="shared" si="23"/>
-        <v>0.40625</v>
+        <v>0.4501953125</v>
       </c>
       <c r="AF49" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9315236255526074E-4</v>
+        <v>-2.4396785834363E-4</v>
       </c>
       <c r="AG49" s="8">
         <f t="shared" si="17"/>
-        <v>0.40576171875</v>
+        <v>0.44970703125</v>
       </c>
       <c r="AH49" s="8">
         <f t="shared" si="18"/>
-        <v>-3.9927751482349283E-4</v>
+        <v>2.8501067427166848E-4</v>
       </c>
       <c r="AI49" s="8">
         <f t="shared" si="19"/>
-        <v>-7.779922270114054E-8</v>
+        <v>2.3202058629904225E-7</v>
       </c>
       <c r="AJ49" s="8">
         <f t="shared" si="20"/>
-        <v>3.9654340716214503E-7</v>
+        <v>-6.9533443807132888E-8</v>
       </c>
       <c r="AK49" s="8">
         <f t="shared" si="21"/>
@@ -15121,35 +15138,35 @@
       </c>
       <c r="AC50" s="8">
         <f t="shared" si="22"/>
-        <v>0.4052734375</v>
+        <v>0.44970703125</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="15"/>
-        <v>1.9484999733965225E-4</v>
+        <v>2.8501067427166848E-4</v>
       </c>
       <c r="AE50" s="8">
         <f t="shared" si="23"/>
-        <v>0.40576171875</v>
+        <v>0.4501953125</v>
       </c>
       <c r="AF50" s="8">
         <f t="shared" si="16"/>
-        <v>-3.9927751482349283E-4</v>
+        <v>-2.4396785834363E-4</v>
       </c>
       <c r="AG50" s="8">
         <f t="shared" si="17"/>
-        <v>0.405517578125</v>
+        <v>0.449951171875</v>
       </c>
       <c r="AH50" s="8">
         <f t="shared" si="18"/>
-        <v>-1.0224539830744339E-4</v>
+        <v>2.0510472644230671E-5</v>
       </c>
       <c r="AI50" s="8">
         <f t="shared" si="19"/>
-        <v>-1.992251558819703E-8</v>
+        <v>5.8457036379627946E-9</v>
       </c>
       <c r="AJ50" s="8">
         <f t="shared" si="20"/>
-        <v>4.082428853833416E-8</v>
+        <v>-5.003896084628566E-9</v>
       </c>
       <c r="AK50" s="8">
         <f t="shared" si="21"/>
@@ -15162,35 +15179,35 @@
       </c>
       <c r="AC51" s="8">
         <f t="shared" si="22"/>
-        <v>0.4052734375</v>
+        <v>0.449951171875</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="15"/>
-        <v>1.9484999733965225E-4</v>
+        <v>2.0510472644230671E-5</v>
       </c>
       <c r="AE51" s="8">
         <f t="shared" si="23"/>
-        <v>0.405517578125</v>
+        <v>0.4501953125</v>
       </c>
       <c r="AF51" s="8">
         <f t="shared" si="16"/>
-        <v>-1.0224539830744339E-4</v>
+        <v>-2.4396785834363E-4</v>
       </c>
       <c r="AG51" s="8">
         <f t="shared" si="17"/>
-        <v>0.4053955078125</v>
+        <v>0.4500732421875</v>
       </c>
       <c r="AH51" s="8">
         <f t="shared" si="18"/>
-        <v>4.629438254605267E-5</v>
+        <v>-1.1173142448361872E-4</v>
       </c>
       <c r="AI51" s="8">
         <f t="shared" si="19"/>
-        <v>9.0204603159392065E-9</v>
+        <v>-2.2916643253721867E-9</v>
       </c>
       <c r="AJ51" s="8">
         <f t="shared" si="20"/>
-        <v>-4.733387582818311E-9</v>
+        <v>2.7258876340951487E-8</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="21"/>
@@ -15208,35 +15225,35 @@
       </c>
       <c r="AC52" s="8">
         <f t="shared" si="22"/>
-        <v>0.4053955078125</v>
+        <v>0.449951171875</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="15"/>
-        <v>4.629438254605267E-5</v>
+        <v>2.0510472644230671E-5</v>
       </c>
       <c r="AE52" s="8">
         <f t="shared" si="23"/>
-        <v>0.405517578125</v>
+        <v>0.4500732421875</v>
       </c>
       <c r="AF52" s="8">
         <f t="shared" si="16"/>
-        <v>-1.0224539830744339E-4</v>
+        <v>-1.1173142448361872E-4</v>
       </c>
       <c r="AG52" s="8">
         <f t="shared" si="17"/>
-        <v>0.40545654296875</v>
+        <v>0.45001220703125</v>
       </c>
       <c r="AH52" s="8">
         <f t="shared" si="18"/>
-        <v>-2.797748623772911E-5</v>
+        <v>-4.5611159102509902E-5</v>
       </c>
       <c r="AI52" s="8">
         <f t="shared" si="19"/>
-        <v>-1.2952004505663552E-9</v>
+        <v>-9.3550643104368214E-10</v>
       </c>
       <c r="AJ52" s="8">
         <f t="shared" si="20"/>
-        <v>2.8605692240176287E-9</v>
+        <v>5.096199778872404E-9</v>
       </c>
       <c r="AK52" s="8">
         <f t="shared" si="21"/>
@@ -15255,35 +15272,35 @@
       </c>
       <c r="AC53" s="8">
         <f t="shared" si="22"/>
-        <v>0.4053955078125</v>
+        <v>0.449951171875</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="15"/>
-        <v>4.629438254605267E-5</v>
+        <v>2.0510472644230671E-5</v>
       </c>
       <c r="AE53" s="8">
         <f t="shared" si="23"/>
-        <v>0.40545654296875</v>
+        <v>0.45001220703125</v>
       </c>
       <c r="AF53" s="8">
         <f t="shared" si="16"/>
-        <v>-2.797748623772911E-5</v>
+        <v>-4.5611159102509902E-5</v>
       </c>
       <c r="AG53" s="8">
         <f t="shared" si="17"/>
-        <v>0.405426025390625</v>
+        <v>0.449981689453125</v>
       </c>
       <c r="AH53" s="8">
         <f t="shared" si="18"/>
-        <v>9.157953454297374E-6</v>
+        <v>-1.2550514059128659E-5</v>
       </c>
       <c r="AI53" s="8">
         <f t="shared" si="19"/>
-        <v>4.2396180055218711E-10</v>
+        <v>-2.574169752807908E-10</v>
       </c>
       <c r="AJ53" s="8">
         <f t="shared" si="20"/>
-        <v>-2.5621651673336856E-10</v>
+        <v>5.724434935692046E-10</v>
       </c>
       <c r="AK53" s="8">
         <f t="shared" si="21"/>
@@ -15296,35 +15313,35 @@
       </c>
       <c r="AC54" s="8">
         <f t="shared" si="22"/>
-        <v>0.405426025390625</v>
+        <v>0.449951171875</v>
       </c>
       <c r="AD54" s="8">
         <f t="shared" si="15"/>
-        <v>9.157953454297374E-6</v>
+        <v>2.0510472644230671E-5</v>
       </c>
       <c r="AE54" s="8">
         <f t="shared" si="23"/>
-        <v>0.40545654296875</v>
+        <v>0.449981689453125</v>
       </c>
       <c r="AF54" s="8">
         <f t="shared" si="16"/>
-        <v>-2.797748623772911E-5</v>
+        <v>-1.2550514059128659E-5</v>
       </c>
       <c r="AG54" s="8">
         <f t="shared" si="17"/>
-        <v>0.4054412841796875</v>
+        <v>0.4499664306640625</v>
       </c>
       <c r="AH54" s="8">
         <f t="shared" si="18"/>
-        <v>-9.4098900528249985E-6</v>
+        <v>3.9799365807446918E-6</v>
       </c>
       <c r="AI54" s="8">
         <f t="shared" si="19"/>
-        <v>-8.6175335113827195E-11</v>
+        <v>8.1630380365136954E-11</v>
       </c>
       <c r="AJ54" s="8">
         <f t="shared" si="20"/>
-        <v>2.6326506945145546E-10</v>
+        <v>-4.99502500110767E-11</v>
       </c>
       <c r="AK54" s="8">
         <f t="shared" si="21"/>
@@ -15342,35 +15359,35 @@
       </c>
       <c r="AC55" s="8">
         <f t="shared" si="22"/>
-        <v>0.405426025390625</v>
+        <v>0.4499664306640625</v>
       </c>
       <c r="AD55" s="8">
         <f t="shared" si="15"/>
-        <v>9.157953454297374E-6</v>
+        <v>3.9799365807446918E-6</v>
       </c>
       <c r="AE55" s="8">
         <f t="shared" si="23"/>
-        <v>0.4054412841796875</v>
+        <v>0.449981689453125</v>
       </c>
       <c r="AF55" s="8">
         <f t="shared" si="16"/>
-        <v>-9.4098900528249985E-6</v>
+        <v>-1.2550514059128659E-5</v>
       </c>
       <c r="AG55" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997406005859375</v>
       </c>
       <c r="AH55" s="8">
         <f t="shared" si="18"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-4.2852994165953895E-6</v>
       </c>
       <c r="AI55" s="8">
         <f t="shared" si="19"/>
-        <v>-1.1538949579954386E-12</v>
+        <v>-1.7055219907551878E-11</v>
       </c>
       <c r="AJ55" s="8">
         <f t="shared" si="20"/>
-        <v>1.1856387719628629E-12</v>
+        <v>5.3782710575556278E-11</v>
       </c>
       <c r="AK55" s="8">
         <f t="shared" si="21"/>
@@ -15390,35 +15407,35 @@
       </c>
       <c r="AC56" s="8">
         <f t="shared" si="22"/>
-        <v>0.405426025390625</v>
+        <v>0.4499664306640625</v>
       </c>
       <c r="AD56" s="8">
         <f t="shared" si="15"/>
-        <v>9.157953454297374E-6</v>
+        <v>3.9799365807446918E-6</v>
       </c>
       <c r="AE56" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997406005859375</v>
       </c>
       <c r="AF56" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-4.2852994165953895E-6</v>
       </c>
       <c r="AG56" s="8">
         <f t="shared" si="17"/>
-        <v>0.40542984008789062</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AH56" s="8">
         <f t="shared" si="18"/>
-        <v>4.5159693895513442E-6</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AI56" s="8">
         <f t="shared" si="19"/>
-        <v>4.1357037470542934E-11</v>
+        <v>-6.0767298441386293E-13</v>
       </c>
       <c r="AJ56" s="8">
         <f t="shared" si="20"/>
-        <v>-5.6900860384039099E-13</v>
+        <v>6.5429703030651211E-13</v>
       </c>
       <c r="AK56" s="8">
         <f t="shared" si="21"/>
@@ -15441,35 +15458,35 @@
       </c>
       <c r="AC57" s="8">
         <f t="shared" si="22"/>
-        <v>0.40542984008789062</v>
+        <v>0.4499664306640625</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="15"/>
-        <v>4.5159693895513442E-6</v>
+        <v>3.9799365807446918E-6</v>
       </c>
       <c r="AE57" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AF57" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AG57" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543174743652344</v>
+        <v>0.44996833801269531</v>
       </c>
       <c r="AH57" s="8">
         <f t="shared" si="18"/>
-        <v>2.1949831542911191E-6</v>
+        <v>1.9136255793306134E-6</v>
       </c>
       <c r="AI57" s="8">
         <f t="shared" si="19"/>
-        <v>9.9124767353595489E-12</v>
+        <v>7.6161084450266616E-12</v>
       </c>
       <c r="AJ57" s="8">
         <f t="shared" si="20"/>
-        <v>-2.765661571945354E-13</v>
+        <v>-2.9218017504815543E-13</v>
       </c>
       <c r="AK57" s="8">
         <f t="shared" si="21"/>
@@ -15493,35 +15510,35 @@
       </c>
       <c r="AC58" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543174743652344</v>
+        <v>0.44996833801269531</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="15"/>
-        <v>2.1949831542911191E-6</v>
+        <v>1.9136255793306134E-6</v>
       </c>
       <c r="AE58" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AF58" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AG58" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543270111083984</v>
+        <v>0.44996929168701172</v>
       </c>
       <c r="AH58" s="8">
         <f t="shared" si="18"/>
-        <v>1.0344914859183874E-6</v>
+        <v>8.8047057916762483E-7</v>
       </c>
       <c r="AI58" s="8">
         <f t="shared" si="19"/>
-        <v>2.2706913848484486E-12</v>
+        <v>1.6848910221432068E-12</v>
       </c>
       <c r="AJ58" s="8">
         <f t="shared" si="20"/>
-        <v>-1.303451164769018E-13</v>
+        <v>-1.3443384679041322E-13</v>
       </c>
       <c r="AK58" s="8">
         <f t="shared" si="21"/>
@@ -15534,35 +15551,35 @@
       </c>
       <c r="AC59" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543270111083984</v>
+        <v>0.44996929168701172</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="15"/>
-        <v>1.0344914859183874E-6</v>
+        <v>8.8047057916762483E-7</v>
       </c>
       <c r="AE59" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AF59" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AG59" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543317794799805</v>
+        <v>0.44996976852416992</v>
       </c>
       <c r="AH59" s="8">
         <f t="shared" si="18"/>
-        <v>4.5424601402554998E-7</v>
+        <v>3.6389320418050985E-7</v>
       </c>
       <c r="AI59" s="8">
         <f t="shared" si="19"/>
-        <v>4.6991363402179584E-13</v>
+        <v>3.2039726023997628E-13</v>
       </c>
       <c r="AJ59" s="8">
         <f t="shared" si="20"/>
-        <v>-5.7234641766785652E-14</v>
+        <v>-5.5560701761463241E-14</v>
       </c>
       <c r="AK59" s="8">
         <f t="shared" si="21"/>
@@ -15580,35 +15597,35 @@
       </c>
       <c r="AC60" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543317794799805</v>
+        <v>0.44996976852416992</v>
       </c>
       <c r="AD60" s="8">
         <f t="shared" si="15"/>
-        <v>4.5424601402554998E-7</v>
+        <v>3.6389320418050985E-7</v>
       </c>
       <c r="AE60" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AF60" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AG60" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543341636657715</v>
+        <v>0.44997000694274902</v>
       </c>
       <c r="AH60" s="8">
         <f t="shared" si="18"/>
-        <v>1.6412336867333011E-7</v>
+        <v>1.0560454799524166E-7</v>
       </c>
       <c r="AI60" s="8">
         <f t="shared" si="19"/>
-        <v>7.4552386028306016E-14</v>
+        <v>3.8428777346022924E-14</v>
       </c>
       <c r="AJ60" s="8">
         <f t="shared" si="20"/>
-        <v>-2.0679415826525623E-14</v>
+        <v>-1.6124134027265834E-14</v>
       </c>
       <c r="AK60" s="8">
         <f t="shared" si="21"/>
@@ -15627,35 +15644,35 @@
       </c>
       <c r="AC61" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543341636657715</v>
+        <v>0.44997000694274902</v>
       </c>
       <c r="AD61" s="8">
         <f t="shared" si="15"/>
-        <v>1.6412336867333011E-7</v>
+        <v>1.0560454799524166E-7</v>
       </c>
       <c r="AE61" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997024536132812</v>
       </c>
       <c r="AF61" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-1.5268408731783367E-7</v>
       </c>
       <c r="AG61" s="8">
         <f t="shared" si="17"/>
-        <v>0.4054335355758667</v>
+        <v>0.44997012615203857</v>
       </c>
       <c r="AH61" s="8">
         <f t="shared" si="18"/>
-        <v>1.906206864576987E-8</v>
+        <v>-2.353977229807569E-8</v>
       </c>
       <c r="AI61" s="8">
         <f t="shared" si="19"/>
-        <v>3.1285309200260145E-15</v>
+        <v>-2.4859070134491941E-15</v>
       </c>
       <c r="AJ61" s="8">
         <f t="shared" si="20"/>
-        <v>-2.4018057100951231E-15</v>
+        <v>3.5941486490013105E-15</v>
       </c>
       <c r="AK61" s="8">
         <f t="shared" si="21"/>
@@ -15677,35 +15694,35 @@
       </c>
       <c r="AC62" s="8">
         <f t="shared" si="22"/>
-        <v>0.4054335355758667</v>
+        <v>0.44997000694274902</v>
       </c>
       <c r="AD62" s="8">
         <f t="shared" si="15"/>
-        <v>1.906206864576987E-8</v>
+        <v>1.0560454799524166E-7</v>
       </c>
       <c r="AE62" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543365478515625</v>
+        <v>0.44997012615203857</v>
       </c>
       <c r="AF62" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2599921628275723E-7</v>
+        <v>-2.353977229807569E-8</v>
       </c>
       <c r="AG62" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543359518051147</v>
+        <v>0.4499700665473938</v>
       </c>
       <c r="AH62" s="8">
         <f t="shared" si="18"/>
-        <v>-5.3468575733628398E-8</v>
+        <v>4.1032387210204746E-8</v>
       </c>
       <c r="AI62" s="8">
         <f t="shared" si="19"/>
-        <v>-1.0192216610259695E-15</v>
+        <v>4.3332067044994069E-15</v>
       </c>
       <c r="AJ62" s="8">
         <f t="shared" si="20"/>
-        <v>6.7369986381924292E-15</v>
+        <v>-9.6589305177469293E-16</v>
       </c>
       <c r="AK62" s="8">
         <f t="shared" si="21"/>
@@ -15728,35 +15745,35 @@
       </c>
       <c r="AC63" s="8">
         <f t="shared" si="22"/>
-        <v>0.4054335355758667</v>
+        <v>0.4499700665473938</v>
       </c>
       <c r="AD63" s="8">
         <f t="shared" si="15"/>
-        <v>1.906206864576987E-8</v>
+        <v>4.1032387210204746E-8</v>
       </c>
       <c r="AE63" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543359518051147</v>
+        <v>0.44997012615203857</v>
       </c>
       <c r="AF63" s="8">
         <f t="shared" si="16"/>
-        <v>-5.3468575733628398E-8</v>
+        <v>-2.353977229807569E-8</v>
       </c>
       <c r="AG63" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543356537818909</v>
+        <v>0.44997009634971619</v>
       </c>
       <c r="AH63" s="8">
         <f t="shared" si="18"/>
-        <v>-1.7203253988018474E-8</v>
+        <v>8.7463072895310745E-9</v>
       </c>
       <c r="AI63" s="8">
         <f t="shared" si="19"/>
-        <v>-3.2792960845022241E-16</v>
+        <v>3.5888186736347538E-16</v>
       </c>
       <c r="AJ63" s="8">
         <f t="shared" si="20"/>
-        <v>9.1983348872321064E-16</v>
+        <v>-2.0588608204456106E-16</v>
       </c>
       <c r="AK63" s="8">
         <f t="shared" si="21"/>
@@ -15778,35 +15795,35 @@
       </c>
       <c r="AC64" s="8">
         <f t="shared" si="22"/>
-        <v>0.4054335355758667</v>
+        <v>0.44997009634971619</v>
       </c>
       <c r="AD64" s="8">
         <f t="shared" si="15"/>
-        <v>1.906206864576987E-8</v>
+        <v>8.7463072895310745E-9</v>
       </c>
       <c r="AE64" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543356537818909</v>
+        <v>0.44997012615203857</v>
       </c>
       <c r="AF64" s="8">
         <f t="shared" si="16"/>
-        <v>-1.7203253988018474E-8</v>
+        <v>-2.353977229807569E-8</v>
       </c>
       <c r="AG64" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997011125087738</v>
       </c>
       <c r="AH64" s="8">
         <f t="shared" si="18"/>
-        <v>9.294072178533952E-10</v>
+        <v>-7.3967325042723076E-9</v>
       </c>
       <c r="AI64" s="8">
         <f t="shared" si="19"/>
-        <v>1.7716424186595411E-17</v>
+        <v>-6.4694095420828326E-17</v>
       </c>
       <c r="AJ64" s="8">
         <f t="shared" si="20"/>
-        <v>-1.5988828427029576E-17</v>
+        <v>1.7411739890034528E-16</v>
       </c>
       <c r="AK64" s="8">
         <f t="shared" si="21"/>
@@ -15819,35 +15836,35 @@
       </c>
       <c r="AC65" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997009634971619</v>
       </c>
       <c r="AD65" s="8">
         <f t="shared" si="15"/>
-        <v>9.294072178533952E-10</v>
+        <v>8.7463072895310745E-9</v>
       </c>
       <c r="AE65" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543356537818909</v>
+        <v>0.44997011125087738</v>
       </c>
       <c r="AF65" s="8">
         <f t="shared" si="16"/>
-        <v>-1.7203253988018474E-8</v>
+        <v>-7.3967325042723076E-9</v>
       </c>
       <c r="AG65" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355792760849</v>
+        <v>0.44997010380029678</v>
       </c>
       <c r="AH65" s="8">
         <f t="shared" si="18"/>
-        <v>-8.1369234128381152E-9</v>
+        <v>6.7478739262938348E-10</v>
       </c>
       <c r="AI65" s="8">
         <f t="shared" si="19"/>
-        <v>-7.562515351012026E-18</v>
+        <v>5.9018978910380439E-18</v>
       </c>
       <c r="AJ65" s="8">
         <f t="shared" si="20"/>
-        <v>1.3998156015210821E-16</v>
+        <v>-4.9912218405349205E-18</v>
       </c>
       <c r="AK65" s="8">
         <f t="shared" si="21"/>
@@ -15860,35 +15877,35 @@
       </c>
       <c r="AC66" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997010380029678</v>
       </c>
       <c r="AD66" s="8">
         <f t="shared" si="15"/>
-        <v>9.294072178533952E-10</v>
+        <v>6.7478739262938348E-10</v>
       </c>
       <c r="AE66" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543355792760849</v>
+        <v>0.44997011125087738</v>
       </c>
       <c r="AF66" s="8">
         <f t="shared" si="16"/>
-        <v>-8.1369234128381152E-9</v>
+        <v>-7.3967325042723076E-9</v>
       </c>
       <c r="AG66" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355420231819</v>
+        <v>0.44997010752558708</v>
       </c>
       <c r="AH66" s="8">
         <f t="shared" si="18"/>
-        <v>-3.6037581252479356E-9</v>
+        <v>-3.360972555821462E-9</v>
       </c>
       <c r="AI66" s="8">
         <f t="shared" si="19"/>
-        <v>-3.3493588130032511E-18</v>
+        <v>-2.2679419076416794E-18</v>
       </c>
       <c r="AJ66" s="8">
         <f t="shared" si="20"/>
-        <v>2.9323503863535523E-17</v>
+        <v>2.4860214949611781E-17</v>
       </c>
       <c r="AK66" s="8">
         <f t="shared" si="21"/>
@@ -15901,35 +15918,35 @@
       </c>
       <c r="AC67" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997010380029678</v>
       </c>
       <c r="AD67" s="8">
         <f t="shared" si="15"/>
-        <v>9.294072178533952E-10</v>
+        <v>6.7478739262938348E-10</v>
       </c>
       <c r="AE67" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543355420231819</v>
+        <v>0.44997010752558708</v>
       </c>
       <c r="AF67" s="8">
         <f t="shared" si="16"/>
-        <v>-3.6037581252479356E-9</v>
+        <v>-3.360972555821462E-9</v>
       </c>
       <c r="AG67" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355233967304</v>
+        <v>0.44997010566294193</v>
       </c>
       <c r="AH67" s="8">
         <f t="shared" si="18"/>
-        <v>-1.3371754814528458E-9</v>
+        <v>-1.3430925815960393E-9</v>
       </c>
       <c r="AI67" s="8">
         <f t="shared" si="19"/>
-        <v>-1.2427805439988637E-18</v>
+        <v>-9.0630194119505882E-19</v>
       </c>
       <c r="AJ67" s="8">
         <f t="shared" si="20"/>
-        <v>4.8188570061680133E-18</v>
+        <v>4.5140973066716857E-18</v>
       </c>
       <c r="AK67" s="8">
         <f t="shared" si="21"/>
@@ -15942,35 +15959,35 @@
       </c>
       <c r="AC68" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997010380029678</v>
       </c>
       <c r="AD68" s="8">
         <f t="shared" si="15"/>
-        <v>9.294072178533952E-10</v>
+        <v>6.7478739262938348E-10</v>
       </c>
       <c r="AE68" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543355233967304</v>
+        <v>0.44997010566294193</v>
       </c>
       <c r="AF68" s="8">
         <f t="shared" si="16"/>
-        <v>-1.3371754814528458E-9</v>
+        <v>-1.3430925815960393E-9</v>
       </c>
       <c r="AG68" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355140835047</v>
+        <v>0.44997010473161936</v>
       </c>
       <c r="AH68" s="8">
         <f t="shared" si="18"/>
-        <v>-2.0388413179972531E-10</v>
+        <v>-3.341525944833279E-10</v>
       </c>
       <c r="AI68" s="8">
         <f t="shared" si="19"/>
-        <v>-1.8949138370043764E-19</v>
+        <v>-2.2548195797174854E-19</v>
       </c>
       <c r="AJ68" s="8">
         <f t="shared" si="20"/>
-        <v>2.7262886209989316E-19</v>
+        <v>4.4879787077162731E-19</v>
       </c>
       <c r="AK68" s="8">
         <f t="shared" si="21"/>
@@ -15983,35 +16000,35 @@
       </c>
       <c r="AC69" s="8">
         <f t="shared" si="22"/>
-        <v>0.40543355047702789</v>
+        <v>0.44997010380029678</v>
       </c>
       <c r="AD69" s="8">
         <f t="shared" si="15"/>
-        <v>9.294072178533952E-10</v>
+        <v>6.7478739262938348E-10</v>
       </c>
       <c r="AE69" s="8">
         <f t="shared" si="23"/>
-        <v>0.40543355140835047</v>
+        <v>0.44997010473161936</v>
       </c>
       <c r="AF69" s="8">
         <f t="shared" si="16"/>
-        <v>-2.0388413179972531E-10</v>
+        <v>-3.341525944833279E-10</v>
       </c>
       <c r="AG69" s="8">
         <f t="shared" si="17"/>
-        <v>0.40543355094268918</v>
+        <v>0.44997010426595807</v>
       </c>
       <c r="AH69" s="8">
         <f t="shared" si="18"/>
-        <v>3.6276154302683494E-10</v>
+        <v>1.7031737131745217E-10</v>
       </c>
       <c r="AI69" s="8">
         <f t="shared" si="19"/>
-        <v>3.3715319644877538E-19</v>
+        <v>1.1492801491079409E-19</v>
       </c>
       <c r="AJ69" s="8">
         <f t="shared" si="20"/>
-        <v>-7.3961322250354939E-20</v>
+        <v>-5.6911991511306978E-20</v>
       </c>
       <c r="AK69" s="8">
         <f t="shared" si="21"/>
@@ -16064,14 +16081,14 @@
       </c>
       <c r="AD74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC74^2)) - AC74</f>
-        <v>0.77611055308557608</v>
+        <v>0.53271980277561104</v>
       </c>
       <c r="AE74" s="9">
         <v>1</v>
       </c>
       <c r="AF74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE74^2)) - AE74</f>
-        <v>-0.67017212222865452</v>
+        <v>-0.58342905121181887</v>
       </c>
       <c r="AG74" s="8">
         <f xml:space="preserve"> (AC74 + AE74)/2</f>
@@ -16079,15 +16096,15 @@
       </c>
       <c r="AH74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG74^2)) - AG74</f>
-        <v>-0.15747218324885809</v>
+        <v>-7.9103184245693126E-2</v>
       </c>
       <c r="AI74" s="8">
         <f>AD74*AH74</f>
-        <v>-0.12221582323686445</v>
+        <v>-4.2139832710288462E-2</v>
       </c>
       <c r="AJ74" s="8">
         <f>AF74*AH74</f>
-        <v>0.10553346723986681</v>
+        <v>4.615109573229844E-2</v>
       </c>
       <c r="AK74" s="8">
         <f>AE74-AC74</f>
@@ -16104,7 +16121,7 @@
       </c>
       <c r="AD75" s="8">
         <f t="shared" ref="AD75:AD104" si="24" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC75^2)) - AC75</f>
-        <v>0.77611055308557608</v>
+        <v>0.53271980277561104</v>
       </c>
       <c r="AE75" s="8">
         <f>IF(AJ74&gt;0, AG74, AE74)</f>
@@ -16112,7 +16129,7 @@
       </c>
       <c r="AF75" s="8">
         <f t="shared" ref="AF75:AF104" si="25" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE75^2)) - AE75</f>
-        <v>-0.15747218324885809</v>
+        <v>-7.9103184245693126E-2</v>
       </c>
       <c r="AG75" s="8">
         <f t="shared" ref="AG75:AG104" si="26" xml:space="preserve"> (AC75 + AE75)/2</f>
@@ -16120,15 +16137,15 @@
       </c>
       <c r="AH75" s="8">
         <f t="shared" ref="AH75:AH104" si="27" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG75^2)) - AG75</f>
-        <v>0.11772447947380832</v>
+        <v>0.1794323684350575</v>
       </c>
       <c r="AI75" s="8">
         <f t="shared" ref="AI75:AI104" si="28">AD75*AH75</f>
-        <v>9.1367210876128924E-2</v>
+        <v>9.5587175924284604E-2</v>
       </c>
       <c r="AJ75" s="8">
         <f t="shared" ref="AJ75:AJ104" si="29">AF75*AH75</f>
-        <v>-1.8538330804575977E-2</v>
+        <v>-1.4193671699959444E-2</v>
       </c>
       <c r="AK75" s="8">
         <f t="shared" ref="AK75:AK104" si="30">AE75-AC75</f>
@@ -16145,7 +16162,7 @@
       </c>
       <c r="AD76" s="8">
         <f t="shared" si="24"/>
-        <v>0.11772447947380832</v>
+        <v>0.1794323684350575</v>
       </c>
       <c r="AE76" s="8">
         <f t="shared" ref="AE76:AE104" si="32">IF(AJ75&gt;0, AG75, AE75)</f>
@@ -16153,7 +16170,7 @@
       </c>
       <c r="AF76" s="8">
         <f t="shared" si="25"/>
-        <v>-0.15747218324885809</v>
+        <v>-7.9103184245693126E-2</v>
       </c>
       <c r="AG76" s="8">
         <f t="shared" si="26"/>
@@ -16161,15 +16178,15 @@
       </c>
       <c r="AH76" s="8">
         <f t="shared" si="27"/>
-        <v>-2.4036180575022714E-2</v>
+        <v>4.8763157149251446E-2</v>
       </c>
       <c r="AI76" s="8">
         <f t="shared" si="28"/>
-        <v>-2.8296468467330117E-3</v>
+        <v>8.7496887796610929E-3</v>
       </c>
       <c r="AJ76" s="8">
         <f t="shared" si="29"/>
-        <v>3.7850298321126202E-3</v>
+        <v>-3.8573210043789251E-3</v>
       </c>
       <c r="AK76" s="8">
         <f t="shared" si="30"/>
@@ -16182,35 +16199,35 @@
       </c>
       <c r="AC77" s="8">
         <f t="shared" si="31"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AD77" s="8">
         <f t="shared" si="24"/>
-        <v>0.11772447947380832</v>
+        <v>4.8763157149251446E-2</v>
       </c>
       <c r="AE77" s="8">
         <f t="shared" si="32"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AF77" s="8">
         <f t="shared" si="25"/>
-        <v>-2.4036180575022714E-2</v>
+        <v>-7.9103184245693126E-2</v>
       </c>
       <c r="AG77" s="8">
         <f t="shared" si="26"/>
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="AH77" s="8">
         <f t="shared" si="27"/>
-        <v>4.5188281344542169E-2</v>
+        <v>-1.5372650881238015E-2</v>
       </c>
       <c r="AI77" s="8">
         <f t="shared" si="28"/>
-        <v>5.3197668996022296E-3</v>
+        <v>-7.4961899072238799E-4</v>
       </c>
       <c r="AJ77" s="8">
         <f t="shared" si="29"/>
-        <v>-1.0861536902723459E-3</v>
+        <v>1.2160256350032875E-3</v>
       </c>
       <c r="AK77" s="8">
         <f t="shared" si="30"/>
@@ -16223,35 +16240,35 @@
       </c>
       <c r="AC78" s="8">
         <f t="shared" si="31"/>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="AD78" s="8">
         <f t="shared" si="24"/>
-        <v>4.5188281344542169E-2</v>
+        <v>4.8763157149251446E-2</v>
       </c>
       <c r="AE78" s="8">
         <f t="shared" si="32"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF78" s="8">
         <f t="shared" si="25"/>
-        <v>-2.4036180575022714E-2</v>
+        <v>-1.5372650881238015E-2</v>
       </c>
       <c r="AG78" s="8">
         <f t="shared" si="26"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="AH78" s="8">
         <f t="shared" si="27"/>
-        <v>1.0273376304661075E-2</v>
+        <v>1.6633078292032255E-2</v>
       </c>
       <c r="AI78" s="8">
         <f t="shared" si="28"/>
-        <v>4.6423621881337761E-4</v>
+        <v>8.1108141063017164E-4</v>
       </c>
       <c r="AJ78" s="8">
         <f t="shared" si="29"/>
-        <v>-2.4693272797399315E-4</v>
+        <v>-2.5569450566371055E-4</v>
       </c>
       <c r="AK78" s="8">
         <f t="shared" si="30"/>
@@ -16264,35 +16281,35 @@
       </c>
       <c r="AC79" s="8">
         <f t="shared" si="31"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="AD79" s="8">
         <f t="shared" si="24"/>
-        <v>1.0273376304661075E-2</v>
+        <v>1.6633078292032255E-2</v>
       </c>
       <c r="AE79" s="8">
         <f t="shared" si="32"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF79" s="8">
         <f t="shared" si="25"/>
-        <v>-2.4036180575022714E-2</v>
+        <v>-1.5372650881238015E-2</v>
       </c>
       <c r="AG79" s="8">
         <f t="shared" si="26"/>
-        <v>0.359375</v>
+        <v>0.421875</v>
       </c>
       <c r="AH79" s="8">
         <f t="shared" si="27"/>
-        <v>-6.9473224741575246E-3</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AI79" s="8">
         <f t="shared" si="28"/>
-        <v>-7.1372458086849263E-5</v>
+        <v>1.0252149811569589E-5</v>
       </c>
       <c r="AJ79" s="8">
         <f t="shared" si="29"/>
-        <v>1.6698709750176383E-4</v>
+        <v>-9.475258702467951E-6</v>
       </c>
       <c r="AK79" s="8">
         <f t="shared" si="30"/>
@@ -16305,35 +16322,35 @@
       </c>
       <c r="AC80" s="8">
         <f t="shared" si="31"/>
-        <v>0.34375</v>
+        <v>0.421875</v>
       </c>
       <c r="AD80" s="8">
         <f t="shared" si="24"/>
-        <v>1.0273376304661075E-2</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AE80" s="8">
         <f t="shared" si="32"/>
-        <v>0.359375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF80" s="8">
         <f t="shared" si="25"/>
-        <v>-6.9473224741575246E-3</v>
+        <v>-1.5372650881238015E-2</v>
       </c>
       <c r="AG80" s="8">
         <f t="shared" si="26"/>
-        <v>0.3515625</v>
+        <v>0.4296875</v>
       </c>
       <c r="AH80" s="8">
         <f t="shared" si="27"/>
-        <v>1.6454615677055084E-3</v>
+        <v>-7.3814144171517326E-3</v>
       </c>
       <c r="AI80" s="8">
         <f t="shared" si="28"/>
-        <v>1.6904445879896237E-5</v>
+        <v>-4.5496909890798727E-6</v>
       </c>
       <c r="AJ80" s="8">
         <f t="shared" si="29"/>
-        <v>-1.1431552129682953E-5</v>
+        <v>1.1347190684461057E-4</v>
       </c>
       <c r="AK80" s="8">
         <f t="shared" si="30"/>
@@ -16346,35 +16363,35 @@
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="31"/>
-        <v>0.3515625</v>
+        <v>0.421875</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="24"/>
-        <v>1.6454615677055084E-3</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="32"/>
-        <v>0.359375</v>
+        <v>0.4296875</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="25"/>
-        <v>-6.9473224741575246E-3</v>
+        <v>-7.3814144171517326E-3</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="26"/>
-        <v>0.35546875</v>
+        <v>0.42578125</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="27"/>
-        <v>-2.6551787914610436E-3</v>
+        <v>-3.3833624784970207E-3</v>
       </c>
       <c r="AI81" s="8">
         <f t="shared" si="28"/>
-        <v>-4.3689946567359057E-6</v>
+        <v>-2.0854070658111938E-6</v>
       </c>
       <c r="AJ81" s="8">
         <f t="shared" si="29"/>
-        <v>1.8446383290823725E-5</v>
+        <v>2.4974000577228127E-5</v>
       </c>
       <c r="AK81" s="8">
         <f t="shared" si="30"/>
@@ -16387,35 +16404,35 @@
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="31"/>
-        <v>0.3515625</v>
+        <v>0.421875</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="24"/>
-        <v>1.6454615677055084E-3</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="32"/>
-        <v>0.35546875</v>
+        <v>0.42578125</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="25"/>
-        <v>-2.6551787914610436E-3</v>
+        <v>-3.3833624784970207E-3</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="26"/>
-        <v>0.353515625</v>
+        <v>0.423828125</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="27"/>
-        <v>-5.0593808509785676E-4</v>
+        <v>-1.3837087350446753E-3</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="28"/>
-        <v>-8.3250167466704237E-7</v>
+        <v>-8.5287816230931695E-7</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="29"/>
-        <v>1.3433560733442419E-6</v>
+        <v>4.6815882153187295E-6</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="30"/>
@@ -16428,35 +16445,35 @@
       </c>
       <c r="AC83" s="8">
         <f t="shared" si="31"/>
-        <v>0.3515625</v>
+        <v>0.421875</v>
       </c>
       <c r="AD83" s="8">
         <f t="shared" si="24"/>
-        <v>1.6454615677055084E-3</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AE83" s="8">
         <f t="shared" si="32"/>
-        <v>0.353515625</v>
+        <v>0.423828125</v>
       </c>
       <c r="AF83" s="8">
         <f t="shared" si="25"/>
-        <v>-5.0593808509785676E-4</v>
+        <v>-1.3837087350446753E-3</v>
       </c>
       <c r="AG83" s="8">
         <f t="shared" si="26"/>
-        <v>0.3525390625</v>
+        <v>0.4228515625</v>
       </c>
       <c r="AH83" s="8">
         <f t="shared" si="27"/>
-        <v>5.6948965791703277E-4</v>
+        <v>-3.8372241907663751E-4</v>
       </c>
       <c r="AI83" s="8">
         <f t="shared" si="28"/>
-        <v>9.3707334530823441E-7</v>
+        <v>-2.3651543372558227E-7</v>
       </c>
       <c r="AJ83" s="8">
         <f t="shared" si="29"/>
-        <v>-2.8812650700957704E-7</v>
+        <v>5.3096006310881689E-7</v>
       </c>
       <c r="AK83" s="8">
         <f t="shared" si="30"/>
@@ -16469,35 +16486,35 @@
       </c>
       <c r="AC84" s="8">
         <f t="shared" si="31"/>
-        <v>0.3525390625</v>
+        <v>0.421875</v>
       </c>
       <c r="AD84" s="8">
         <f t="shared" si="24"/>
-        <v>5.6948965791703277E-4</v>
+        <v>6.1637116302643014E-4</v>
       </c>
       <c r="AE84" s="8">
         <f t="shared" si="32"/>
-        <v>0.353515625</v>
+        <v>0.4228515625</v>
       </c>
       <c r="AF84" s="8">
         <f t="shared" si="25"/>
-        <v>-5.0593808509785676E-4</v>
+        <v>-3.8372241907663751E-4</v>
       </c>
       <c r="AG84" s="8">
         <f t="shared" si="26"/>
-        <v>0.35302734375</v>
+        <v>0.42236328125</v>
       </c>
       <c r="AH84" s="8">
         <f t="shared" si="27"/>
-        <v>3.1708044333444985E-5</v>
+        <v>1.1631091787922543E-4</v>
       </c>
       <c r="AI84" s="8">
         <f t="shared" si="28"/>
-        <v>1.8057403320671692E-8</v>
+        <v>7.1690695725889787E-8</v>
       </c>
       <c r="AJ84" s="8">
         <f t="shared" si="29"/>
-        <v>-1.6042307232261104E-8</v>
+        <v>-4.4631106773640512E-8</v>
       </c>
       <c r="AK84" s="8">
         <f t="shared" si="30"/>
@@ -16510,35 +16527,35 @@
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="31"/>
-        <v>0.35302734375</v>
+        <v>0.42236328125</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="24"/>
-        <v>3.1708044333444985E-5</v>
+        <v>1.1631091787922543E-4</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="32"/>
-        <v>0.353515625</v>
+        <v>0.4228515625</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="25"/>
-        <v>-5.0593808509785676E-4</v>
+        <v>-3.8372241907663751E-4</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="26"/>
-        <v>0.353271484375</v>
+        <v>0.422607421875</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="27"/>
-        <v>-2.3713192122087889E-4</v>
+        <v>-1.337091083777886E-4</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="28"/>
-        <v>-7.5189894709466121E-9</v>
+        <v>-1.5551829124233423E-8</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="29"/>
-        <v>1.199740701380673E-7</v>
+        <v>5.1307182519305341E-8</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="30"/>
@@ -16551,35 +16568,35 @@
       </c>
       <c r="AC86" s="8">
         <f t="shared" si="31"/>
-        <v>0.35302734375</v>
+        <v>0.42236328125</v>
       </c>
       <c r="AD86" s="8">
         <f t="shared" si="24"/>
-        <v>3.1708044333444985E-5</v>
+        <v>1.1631091787922543E-4</v>
       </c>
       <c r="AE86" s="8">
         <f t="shared" si="32"/>
-        <v>0.353271484375</v>
+        <v>0.422607421875</v>
       </c>
       <c r="AF86" s="8">
         <f t="shared" si="25"/>
-        <v>-2.3713192122087889E-4</v>
+        <v>-1.337091083777886E-4</v>
       </c>
       <c r="AG86" s="8">
         <f t="shared" si="26"/>
-        <v>0.3531494140625</v>
+        <v>0.4224853515625</v>
       </c>
       <c r="AH86" s="8">
         <f t="shared" si="27"/>
-        <v>-1.0271616798102068E-4</v>
+        <v>-8.6999354111383376E-6</v>
       </c>
       <c r="AI86" s="8">
         <f t="shared" si="28"/>
-        <v>-3.2569288081037858E-9</v>
+        <v>-1.0118974731594764E-9</v>
       </c>
       <c r="AJ86" s="8">
         <f t="shared" si="29"/>
-        <v>2.4357282253785958E-8</v>
+        <v>1.1632606067676567E-9</v>
       </c>
       <c r="AK86" s="8">
         <f t="shared" si="30"/>
@@ -16592,35 +16609,35 @@
       </c>
       <c r="AC87" s="8">
         <f t="shared" si="31"/>
-        <v>0.35302734375</v>
+        <v>0.42236328125</v>
       </c>
       <c r="AD87" s="8">
         <f t="shared" si="24"/>
-        <v>3.1708044333444985E-5</v>
+        <v>1.1631091787922543E-4</v>
       </c>
       <c r="AE87" s="8">
         <f t="shared" si="32"/>
-        <v>0.3531494140625</v>
+        <v>0.4224853515625</v>
       </c>
       <c r="AF87" s="8">
         <f t="shared" si="25"/>
-        <v>-1.0271616798102068E-4</v>
+        <v>-8.6999354111383376E-6</v>
       </c>
       <c r="AG87" s="8">
         <f t="shared" si="26"/>
-        <v>0.35308837890625</v>
+        <v>0.42242431640625</v>
       </c>
       <c r="AH87" s="8">
         <f t="shared" si="27"/>
-        <v>-3.5505119749701386E-5</v>
+        <v>5.3805281103880276E-5</v>
       </c>
       <c r="AI87" s="8">
         <f t="shared" si="28"/>
-        <v>-1.1257979110878047E-9</v>
+        <v>6.2581416319420585E-9</v>
       </c>
       <c r="AJ87" s="8">
         <f t="shared" si="29"/>
-        <v>3.6469498443965822E-9</v>
+        <v>-4.6810247038190051E-10</v>
       </c>
       <c r="AK87" s="8">
         <f t="shared" si="30"/>
@@ -16633,35 +16650,35 @@
       </c>
       <c r="AC88" s="8">
         <f t="shared" si="31"/>
-        <v>0.35302734375</v>
+        <v>0.42242431640625</v>
       </c>
       <c r="AD88" s="8">
         <f t="shared" si="24"/>
-        <v>3.1708044333444985E-5</v>
+        <v>5.3805281103880276E-5</v>
       </c>
       <c r="AE88" s="8">
         <f t="shared" si="32"/>
-        <v>0.35308837890625</v>
+        <v>0.4224853515625</v>
       </c>
       <c r="AF88" s="8">
         <f t="shared" si="25"/>
-        <v>-3.5505119749701386E-5</v>
+        <v>-8.6999354111383376E-6</v>
       </c>
       <c r="AG88" s="8">
         <f t="shared" si="26"/>
-        <v>0.353057861328125</v>
+        <v>0.422454833984375</v>
       </c>
       <c r="AH88" s="8">
         <f t="shared" si="27"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>2.2552620325022588E-5</v>
       </c>
       <c r="AI88" s="8">
         <f t="shared" si="28"/>
-        <v>-6.0207306157191187E-11</v>
+        <v>1.2134500762169241E-9</v>
       </c>
       <c r="AJ88" s="8">
         <f t="shared" si="29"/>
-        <v>6.7417201528989903E-11</v>
+        <v>-1.9620634017962221E-10</v>
       </c>
       <c r="AK88" s="8">
         <f t="shared" si="30"/>
@@ -16674,35 +16691,35 @@
       </c>
       <c r="AC89" s="8">
         <f t="shared" si="31"/>
-        <v>0.35302734375</v>
+        <v>0.422454833984375</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" si="24"/>
-        <v>3.1708044333444985E-5</v>
+        <v>2.2552620325022588E-5</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" si="32"/>
-        <v>0.353057861328125</v>
+        <v>0.4224853515625</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>-8.6999354111383376E-6</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" si="26"/>
-        <v>0.3530426025390625</v>
+        <v>0.4224700927734375</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" si="27"/>
-        <v>1.4904554892281041E-5</v>
+        <v>6.9263293280275029E-6</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" si="28"/>
-        <v>4.725942872947116E-10</v>
+        <v>1.5620687558107311E-10</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" si="29"/>
-        <v>-2.8300802474585493E-11</v>
+        <v>-6.0258617790112481E-11</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" si="30"/>
@@ -16715,35 +16732,35 @@
       </c>
       <c r="AC90" s="8">
         <f t="shared" si="31"/>
-        <v>0.3530426025390625</v>
+        <v>0.4224700927734375</v>
       </c>
       <c r="AD90" s="8">
         <f t="shared" si="24"/>
-        <v>1.4904554892281041E-5</v>
+        <v>6.9263293280275029E-6</v>
       </c>
       <c r="AE90" s="8">
         <f t="shared" si="32"/>
-        <v>0.353057861328125</v>
+        <v>0.4224853515625</v>
       </c>
       <c r="AF90" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>-8.6999354111383376E-6</v>
       </c>
       <c r="AG90" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305023193359375</v>
+        <v>0.42247772216796875</v>
       </c>
       <c r="AH90" s="8">
         <f t="shared" si="27"/>
-        <v>6.5028597820981915E-6</v>
+        <v>-8.8680632359672273E-7</v>
       </c>
       <c r="AI90" s="8">
         <f t="shared" si="28"/>
-        <v>9.6922230579089225E-11</v>
+        <v>-6.1423126474082289E-12</v>
       </c>
       <c r="AJ90" s="8">
         <f t="shared" si="29"/>
-        <v>-1.2347644833620488E-11</v>
+        <v>7.7151577374805309E-12</v>
       </c>
       <c r="AK90" s="8">
         <f t="shared" si="30"/>
@@ -16756,35 +16773,35 @@
       </c>
       <c r="AC91" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305023193359375</v>
+        <v>0.4224700927734375</v>
       </c>
       <c r="AD91" s="8">
         <f t="shared" si="24"/>
-        <v>6.5028597820981915E-6</v>
+        <v>6.9263293280275029E-6</v>
       </c>
       <c r="AE91" s="8">
         <f t="shared" si="32"/>
-        <v>0.353057861328125</v>
+        <v>0.42247772216796875</v>
       </c>
       <c r="AF91" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>-8.8680632359672273E-7</v>
       </c>
       <c r="AG91" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305404663085938</v>
+        <v>0.42247390747070312</v>
       </c>
       <c r="AH91" s="8">
         <f t="shared" si="27"/>
-        <v>2.3020246286420409E-6</v>
+        <v>3.0197606816773082E-6</v>
       </c>
       <c r="AI91" s="8">
         <f t="shared" si="28"/>
-        <v>1.4969743374995854E-11</v>
+        <v>2.0915856973125865E-11</v>
       </c>
       <c r="AJ91" s="8">
         <f t="shared" si="29"/>
-        <v>-4.3710895613910402E-12</v>
+        <v>-2.6779428682601871E-12</v>
       </c>
       <c r="AK91" s="8">
         <f t="shared" si="30"/>
@@ -16797,35 +16814,35 @@
       </c>
       <c r="AC92" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305404663085938</v>
+        <v>0.42247390747070312</v>
       </c>
       <c r="AD92" s="8">
         <f t="shared" si="24"/>
-        <v>2.3020246286420409E-6</v>
+        <v>3.0197606816773082E-6</v>
       </c>
       <c r="AE92" s="8">
         <f t="shared" si="32"/>
-        <v>0.353057861328125</v>
+        <v>0.42247772216796875</v>
       </c>
       <c r="AF92" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>-8.8680632359672273E-7</v>
       </c>
       <c r="AG92" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305595397949219</v>
+        <v>0.42247581481933594</v>
       </c>
       <c r="AH92" s="8">
         <f t="shared" si="27"/>
-        <v>2.016101522395175E-7</v>
+        <v>1.0664769738988333E-6</v>
       </c>
       <c r="AI92" s="8">
         <f t="shared" si="28"/>
-        <v>4.6411153583964061E-13</v>
+        <v>3.2205052336938937E-12</v>
       </c>
       <c r="AJ92" s="8">
         <f t="shared" si="29"/>
-        <v>-3.8281781218147279E-13</v>
+        <v>-9.4575852442378243E-13</v>
       </c>
       <c r="AK92" s="8">
         <f t="shared" si="30"/>
@@ -16838,35 +16855,35 @@
       </c>
       <c r="AC93" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305595397949219</v>
+        <v>0.42247581481933594</v>
       </c>
       <c r="AD93" s="8">
         <f t="shared" si="24"/>
-        <v>2.016101522395175E-7</v>
+        <v>1.0664769738988333E-6</v>
       </c>
       <c r="AE93" s="8">
         <f t="shared" si="32"/>
-        <v>0.353057861328125</v>
+        <v>0.42247772216796875</v>
       </c>
       <c r="AF93" s="8">
         <f t="shared" si="25"/>
-        <v>-1.8988022573718233E-6</v>
+        <v>-8.8680632359672273E-7</v>
       </c>
       <c r="AG93" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305690765380859</v>
+        <v>0.42247676849365234</v>
       </c>
       <c r="AH93" s="8">
         <f t="shared" si="27"/>
-        <v>-8.4859631088729515E-7</v>
+        <v>8.9835273886507139E-8</v>
       </c>
       <c r="AI93" s="8">
         <f t="shared" si="28"/>
-        <v>-1.7108563142788049E-13</v>
+        <v>9.5807251043855018E-14</v>
       </c>
       <c r="AJ93" s="8">
         <f t="shared" si="29"/>
-        <v>1.6113165907101976E-12</v>
+        <v>-7.9666488964598066E-14</v>
       </c>
       <c r="AK93" s="8">
         <f t="shared" si="30"/>
@@ -16879,35 +16896,35 @@
       </c>
       <c r="AC94" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305595397949219</v>
+        <v>0.42247676849365234</v>
       </c>
       <c r="AD94" s="8">
         <f t="shared" si="24"/>
-        <v>2.016101522395175E-7</v>
+        <v>8.9835273886507139E-8</v>
       </c>
       <c r="AE94" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305690765380859</v>
+        <v>0.42247772216796875</v>
       </c>
       <c r="AF94" s="8">
         <f t="shared" si="25"/>
-        <v>-8.4859631088729515E-7</v>
+        <v>-8.8680632359672273E-7</v>
       </c>
       <c r="AG94" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305643081665039</v>
+        <v>0.42247724533081055</v>
       </c>
       <c r="AH94" s="8">
         <f t="shared" si="27"/>
-        <v>-3.2349314393886885E-7</v>
+        <v>-3.9848553767818373E-7</v>
       </c>
       <c r="AI94" s="8">
         <f t="shared" si="28"/>
-        <v>-6.52195019979555E-14</v>
+        <v>-3.5798057417131698E-14</v>
       </c>
       <c r="AJ94" s="8">
         <f t="shared" si="29"/>
-        <v>2.7451508854385687E-13</v>
+        <v>3.5337949467485347E-13</v>
       </c>
       <c r="AK94" s="8">
         <f t="shared" si="30"/>
@@ -16920,35 +16937,35 @@
       </c>
       <c r="AC95" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305595397949219</v>
+        <v>0.42247676849365234</v>
       </c>
       <c r="AD95" s="8">
         <f t="shared" si="24"/>
-        <v>2.016101522395175E-7</v>
+        <v>8.9835273886507139E-8</v>
       </c>
       <c r="AE95" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305643081665039</v>
+        <v>0.42247724533081055</v>
       </c>
       <c r="AF95" s="8">
         <f t="shared" si="25"/>
-        <v>-3.2349314393886885E-7</v>
+        <v>-3.9848553767818373E-7</v>
       </c>
       <c r="AG95" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305619239807129</v>
+        <v>0.42247700691223145</v>
       </c>
       <c r="AH95" s="8">
         <f t="shared" si="27"/>
-        <v>-6.0941512003420684E-8</v>
+        <v>-1.5432513511548507E-7</v>
       </c>
       <c r="AI95" s="8">
         <f t="shared" si="28"/>
-        <v>-1.2286427512716028E-14</v>
+        <v>-1.3863840780671822E-14</v>
       </c>
       <c r="AJ95" s="8">
         <f t="shared" si="29"/>
-        <v>1.971416131437487E-14</v>
+        <v>6.1496334443752416E-14</v>
       </c>
       <c r="AK95" s="8">
         <f t="shared" si="30"/>
@@ -16961,35 +16978,35 @@
       </c>
       <c r="AC96" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305595397949219</v>
+        <v>0.42247676849365234</v>
       </c>
       <c r="AD96" s="8">
         <f t="shared" si="24"/>
-        <v>2.016101522395175E-7</v>
+        <v>8.9835273886507139E-8</v>
       </c>
       <c r="AE96" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305619239807129</v>
+        <v>0.42247700691223145</v>
       </c>
       <c r="AF96" s="8">
         <f t="shared" si="25"/>
-        <v>-6.0941512003420684E-8</v>
+        <v>-1.5432513511548507E-7</v>
       </c>
       <c r="AG96" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305607318878174</v>
+        <v>0.42247688770294189</v>
       </c>
       <c r="AH96" s="8">
         <f t="shared" si="27"/>
-        <v>7.0334316093489946E-8</v>
+        <v>-3.2244931447156233E-8</v>
       </c>
       <c r="AI96" s="8">
         <f t="shared" si="28"/>
-        <v>1.4180112175270854E-14</v>
+        <v>-2.8967322480069272E-15</v>
       </c>
       <c r="AJ96" s="8">
         <f t="shared" si="29"/>
-        <v>-4.2862795684638022E-15</v>
+        <v>4.9762034023719391E-15</v>
       </c>
       <c r="AK96" s="8">
         <f t="shared" si="30"/>
@@ -17002,35 +17019,35 @@
       </c>
       <c r="AC97" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305607318878174</v>
+        <v>0.42247676849365234</v>
       </c>
       <c r="AD97" s="8">
         <f t="shared" si="24"/>
-        <v>7.0334316093489946E-8</v>
+        <v>8.9835273886507139E-8</v>
       </c>
       <c r="AE97" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305619239807129</v>
+        <v>0.42247688770294189</v>
       </c>
       <c r="AF97" s="8">
         <f t="shared" si="25"/>
-        <v>-6.0941512003420684E-8</v>
+        <v>-3.2244931447156233E-8</v>
       </c>
       <c r="AG97" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305613279342651</v>
+        <v>0.42247682809829712</v>
       </c>
       <c r="AH97" s="8">
         <f t="shared" si="27"/>
-        <v>4.6964010458339089E-9</v>
+        <v>2.8795171025386423E-8</v>
       </c>
       <c r="AI97" s="8">
         <f t="shared" si="28"/>
-        <v>3.3031815565947889E-16</v>
+        <v>2.586822075674404E-15</v>
       </c>
       <c r="AJ97" s="8">
         <f t="shared" si="29"/>
-        <v>-2.8620578070756459E-16</v>
+        <v>-9.2849831572272469E-16</v>
       </c>
       <c r="AK97" s="8">
         <f t="shared" si="30"/>
@@ -17043,35 +17060,35 @@
       </c>
       <c r="AC98" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613279342651</v>
+        <v>0.42247682809829712</v>
       </c>
       <c r="AD98" s="8">
         <f t="shared" si="24"/>
-        <v>4.6964010458339089E-9</v>
+        <v>2.8795171025386423E-8</v>
       </c>
       <c r="AE98" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305619239807129</v>
+        <v>0.42247688770294189</v>
       </c>
       <c r="AF98" s="8">
         <f t="shared" si="25"/>
-        <v>-6.0941512003420684E-8</v>
+        <v>-3.2244931447156233E-8</v>
       </c>
       <c r="AG98" s="8">
         <f t="shared" si="26"/>
-        <v>0.3530561625957489</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AH98" s="8">
         <f t="shared" si="27"/>
-        <v>-2.8122555728593568E-8</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AI98" s="8">
         <f t="shared" si="28"/>
-        <v>-1.3207480013528922E-16</v>
+        <v>-4.9668221469961982E-17</v>
       </c>
       <c r="AJ98" s="8">
         <f t="shared" si="29"/>
-        <v>1.713831067500952E-15</v>
+        <v>5.5618645049516776E-17</v>
       </c>
       <c r="AK98" s="8">
         <f t="shared" si="30"/>
@@ -17084,35 +17101,35 @@
       </c>
       <c r="AC99" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613279342651</v>
+        <v>0.42247682809829712</v>
       </c>
       <c r="AD99" s="8">
         <f t="shared" si="24"/>
-        <v>4.6964010458339089E-9</v>
+        <v>2.8795171025386423E-8</v>
       </c>
       <c r="AE99" s="8">
         <f t="shared" si="32"/>
-        <v>0.3530561625957489</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AF99" s="8">
         <f t="shared" si="25"/>
-        <v>-2.8122555728593568E-8</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AG99" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305614769458771</v>
+        <v>0.42247684299945831</v>
       </c>
       <c r="AH99" s="8">
         <f t="shared" si="27"/>
-        <v>-1.1713077396890981E-8</v>
+        <v>1.3535145393372972E-8</v>
       </c>
       <c r="AI99" s="8">
         <f t="shared" si="28"/>
-        <v>-5.5009308936692321E-17</v>
+        <v>3.8974682645564593E-16</v>
       </c>
       <c r="AJ99" s="8">
         <f t="shared" si="29"/>
-        <v>3.2940167184739626E-16</v>
+        <v>-2.3346504816154771E-17</v>
       </c>
       <c r="AK99" s="8">
         <f t="shared" si="30"/>
@@ -17125,35 +17142,35 @@
       </c>
       <c r="AC100" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613279342651</v>
+        <v>0.42247684299945831</v>
       </c>
       <c r="AD100" s="8">
         <f t="shared" si="24"/>
-        <v>4.6964010458339089E-9</v>
+        <v>1.3535145393372972E-8</v>
       </c>
       <c r="AE100" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305614769458771</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AF100" s="8">
         <f t="shared" si="25"/>
-        <v>-1.1713077396890981E-8</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AG100" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305614024400711</v>
+        <v>0.42247685045003891</v>
       </c>
       <c r="AH100" s="8">
         <f t="shared" si="27"/>
-        <v>-3.5083381755285359E-9</v>
+        <v>5.9051325496106699E-9</v>
       </c>
       <c r="AI100" s="8">
         <f t="shared" si="28"/>
-        <v>-1.6476563076691244E-17</v>
+        <v>7.9926827626119646E-17</v>
       </c>
       <c r="AJ100" s="8">
         <f t="shared" si="29"/>
-        <v>4.1093436584433036E-17</v>
+        <v>-1.0185646441376121E-17</v>
       </c>
       <c r="AK100" s="8">
         <f t="shared" si="30"/>
@@ -17166,35 +17183,35 @@
       </c>
       <c r="AC101" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613279342651</v>
+        <v>0.42247685045003891</v>
       </c>
       <c r="AD101" s="8">
         <f t="shared" si="24"/>
-        <v>4.6964010458339089E-9</v>
+        <v>5.9051325496106699E-9</v>
       </c>
       <c r="AE101" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305614024400711</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AF101" s="8">
         <f t="shared" si="25"/>
-        <v>-3.5083381755285359E-9</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AG101" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305613651871681</v>
+        <v>0.42247685417532921</v>
       </c>
       <c r="AH101" s="8">
         <f t="shared" si="27"/>
-        <v>5.9403143515268653E-10</v>
+        <v>2.0901261277295191E-9</v>
       </c>
       <c r="AI101" s="8">
         <f t="shared" si="28"/>
-        <v>2.7898098533092949E-18</v>
+        <v>1.2342471829647292E-17</v>
       </c>
       <c r="AJ101" s="8">
         <f t="shared" si="29"/>
-        <v>-2.084063161410174E-18</v>
+        <v>-3.6052172539867963E-18</v>
       </c>
       <c r="AK101" s="8">
         <f t="shared" si="30"/>
@@ -17207,35 +17224,35 @@
       </c>
       <c r="AC102" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613651871681</v>
+        <v>0.42247685417532921</v>
       </c>
       <c r="AD102" s="8">
         <f t="shared" si="24"/>
-        <v>5.9403143515268653E-10</v>
+        <v>2.0901261277295191E-9</v>
       </c>
       <c r="AE102" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305614024400711</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AF102" s="8">
         <f t="shared" si="25"/>
-        <v>-3.5083381755285359E-9</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AG102" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305613838136196</v>
+        <v>0.42247685603797436</v>
       </c>
       <c r="AH102" s="8">
         <f t="shared" si="27"/>
-        <v>-1.4571533979435003E-9</v>
+        <v>1.8262297230009494E-10</v>
       </c>
       <c r="AI102" s="8">
         <f t="shared" si="28"/>
-        <v>-8.6559492421799122E-19</v>
+        <v>3.8170504592805267E-19</v>
       </c>
       <c r="AJ102" s="8">
         <f t="shared" si="29"/>
-        <v>5.1121868936063064E-18</v>
+        <v>-3.1500275604222162E-19</v>
       </c>
       <c r="AK102" s="8">
         <f t="shared" si="30"/>
@@ -17248,35 +17265,35 @@
       </c>
       <c r="AC103" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613651871681</v>
+        <v>0.42247685603797436</v>
       </c>
       <c r="AD103" s="8">
         <f t="shared" si="24"/>
-        <v>5.9403143515268653E-10</v>
+        <v>1.8262297230009494E-10</v>
       </c>
       <c r="AE103" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305613838136196</v>
+        <v>0.42247685790061951</v>
       </c>
       <c r="AF103" s="8">
         <f t="shared" si="25"/>
-        <v>-1.4571533979435003E-9</v>
+        <v>-1.7248802386404805E-9</v>
       </c>
       <c r="AG103" s="8">
         <f t="shared" si="26"/>
-        <v>0.35305613745003939</v>
+        <v>0.42247685696929693</v>
       </c>
       <c r="AH103" s="8">
         <f t="shared" si="27"/>
-        <v>-4.315610091509825E-10</v>
+        <v>-7.7112866092576837E-10</v>
       </c>
       <c r="AI103" s="8">
         <f t="shared" si="28"/>
-        <v>-2.5636080562189982E-19</v>
+        <v>-1.408258080840559E-19</v>
       </c>
       <c r="AJ103" s="8">
         <f t="shared" si="29"/>
-        <v>6.2885059090428017E-19</v>
+        <v>1.3301045886801535E-18</v>
       </c>
       <c r="AK103" s="8">
         <f t="shared" si="30"/>
@@ -17289,35 +17306,35 @@
       </c>
       <c r="AC104" s="8">
         <f t="shared" si="31"/>
-        <v>0.35305613651871681</v>
+        <v>0.42247685603797436</v>
       </c>
       <c r="AD104" s="8">
         <f t="shared" si="24"/>
-        <v>5.9403143515268653E-10</v>
+        <v>1.8262297230009494E-10</v>
       </c>
       <c r="AE104" s="8">
         <f t="shared" si="32"/>
-        <v>0.35305613745003939</v>
+        <v>0.42247685696929693</v>
       </c>
       <c r="AF104" s="8">
         <f t="shared" si="25"/>
-        <v>-4.315610091509825E-10</v>
+        <v>-7.7112866092576837E-10</v>
       </c>
       <c r="AG104" s="8">
         <f t="shared" si="26"/>
-        <v>0.3530561369843781</v>
+        <v>0.42247685650363564</v>
       </c>
       <c r="AH104" s="8">
         <f t="shared" si="27"/>
-        <v>8.1235185245276398E-11</v>
+        <v>-2.9425284431283671E-10</v>
       </c>
       <c r="AI104" s="8">
         <f t="shared" si="28"/>
-        <v>4.8256253676145884E-20</v>
+        <v>-5.3737329036167329E-20</v>
       </c>
       <c r="AJ104" s="8">
         <f t="shared" si="29"/>
-        <v>-3.5057938523018486E-20</v>
+        <v>2.2690680180855637E-19</v>
       </c>
       <c r="AK104" s="8">
         <f t="shared" si="30"/>
@@ -17326,12 +17343,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="V15:X15"/>
@@ -17343,13 +17361,12 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">

--- a/sheets/estimate_mtow_mission3.xlsx
+++ b/sheets/estimate_mtow_mission3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986787CF-BA57-4440-9361-B2EB70D06857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC45528-35B6-8942-8E47-BF90DAFCD83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="191">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -595,6 +595,21 @@
   </si>
   <si>
     <t>k_prop</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Weight breakdown</t>
+  </si>
+  <si>
+    <t>Optimal weights</t>
+  </si>
+  <si>
+    <t>Initial weights</t>
   </si>
 </sst>
 </file>
@@ -795,23 +810,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1499,7 +1514,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Weight Percentages</a:t>
+              <a:t>Weight Breakdown (kg)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1583,7 +1598,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-26B0-0643-9C08-1AD063EA3B3D}"/>
+                <c16:uniqueId val="{00000001-AF54-B949-A059-A09FED0D59CD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1629,7 +1644,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-26B0-0643-9C08-1AD063EA3B3D}"/>
+                <c16:uniqueId val="{00000003-AF54-B949-A059-A09FED0D59CD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1675,7 +1690,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-26B0-0643-9C08-1AD063EA3B3D}"/>
+                <c16:uniqueId val="{00000005-AF54-B949-A059-A09FED0D59CD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1721,7 +1736,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-26B0-0643-9C08-1AD063EA3B3D}"/>
+                <c16:uniqueId val="{00000007-AF54-B949-A059-A09FED0D59CD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1767,7 +1782,517 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-26B0-0643-9C08-1AD063EA3B3D}"/>
+                <c16:uniqueId val="{00000009-AF54-B949-A059-A09FED0D59CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'lift+cruise'!$J$42:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>W_payload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W_battery</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W_propulsion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W_structure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W_equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lift+cruise'!$K$42:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AF54-B949-A059-A09FED0D59CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight Percentages (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F16-EB47-9D7E-995E1E547D7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5F16-EB47-9D7E-995E1E547D7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5F16-EB47-9D7E-995E1E547D7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5F16-EB47-9D7E-995E1E547D7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5F16-EB47-9D7E-995E1E547D7D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1856,16 +2381,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>46.92</c:v>
+                  <c:v>42.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.96</c:v>
+                  <c:v>12.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.42</c:v>
+                  <c:v>12.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.03</c:v>
+                  <c:v>28.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.67</c:v>
@@ -1875,7 +2400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-26B0-0643-9C08-1AD063EA3B3D}"/>
+              <c16:uniqueId val="{0000000A-5F16-EB47-9D7E-995E1E547D7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,6 +2540,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3082,6 +3647,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3131,21 +4210,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C37FF3-E4DF-B24D-B571-C2DFB46112A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792E8ED7-F4CC-3D4D-AAF3-D2DD76682024}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,6 +4239,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF33F081-6B24-2547-8FAB-2B233CB45925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3535,11 +4652,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="32" t="s">
@@ -3550,16 +4667,16 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="F3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -3858,14 +4975,14 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C15"/>
         <v>-183.26101568053718</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>344.59124258861675</v>
       </c>
       <c r="AR5" s="8">
@@ -4249,11 +5366,11 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="F9"/>
       <c r="G9" s="24"/>
       <c r="J9" s="20" t="s">
@@ -4352,11 +5469,11 @@
       <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
@@ -4460,21 +5577,21 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="R11" s="38" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="R11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="V11" s="38" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="V11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
@@ -4567,11 +5684,11 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="N12" s="20" t="s">
         <v>102</v>
       </c>
@@ -5040,21 +6157,21 @@
       <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="R16" s="38" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="R16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="V16" s="38" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="V16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
       <c r="AB16" s="8">
         <v>12</v>
       </c>
@@ -5650,11 +6767,11 @@
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="J21" s="30" t="s">
         <v>87</v>
       </c>
@@ -6017,8 +7134,8 @@
       <c r="B24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="25" t="s">
         <v>121</v>
       </c>
@@ -6273,11 +7390,11 @@
       <c r="D26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="26" t="s">
         <v>78</v>
       </c>
@@ -7273,11 +8390,11 @@
       </c>
     </row>
     <row r="37" spans="6:48" x14ac:dyDescent="0.2">
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="AB37" s="32" t="s">
         <v>142</v>
       </c>
@@ -10242,11 +11359,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -10262,11 +11379,11 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F37:H37"/>
   </mergeCells>
   <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -10297,8 +11414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6A719E-19FD-DD4C-B095-5F00DAC7B3E8}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10341,11 +11458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="6" t="s">
@@ -10359,13 +11476,13 @@
       <c r="B3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="F3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="J3" s="37" t="s">
         <v>157</v>
       </c>
@@ -10468,7 +11585,7 @@
       </c>
       <c r="K4">
         <f>MAX(G6,G40)</f>
-        <v>120.06775785612803</v>
+        <v>140.64051549353761</v>
       </c>
       <c r="L4" t="s">
         <v>162</v>
@@ -10478,7 +11595,7 @@
       </c>
       <c r="O4">
         <f>$C$17*$C$31*COS(G16/180*PI())</f>
-        <v>8345.5922602360861</v>
+        <v>9315.3263215111601</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
@@ -10488,7 +11605,7 @@
       </c>
       <c r="S4">
         <f xml:space="preserve"> $C$17 * $C$31</f>
-        <v>8360.0753052316741</v>
+        <v>9334.1641721651176</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -10498,7 +11615,7 @@
       </c>
       <c r="W4">
         <f>$C$17*$C$31*COS(G32/180*PI())</f>
-        <v>8354.8643012638422</v>
+        <v>9327.3869287663674</v>
       </c>
       <c r="X4" t="s">
         <v>31</v>
@@ -10511,14 +11628,14 @@
       </c>
       <c r="AD4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC4^2)) - AC4</f>
-        <v>0.66496961520254083</v>
+        <v>0.67205342908104659</v>
       </c>
       <c r="AE4" s="9">
         <v>1</v>
       </c>
       <c r="AF4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE4^2)) - AE4</f>
-        <v>-0.57866252164169485</v>
+        <v>-0.57840720779510768</v>
       </c>
       <c r="AG4" s="8">
         <f xml:space="preserve"> (AC4 + AE4)/2</f>
@@ -10526,15 +11643,15 @@
       </c>
       <c r="AH4" s="8">
         <f xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG4^2)) - AG4</f>
-        <v>-6.9588646381804897E-2</v>
+        <v>-6.9079010760166371E-2</v>
       </c>
       <c r="AI4" s="8">
         <f>AD4*AH4</f>
-        <v>-4.6274335406974489E-2</v>
+        <v>-4.6424786058896328E-2</v>
       </c>
       <c r="AJ4" s="8">
         <f>AF4*AH4</f>
-        <v>4.0268341592927429E-2</v>
+        <v>3.9955797731036032E-2</v>
       </c>
       <c r="AK4" s="8">
         <f>AE4-AC4</f>
@@ -10546,17 +11663,17 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="8">
         <f>K30</f>
-        <v>-7.6630612966255285E-10</v>
+        <v>-4.999947122996673E-10</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8">
         <f>K30</f>
-        <v>-7.6630612966255285E-10</v>
+        <v>-4.999947122996673E-10</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8">
         <f>K30</f>
-        <v>-7.6630612966255285E-10</v>
+        <v>-4.999947122996673E-10</v>
       </c>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
@@ -10583,7 +11700,7 @@
       </c>
       <c r="K5">
         <f>K4/$C$5</f>
-        <v>30.016939464032006</v>
+        <v>35.160128873384402</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -10593,7 +11710,7 @@
       </c>
       <c r="O5">
         <f>0.5*$C$30*$G$11^2</f>
-        <v>1141.4849512500002</v>
+        <v>980.00000000000011</v>
       </c>
       <c r="P5" t="s">
         <v>38</v>
@@ -10603,7 +11720,7 @@
       </c>
       <c r="S5">
         <f xml:space="preserve"> 0.5 * $C$30 * $C$20^2</f>
-        <v>1141.4849512500002</v>
+        <v>980.00000000000011</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
@@ -10613,7 +11730,7 @@
       </c>
       <c r="W5">
         <f>0.5*$C$30*$G$27^2</f>
-        <v>1141.4849512500002</v>
+        <v>980.00000000000011</v>
       </c>
       <c r="X5" t="s">
         <v>38</v>
@@ -10627,7 +11744,7 @@
       </c>
       <c r="AD5" s="8">
         <f t="shared" ref="AD5:AD34" si="0" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AC5^2)) - AC5</f>
-        <v>0.66496961520254083</v>
+        <v>0.67205342908104659</v>
       </c>
       <c r="AE5" s="8">
         <f>IF(AJ4&gt;0, AG4, AE4)</f>
@@ -10635,7 +11752,7 @@
       </c>
       <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF34" si="1" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AE5^2)) - AE5</f>
-        <v>-6.9588646381804897E-2</v>
+        <v>-6.9079010760166371E-2</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ref="AG5:AG34" si="2" xml:space="preserve"> (AC5 + AE5)/2</f>
@@ -10643,15 +11760,15 @@
       </c>
       <c r="AH5" s="8">
         <f t="shared" ref="AH5:AH34" si="3" xml:space="preserve"> $S$19 * TAN($S$16/180*PI()) + $S$20 / (2 * SQRT($S$19^2 + AG5^2)) - AG5</f>
-        <v>0.19831540404458048</v>
+        <v>0.19932685281160967</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ref="AI5:AI34" si="4">AD5*AH5</f>
-        <v>0.1318737179162611</v>
+        <v>0.13395829493997533</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ref="AJ5:AJ34" si="5">AF5*AH5</f>
-        <v>-1.3800500524123072E-2</v>
+        <v>-1.3769301810163283E-2</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" ref="AK5:AK34" si="6">AE5-AC5</f>
@@ -10664,15 +11781,15 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17"/>
-        <v>-222.15251534111007</v>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <v>-254.66572574579737</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>833.93788242421033</v>
+        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17"/>
+        <v>581.32362783246163</v>
       </c>
       <c r="AR5" s="8">
         <f>(AN5+AP5)/2</f>
@@ -10680,15 +11797,15 @@
       </c>
       <c r="AS5" s="8">
         <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>374.14992801424194</v>
+        <v>265.06906311543696</v>
       </c>
       <c r="AT5" s="8">
         <f>AO5*AS5</f>
-        <v>-83118.347623059119</v>
+        <v>-67504.005331051318</v>
       </c>
       <c r="AU5" s="8">
         <f>AQ5*AS5</f>
-        <v>312017.79867736762</v>
+        <v>154090.90939641756</v>
       </c>
       <c r="AV5" s="8">
         <f>AP5-AN5</f>
@@ -10707,7 +11824,7 @@
       </c>
       <c r="G6">
         <f xml:space="preserve"> 1/1000 * ($C$17*$C$31)/$C$9 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) )</f>
-        <v>120.06775785612803</v>
+        <v>140.64051549353761</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
@@ -10717,7 +11834,7 @@
       </c>
       <c r="K6">
         <f>MAX(G18,G23,G34)</f>
-        <v>51.390092600903856</v>
+        <v>50.535819301879812</v>
       </c>
       <c r="L6" t="s">
         <v>162</v>
@@ -10727,7 +11844,7 @@
       </c>
       <c r="O6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.22637688478394008</v>
+        <v>0.24363643887637404</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
@@ -10737,7 +11854,7 @@
       </c>
       <c r="S6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.22637688478394008</v>
+        <v>0.24363643887637404</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -10747,7 +11864,7 @@
       </c>
       <c r="W6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.22637688478394008</v>
+        <v>0.24363643887637404</v>
       </c>
       <c r="X6" t="s">
         <v>18</v>
@@ -10761,7 +11878,7 @@
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="0"/>
-        <v>0.19831540404458048</v>
+        <v>0.19932685281160967</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" ref="AE6:AE34" si="8">IF(AJ5&gt;0, AG5, AE5)</f>
@@ -10769,7 +11886,7 @@
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9588646381804897E-2</v>
+        <v>-6.9079010760166371E-2</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="2"/>
@@ -10777,15 +11894,15 @@
       </c>
       <c r="AH6" s="8">
         <f t="shared" si="3"/>
-        <v>6.1423749393111682E-2</v>
+        <v>6.2101899912960001E-2</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" si="4"/>
-        <v>1.2181275678827997E-2</v>
+        <v>1.2378576263271893E-2</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" si="5"/>
-        <v>-4.2743955759618523E-3</v>
+        <v>-4.2899378123141393E-3</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" si="6"/>
@@ -10799,29 +11916,29 @@
         <v>500</v>
       </c>
       <c r="AO6" s="8">
-        <v>-222.15251534111007</v>
+        <v>-254.66572574579737</v>
       </c>
       <c r="AP6" s="8">
         <f>IF(AU5&gt;0,AR5,AP5)</f>
         <v>1500</v>
       </c>
       <c r="AQ6" s="8">
-        <v>374.14992801424194</v>
+        <v>265.06906311543696</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" ref="AR6:AR44" si="9">(AN6+AP6)/2</f>
         <v>1000</v>
       </c>
       <c r="AS6" s="8">
-        <v>89.645908600196776</v>
+        <v>25.454052983471797</v>
       </c>
       <c r="AT6" s="8">
         <f t="shared" ref="AT6:AT44" si="10">AO6*AS6</f>
-        <v>-19915.064085572965</v>
+        <v>-6482.2748762078245</v>
       </c>
       <c r="AU6" s="8">
         <f t="shared" ref="AU6:AU44" si="11">AQ6*AS6</f>
-        <v>33541.010249534935</v>
+        <v>6747.0819768195624</v>
       </c>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV44" si="12">AP6-AN6</f>
@@ -10840,7 +11957,7 @@
       </c>
       <c r="G7">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>2090.0188263079185</v>
+        <v>2333.5410430412794</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -10850,7 +11967,7 @@
       </c>
       <c r="K7">
         <f>K6/$C$6</f>
-        <v>51.390092600903856</v>
+        <v>50.535819301879812</v>
       </c>
       <c r="L7" t="s">
         <v>162</v>
@@ -10860,21 +11977,21 @@
       </c>
       <c r="O7">
         <f xml:space="preserve"> O6 / $C$21</f>
-        <v>1.8555482359339352E-2</v>
+        <v>1.2181821943818703E-2</v>
       </c>
       <c r="R7" t="s">
         <v>56</v>
       </c>
       <c r="S7">
         <f xml:space="preserve"> S6 / $C$21</f>
-        <v>1.8555482359339352E-2</v>
+        <v>1.2181821943818703E-2</v>
       </c>
       <c r="V7" t="s">
         <v>56</v>
       </c>
       <c r="W7">
         <f xml:space="preserve"> W6 / $C$21</f>
-        <v>1.8555482359339352E-2</v>
+        <v>1.2181821943818703E-2</v>
       </c>
       <c r="AB7" s="8">
         <v>3</v>
@@ -10885,7 +12002,7 @@
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="0"/>
-        <v>6.1423749393111682E-2</v>
+        <v>6.2101899912960001E-2</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="8"/>
@@ -10893,7 +12010,7 @@
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9588646381804897E-2</v>
+        <v>-6.9079010760166371E-2</v>
       </c>
       <c r="AG7" s="8">
         <f t="shared" si="2"/>
@@ -10901,15 +12018,15 @@
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="3"/>
-        <v>-4.5074975994607858E-3</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="4"/>
-        <v>-2.7686740293933178E-4</v>
+        <v>-2.4378211150548576E-4</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="5"/>
-        <v>3.136706565157111E-4</v>
+        <v>2.7117088410219721E-4</v>
       </c>
       <c r="AK7" s="8">
         <f t="shared" si="6"/>
@@ -10923,29 +12040,29 @@
         <v>500</v>
       </c>
       <c r="AO7" s="8">
-        <v>-222.15251534111007</v>
+        <v>-254.66572574579737</v>
       </c>
       <c r="AP7" s="8">
         <f t="shared" ref="AP7:AP44" si="14">IF(AU6&gt;0,AR6,AP6)</f>
         <v>1000</v>
       </c>
       <c r="AQ7" s="8">
-        <v>89.645908600196776</v>
+        <v>25.454052983471797</v>
       </c>
       <c r="AR7" s="8">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
       <c r="AS7" s="8">
-        <v>-63.582520585164332</v>
+        <v>-110.52681838424229</v>
       </c>
       <c r="AT7" s="8">
         <f t="shared" si="10"/>
-        <v>14125.016879722167</v>
+        <v>28147.392418197003</v>
       </c>
       <c r="AU7" s="8">
         <f t="shared" si="11"/>
-        <v>-5699.9128289477721</v>
+        <v>-2813.3554912470681</v>
       </c>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
@@ -10974,7 +12091,7 @@
       </c>
       <c r="O8">
         <f xml:space="preserve"> O5 * $C$21 * O7</f>
-        <v>258.40580729172279</v>
+        <v>238.76371009884662</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -10984,7 +12101,7 @@
       </c>
       <c r="S8">
         <f xml:space="preserve"> S5 * $C$21 * S7</f>
-        <v>258.40580729172279</v>
+        <v>238.76371009884662</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -10994,7 +12111,7 @@
       </c>
       <c r="W8">
         <f xml:space="preserve"> W5*W7*$C$21</f>
-        <v>258.40580729172274</v>
+        <v>238.76371009884662</v>
       </c>
       <c r="X8" t="s">
         <v>31</v>
@@ -11008,7 +12125,7 @@
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="0"/>
-        <v>6.1423749393111682E-2</v>
+        <v>6.2101899912960001E-2</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" si="8"/>
@@ -11016,7 +12133,7 @@
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5074975994607858E-3</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" si="2"/>
@@ -11024,15 +12141,15 @@
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="3"/>
-        <v>2.8327708857929623E-2</v>
+        <v>2.8954118716563448E-2</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="4"/>
-        <v>1.7399940897704991E-3</v>
+        <v>1.7981057826039852E-3</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2768707967534182E-4</v>
+        <v>-1.1365990746494553E-4</v>
       </c>
       <c r="AK8" s="8">
         <f t="shared" si="6"/>
@@ -11046,29 +12163,29 @@
         <v>750</v>
       </c>
       <c r="AO8" s="8">
-        <v>-63.582520585164332</v>
+        <v>-110.52681838424229</v>
       </c>
       <c r="AP8" s="8">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="AQ8" s="8">
-        <v>89.645908600196776</v>
+        <v>25.454052983471797</v>
       </c>
       <c r="AR8" s="8">
         <f t="shared" si="9"/>
         <v>875</v>
       </c>
       <c r="AS8" s="8">
-        <v>13.827767391850898</v>
+        <v>-41.351338429432644</v>
       </c>
       <c r="AT8" s="8">
         <f t="shared" si="10"/>
-        <v>-879.20430483922382</v>
+        <v>4570.4318725352405</v>
       </c>
       <c r="AU8" s="8">
         <f t="shared" si="11"/>
-        <v>1239.6027717546469</v>
+        <v>-1052.5591593202521</v>
       </c>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
@@ -11112,7 +12229,7 @@
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="0"/>
-        <v>2.8327708857929623E-2</v>
+        <v>2.8954118716563448E-2</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="8"/>
@@ -11120,7 +12237,7 @@
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5074975994607858E-3</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" si="2"/>
@@ -11128,15 +12245,15 @@
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="3"/>
-        <v>1.1881069714876735E-2</v>
+        <v>1.2484450744115416E-2</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="4"/>
-        <v>3.365634838037931E-4</v>
+        <v>3.6147626895620665E-4</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="5"/>
-        <v>-5.3553893218833127E-5</v>
+        <v>-4.9007933213836286E-5</v>
       </c>
       <c r="AK9" s="8">
         <f t="shared" si="6"/>
@@ -11147,32 +12264,32 @@
       </c>
       <c r="AN9" s="8">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="AO9" s="8">
-        <v>-63.582520585164332</v>
+        <v>-41.351338429432644</v>
       </c>
       <c r="AP9" s="8">
         <f t="shared" si="14"/>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="AQ9" s="8">
-        <v>13.827767391850898</v>
+        <v>25.454052983471797</v>
       </c>
       <c r="AR9" s="8">
         <f t="shared" si="9"/>
-        <v>812.5</v>
+        <v>937.5</v>
       </c>
       <c r="AS9" s="8">
-        <v>-24.690548186880733</v>
+        <v>-7.6377944877207256</v>
       </c>
       <c r="AT9" s="8">
         <f t="shared" si="10"/>
-        <v>1569.8872883513361</v>
+        <v>315.83302471619487</v>
       </c>
       <c r="AU9" s="8">
         <f t="shared" si="11"/>
-        <v>-341.4151571054727</v>
+        <v>-194.41282556731218</v>
       </c>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
@@ -11180,11 +12297,11 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="37" t="s">
         <v>34</v>
       </c>
@@ -11195,21 +12312,21 @@
       </c>
       <c r="O10">
         <f>O4/(O5*$C$21)</f>
-        <v>0.59927635367817866</v>
+        <v>0.47527175109750808</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
       </c>
       <c r="S10">
         <f xml:space="preserve"> S4 / (S5 * $C$21)</f>
-        <v>0.6003163453437752</v>
+        <v>0.47623286592679165</v>
       </c>
       <c r="V10" t="s">
         <v>138</v>
       </c>
       <c r="W10">
         <f>W4 / ( W5 * $C$21)</f>
-        <v>0.59994215602809009</v>
+        <v>0.47588708820236558</v>
       </c>
       <c r="AB10" s="8">
         <v>6</v>
@@ -11220,7 +12337,7 @@
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="0"/>
-        <v>1.1881069714876735E-2</v>
+        <v>1.2484450744115416E-2</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="8"/>
@@ -11228,7 +12345,7 @@
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5074975994607858E-3</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" si="2"/>
@@ -11236,15 +12353,15 @@
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="3"/>
-        <v>3.6799173926581608E-3</v>
+        <v>4.2724053089067127E-3</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="4"/>
-        <v>4.3721355087159034E-5</v>
+        <v>5.3338633637943062E-5</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6587218813620654E-5</v>
+        <v>-1.6771402950188457E-5</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" si="6"/>
@@ -11255,32 +12372,32 @@
       </c>
       <c r="AN10" s="8">
         <f t="shared" si="13"/>
-        <v>812.5</v>
+        <v>937.5</v>
       </c>
       <c r="AO10" s="8">
-        <v>-24.690548186880733</v>
+        <v>-7.6377944877207256</v>
       </c>
       <c r="AP10" s="8">
         <f t="shared" si="14"/>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="AQ10" s="8">
-        <v>13.827767391850898</v>
+        <v>25.454052983471797</v>
       </c>
       <c r="AR10" s="8">
         <f t="shared" si="9"/>
-        <v>843.75</v>
+        <v>968.75</v>
       </c>
       <c r="AS10" s="8">
-        <v>-5.3830176133223517</v>
+        <v>8.9874969526417772</v>
       </c>
       <c r="AT10" s="8">
         <f t="shared" si="10"/>
-        <v>132.90965577256324</v>
+        <v>-68.644654683294178</v>
       </c>
       <c r="AU10" s="8">
         <f t="shared" si="11"/>
-        <v>-74.435115423257855</v>
+        <v>228.76822362133512</v>
       </c>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
@@ -11288,17 +12405,17 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="F11" s="4" t="s">
         <v>154</v>
       </c>
       <c r="G11" s="1">
         <f>$C$20</f>
-        <v>43.17</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -11308,7 +12425,7 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> (G6*G8 + G18*G19 + G23*G24 + G34*G35 + G40*G42)/3600</f>
-        <v>10.082065798254614</v>
+        <v>20.642753179881087</v>
       </c>
       <c r="L11" t="s">
         <v>163</v>
@@ -11318,21 +12435,21 @@
       </c>
       <c r="O11">
         <f>O7+O10^2/(PI()*O9*$C$22)</f>
-        <v>4.0477116505958602E-2</v>
+        <v>2.5969865471665025E-2</v>
       </c>
       <c r="R11" t="s">
         <v>59</v>
       </c>
       <c r="S11">
         <f xml:space="preserve"> S7 + S10^2 / ( PI() * S9 * $C$22 )</f>
-        <v>4.0553268681530003E-2</v>
+        <v>2.6025687398143222E-2</v>
       </c>
       <c r="V11" t="s">
         <v>137</v>
       </c>
       <c r="W11">
         <f xml:space="preserve"> W7 + W10^2 / (PI() * W9 * $C$22)</f>
-        <v>4.0525853898324304E-2</v>
+        <v>2.600559150461107E-2</v>
       </c>
       <c r="AB11" s="8">
         <v>7</v>
@@ -11343,7 +12460,7 @@
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="0"/>
-        <v>3.6799173926581608E-3</v>
+        <v>4.2724053089067127E-3</v>
       </c>
       <c r="AE11" s="8">
         <f t="shared" si="8"/>
@@ -11351,7 +12468,7 @@
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5074975994607858E-3</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AG11" s="8">
         <f t="shared" si="2"/>
@@ -11359,15 +12476,15 @@
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="3"/>
-        <v>-4.1546150311205787E-4</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5288640112819644E-6</v>
+        <v>7.336810452644238E-7</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="5"/>
-        <v>1.8726917279459707E-6</v>
+        <v>-6.7411160005791035E-7</v>
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="6"/>
@@ -11378,32 +12495,32 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="13"/>
-        <v>843.75</v>
+        <v>937.5</v>
       </c>
       <c r="AO11" s="8">
-        <v>-5.3830176133223517</v>
+        <v>-7.6377944877207256</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="14"/>
-        <v>875</v>
+        <v>968.75</v>
       </c>
       <c r="AQ11" s="8">
-        <v>13.827767391850898</v>
+        <v>8.9874969526417772</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" si="9"/>
-        <v>859.375</v>
+        <v>953.125</v>
       </c>
       <c r="AS11" s="8">
-        <v>4.2346616490440852</v>
+        <v>0.69449253906861941</v>
       </c>
       <c r="AT11" s="8">
         <f t="shared" si="10"/>
-        <v>-22.795258243264986</v>
+        <v>-5.3043912866614722</v>
       </c>
       <c r="AU11" s="8">
         <f t="shared" si="11"/>
-        <v>58.555916266173355</v>
+        <v>6.2417495785116675</v>
       </c>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
@@ -11434,7 +12551,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> (G8 + G19 + G24 + G35 +G42)/60</f>
-        <v>14.254326423845301</v>
+        <v>42.673123218268444</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -11444,7 +12561,7 @@
       </c>
       <c r="O12">
         <f>O5*O11*$C$21</f>
-        <v>563.68903621084564</v>
+        <v>509.00936324463453</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -11454,7 +12571,7 @@
       </c>
       <c r="S12">
         <f xml:space="preserve"> S5 * S11 * $C$21</f>
-        <v>564.74954027236606</v>
+        <v>510.10347300360718</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -11464,7 +12581,7 @@
       </c>
       <c r="W12">
         <f xml:space="preserve"> W5 * $C$21 * W11</f>
-        <v>564.3677588102189</v>
+        <v>509.70959349037707</v>
       </c>
       <c r="X12" t="s">
         <v>31</v>
@@ -11474,35 +12591,35 @@
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="7"/>
-        <v>0.4296875</v>
+        <v>0.43359375</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="0"/>
-        <v>3.6799173926581608E-3</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.4375</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1546150311205787E-4</v>
+        <v>-3.9255177675266428E-3</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" si="2"/>
-        <v>0.431640625</v>
+        <v>0.435546875</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="3"/>
-        <v>1.6318045011970428E-3</v>
+        <v>-1.8773199828441833E-3</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="4"/>
-        <v>6.0049057653728719E-6</v>
+        <v>-3.2238375990160181E-7</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="5"/>
-        <v>-6.7795195085234521E-7</v>
+        <v>7.369452947987654E-6</v>
       </c>
       <c r="AK12" s="8">
         <f t="shared" si="6"/>
@@ -11513,32 +12630,32 @@
       </c>
       <c r="AN12" s="8">
         <f t="shared" si="13"/>
-        <v>843.75</v>
+        <v>937.5</v>
       </c>
       <c r="AO12" s="8">
-        <v>-5.3830176133223517</v>
+        <v>-7.6377944877207256</v>
       </c>
       <c r="AP12" s="8">
         <f t="shared" si="14"/>
-        <v>859.375</v>
+        <v>953.125</v>
       </c>
       <c r="AQ12" s="8">
-        <v>4.2346616490440852</v>
+        <v>0.69449253906861941</v>
       </c>
       <c r="AR12" s="8">
         <f t="shared" si="9"/>
-        <v>851.5625</v>
+        <v>945.3125</v>
       </c>
       <c r="AS12" s="8">
-        <v>-0.57112992852563593</v>
+        <v>-3.4667663179768624</v>
       </c>
       <c r="AT12" s="8">
         <f t="shared" si="10"/>
-        <v>3.074402464749034</v>
+        <v>26.478448673659557</v>
       </c>
       <c r="AU12" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4185420049488</v>
+        <v>-2.4076433425293198</v>
       </c>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
@@ -11566,56 +12683,56 @@
       </c>
       <c r="O13">
         <f>O4/O12</f>
-        <v>14.805312369273137</v>
+        <v>18.30089384236755</v>
       </c>
       <c r="R13" t="s">
         <v>106</v>
       </c>
       <c r="S13">
         <f>S10/S11</f>
-        <v>14.803155574415866</v>
+        <v>18.298570125789187</v>
       </c>
       <c r="V13" t="s">
         <v>106</v>
       </c>
       <c r="W13">
         <f>W4/W12</f>
-        <v>14.803936211517975</v>
+        <v>18.299414113229677</v>
       </c>
       <c r="AB13" s="8">
         <v>9</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" si="7"/>
-        <v>0.431640625</v>
+        <v>0.43359375</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="0"/>
-        <v>1.6318045011970428E-3</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.435546875</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1546150311205787E-4</v>
+        <v>-1.8773199828441833E-3</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" si="2"/>
-        <v>0.4326171875</v>
+        <v>0.4345703125</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="3"/>
-        <v>6.0806634510945923E-4</v>
+        <v>-8.5290389886638618E-4</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="4"/>
-        <v>9.9224539897604998E-7</v>
+        <v>-1.4646536992308938E-7</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5262815773103125E-7</v>
+        <v>1.6011735327875811E-6</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" si="6"/>
@@ -11626,32 +12743,32 @@
       </c>
       <c r="AN13" s="8">
         <f t="shared" si="13"/>
-        <v>851.5625</v>
+        <v>945.3125</v>
       </c>
       <c r="AO13" s="8">
-        <v>-0.57112992852563593</v>
+        <v>-3.4667663179768624</v>
       </c>
       <c r="AP13" s="8">
         <f t="shared" si="14"/>
-        <v>859.375</v>
+        <v>953.125</v>
       </c>
       <c r="AQ13" s="8">
-        <v>4.2346616490440852</v>
+        <v>0.69449253906861941</v>
       </c>
       <c r="AR13" s="8">
         <f t="shared" si="9"/>
-        <v>855.46875</v>
+        <v>949.21875</v>
       </c>
       <c r="AS13" s="8">
-        <v>1.8325308638025604</v>
+        <v>-1.3849124347071893</v>
       </c>
       <c r="AT13" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0466132212645782</v>
+        <v>4.8011677819902143</v>
       </c>
       <c r="AU13" s="8">
         <f t="shared" si="11"/>
-        <v>7.7601481696343324</v>
+        <v>-0.96181135316749944</v>
       </c>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
@@ -11670,7 +12787,7 @@
       </c>
       <c r="G14">
         <f>SQRT($G$11^2-$G$12^2)</f>
-        <v>43.095212031036581</v>
+        <v>39.919273540484177</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -11680,35 +12797,35 @@
       </c>
       <c r="AC14" s="8">
         <f t="shared" si="7"/>
-        <v>0.4326171875</v>
+        <v>0.43359375</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="0"/>
-        <v>6.0806634510945923E-4</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AE14" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.4345703125</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1546150311205787E-4</v>
+        <v>-8.5290389886638618E-4</v>
       </c>
       <c r="AG14" s="8">
         <f t="shared" si="2"/>
-        <v>0.43310546875</v>
+        <v>0.43408203125</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="3"/>
-        <v>9.6276220200253171E-5</v>
+        <v>-3.4061594312501109E-4</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="4"/>
-        <v>5.8542329338121436E-8</v>
+        <v>-5.8492451702723567E-8</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="5"/>
-        <v>-3.9999063158344653E-8</v>
+        <v>2.905126659073732E-7</v>
       </c>
       <c r="AK14" s="8">
         <f t="shared" si="6"/>
@@ -11719,32 +12836,32 @@
       </c>
       <c r="AN14" s="8">
         <f t="shared" si="13"/>
-        <v>851.5625</v>
+        <v>949.21875</v>
       </c>
       <c r="AO14" s="8">
-        <v>-0.57112992852563593</v>
+        <v>-1.3849124347071893</v>
       </c>
       <c r="AP14" s="8">
         <f t="shared" si="14"/>
-        <v>855.46875</v>
+        <v>953.125</v>
       </c>
       <c r="AQ14" s="8">
-        <v>1.8325308638025604</v>
+        <v>0.69449253906861941</v>
       </c>
       <c r="AR14" s="8">
         <f t="shared" si="9"/>
-        <v>853.515625</v>
+        <v>951.171875</v>
       </c>
       <c r="AS14" s="8">
-        <v>0.63089131933401177</v>
+        <v>-0.34490349965597034</v>
       </c>
       <c r="AT14" s="8">
         <f t="shared" si="10"/>
-        <v>-0.36032091411867828</v>
+        <v>0.47766114544758009</v>
       </c>
       <c r="AU14" s="8">
         <f t="shared" si="11"/>
-        <v>1.1561278143846936</v>
+        <v>-0.23953290720972753</v>
       </c>
       <c r="AV14" s="8">
         <f t="shared" si="12"/>
@@ -11757,7 +12874,7 @@
       </c>
       <c r="G15">
         <f>$G$14 * ($G$13/$G$12)</f>
-        <v>5171.4254437243899</v>
+        <v>4790.3128248581015</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -11767,17 +12884,17 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="43" t="s">
         <v>140</v>
       </c>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="43" t="s">
         <v>135</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="V15" s="40" t="s">
+      <c r="V15" s="43" t="s">
         <v>149</v>
       </c>
       <c r="W15" s="46"/>
@@ -11787,35 +12904,35 @@
       </c>
       <c r="AC15" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.43359375</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="0"/>
-        <v>9.6276220200253171E-5</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AE15" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.43408203125</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1546150311205787E-4</v>
+        <v>-3.4061594312501109E-4</v>
       </c>
       <c r="AG15" s="8">
         <f t="shared" si="2"/>
-        <v>0.433349609375</v>
+        <v>0.433837890625</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5959918073737978E-4</v>
+        <v>-8.445190919709189E-5</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5365605868451978E-8</v>
+        <v>-1.4502548455580409E-8</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="5"/>
-        <v>6.6307315524604791E-8</v>
+        <v>2.8765666699875253E-8</v>
       </c>
       <c r="AK15" s="8">
         <f t="shared" si="6"/>
@@ -11826,32 +12943,32 @@
       </c>
       <c r="AN15" s="8">
         <f t="shared" si="13"/>
-        <v>851.5625</v>
+        <v>951.171875</v>
       </c>
       <c r="AO15" s="8">
-        <v>-0.57112992852563593</v>
+        <v>-0.34490349965597034</v>
       </c>
       <c r="AP15" s="8">
         <f t="shared" si="14"/>
-        <v>853.515625</v>
+        <v>953.125</v>
       </c>
       <c r="AQ15" s="8">
-        <v>0.63089131933401177</v>
+        <v>0.69449253906861941</v>
       </c>
       <c r="AR15" s="8">
         <f t="shared" si="9"/>
-        <v>852.5390625</v>
+        <v>952.1484375</v>
       </c>
       <c r="AS15" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>0.17487120884504748</v>
       </c>
       <c r="AT15" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7092999418689026E-2</v>
+        <v>-6.031369191972695E-2</v>
       </c>
       <c r="AU15" s="8">
         <f t="shared" si="11"/>
-        <v>1.8881561648275921E-2</v>
+        <v>0.12144674984079584</v>
       </c>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
@@ -11869,7 +12986,7 @@
       </c>
       <c r="G16">
         <f>ATAN(G12/G14)/PI()*180</f>
-        <v>3.3730687514309912</v>
+        <v>3.6407315234800151</v>
       </c>
       <c r="H16" t="s">
         <v>62</v>
@@ -11879,7 +12996,7 @@
       </c>
       <c r="K16" s="5">
         <f>C17</f>
-        <v>852.49043304611405</v>
+        <v>951.81985409544723</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -11919,35 +13036,35 @@
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.43359375</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="0"/>
-        <v>9.6276220200253171E-5</v>
+        <v>1.7172552513566863E-4</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="8"/>
-        <v>0.433349609375</v>
+        <v>0.433837890625</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5959918073737978E-4</v>
+        <v>-8.445190919709189E-5</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="2"/>
-        <v>0.4332275390625</v>
+        <v>0.4337158203125</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="3"/>
-        <v>-3.1663116451807749E-5</v>
+        <v>4.3635131523778181E-5</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="4"/>
-        <v>-3.0484051717405018E-9</v>
+        <v>7.4932658752847764E-9</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="5"/>
-        <v>5.0534074453007677E-9</v>
+        <v>-3.6850701652492769E-9</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="6"/>
@@ -11958,32 +13075,32 @@
       </c>
       <c r="AN16" s="8">
         <f t="shared" si="13"/>
-        <v>851.5625</v>
+        <v>951.171875</v>
       </c>
       <c r="AO16" s="8">
-        <v>-0.57112992852563593</v>
+        <v>-0.34490349965597034</v>
       </c>
       <c r="AP16" s="8">
         <f t="shared" si="14"/>
-        <v>852.5390625</v>
+        <v>952.1484375</v>
       </c>
       <c r="AQ16" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>0.17487120884504748</v>
       </c>
       <c r="AR16" s="8">
         <f t="shared" si="9"/>
-        <v>852.05078125</v>
+        <v>951.66015625</v>
       </c>
       <c r="AS16" s="8">
-        <v>-0.27058882543411755</v>
+        <v>-8.4997156887197889E-2</v>
       </c>
       <c r="AT16" s="8">
         <f t="shared" si="10"/>
-        <v>0.15454137653002334</v>
+        <v>2.9315816871202115E-2</v>
       </c>
       <c r="AU16" s="8">
         <f t="shared" si="11"/>
-        <v>-8.0982879811410738E-3</v>
+        <v>-1.4863555573256448E-2</v>
       </c>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
@@ -11996,7 +13113,7 @@
       </c>
       <c r="C17" s="3">
         <f>AR44</f>
-        <v>852.49043304611405</v>
+        <v>951.81985409544723</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -12006,7 +13123,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> 1/1000 * (O22 + O17 * (O27 * O24 + $G$11 * SIN(O16/180*PI())))</f>
-        <v>51.390092600903856</v>
+        <v>50.535819301879812</v>
       </c>
       <c r="H17" t="s">
         <v>162</v>
@@ -12016,7 +13133,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> 1000 * K11 / ($C$12 * $C$13 * $C$14)</f>
-        <v>59.30626940149773</v>
+        <v>121.42795988165344</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -12026,7 +13143,7 @@
       </c>
       <c r="O17">
         <f>(O12+$C$17*$C$31*SIN(G16/180*PI()))/$C$6</f>
-        <v>1055.5720863680949</v>
+        <v>1101.7287881771194</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
@@ -12036,7 +13153,7 @@
       </c>
       <c r="S17">
         <f xml:space="preserve"> S12 / $C$6</f>
-        <v>564.74954027236606</v>
+        <v>510.10347300360718</v>
       </c>
       <c r="T17" t="s">
         <v>31</v>
@@ -12046,7 +13163,7 @@
       </c>
       <c r="W17">
         <f>(W12-$C$17*$C$31*SIN(G32/180*PI()))/$C$6</f>
-        <v>269.23792871586932</v>
+        <v>154.07793853088606</v>
       </c>
       <c r="X17" t="s">
         <v>31</v>
@@ -12056,35 +13173,35 @@
       </c>
       <c r="AC17" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.4337158203125</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="0"/>
-        <v>9.6276220200253171E-5</v>
+        <v>4.3635131523778181E-5</v>
       </c>
       <c r="AE17" s="8">
         <f t="shared" si="8"/>
-        <v>0.4332275390625</v>
+        <v>0.433837890625</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1663116451807749E-5</v>
+        <v>-8.445190919709189E-5</v>
       </c>
       <c r="AG17" s="8">
         <f t="shared" si="2"/>
-        <v>0.43316650390625</v>
+        <v>0.43377685546875</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="3"/>
-        <v>3.2306142657922976E-5</v>
+        <v>-2.0408807773542037E-5</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="4"/>
-        <v>3.1103133043549847E-9</v>
+        <v>-8.9054101144201337E-10</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="5"/>
-        <v>-1.022913157086529E-9</v>
+        <v>1.7235627809120752E-9</v>
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="6"/>
@@ -12095,32 +13212,32 @@
       </c>
       <c r="AN17" s="8">
         <f t="shared" si="13"/>
-        <v>852.05078125</v>
+        <v>951.66015625</v>
       </c>
       <c r="AO17" s="8">
-        <v>-0.27058882543411755</v>
+        <v>-8.4997156887197889E-2</v>
       </c>
       <c r="AP17" s="8">
         <f t="shared" si="14"/>
-        <v>852.5390625</v>
+        <v>952.1484375</v>
       </c>
       <c r="AQ17" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>0.17487120884504748</v>
       </c>
       <c r="AR17" s="8">
         <f t="shared" si="9"/>
-        <v>852.294921875</v>
+        <v>951.904296875</v>
       </c>
       <c r="AS17" s="8">
-        <v>-0.12032722915927252</v>
+        <v>4.4941914402443217E-2</v>
       </c>
       <c r="AT17" s="8">
         <f t="shared" si="10"/>
-        <v>3.2559203605949452E-2</v>
+        <v>-3.8199349492754847E-3</v>
       </c>
       <c r="AU17" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6012002792103481E-3</v>
+        <v>7.8590468993658957E-3</v>
       </c>
       <c r="AV17" s="8">
         <f t="shared" si="12"/>
@@ -12142,7 +13259,7 @@
       </c>
       <c r="G18">
         <f>$C$6*G17</f>
-        <v>51.390092600903856</v>
+        <v>50.535819301879812</v>
       </c>
       <c r="H18" t="s">
         <v>162</v>
@@ -12152,7 +13269,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> $C$33 * ($C$5 * $C$41 * (2*$C$18*3.28084 * (K5*1000*0.00134102) * $C$39^0.5)^0.782 * 0.453592 + C6 * $C$6 * $C$41 * (2*$C$19*3.28084 * (K7*1000*0.00134102) * $C$40^0.5)^0.782 * 0.453592)</f>
-        <v>48.485561882580932</v>
+        <v>53.5762135527537</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -12162,7 +13279,7 @@
       </c>
       <c r="O18">
         <f xml:space="preserve"> PI() * $G$11 / ($C$19 * $C$23)</f>
-        <v>121.3081886006005</v>
+        <v>111.10849349566023</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -12172,7 +13289,7 @@
       </c>
       <c r="S18">
         <f xml:space="preserve"> PI() * $C$20 / ($C$19 * $C$23)</f>
-        <v>121.3081886006005</v>
+        <v>111.10849349566023</v>
       </c>
       <c r="T18" t="s">
         <v>43</v>
@@ -12182,7 +13299,7 @@
       </c>
       <c r="W18">
         <f xml:space="preserve"> PI() * $G$27 / ($C$19 * $C$23)</f>
-        <v>121.3081886006005</v>
+        <v>111.10849349566023</v>
       </c>
       <c r="X18" t="s">
         <v>43</v>
@@ -12192,35 +13309,35 @@
       </c>
       <c r="AC18" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316650390625</v>
+        <v>0.4337158203125</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="0"/>
-        <v>3.2306142657922976E-5</v>
+        <v>4.3635131523778181E-5</v>
       </c>
       <c r="AE18" s="8">
         <f t="shared" si="8"/>
-        <v>0.4332275390625</v>
+        <v>0.43377685546875</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1663116451807749E-5</v>
+        <v>-2.0408807773542037E-5</v>
       </c>
       <c r="AG18" s="8">
         <f t="shared" si="2"/>
-        <v>0.433197021484375</v>
+        <v>0.433746337890625</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="3"/>
-        <v>3.2141082029202295E-7</v>
+        <v>1.161305711910865E-5</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="4"/>
-        <v>1.0383543812154139E-11</v>
+        <v>5.0673727478545448E-10</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0176868231777375E-11</v>
+        <v>-2.370086504070523E-10</v>
       </c>
       <c r="AK18" s="8">
         <f t="shared" si="6"/>
@@ -12231,32 +13348,32 @@
       </c>
       <c r="AN18" s="8">
         <f t="shared" si="13"/>
-        <v>852.294921875</v>
+        <v>951.66015625</v>
       </c>
       <c r="AO18" s="8">
-        <v>-0.12032722915927252</v>
+        <v>-8.4997156887197889E-2</v>
       </c>
       <c r="AP18" s="8">
         <f t="shared" si="14"/>
-        <v>852.5390625</v>
+        <v>951.904296875</v>
       </c>
       <c r="AQ18" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>4.4941914402443217E-2</v>
       </c>
       <c r="AR18" s="8">
         <f t="shared" si="9"/>
-        <v>852.4169921875</v>
+        <v>951.7822265625</v>
       </c>
       <c r="AS18" s="8">
-        <v>-4.519875566063547E-2</v>
+        <v>-2.0026412269317007E-2</v>
       </c>
       <c r="AT18" s="8">
         <f t="shared" si="10"/>
-        <v>5.4386410300912499E-3</v>
+        <v>1.7021881055428424E-3</v>
       </c>
       <c r="AU18" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3527260009418873E-3</v>
+        <v>-9.0002530599568348E-4</v>
       </c>
       <c r="AV18" s="8">
         <f t="shared" si="12"/>
@@ -12268,7 +13385,7 @@
         <v>146</v>
       </c>
       <c r="C19" s="1">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -12288,7 +13405,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> 0.2138 * (K4) + 0.2138 * (K6)</f>
-        <v>36.65768842771341</v>
+        <v>40.873500379260243</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -12319,35 +13436,35 @@
       </c>
       <c r="AC19" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.433746337890625</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>1.161305711910865E-5</v>
       </c>
       <c r="AE19" s="8">
         <f t="shared" si="8"/>
-        <v>0.4332275390625</v>
+        <v>0.43377685546875</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1663116451807749E-5</v>
+        <v>-2.0408807773542037E-5</v>
       </c>
       <c r="AG19" s="8">
         <f t="shared" si="2"/>
-        <v>0.4332122802734375</v>
+        <v>0.4337615966796875</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5670878383777787E-5</v>
+        <v>-4.3979015135198196E-6</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="4"/>
-        <v>-5.0367898760265492E-12</v>
+        <v>-5.1073081480720045E-11</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="5"/>
-        <v>4.9618884716767285E-10</v>
+        <v>8.9755926596395589E-11</v>
       </c>
       <c r="AK19" s="8">
         <f t="shared" si="6"/>
@@ -12358,32 +13475,32 @@
       </c>
       <c r="AN19" s="8">
         <f t="shared" si="13"/>
-        <v>852.4169921875</v>
+        <v>951.7822265625</v>
       </c>
       <c r="AO19" s="8">
-        <v>-4.519875566063547E-2</v>
+        <v>-2.0026412269317007E-2</v>
       </c>
       <c r="AP19" s="8">
         <f t="shared" si="14"/>
-        <v>852.5390625</v>
+        <v>951.904296875</v>
       </c>
       <c r="AQ19" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>4.4941914402443217E-2</v>
       </c>
       <c r="AR19" s="8">
         <f t="shared" si="9"/>
-        <v>852.47802734375</v>
+        <v>951.84326171875</v>
       </c>
       <c r="AS19" s="8">
-        <v>-7.6349858816797678E-3</v>
+        <v>1.2457945788241886E-2</v>
       </c>
       <c r="AT19" s="8">
         <f t="shared" si="10"/>
-        <v>3.4509186133844529E-4</v>
+        <v>-2.4948795838413345E-4</v>
       </c>
       <c r="AU19" s="8">
         <f t="shared" si="11"/>
-        <v>-2.2850283747893858E-4</v>
+        <v>5.5988393324544485E-4</v>
       </c>
       <c r="AV19" s="8">
         <f t="shared" si="12"/>
@@ -12395,7 +13512,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>43.17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -12405,7 +13522,7 @@
       </c>
       <c r="K20">
         <f>2.20462 * (49.9/398 * (K5 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (K7 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>20.743040666743497</v>
+        <v>23.21527784186987</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -12415,56 +13532,56 @@
       </c>
       <c r="O20">
         <f xml:space="preserve"> O17 / ( $C$30 * PI() * $C$19^2 * O18^2 * $C$19^2)</f>
-        <v>3.4074374730290541E-2</v>
+        <v>4.0477828651252802E-2</v>
       </c>
       <c r="R20" t="s">
         <v>45</v>
       </c>
       <c r="S20">
         <f xml:space="preserve"> S17 / ( $C$30 * PI() * $C$19^2 * S18^2 * $C$19^2)</f>
-        <v>1.823038683242463E-2</v>
+        <v>1.8741346505805851E-2</v>
       </c>
       <c r="V20" t="s">
         <v>45</v>
       </c>
       <c r="W20">
         <f xml:space="preserve"> W17 / ( $C$30 * PI() * $C$19^2 * W18^2 * $C$19^2)</f>
-        <v>8.6911298556947847E-3</v>
+        <v>5.6608672313179292E-3</v>
       </c>
       <c r="AB20" s="8">
         <v>16</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.433746337890625</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>1.161305711910865E-5</v>
       </c>
       <c r="AE20" s="8">
         <f t="shared" si="8"/>
-        <v>0.4332122802734375</v>
+        <v>0.4337615966796875</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5670878383777787E-5</v>
+        <v>-4.3979015135198196E-6</v>
       </c>
       <c r="AG20" s="8">
         <f t="shared" si="2"/>
-        <v>0.43320465087890625</v>
+        <v>0.43375396728515625</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="3"/>
-        <v>-7.6747401741017462E-6</v>
+        <v>3.6075712558925055E-6</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4667445348861854E-12</v>
+        <v>4.1894931055934192E-11</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="5"/>
-        <v>1.2026991989544201E-10</v>
+        <v>-1.5865743086420248E-11</v>
       </c>
       <c r="AK20" s="8">
         <f t="shared" si="6"/>
@@ -12475,32 +13592,32 @@
       </c>
       <c r="AN20" s="8">
         <f t="shared" si="13"/>
-        <v>852.47802734375</v>
+        <v>951.7822265625</v>
       </c>
       <c r="AO20" s="8">
-        <v>-7.6349858816797678E-3</v>
+        <v>-2.0026412269317007E-2</v>
       </c>
       <c r="AP20" s="8">
         <f t="shared" si="14"/>
-        <v>852.5390625</v>
+        <v>951.84326171875</v>
       </c>
       <c r="AQ20" s="8">
-        <v>2.9928390310089981E-2</v>
+        <v>1.2457945788241886E-2</v>
       </c>
       <c r="AR20" s="8">
         <f t="shared" si="9"/>
-        <v>852.508544921875</v>
+        <v>951.812744140625</v>
       </c>
       <c r="AS20" s="8">
-        <v>1.1146752410979843E-2</v>
+        <v>-3.7842019362415158E-3</v>
       </c>
       <c r="AT20" s="8">
         <f t="shared" si="10"/>
-        <v>-8.5105297284411016E-5</v>
+        <v>7.5783988085520267E-5</v>
       </c>
       <c r="AU20" s="8">
         <f t="shared" si="11"/>
-        <v>3.3360435684574126E-4</v>
+        <v>-4.7143382573456786E-5</v>
       </c>
       <c r="AV20" s="8">
         <f t="shared" si="12"/>
@@ -12512,22 +13629,22 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>12.2</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
       <c r="K21">
         <f xml:space="preserve"> $C$33 * (14.86 * ($C$17*2.20462)^0.144 * ($C$45/(PI()*$C$46))^0.778 * ($C$45*3.28084)^0.383 * $C$44^0.455 * 0.453592)</f>
-        <v>157.50126487557895</v>
+        <v>160.02087517267341</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -12555,35 +13672,35 @@
       </c>
       <c r="AC21" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.43375396728515625</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>3.6075712558925055E-6</v>
       </c>
       <c r="AE21" s="8">
         <f t="shared" si="8"/>
-        <v>0.43320465087890625</v>
+        <v>0.4337615966796875</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="1"/>
-        <v>-7.6747401741017462E-6</v>
+        <v>-4.3979015135198196E-6</v>
       </c>
       <c r="AG21" s="8">
         <f t="shared" si="2"/>
-        <v>0.43320083618164062</v>
+        <v>0.43375778198242188</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="3"/>
-        <v>-3.67666627504315E-6</v>
+        <v>-3.9516676547668439E-7</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="4"/>
-        <v>-1.1817203234016354E-12</v>
+        <v>-1.4255922644177014E-12</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="5"/>
-        <v>2.8217458367838685E-11</v>
+        <v>1.7379045159826419E-12</v>
       </c>
       <c r="AK21" s="8">
         <f t="shared" si="6"/>
@@ -12594,32 +13711,32 @@
       </c>
       <c r="AN21" s="8">
         <f t="shared" si="13"/>
-        <v>852.47802734375</v>
+        <v>951.812744140625</v>
       </c>
       <c r="AO21" s="8">
-        <v>-7.6349858816797678E-3</v>
+        <v>-3.7842019362415158E-3</v>
       </c>
       <c r="AP21" s="8">
         <f t="shared" si="14"/>
-        <v>852.508544921875</v>
+        <v>951.84326171875</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1.1146752410979843E-2</v>
+        <v>1.2457945788241886E-2</v>
       </c>
       <c r="AR21" s="8">
         <f t="shared" si="9"/>
-        <v>852.4932861328125</v>
+        <v>951.8280029296875</v>
       </c>
       <c r="AS21" s="8">
-        <v>1.7559189707867517E-3</v>
+        <v>4.3368900895757179E-3</v>
       </c>
       <c r="AT21" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3406416551330518E-5</v>
+        <v>-1.6411667874239073E-5</v>
       </c>
       <c r="AU21" s="8">
         <f t="shared" si="11"/>
-        <v>1.9572794021102471E-5</v>
+        <v>5.4028741625497794E-5</v>
       </c>
       <c r="AV21" s="8">
         <f t="shared" si="12"/>
@@ -12638,7 +13755,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 1/1000 * (S22 + S17 * (S27 * S24 + $C$20 * SIN(S16/180*PI())))</f>
-        <v>26.434169974281307</v>
+        <v>22.146818252272002</v>
       </c>
       <c r="H22" t="s">
         <v>162</v>
@@ -12648,7 +13765,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> $C$33 * (0.054 * ($C$49*3.28084)^0.501 * ($C$17*2.20462*$C$50)^0.684 * 0.453592)</f>
-        <v>11.095469944902691</v>
+        <v>11.964251380071035</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -12658,7 +13775,7 @@
       </c>
       <c r="O22">
         <f xml:space="preserve"> ($C$8 * $O$21 / 8) * (1 + 4.65 * O19^2) * ( PI() * $C$30 * O18^3 * $C$19^ 5)</f>
-        <v>634.01860977186379</v>
+        <v>516.15178819915013</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -12668,7 +13785,7 @@
       </c>
       <c r="S22">
         <f xml:space="preserve"> ($C$8 * $S$21 / 8) * (1 + 4.65 * S19^2) * ( PI() * $C$30 * S18^3 * $C$19^5)</f>
-        <v>634.01860977186379</v>
+        <v>516.15178819915013</v>
       </c>
       <c r="T22" t="s">
         <v>29</v>
@@ -12678,7 +13795,7 @@
       </c>
       <c r="W22">
         <f xml:space="preserve"> ($C$8 * $W$21 / 8) * (1 + 4.65 * W19^2) * ( PI() * $C$30 * W18^3 * $C$19^ 5)</f>
-        <v>634.01860977186379</v>
+        <v>516.15178819915013</v>
       </c>
       <c r="X22" t="s">
         <v>29</v>
@@ -12688,35 +13805,35 @@
       </c>
       <c r="AC22" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.43375396728515625</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>3.6075712558925055E-6</v>
       </c>
       <c r="AE22" s="8">
         <f t="shared" si="8"/>
-        <v>0.43320083618164062</v>
+        <v>0.43375778198242188</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="1"/>
-        <v>-3.67666627504315E-6</v>
+        <v>-3.9516676547668439E-7</v>
       </c>
       <c r="AG22" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319892883300781</v>
+        <v>0.43375587463378906</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6776281269170745E-6</v>
+        <v>1.6062018360352148E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="4"/>
-        <v>-5.3920783241738695E-13</v>
+        <v>5.7944875748424085E-12</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="5"/>
-        <v>6.168078756299817E-12</v>
+        <v>-6.3471758424874759E-13</v>
       </c>
       <c r="AK22" s="8">
         <f t="shared" si="6"/>
@@ -12727,32 +13844,32 @@
       </c>
       <c r="AN22" s="8">
         <f t="shared" si="13"/>
-        <v>852.47802734375</v>
+        <v>951.812744140625</v>
       </c>
       <c r="AO22" s="8">
-        <v>-7.6349858816797678E-3</v>
+        <v>-3.7842019362415158E-3</v>
       </c>
       <c r="AP22" s="8">
         <f t="shared" si="14"/>
-        <v>852.4932861328125</v>
+        <v>951.8280029296875</v>
       </c>
       <c r="AQ22" s="8">
-        <v>1.7559189707867517E-3</v>
+        <v>4.3368900895757179E-3</v>
       </c>
       <c r="AR22" s="8">
         <f t="shared" si="9"/>
-        <v>852.48565673828125</v>
+        <v>951.82037353515625</v>
       </c>
       <c r="AS22" s="8">
-        <v>-2.9395051113283444E-3</v>
+        <v>2.7634861748992989E-4</v>
       </c>
       <c r="AT22" s="8">
         <f t="shared" si="10"/>
-        <v>2.2443080024117424E-5</v>
+        <v>-1.0457589733830587E-6</v>
       </c>
       <c r="AU22" s="8">
         <f t="shared" si="11"/>
-        <v>-5.1615327897060628E-6</v>
+        <v>1.1984935804600279E-6</v>
       </c>
       <c r="AV22" s="8">
         <f t="shared" si="12"/>
@@ -12771,7 +13888,7 @@
       </c>
       <c r="G23">
         <f xml:space="preserve"> $C$6 * G22</f>
-        <v>26.434169974281307</v>
+        <v>22.146818252272002</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
@@ -12781,7 +13898,7 @@
       </c>
       <c r="K23">
         <f xml:space="preserve"> $C$33 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * $C$53^0.397 * $C$22^1.712 * 0.453592)</f>
-        <v>65.079194513094166</v>
+        <v>81.231772721223109</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -12791,56 +13908,56 @@
       </c>
       <c r="O23" s="5">
         <f>AG69</f>
-        <v>0.44997010426595807</v>
+        <v>0.45643200492486358</v>
       </c>
       <c r="R23" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="5">
         <f>AG34</f>
-        <v>0.43319732835516334</v>
+        <v>0.43375740526244044</v>
       </c>
       <c r="V23" t="s">
         <v>47</v>
       </c>
       <c r="W23" s="5">
         <f>AG104</f>
-        <v>0.42247685650363564</v>
+        <v>0.41895918408408761</v>
       </c>
       <c r="AB23" s="8">
         <v>19</v>
       </c>
       <c r="AC23" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.43375587463378906</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>1.6062018360352148E-6</v>
       </c>
       <c r="AE23" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319892883300781</v>
+        <v>0.43375778198242188</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6776281269170745E-6</v>
+        <v>-3.9516676547668439E-7</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319797515869141</v>
+        <v>0.43375682830810547</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="3"/>
-        <v>-6.7810875320484243E-7</v>
+        <v>6.055174329722135E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="4"/>
-        <v>-2.1795149061476934E-13</v>
+        <v>9.7258321259129937E-13</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="5"/>
-        <v>1.1376143174851125E-12</v>
+        <v>-2.3928036542737464E-13</v>
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="6"/>
@@ -12851,32 +13968,32 @@
       </c>
       <c r="AN23" s="8">
         <f t="shared" si="13"/>
-        <v>852.48565673828125</v>
+        <v>951.812744140625</v>
       </c>
       <c r="AO23" s="8">
-        <v>-2.9395051113283444E-3</v>
+        <v>-3.7842019362415158E-3</v>
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="14"/>
-        <v>852.4932861328125</v>
+        <v>951.82037353515625</v>
       </c>
       <c r="AQ23" s="8">
-        <v>1.7559189707867517E-3</v>
+        <v>2.7634861748992989E-4</v>
       </c>
       <c r="AR23" s="8">
         <f t="shared" si="9"/>
-        <v>852.48947143554688</v>
+        <v>951.81655883789062</v>
       </c>
       <c r="AS23" s="8">
-        <v>-5.9179727941227611E-4</v>
+        <v>-1.7537856783746975E-3</v>
       </c>
       <c r="AT23" s="8">
         <f t="shared" si="10"/>
-        <v>1.7395911277025941E-6</v>
+        <v>6.6366791598581704E-6</v>
       </c>
       <c r="AU23" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0391480697800035E-6</v>
+        <v>-4.8465624759248652E-7</v>
       </c>
       <c r="AV23" s="8">
         <f t="shared" si="12"/>
@@ -12889,7 +14006,7 @@
       </c>
       <c r="G24">
         <f xml:space="preserve"> ($C$27-G15-G31)/$C$20</f>
-        <v>375.25958543071806</v>
+        <v>2080.3873930961067</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -12899,7 +14016,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> $C$33 * (3.184 * ($C$17*2.20462)^0.887 * ($C$57*3.28084*3.28084)^0.101 * ($C$56)^0.138 ) / ( 174.04 * ($C$58*3.28084)^0.223 ) * 0.453592</f>
-        <v>8.8995733279115363</v>
+        <v>9.8135391340138352</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -12909,7 +14026,7 @@
       </c>
       <c r="O24">
         <f xml:space="preserve"> O18 * $C$19 * O23 - $G$11 * SIN(O16/180*PI())</f>
-        <v>3.9374249980963185</v>
+        <v>4.2729331081828406</v>
       </c>
       <c r="P24" t="s">
         <v>16</v>
@@ -12919,7 +14036,7 @@
       </c>
       <c r="S24">
         <f xml:space="preserve"> S18 * $C$19 * S23 - $C$20 * SIN(S16/180*PI())</f>
-        <v>2.187604443449942</v>
+        <v>2.0811067782579755</v>
       </c>
       <c r="T24" t="s">
         <v>16</v>
@@ -12929,7 +14046,7 @@
       </c>
       <c r="W24">
         <f xml:space="preserve"> W18 * $C$19 * W23 - $G$27 * SIN(W16/180*PI())</f>
-        <v>1.069190765172749</v>
+        <v>0.65064576471612412</v>
       </c>
       <c r="X24" t="s">
         <v>16</v>
@@ -12939,35 +14056,35 @@
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.43375682830810547</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>6.055174329722135E-7</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319797515869141</v>
+        <v>0.43375778198242188</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.7810875320484243E-7</v>
+        <v>-3.9516676547668439E-7</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="2"/>
-        <v>0.4331974983215332</v>
+        <v>0.43375730514526367</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="3"/>
-        <v>-1.7834899140867222E-7</v>
+        <v>1.0517530818487941E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="4"/>
-        <v>-5.732329562691629E-14</v>
+        <v>6.3685482624169616E-14</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="5"/>
-        <v>1.2094001219947587E-13</v>
+        <v>-4.1561786343432244E-14</v>
       </c>
       <c r="AK24" s="8">
         <f t="shared" si="6"/>
@@ -12978,32 +14095,32 @@
       </c>
       <c r="AN24" s="8">
         <f t="shared" si="13"/>
-        <v>852.48947143554688</v>
+        <v>951.81655883789062</v>
       </c>
       <c r="AO24" s="8">
-        <v>-5.9179727941227611E-4</v>
+        <v>-1.7537856783746975E-3</v>
       </c>
       <c r="AP24" s="8">
         <f t="shared" si="14"/>
-        <v>852.4932861328125</v>
+        <v>951.82037353515625</v>
       </c>
       <c r="AQ24" s="8">
-        <v>1.7559189707867517E-3</v>
+        <v>2.7634861748992989E-4</v>
       </c>
       <c r="AR24" s="8">
         <f t="shared" si="9"/>
-        <v>852.49137878417969</v>
+        <v>951.81846618652344</v>
       </c>
       <c r="AS24" s="8">
-        <v>5.820659393407368E-4</v>
+        <v>-7.3871824645266315E-4</v>
       </c>
       <c r="AT24" s="8">
         <f t="shared" si="10"/>
-        <v>-3.44465039340399E-7</v>
+        <v>1.2955534809827509E-6</v>
       </c>
       <c r="AU24" s="8">
         <f t="shared" si="11"/>
-        <v>1.0220606251372104E-6</v>
+        <v>-2.0414376612177878E-7</v>
       </c>
       <c r="AV24" s="8">
         <f t="shared" si="12"/>
@@ -13022,7 +14139,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> $C$33 * ( 1.68 * ($C$17*2.20462)^0.567 * ($C$62*3.28084*3.28084)^1.249 * ($C$61)^0.482 ) / (639.95 * ($C$63*3.28084)^0.747 * (COS($C$64/180*PI()))^0.882 ) * 0.453592</f>
-        <v>4.9045048395424793</v>
+        <v>5.2207724142141938</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -13032,56 +14149,56 @@
       </c>
       <c r="O25">
         <f xml:space="preserve"> 1/$C$9 - O22 * SQRT( (2*$C$30*PI()*$C$19^2) / O17^3 )</f>
-        <v>1.2892243965504608</v>
+        <v>1.2992656484970859</v>
       </c>
       <c r="R25" t="s">
         <v>49</v>
       </c>
       <c r="S25">
         <f xml:space="preserve"> 1/$C$9 - S22 * SQRT( (2*$C$30*PI()*$C$19^2) / S17^3 )</f>
-        <v>1.2206201784021593</v>
+        <v>1.2251980937431983</v>
       </c>
       <c r="V25" t="s">
         <v>49</v>
       </c>
       <c r="W25">
         <f xml:space="preserve"> 1/$C$9 - W22 * SQRT( (2*$C$30*PI()*$C$19^2) / W17^3 )</f>
-        <v>0.99091731408672867</v>
+        <v>0.68193899639205791</v>
       </c>
       <c r="AB25" s="8">
         <v>21</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" si="7"/>
-        <v>0.433197021484375</v>
+        <v>0.43375730514526367</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="0"/>
-        <v>3.2141082029202295E-7</v>
+        <v>1.0517530818487941E-7</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" si="8"/>
-        <v>0.4331974983215332</v>
+        <v>0.43375778198242188</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7834899140867222E-7</v>
+        <v>-3.9516676547668439E-7</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" si="2"/>
-        <v>0.4331972599029541</v>
+        <v>0.43375754356384277</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="3"/>
-        <v>7.153090819667085E-8</v>
+        <v>-1.4499573508519603E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="4"/>
-        <v>2.2990807879725367E-14</v>
+        <v>-1.5249971123078625E-14</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2757465331422571E-14</v>
+        <v>5.7297495641531118E-14</v>
       </c>
       <c r="AK25" s="8">
         <f t="shared" si="6"/>
@@ -13092,32 +14209,32 @@
       </c>
       <c r="AN25" s="8">
         <f t="shared" si="13"/>
-        <v>852.48947143554688</v>
+        <v>951.81846618652344</v>
       </c>
       <c r="AO25" s="8">
-        <v>-5.9179727941227611E-4</v>
+        <v>-7.3871824645266315E-4</v>
       </c>
       <c r="AP25" s="8">
         <f t="shared" si="14"/>
-        <v>852.49137878417969</v>
+        <v>951.82037353515625</v>
       </c>
       <c r="AQ25" s="8">
-        <v>5.820659393407368E-4</v>
+        <v>2.7634861748992989E-4</v>
       </c>
       <c r="AR25" s="8">
         <f t="shared" si="9"/>
-        <v>852.49042510986328</v>
+        <v>951.81941986083984</v>
       </c>
       <c r="AS25" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-2.3108885454803385E-4</v>
       </c>
       <c r="AT25" s="8">
         <f t="shared" si="10"/>
-        <v>2.9211850653338486E-9</v>
+        <v>1.7070955340647811E-7</v>
       </c>
       <c r="AU25" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8731499589357643E-9</v>
+        <v>-6.3861085471680655E-8</v>
       </c>
       <c r="AV25" s="8">
         <f t="shared" si="12"/>
@@ -13135,17 +14252,17 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="15" t="s">
         <v>88</v>
       </c>
       <c r="K26">
         <f xml:space="preserve"> $C$33 * (0.0268 * $C$17)</f>
-        <v>18.277394884508688</v>
+        <v>20.40701767180639</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -13173,35 +14290,35 @@
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="7"/>
-        <v>0.4331972599029541</v>
+        <v>0.43375730514526367</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="0"/>
-        <v>7.153090819667085E-8</v>
+        <v>1.0517530818487941E-7</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="8"/>
-        <v>0.4331974983215332</v>
+        <v>0.43375754356384277</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7834899140867222E-7</v>
+        <v>-1.4499573508519603E-7</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319737911224365</v>
+        <v>0.43375742435455322</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="3"/>
-        <v>-5.3409043188068495E-8</v>
+        <v>-1.991021503222612E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="4"/>
-        <v>-3.8203973651577564E-15</v>
+        <v>-2.094063002041601E-15</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="5"/>
-        <v>9.5254489846942308E-15</v>
+        <v>2.8868962643019464E-15</v>
       </c>
       <c r="AK26" s="8">
         <f t="shared" si="6"/>
@@ -13212,32 +14329,32 @@
       </c>
       <c r="AN26" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81941986083984</v>
       </c>
       <c r="AO26" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-2.3108885454803385E-4</v>
       </c>
       <c r="AP26" s="8">
         <f t="shared" si="14"/>
-        <v>852.49137878417969</v>
+        <v>951.82037353515625</v>
       </c>
       <c r="AQ26" s="8">
-        <v>5.820659393407368E-4</v>
+        <v>2.7634861748992989E-4</v>
       </c>
       <c r="AR26" s="8">
         <f t="shared" si="9"/>
-        <v>852.49090194702148</v>
+        <v>951.81989669799805</v>
       </c>
       <c r="AS26" s="8">
-        <v>2.8859043305828891E-4</v>
+        <v>2.276974566939316E-5</v>
       </c>
       <c r="AT26" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4245183145913155E-9</v>
+        <v>-5.2618344450901193E-9</v>
       </c>
       <c r="AU26" s="8">
         <f t="shared" si="11"/>
-        <v>1.6797866150282296E-7</v>
+        <v>6.2923877363341182E-9</v>
       </c>
       <c r="AV26" s="8">
         <f t="shared" si="12"/>
@@ -13249,7 +14366,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>30000</v>
+        <v>96000</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -13259,7 +14376,7 @@
       </c>
       <c r="G27" s="1">
         <f>$C$20</f>
-        <v>43.17</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -13269,7 +14386,7 @@
       </c>
       <c r="K27">
         <f xml:space="preserve"> $C$33 * (11.5 * ($C$17*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>5.3710910728097794</v>
+        <v>5.613175418363693</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -13279,56 +14396,56 @@
       </c>
       <c r="O27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * O25) + EXP($C$36 * O26) )</f>
-        <v>1.2897321294994277</v>
+        <v>1.2996420634689936</v>
       </c>
       <c r="R27" t="s">
         <v>51</v>
       </c>
       <c r="S27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * S25) + EXP($C$36 * S26) )</f>
-        <v>1.2244037277177158</v>
+        <v>1.2285194749329065</v>
       </c>
       <c r="V27" t="s">
         <v>51</v>
       </c>
       <c r="W27">
         <f xml:space="preserve"> 1/$C$36 * LN( EXP($C$36 * W25) + EXP($C$36 * W26) )</f>
-        <v>1.1502807930011643</v>
+        <v>1.1500000265820969</v>
       </c>
       <c r="AB27" s="8">
         <v>23</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="7"/>
-        <v>0.4331972599029541</v>
+        <v>0.43375730514526367</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="0"/>
-        <v>7.153090819667085E-8</v>
+        <v>1.0517530818487941E-7</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319737911224365</v>
+        <v>0.43375742435455322</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="1"/>
-        <v>-5.3409043188068495E-8</v>
+        <v>-1.991021503222612E-8</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319731950759888</v>
+        <v>0.43375736474990845</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="3"/>
-        <v>9.0609321157231193E-9</v>
+        <v>4.2632546159993012E-8</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="4"/>
-        <v>6.4813670334605699E-16</v>
+        <v>4.4838911810833626E-15</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="5"/>
-        <v>-4.8393571469281294E-16</v>
+        <v>-8.4882316141676685E-16</v>
       </c>
       <c r="AK27" s="8">
         <f t="shared" si="6"/>
@@ -13339,32 +14456,32 @@
       </c>
       <c r="AN27" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81941986083984</v>
       </c>
       <c r="AO27" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-2.3108885454803385E-4</v>
       </c>
       <c r="AP27" s="8">
         <f t="shared" si="14"/>
-        <v>852.49090194702148</v>
+        <v>951.81989669799805</v>
       </c>
       <c r="AQ27" s="8">
-        <v>2.8859043305828891E-4</v>
+        <v>2.276974566939316E-5</v>
       </c>
       <c r="AR27" s="8">
         <f t="shared" si="9"/>
-        <v>852.49066352844238</v>
+        <v>951.81965827941895</v>
       </c>
       <c r="AS27" s="8">
-        <v>1.418721412846935E-4</v>
+        <v>-1.0429939629830187E-4</v>
       </c>
       <c r="AT27" s="8">
         <f t="shared" si="10"/>
-        <v>-7.0029855615315184E-10</v>
+        <v>2.410242802062602E-8</v>
       </c>
       <c r="AU27" s="8">
         <f t="shared" si="11"/>
-        <v>4.0942942692256443E-8</v>
+        <v>-2.3748707271835801E-9</v>
       </c>
       <c r="AV27" s="8">
         <f t="shared" si="12"/>
@@ -13386,7 +14503,7 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> $C$33 * (8 * ($C$17/1000))</f>
-        <v>5.4559387714951306</v>
+        <v>6.0916470662108626</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -13396,35 +14513,35 @@
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319731950759888</v>
+        <v>0.43375736474990845</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="0"/>
-        <v>9.0609321157231193E-9</v>
+        <v>4.2632546159993012E-8</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319737911224365</v>
+        <v>0.43375742435455322</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="1"/>
-        <v>-5.3409043188068495E-8</v>
+        <v>-1.991021503222612E-8</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319734930992126</v>
+        <v>0.43375739455223083</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="3"/>
-        <v>-2.217405564719499E-8</v>
+        <v>1.1361165452861144E-8</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.0091761294950069E-16</v>
+        <v>4.8435541060042066E-16</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="5"/>
-        <v>1.1842950957156714E-15</v>
+        <v>-2.2620324718316399E-16</v>
       </c>
       <c r="AK28" s="8">
         <f t="shared" si="6"/>
@@ -13435,32 +14552,32 @@
       </c>
       <c r="AN28" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81965827941895</v>
       </c>
       <c r="AO28" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-1.0429939629830187E-4</v>
       </c>
       <c r="AP28" s="8">
         <f t="shared" si="14"/>
-        <v>852.49066352844238</v>
+        <v>951.81989669799805</v>
       </c>
       <c r="AQ28" s="8">
-        <v>1.418721412846935E-4</v>
+        <v>2.276974566939316E-5</v>
       </c>
       <c r="AR28" s="8">
         <f t="shared" si="9"/>
-        <v>852.49054431915283</v>
+        <v>951.8197774887085</v>
       </c>
       <c r="AS28" s="8">
-        <v>6.8472925818241492E-5</v>
+        <v>-4.0860713284018857E-5</v>
       </c>
       <c r="AT28" s="8">
         <f t="shared" si="10"/>
-        <v>-3.3799088849919159E-10</v>
+        <v>4.2617477278411708E-9</v>
       </c>
       <c r="AU28" s="8">
         <f t="shared" si="11"/>
-        <v>9.7144006058618936E-9</v>
+        <v>-9.3038804934710389E-10</v>
       </c>
       <c r="AV28" s="8">
         <f t="shared" si="12"/>
@@ -13487,7 +14604,7 @@
       </c>
       <c r="K29">
         <f xml:space="preserve"> $C$33 * (13 * ($C$17*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>10.713440438501381</v>
+        <v>12.363851461833493</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -13497,35 +14614,35 @@
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319731950759888</v>
+        <v>0.43375739455223083</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="0"/>
-        <v>9.0609321157231193E-9</v>
+        <v>1.1361165452861144E-8</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319734930992126</v>
+        <v>0.43375742435455322</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="1"/>
-        <v>-2.217405564719499E-8</v>
+        <v>-1.991021503222612E-8</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319733440876007</v>
+        <v>0.43375740945339203</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="3"/>
-        <v>-6.556561793491511E-9</v>
+        <v>-4.2745248451936391E-9</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="4"/>
-        <v>-5.94085613233704E-17</v>
+        <v>-4.8563583998610601E-17</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="5"/>
-        <v>1.4538556606315336E-16</v>
+        <v>8.5106708828398419E-17</v>
       </c>
       <c r="AK29" s="8">
         <f t="shared" si="6"/>
@@ -13536,32 +14653,32 @@
       </c>
       <c r="AN29" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.8197774887085</v>
       </c>
       <c r="AO29" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-4.0860713284018857E-5</v>
       </c>
       <c r="AP29" s="8">
         <f t="shared" si="14"/>
-        <v>852.49054431915283</v>
+        <v>951.81989669799805</v>
       </c>
       <c r="AQ29" s="8">
-        <v>6.8472925818241492E-5</v>
+        <v>2.276974566939316E-5</v>
       </c>
       <c r="AR29" s="8">
         <f t="shared" si="9"/>
-        <v>852.49048471450806</v>
+        <v>951.81983709335327</v>
       </c>
       <c r="AS29" s="8">
-        <v>3.1768400788223516E-5</v>
+        <v>-9.1413727432154701E-6</v>
       </c>
       <c r="AT29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5681278228291489E-10</v>
+        <v>3.7352301068287227E-10</v>
       </c>
       <c r="AU29" s="8">
         <f t="shared" si="11"/>
-        <v>2.1752753505361935E-9</v>
+        <v>-2.0814673243213911E-10</v>
       </c>
       <c r="AV29" s="8">
         <f t="shared" si="12"/>
@@ -13583,7 +14700,7 @@
       </c>
       <c r="G30">
         <f>SQRT($G$27^2-$G$28^2)</f>
-        <v>43.143091266157555</v>
+        <v>39.970957256488113</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -13593,7 +14710,7 @@
       </c>
       <c r="K30" s="3">
         <f>$C$17 - $C$26 - SUM(K17:K29)</f>
-        <v>-7.6630612966255285E-10</v>
+        <v>-4.999947122996673E-10</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>12</v>
@@ -13603,35 +14720,35 @@
       </c>
       <c r="AC30" s="8">
         <f>IF(AI29&gt;0, AG29, AC29)</f>
-        <v>0.43319731950759888</v>
+        <v>0.43375739455223083</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="0"/>
-        <v>9.0609321157231193E-9</v>
+        <v>1.1361165452861144E-8</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319733440876007</v>
+        <v>0.43375740945339203</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="1"/>
-        <v>-6.556561793491511E-9</v>
+        <v>-4.2745248451936391E-9</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319732695817947</v>
+        <v>0.43375740200281143</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="3"/>
-        <v>1.2521851333602285E-9</v>
+        <v>3.5433203038337524E-9</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="4"/>
-        <v>1.1345964489694732E-17</v>
+        <v>4.025624822433748E-17</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="5"/>
-        <v>-8.2100292037677468E-18</v>
+        <v>-1.5146010673216449E-17</v>
       </c>
       <c r="AK30" s="8">
         <f t="shared" si="6"/>
@@ -13642,32 +14759,32 @@
       </c>
       <c r="AN30" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81983709335327</v>
       </c>
       <c r="AO30" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-9.1413727432154701E-6</v>
       </c>
       <c r="AP30" s="8">
         <f t="shared" si="14"/>
-        <v>852.49048471450806</v>
+        <v>951.81989669799805</v>
       </c>
       <c r="AQ30" s="8">
-        <v>3.1768400788223516E-5</v>
+        <v>2.276974566939316E-5</v>
       </c>
       <c r="AR30" s="8">
         <f t="shared" si="9"/>
-        <v>852.49045491218567</v>
+        <v>951.81986689567566</v>
       </c>
       <c r="AS30" s="8">
-        <v>1.3466039149534481E-5</v>
+        <v>6.6717337858790415E-6</v>
       </c>
       <c r="AT30" s="8">
         <f t="shared" si="10"/>
-        <v>-6.6470046114248912E-11</v>
+        <v>-6.0988805380224428E-11</v>
       </c>
       <c r="AU30" s="8">
         <f t="shared" si="11"/>
-        <v>4.2779452873231996E-10</v>
+        <v>1.5191368147836335E-10</v>
       </c>
       <c r="AV30" s="8">
         <f t="shared" si="12"/>
@@ -13689,7 +14806,7 @@
       </c>
       <c r="G31">
         <f>$G$30 * ($G$29/$G$28)</f>
-        <v>8628.6182532315106</v>
+        <v>7994.1914512976227</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -13706,35 +14823,35 @@
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319732695817947</v>
+        <v>0.43375740200281143</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="0"/>
-        <v>1.2521851333602285E-9</v>
+        <v>3.5433203038337524E-9</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319733440876007</v>
+        <v>0.43375740945339203</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="1"/>
-        <v>-6.556561793491511E-9</v>
+        <v>-4.2745248451936391E-9</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319733068346977</v>
+        <v>0.43375740572810173</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="3"/>
-        <v>-2.6521883023100656E-9</v>
+        <v>-3.6560227067994333E-10</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3210307630245676E-18</v>
+        <v>-1.2954459488279666E-18</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="5"/>
-        <v>1.738923649207129E-17</v>
+        <v>1.5627759894806277E-18</v>
       </c>
       <c r="AK31" s="8">
         <f t="shared" si="6"/>
@@ -13745,32 +14862,32 @@
       </c>
       <c r="AN31" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81983709335327</v>
       </c>
       <c r="AO31" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-9.1413727432154701E-6</v>
       </c>
       <c r="AP31" s="8">
         <f t="shared" si="14"/>
-        <v>852.49045491218567</v>
+        <v>951.81986689567566</v>
       </c>
       <c r="AQ31" s="8">
-        <v>1.3466039149534481E-5</v>
+        <v>6.6717337858790415E-6</v>
       </c>
       <c r="AR31" s="8">
         <f t="shared" si="9"/>
-        <v>852.49044001102448</v>
+        <v>951.81985199451447</v>
       </c>
       <c r="AS31" s="8">
-        <v>4.2405709450576978E-6</v>
+        <v>-1.136323703576636E-6</v>
       </c>
       <c r="AT31" s="8">
         <f t="shared" si="10"/>
-        <v>-2.0931986246191296E-11</v>
+        <v>1.0387558531345116E-11</v>
       </c>
       <c r="AU31" s="8">
         <f t="shared" si="11"/>
-        <v>5.7103694362525392E-11</v>
+        <v>-7.5812492448474437E-12</v>
       </c>
       <c r="AV31" s="8">
         <f t="shared" si="12"/>
@@ -13792,7 +14909,7 @@
       </c>
       <c r="G32">
         <f>ATAN(G28/G30)/PI()*180</f>
-        <v>2.0230927732322703</v>
+        <v>2.1834976813918927</v>
       </c>
       <c r="H32" t="s">
         <v>62</v>
@@ -13802,35 +14919,35 @@
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319732695817947</v>
+        <v>0.43375740200281143</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="0"/>
-        <v>1.2521851333602285E-9</v>
+        <v>3.5433203038337524E-9</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319733068346977</v>
+        <v>0.43375740572810173</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6521883023100656E-9</v>
+        <v>-3.6560227067994333E-10</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319732882082462</v>
+        <v>0.43375740386545658</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="3"/>
-        <v>-7.0000155671934294E-10</v>
+        <v>1.5888590443324802E-9</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="4"/>
-        <v>-8.7653154265297801E-19</v>
+        <v>5.6298365117131691E-18</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="5"/>
-        <v>1.8565359403298773E-18</v>
+        <v>-5.8089047439831949E-19</v>
       </c>
       <c r="AK32" s="8">
         <f t="shared" si="6"/>
@@ -13841,32 +14958,32 @@
       </c>
       <c r="AN32" s="8">
         <f t="shared" si="13"/>
-        <v>852.49042510986328</v>
+        <v>951.81985199451447</v>
       </c>
       <c r="AO32" s="8">
-        <v>-4.9361245260115538E-6</v>
+        <v>-1.136323703576636E-6</v>
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="14"/>
-        <v>852.49044001102448</v>
+        <v>951.81986689567566</v>
       </c>
       <c r="AQ32" s="8">
-        <v>4.2405709450576978E-6</v>
+        <v>6.6717337858790415E-6</v>
       </c>
       <c r="AR32" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043256044388</v>
+        <v>951.81985944509506</v>
       </c>
       <c r="AS32" s="8">
-        <v>-3.0279250040621264E-7</v>
+        <v>2.9049447221041191E-6</v>
       </c>
       <c r="AT32" s="8">
         <f t="shared" si="10"/>
-        <v>1.4946214875474696E-12</v>
+        <v>-3.3009575453067544E-12</v>
       </c>
       <c r="AU32" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2840130796039565E-12</v>
+        <v>1.9381017848573055E-11</v>
       </c>
       <c r="AV32" s="8">
         <f t="shared" si="12"/>
@@ -13885,7 +15002,7 @@
       </c>
       <c r="G33">
         <f>1/1000 * (W22 + W17 * (W27 * W24 + $G$27 * SIN(W16/180*PI())))</f>
-        <v>12.54391850712128</v>
+        <v>6.7711044910215019</v>
       </c>
       <c r="H33" t="s">
         <v>162</v>
@@ -13900,35 +15017,35 @@
       </c>
       <c r="AC33" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319732695817947</v>
+        <v>0.43375740386545658</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="0"/>
-        <v>1.2521851333602285E-9</v>
+        <v>1.5888590443324802E-9</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319732882082462</v>
+        <v>0.43375740572810173</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="1"/>
-        <v>-7.0000155671934294E-10</v>
+        <v>-3.6560227067994333E-10</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319732788950205</v>
+        <v>0.43375740479677916</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="3"/>
-        <v>2.760918160760184E-10</v>
+        <v>6.116283590706928E-10</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="4"/>
-        <v>3.4571806753281679E-19</v>
+        <v>9.7179125007970397E-19</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.932647010506834E-19</v>
+        <v>-2.23612716888493E-19</v>
       </c>
       <c r="AK33" s="8">
         <f t="shared" si="6"/>
@@ -13939,32 +15056,32 @@
       </c>
       <c r="AN33" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043256044388</v>
+        <v>951.81985199451447</v>
       </c>
       <c r="AO33" s="8">
-        <v>-3.0279250040621264E-7</v>
+        <v>-1.136323703576636E-6</v>
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="14"/>
-        <v>852.49044001102448</v>
+        <v>951.81985944509506</v>
       </c>
       <c r="AQ33" s="8">
-        <v>4.2405709450576978E-6</v>
+        <v>2.9049447221041191E-6</v>
       </c>
       <c r="AR33" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043628573418</v>
+        <v>951.81985571980476</v>
       </c>
       <c r="AS33" s="8">
-        <v>2.0138732566010731E-6</v>
+        <v>8.817039542918792E-7</v>
       </c>
       <c r="AT33" s="8">
         <f t="shared" si="10"/>
-        <v>-6.0978571886744119E-13</v>
+        <v>-1.0019011027991132E-12</v>
       </c>
       <c r="AU33" s="8">
         <f t="shared" si="11"/>
-        <v>8.5399724189712361E-12</v>
+        <v>2.561301248478526E-12</v>
       </c>
       <c r="AV33" s="8">
         <f t="shared" si="12"/>
@@ -13977,7 +15094,7 @@
       </c>
       <c r="G34">
         <f>$C$6*G33</f>
-        <v>12.54391850712128</v>
+        <v>6.7711044910215019</v>
       </c>
       <c r="H34" t="s">
         <v>162</v>
@@ -13987,7 +15104,7 @@
       </c>
       <c r="K34">
         <f>ROUND($C$26/$C$17 * 100, 2)</f>
-        <v>46.92</v>
+        <v>42.02</v>
       </c>
       <c r="L34" t="s">
         <v>82</v>
@@ -13997,35 +15114,35 @@
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="7"/>
-        <v>0.43319732788950205</v>
+        <v>0.43375740479677916</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="0"/>
-        <v>2.760918160760184E-10</v>
+        <v>6.116283590706928E-10</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" si="8"/>
-        <v>0.43319732882082462</v>
+        <v>0.43375740572810173</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="1"/>
-        <v>-7.0000155671934294E-10</v>
+        <v>-3.6560227067994333E-10</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" si="2"/>
-        <v>0.43319732835516334</v>
+        <v>0.43375740526244044</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="3"/>
-        <v>-2.1195489807723789E-10</v>
+        <v>1.2301304419537473E-10</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="4"/>
-        <v>-5.8519012736351989E-20</v>
+        <v>7.5238266365507659E-20</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="5"/>
-        <v>1.4836875860835619E-19</v>
+        <v>-4.4973848281081225E-20</v>
       </c>
       <c r="AK34" s="8">
         <f t="shared" si="6"/>
@@ -14036,32 +15153,32 @@
       </c>
       <c r="AN34" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043256044388</v>
+        <v>951.81985199451447</v>
       </c>
       <c r="AO34" s="8">
-        <v>-3.0279250040621264E-7</v>
+        <v>-1.136323703576636E-6</v>
       </c>
       <c r="AP34" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043628573418</v>
+        <v>951.81985571980476</v>
       </c>
       <c r="AQ34" s="8">
-        <v>2.0138732566010731E-6</v>
+        <v>8.817039542918792E-7</v>
       </c>
       <c r="AR34" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043442308903</v>
+        <v>951.81985385715961</v>
       </c>
       <c r="AS34" s="8">
-        <v>8.5554046336255851E-7</v>
+        <v>-1.2991631592740305E-7</v>
       </c>
       <c r="AT34" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5905123610023885E-13</v>
+        <v>1.4762698926965894E-13</v>
       </c>
       <c r="AU34" s="8">
         <f t="shared" si="11"/>
-        <v>1.7229500591059468E-12</v>
+        <v>-1.1454772948022431E-13</v>
       </c>
       <c r="AV34" s="8">
         <f t="shared" si="12"/>
@@ -14089,7 +15206,7 @@
       </c>
       <c r="K35">
         <f>ROUND(K17/$C$17 * 100, 2)</f>
-        <v>6.96</v>
+        <v>12.76</v>
       </c>
       <c r="L35" t="s">
         <v>82</v>
@@ -14099,32 +15216,32 @@
       </c>
       <c r="AN35" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043256044388</v>
+        <v>951.81985385715961</v>
       </c>
       <c r="AO35">
-        <v>-3.0279250040621264E-7</v>
+        <v>-1.2991631592740305E-7</v>
       </c>
       <c r="AP35" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043442308903</v>
+        <v>951.81985571980476</v>
       </c>
       <c r="AQ35">
-        <v>8.5554046336255851E-7</v>
+        <v>8.817039542918792E-7</v>
       </c>
       <c r="AR35" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043349176645</v>
+        <v>951.81985478848219</v>
       </c>
       <c r="AS35">
-        <v>2.7637389621304465E-7</v>
+        <v>3.758939328690758E-7</v>
       </c>
       <c r="AT35" s="8">
         <f t="shared" si="10"/>
-        <v>-8.3683943081354891E-14</v>
+        <v>-4.8834754937812884E-14</v>
       </c>
       <c r="AU35" s="8">
         <f t="shared" si="11"/>
-        <v>2.3644905122742387E-13</v>
+        <v>3.3142716700499032E-13</v>
       </c>
       <c r="AV35" s="8">
         <f t="shared" si="12"/>
@@ -14143,7 +15260,7 @@
       </c>
       <c r="K36">
         <f>ROUND(SUM(K18:K20)/$C$17 * 100, 2)</f>
-        <v>12.42</v>
+        <v>12.36</v>
       </c>
       <c r="L36" t="s">
         <v>82</v>
@@ -14153,32 +15270,32 @@
       </c>
       <c r="AN36" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043256044388</v>
+        <v>951.81985385715961</v>
       </c>
       <c r="AO36">
-        <v>-3.0279250040621264E-7</v>
+        <v>-1.2991631592740305E-7</v>
       </c>
       <c r="AP36" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043349176645</v>
+        <v>951.81985478848219</v>
       </c>
       <c r="AQ36">
-        <v>2.7637389621304465E-7</v>
+        <v>3.758939328690758E-7</v>
       </c>
       <c r="AR36" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043302610517</v>
+        <v>951.8198543228209</v>
       </c>
       <c r="AS36">
-        <v>-1.3209444205131149E-8</v>
+        <v>1.2298869478399865E-7</v>
       </c>
       <c r="AT36" s="8">
         <f t="shared" si="10"/>
-        <v>3.9997206398480166E-15</v>
+        <v>-1.5978238127056916E-14</v>
       </c>
       <c r="AU36" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6507455617809202E-15</v>
+        <v>4.6230704180791642E-14</v>
       </c>
       <c r="AV36" s="8">
         <f t="shared" si="12"/>
@@ -14196,7 +15313,7 @@
       </c>
       <c r="K37">
         <f>ROUND(SUM(K21:K25)/$C$17 * 100, 2)</f>
-        <v>29.03</v>
+        <v>28.18</v>
       </c>
       <c r="L37" t="s">
         <v>82</v>
@@ -14209,32 +15326,32 @@
       </c>
       <c r="AN37" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043302610517</v>
+        <v>951.81985385715961</v>
       </c>
       <c r="AO37">
-        <v>-1.3209444205131149E-8</v>
+        <v>-1.2991631592740305E-7</v>
       </c>
       <c r="AP37" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043349176645</v>
+        <v>951.8198543228209</v>
       </c>
       <c r="AQ37">
-        <v>2.7637389621304465E-7</v>
+        <v>1.2298869478399865E-7</v>
       </c>
       <c r="AR37" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043325893581</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AS37">
-        <v>1.3158233969079447E-7</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AT37" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7381295745261634E-15</v>
+        <v>4.5000550854594122E-16</v>
       </c>
       <c r="AU37" s="8">
         <f t="shared" si="11"/>
-        <v>3.6365923893173216E-14</v>
+        <v>-4.2600954119266941E-16</v>
       </c>
       <c r="AV37" s="8">
         <f t="shared" si="12"/>
@@ -14301,32 +15418,32 @@
       </c>
       <c r="AN38" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043302610517</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO38">
-        <v>-1.3209444205131149E-8</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP38" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043325893581</v>
+        <v>951.8198543228209</v>
       </c>
       <c r="AQ38">
-        <v>1.3158233969079447E-7</v>
+        <v>1.2298869478399865E-7</v>
       </c>
       <c r="AR38" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043314252049</v>
+        <v>951.81985420640558</v>
       </c>
       <c r="AS38">
-        <v>5.9186504586250521E-8</v>
+        <v>5.9762442106148228E-8</v>
       </c>
       <c r="AT38" s="8">
         <f t="shared" si="10"/>
-        <v>-7.8182083002881512E-16</v>
+        <v>-2.0700577875801676E-16</v>
       </c>
       <c r="AU38" s="8">
         <f t="shared" si="11"/>
-        <v>7.7878987515787809E-15</v>
+        <v>7.3501047517394541E-15</v>
       </c>
       <c r="AV38" s="8">
         <f t="shared" si="12"/>
@@ -14354,7 +15471,7 @@
       </c>
       <c r="K39" s="3">
         <f>SUM(K34:K38)</f>
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>82</v>
@@ -14367,14 +15484,14 @@
       </c>
       <c r="AD39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC39^2)) - AC39</f>
-        <v>0.88462660030093621</v>
+        <v>0.9734024433249342</v>
       </c>
       <c r="AE39" s="9">
         <v>1</v>
       </c>
       <c r="AF39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE39^2)) - AE39</f>
-        <v>-0.57074567476273019</v>
+        <v>-0.56754602802508081</v>
       </c>
       <c r="AG39" s="8">
         <f xml:space="preserve"> (AC39 + AE39)/2</f>
@@ -14382,15 +15499,15 @@
       </c>
       <c r="AH39" s="8">
         <f xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG39^2)) - AG39</f>
-        <v>-5.3785715069967044E-2</v>
+        <v>-4.7398854443475691E-2</v>
       </c>
       <c r="AI39" s="8">
         <f>AD39*AH39</f>
-        <v>-4.7580274267099779E-2</v>
+        <v>-4.613816072608215E-2</v>
       </c>
       <c r="AJ39" s="8">
         <f>AF39*AH39</f>
-        <v>3.0697964240204285E-2</v>
+        <v>2.6901031572333579E-2</v>
       </c>
       <c r="AK39" s="8">
         <f>AE39-AC39</f>
@@ -14401,32 +15518,32 @@
       </c>
       <c r="AN39" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043302610517</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO39">
-        <v>-1.3209444205131149E-8</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP39" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043314252049</v>
+        <v>951.81985420640558</v>
       </c>
       <c r="AQ39">
-        <v>5.9186504586250521E-8</v>
+        <v>5.9762442106148228E-8</v>
       </c>
       <c r="AR39" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043308431283</v>
+        <v>951.81985414819792</v>
       </c>
       <c r="AS39">
-        <v>2.2988388082012534E-8</v>
+        <v>2.8149429454060737E-8</v>
       </c>
       <c r="AT39" s="8">
         <f t="shared" si="10"/>
-        <v>-3.0366382973524644E-16</v>
+        <v>-9.750429133036079E-17</v>
       </c>
       <c r="AU39" s="8">
         <f t="shared" si="11"/>
-        <v>1.3606023366465417E-15</v>
+        <v>1.6822786480694085E-15</v>
       </c>
       <c r="AV39" s="8">
         <f t="shared" si="12"/>
@@ -14445,7 +15562,7 @@
       </c>
       <c r="G40">
         <f xml:space="preserve"> 1/1000 * IF( $G$38&gt;=2*SQRT(($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18)), ($C$17*$C$31)/$C$9 * ( ($G$38/2) - SQRT( ($G$38/2)^2 - ($C$17*$C$31)/(2*$C$30*$C$5*PI()*$C$18*$C$18 ) ) ), 1/$C$9 * SQRT(($C$17*$C$31)^3/(2*$C$30*$C$5*PI()*$C$18*$C$18)) )</f>
-        <v>104.96100923062279</v>
+        <v>123.82999814312352</v>
       </c>
       <c r="H40" t="s">
         <v>162</v>
@@ -14459,7 +15576,7 @@
       </c>
       <c r="AD40" s="8">
         <f t="shared" ref="AD40:AD69" si="15" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AC40^2)) - AC40</f>
-        <v>0.88462660030093621</v>
+        <v>0.9734024433249342</v>
       </c>
       <c r="AE40" s="8">
         <f>IF(AJ39&gt;0, AG39, AE39)</f>
@@ -14467,7 +15584,7 @@
       </c>
       <c r="AF40" s="8">
         <f t="shared" ref="AF40:AF69" si="16" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AE40^2)) - AE40</f>
-        <v>-5.3785715069967044E-2</v>
+        <v>-4.7398854443475691E-2</v>
       </c>
       <c r="AG40" s="8">
         <f t="shared" ref="AG40:AG69" si="17" xml:space="preserve"> (AC40 + AE40)/2</f>
@@ -14475,15 +15592,15 @@
       </c>
       <c r="AH40" s="8">
         <f t="shared" ref="AH40:AH69" si="18" xml:space="preserve"> $O$19 * TAN($O$16/180*PI()) + $O$20 / (2 * SQRT($O$19^2 + AG40^2)) - AG40</f>
-        <v>0.22967870502306154</v>
+        <v>0.24235439336109821</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" ref="AI40:AI69" si="19">AD40*AH40</f>
-        <v>0.20317989198607248</v>
+        <v>0.23590835864822521</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" ref="AJ40:AJ69" si="20">AF40*AH40</f>
-        <v>-1.2353433386009397E-2</v>
+        <v>-1.1487320614659546E-2</v>
       </c>
       <c r="AK40" s="8">
         <f t="shared" ref="AK40:AK69" si="21">AE40-AC40</f>
@@ -14494,32 +15611,32 @@
       </c>
       <c r="AN40" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043302610517</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO40">
-        <v>-1.3209444205131149E-8</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP40" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043308431283</v>
+        <v>951.81985414819792</v>
       </c>
       <c r="AQ40">
-        <v>2.2988388082012534E-8</v>
+        <v>2.8149429454060737E-8</v>
       </c>
       <c r="AR40" s="8">
         <f t="shared" si="9"/>
-        <v>852.490433055209</v>
+        <v>951.81985411909409</v>
       </c>
       <c r="AS40">
-        <v>4.8895572035689838E-9</v>
+        <v>1.2342866284598131E-8</v>
       </c>
       <c r="AT40" s="8">
         <f t="shared" si="10"/>
-        <v>-6.4588333068341579E-17</v>
+        <v>-4.2753350721697626E-17</v>
       </c>
       <c r="AU40" s="8">
         <f t="shared" si="11"/>
-        <v>1.1240303854484376E-16</v>
+        <v>3.4744464373919984E-16</v>
       </c>
       <c r="AV40" s="8">
         <f t="shared" si="12"/>
@@ -14538,11 +15655,16 @@
       </c>
       <c r="G41">
         <f xml:space="preserve"> $C$17 * $C$31 / $C$5</f>
-        <v>2090.0188263079185</v>
+        <v>2333.5410430412794</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
       </c>
+      <c r="J41" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
       <c r="AB41" s="8">
         <v>2</v>
       </c>
@@ -14552,7 +15674,7 @@
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="15"/>
-        <v>0.22967870502306154</v>
+        <v>0.24235439336109821</v>
       </c>
       <c r="AE41" s="8">
         <f t="shared" ref="AE41:AE69" si="23">IF(AJ40&gt;0, AG40, AE40)</f>
@@ -14560,7 +15682,7 @@
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="16"/>
-        <v>-5.3785715069967044E-2</v>
+        <v>-4.7398854443475691E-2</v>
       </c>
       <c r="AG41" s="8">
         <f t="shared" si="17"/>
@@ -14568,15 +15690,15 @@
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="18"/>
-        <v>8.2452040252752934E-2</v>
+        <v>9.0950764969302433E-2</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="19"/>
-        <v>1.8937477831761636E-2</v>
+        <v>2.2042317469863112E-2</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="20"/>
-        <v>-4.4347419439720228E-3</v>
+        <v>-4.3109620703027339E-3</v>
       </c>
       <c r="AK41" s="8">
         <f t="shared" si="21"/>
@@ -14587,32 +15709,32 @@
       </c>
       <c r="AN41" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043302610517</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO41">
-        <v>-1.3209444205131149E-8</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP41" s="8">
         <f t="shared" si="14"/>
-        <v>852.490433055209</v>
+        <v>951.81985411909409</v>
       </c>
       <c r="AQ41">
-        <v>4.8895572035689838E-9</v>
+        <v>1.2342866284598131E-8</v>
       </c>
       <c r="AR41" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043304065708</v>
+        <v>951.81985410454217</v>
       </c>
       <c r="AS41">
-        <v>-4.1599150790716521E-9</v>
+        <v>4.439471013029106E-9</v>
       </c>
       <c r="AT41" s="8">
         <f t="shared" si="10"/>
-        <v>5.4950166135080721E-17</v>
+        <v>-1.537748662769568E-17</v>
       </c>
       <c r="AU41" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0340142741110036E-17</v>
+        <v>5.4795797088167661E-17</v>
       </c>
       <c r="AV41" s="8">
         <f t="shared" si="12"/>
@@ -14630,6 +15752,16 @@
       <c r="H42" t="s">
         <v>22</v>
       </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42">
+        <f>C26</f>
+        <v>400</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
       <c r="AB42" s="8">
         <v>3</v>
       </c>
@@ -14639,7 +15771,7 @@
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="15"/>
-        <v>8.2452040252752934E-2</v>
+        <v>9.0950764969302433E-2</v>
       </c>
       <c r="AE42" s="8">
         <f t="shared" si="23"/>
@@ -14647,7 +15779,7 @@
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="16"/>
-        <v>-5.3785715069967044E-2</v>
+        <v>-4.7398854443475691E-2</v>
       </c>
       <c r="AG42" s="8">
         <f t="shared" si="17"/>
@@ -14655,15 +15787,15 @@
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="18"/>
-        <v>1.353870427190873E-2</v>
+        <v>2.0832197733063329E-2</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="19"/>
-        <v>1.1162937895975366E-3</v>
+        <v>1.8947043198138777E-3</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="20"/>
-        <v>-7.2818889038542864E-4</v>
+        <v>-9.8742230808717291E-4</v>
       </c>
       <c r="AK42" s="8">
         <f t="shared" si="21"/>
@@ -14674,32 +15806,32 @@
       </c>
       <c r="AN42" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043304065708</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO42">
-        <v>-4.1599150790716521E-9</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP42" s="8">
         <f t="shared" si="14"/>
-        <v>852.490433055209</v>
+        <v>951.81985410454217</v>
       </c>
       <c r="AQ42">
-        <v>4.8895572035689838E-9</v>
+        <v>4.439471013029106E-9</v>
       </c>
       <c r="AR42" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043304793304</v>
+        <v>951.81985409726622</v>
       </c>
       <c r="AS42">
-        <v>3.6487790566752665E-10</v>
+        <v>4.8783022066345438E-10</v>
       </c>
       <c r="AT42" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5178611018064279E-18</v>
+        <v>-1.6897514755298889E-18</v>
       </c>
       <c r="AU42" s="8">
         <f t="shared" si="11"/>
-        <v>1.7840913920798191E-18</v>
+        <v>2.1657081239149981E-18</v>
       </c>
       <c r="AV42" s="8">
         <f t="shared" si="12"/>
@@ -14712,6 +15844,16 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
+      <c r="J43" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43">
+        <f>ROUND(K17, 2)</f>
+        <v>121.43</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
       <c r="AB43" s="8">
         <v>4</v>
       </c>
@@ -14721,7 +15863,7 @@
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="15"/>
-        <v>1.353870427190873E-2</v>
+        <v>2.0832197733063329E-2</v>
       </c>
       <c r="AE43" s="8">
         <f t="shared" si="23"/>
@@ -14729,7 +15871,7 @@
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="16"/>
-        <v>-5.3785715069967044E-2</v>
+        <v>-4.7398854443475691E-2</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="17"/>
@@ -14737,15 +15879,15 @@
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="18"/>
-        <v>-2.0282895651084432E-2</v>
+        <v>-1.3472672146910059E-2</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="19"/>
-        <v>-2.746041259980158E-4</v>
+        <v>-2.8066537015716516E-4</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="20"/>
-        <v>1.090930046283101E-3</v>
+        <v>6.3858922605605902E-4</v>
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="21"/>
@@ -14756,32 +15898,32 @@
       </c>
       <c r="AN43" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043304065708</v>
+        <v>951.81985408999026</v>
       </c>
       <c r="AO43">
-        <v>-4.1599150790716521E-9</v>
+        <v>-3.4638105717021972E-9</v>
       </c>
       <c r="AP43" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043304793304</v>
+        <v>951.81985409726622</v>
       </c>
       <c r="AQ43">
-        <v>3.6487790566752665E-10</v>
+        <v>4.8783022066345438E-10</v>
       </c>
       <c r="AR43" s="8">
         <f t="shared" si="9"/>
-        <v>852.49043304429506</v>
+        <v>951.81985409362824</v>
       </c>
       <c r="AS43">
-        <v>-1.8975470084114932E-9</v>
+        <v>-1.4880470189382322E-9</v>
       </c>
       <c r="AT43" s="8">
         <f t="shared" si="10"/>
-        <v>7.8936344135382735E-18</v>
+        <v>5.1543129953881884E-18</v>
       </c>
       <c r="AU43" s="8">
         <f t="shared" si="11"/>
-        <v>-6.9237297833486619E-19</v>
+        <v>-7.259143056062333E-19</v>
       </c>
       <c r="AV43" s="8">
         <f t="shared" si="12"/>
@@ -14795,8 +15937,21 @@
       <c r="C44" s="1">
         <v>4</v>
       </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
       <c r="G44" s="1">
         <v>1</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44">
+        <f>ROUND(SUM(K18:K20), 2)</f>
+        <v>117.66</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
       </c>
       <c r="AB44" s="8">
         <v>5</v>
@@ -14807,7 +15962,7 @@
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="15"/>
-        <v>1.353870427190873E-2</v>
+        <v>2.0832197733063329E-2</v>
       </c>
       <c r="AE44" s="8">
         <f t="shared" si="23"/>
@@ -14815,7 +15970,7 @@
       </c>
       <c r="AF44" s="8">
         <f t="shared" si="16"/>
-        <v>-2.0282895651084432E-2</v>
+        <v>-1.3472672146910059E-2</v>
       </c>
       <c r="AG44" s="8">
         <f t="shared" si="17"/>
@@ -14823,15 +15978,15 @@
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="18"/>
-        <v>-3.4160146250438728E-3</v>
+        <v>3.6275903568102064E-3</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="19"/>
-        <v>-4.6248411796984182E-5</v>
+        <v>7.5570679607623971E-5</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="20"/>
-        <v>6.9286668182343182E-5</v>
+        <v>-4.887333556059639E-5</v>
       </c>
       <c r="AK44" s="8">
         <f t="shared" si="21"/>
@@ -14842,32 +15997,32 @@
       </c>
       <c r="AN44" s="8">
         <f t="shared" si="13"/>
-        <v>852.49043304429506</v>
+        <v>951.81985409362824</v>
       </c>
       <c r="AO44">
-        <v>-1.8975470084114932E-9</v>
+        <v>-1.4880470189382322E-9</v>
       </c>
       <c r="AP44" s="8">
         <f t="shared" si="14"/>
-        <v>852.49043304793304</v>
+        <v>951.81985409726622</v>
       </c>
       <c r="AQ44">
-        <v>3.6487790566752665E-10</v>
+        <v>4.8783022066345438E-10</v>
       </c>
       <c r="AR44" s="11">
         <f t="shared" si="9"/>
-        <v>852.49043304611405</v>
+        <v>951.81985409544723</v>
       </c>
       <c r="AS44">
-        <v>-7.6630612966255285E-10</v>
+        <v>-4.999947122996673E-10</v>
       </c>
       <c r="AT44" s="8">
         <f t="shared" si="10"/>
-        <v>1.4541019038685669E-18</v>
+        <v>7.4401564112239899E-19</v>
       </c>
       <c r="AU44" s="8">
         <f t="shared" si="11"/>
-        <v>-2.796081756914604E-19</v>
+        <v>-2.4391253083170709E-19</v>
       </c>
       <c r="AV44" s="8">
         <f t="shared" si="12"/>
@@ -14887,40 +16042,50 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
+      <c r="J45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <f>ROUND(SUM(K21:K25), 2)</f>
+        <v>268.25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
       <c r="AB45" s="8">
         <v>6</v>
       </c>
       <c r="AC45" s="8">
         <f t="shared" si="22"/>
-        <v>0.4375</v>
+        <v>0.453125</v>
       </c>
       <c r="AD45" s="8">
         <f t="shared" si="15"/>
-        <v>1.353870427190873E-2</v>
+        <v>3.6275903568102064E-3</v>
       </c>
       <c r="AE45" s="8">
         <f t="shared" si="23"/>
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="AF45" s="8">
         <f t="shared" si="16"/>
-        <v>-3.4160146250438728E-3</v>
+        <v>-1.3472672146910059E-2</v>
       </c>
       <c r="AG45" s="8">
         <f t="shared" si="17"/>
-        <v>0.4453125</v>
+        <v>0.4609375</v>
       </c>
       <c r="AH45" s="8">
         <f t="shared" si="18"/>
-        <v>5.0497946592003573E-3</v>
+        <v>-4.9349289882530956E-3</v>
       </c>
       <c r="AI45" s="8">
         <f t="shared" si="19"/>
-        <v>6.8367676524777772E-5</v>
+        <v>-1.7901900809330076E-5</v>
       </c>
       <c r="AJ45" s="8">
         <f t="shared" si="20"/>
-        <v>-1.725017240929686E-5</v>
+        <v>6.6486680327016511E-5</v>
       </c>
       <c r="AK45" s="8">
         <f t="shared" si="21"/>
@@ -14940,40 +16105,50 @@
       <c r="G46" s="1">
         <v>50</v>
       </c>
+      <c r="J46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <f>ROUND(SUM(K26:K29), 2)</f>
+        <v>44.48</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
       <c r="AB46" s="8">
         <v>7</v>
       </c>
       <c r="AC46" s="8">
         <f t="shared" si="22"/>
-        <v>0.4453125</v>
+        <v>0.453125</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="15"/>
-        <v>5.0497946592003573E-3</v>
+        <v>3.6275903568102064E-3</v>
       </c>
       <c r="AE46" s="8">
         <f t="shared" si="23"/>
-        <v>0.453125</v>
+        <v>0.4609375</v>
       </c>
       <c r="AF46" s="8">
         <f t="shared" si="16"/>
-        <v>-3.4160146250438728E-3</v>
+        <v>-4.9349289882530956E-3</v>
       </c>
       <c r="AG46" s="8">
         <f t="shared" si="17"/>
-        <v>0.44921875</v>
+        <v>0.45703125</v>
       </c>
       <c r="AH46" s="8">
         <f t="shared" si="18"/>
-        <v>8.1407683025191968E-4</v>
+        <v>-6.5684477159666521E-4</v>
       </c>
       <c r="AI46" s="8">
         <f t="shared" si="19"/>
-        <v>4.1109208295848999E-6</v>
+        <v>-2.3827637593652654E-6</v>
       </c>
       <c r="AJ46" s="8">
         <f t="shared" si="20"/>
-        <v>-2.7808983580499158E-6</v>
+        <v>3.2414823041348667E-6</v>
       </c>
       <c r="AK46" s="8">
         <f t="shared" si="21"/>
@@ -14982,42 +16157,52 @@
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.2">
       <c r="G47" s="1">
-        <v>8</v>
+        <v>16.2</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="3">
+        <f>SUM(K42:K46)</f>
+        <v>951.82</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
       </c>
       <c r="AB47" s="8">
         <v>8</v>
       </c>
       <c r="AC47" s="8">
         <f t="shared" si="22"/>
-        <v>0.44921875</v>
+        <v>0.453125</v>
       </c>
       <c r="AD47" s="8">
         <f t="shared" si="15"/>
-        <v>8.1407683025191968E-4</v>
+        <v>3.6275903568102064E-3</v>
       </c>
       <c r="AE47" s="8">
         <f t="shared" si="23"/>
-        <v>0.453125</v>
+        <v>0.45703125</v>
       </c>
       <c r="AF47" s="8">
         <f t="shared" si="16"/>
-        <v>-3.4160146250438728E-3</v>
+        <v>-6.5684477159666521E-4</v>
       </c>
       <c r="AG47" s="8">
         <f t="shared" si="17"/>
-        <v>0.451171875</v>
+        <v>0.455078125</v>
       </c>
       <c r="AH47" s="8">
         <f t="shared" si="18"/>
-        <v>-1.3016631769356413E-3</v>
+        <v>1.484568834601907E-3</v>
       </c>
       <c r="AI47" s="8">
         <f t="shared" si="19"/>
-        <v>-1.0596538331354106E-6</v>
+        <v>5.3854075884228441E-6</v>
       </c>
       <c r="AJ47" s="8">
         <f t="shared" si="20"/>
-        <v>4.4465004492932207E-6</v>
+        <v>-9.7513127708361703E-7</v>
       </c>
       <c r="AK47" s="8">
         <f t="shared" si="21"/>
@@ -15031,42 +16216,42 @@
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="G48" s="1">
-        <v>10</v>
+        <v>7.32</v>
       </c>
       <c r="AB48" s="8">
         <v>9</v>
       </c>
       <c r="AC48" s="8">
         <f t="shared" si="22"/>
-        <v>0.44921875</v>
+        <v>0.455078125</v>
       </c>
       <c r="AD48" s="8">
         <f t="shared" si="15"/>
-        <v>8.1407683025191968E-4</v>
+        <v>1.484568834601907E-3</v>
       </c>
       <c r="AE48" s="8">
         <f t="shared" si="23"/>
-        <v>0.451171875</v>
+        <v>0.45703125</v>
       </c>
       <c r="AF48" s="8">
         <f t="shared" si="16"/>
-        <v>-1.3016631769356413E-3</v>
+        <v>-6.5684477159666521E-4</v>
       </c>
       <c r="AG48" s="8">
         <f t="shared" si="17"/>
-        <v>0.4501953125</v>
+        <v>0.4560546875</v>
       </c>
       <c r="AH48" s="8">
         <f t="shared" si="18"/>
-        <v>-2.4396785834363E-4</v>
+        <v>4.1366231705436407E-4</v>
       </c>
       <c r="AI48" s="8">
         <f t="shared" si="19"/>
-        <v>-1.9860858080373166E-7</v>
+        <v>6.1411018394812184E-7</v>
       </c>
       <c r="AJ48" s="8">
         <f t="shared" si="20"/>
-        <v>3.1756397756175391E-7</v>
+        <v>-2.7171193016372109E-7</v>
       </c>
       <c r="AK48" s="8">
         <f t="shared" si="21"/>
@@ -15091,35 +16276,35 @@
       </c>
       <c r="AC49" s="8">
         <f t="shared" si="22"/>
-        <v>0.44921875</v>
+        <v>0.4560546875</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="15"/>
-        <v>8.1407683025191968E-4</v>
+        <v>4.1366231705436407E-4</v>
       </c>
       <c r="AE49" s="8">
         <f t="shared" si="23"/>
-        <v>0.4501953125</v>
+        <v>0.45703125</v>
       </c>
       <c r="AF49" s="8">
         <f t="shared" si="16"/>
-        <v>-2.4396785834363E-4</v>
+        <v>-6.5684477159666521E-4</v>
       </c>
       <c r="AG49" s="8">
         <f t="shared" si="17"/>
-        <v>0.44970703125</v>
+        <v>0.45654296875</v>
       </c>
       <c r="AH49" s="8">
         <f t="shared" si="18"/>
-        <v>2.8501067427166848E-4</v>
+        <v>-1.2164099767619785E-4</v>
       </c>
       <c r="AI49" s="8">
         <f t="shared" si="19"/>
-        <v>2.3202058629904225E-7</v>
+        <v>-5.0318296947540516E-8</v>
       </c>
       <c r="AJ49" s="8">
         <f t="shared" si="20"/>
-        <v>-6.9533443807132888E-8</v>
+        <v>7.9899253335412657E-8</v>
       </c>
       <c r="AK49" s="8">
         <f t="shared" si="21"/>
@@ -15133,40 +16318,43 @@
       <c r="C50" s="1">
         <v>5.7</v>
       </c>
+      <c r="J50" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="AB50" s="8">
         <v>11</v>
       </c>
       <c r="AC50" s="8">
         <f t="shared" si="22"/>
-        <v>0.44970703125</v>
+        <v>0.4560546875</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="15"/>
-        <v>2.8501067427166848E-4</v>
+        <v>4.1366231705436407E-4</v>
       </c>
       <c r="AE50" s="8">
         <f t="shared" si="23"/>
-        <v>0.4501953125</v>
+        <v>0.45654296875</v>
       </c>
       <c r="AF50" s="8">
         <f t="shared" si="16"/>
-        <v>-2.4396785834363E-4</v>
+        <v>-1.2164099767619785E-4</v>
       </c>
       <c r="AG50" s="8">
         <f t="shared" si="17"/>
-        <v>0.449951171875</v>
+        <v>0.456298828125</v>
       </c>
       <c r="AH50" s="8">
         <f t="shared" si="18"/>
-        <v>2.0510472644230671E-5</v>
+        <v>1.4599819736399455E-4</v>
       </c>
       <c r="AI50" s="8">
         <f t="shared" si="19"/>
-        <v>5.8457036379627946E-9</v>
+        <v>6.039395260735034E-8</v>
       </c>
       <c r="AJ50" s="8">
         <f t="shared" si="20"/>
-        <v>-5.003896084628566E-9</v>
+        <v>-1.7759366386282736E-8</v>
       </c>
       <c r="AK50" s="8">
         <f t="shared" si="21"/>
@@ -15174,40 +16362,55 @@
       </c>
     </row>
     <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="5">
+        <v>951.81985409544723</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
       <c r="AB51" s="8">
         <v>12</v>
       </c>
       <c r="AC51" s="8">
         <f t="shared" si="22"/>
-        <v>0.449951171875</v>
+        <v>0.456298828125</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="15"/>
-        <v>2.0510472644230671E-5</v>
+        <v>1.4599819736399455E-4</v>
       </c>
       <c r="AE51" s="8">
         <f t="shared" si="23"/>
-        <v>0.4501953125</v>
+        <v>0.45654296875</v>
       </c>
       <c r="AF51" s="8">
         <f t="shared" si="16"/>
-        <v>-2.4396785834363E-4</v>
+        <v>-1.2164099767619785E-4</v>
       </c>
       <c r="AG51" s="8">
         <f t="shared" si="17"/>
-        <v>0.4500732421875</v>
+        <v>0.4564208984375</v>
       </c>
       <c r="AH51" s="8">
         <f t="shared" si="18"/>
-        <v>-1.1173142448361872E-4</v>
+        <v>1.217548673138058E-5</v>
       </c>
       <c r="AI51" s="8">
         <f t="shared" si="19"/>
-        <v>-2.2916643253721867E-9</v>
+        <v>1.7775991148107988E-9</v>
       </c>
       <c r="AJ51" s="8">
         <f t="shared" si="20"/>
-        <v>2.7258876340951487E-8</v>
+        <v>-1.4810383531984429E-9</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="21"/>
@@ -15220,40 +16423,52 @@
       </c>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
+      <c r="G52" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52">
+        <v>121.42795988165344</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
       <c r="AB52" s="8">
         <v>13</v>
       </c>
       <c r="AC52" s="8">
         <f t="shared" si="22"/>
-        <v>0.449951171875</v>
+        <v>0.4564208984375</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="15"/>
-        <v>2.0510472644230671E-5</v>
+        <v>1.217548673138058E-5</v>
       </c>
       <c r="AE52" s="8">
         <f t="shared" si="23"/>
-        <v>0.4500732421875</v>
+        <v>0.45654296875</v>
       </c>
       <c r="AF52" s="8">
         <f t="shared" si="16"/>
-        <v>-1.1173142448361872E-4</v>
+        <v>-1.2164099767619785E-4</v>
       </c>
       <c r="AG52" s="8">
         <f t="shared" si="17"/>
-        <v>0.45001220703125</v>
+        <v>0.45648193359375</v>
       </c>
       <c r="AH52" s="8">
         <f t="shared" si="18"/>
-        <v>-4.5611159102509902E-5</v>
+        <v>-5.4733533442263838E-5</v>
       </c>
       <c r="AI52" s="8">
         <f t="shared" si="19"/>
-        <v>-9.3550643104368214E-10</v>
+        <v>-6.6640741018785863E-10</v>
       </c>
       <c r="AJ52" s="8">
         <f t="shared" si="20"/>
-        <v>5.096199778872404E-9</v>
+        <v>6.6578416142605126E-9</v>
       </c>
       <c r="AK52" s="8">
         <f t="shared" si="21"/>
@@ -15267,40 +16482,52 @@
       <c r="C53" s="1">
         <v>3</v>
       </c>
+      <c r="G53" s="1">
+        <v>40</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <v>53.5762135527537</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
       <c r="AB53" s="8">
         <v>14</v>
       </c>
       <c r="AC53" s="8">
         <f t="shared" si="22"/>
-        <v>0.449951171875</v>
+        <v>0.4564208984375</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="15"/>
-        <v>2.0510472644230671E-5</v>
+        <v>1.217548673138058E-5</v>
       </c>
       <c r="AE53" s="8">
         <f t="shared" si="23"/>
-        <v>0.45001220703125</v>
+        <v>0.45648193359375</v>
       </c>
       <c r="AF53" s="8">
         <f t="shared" si="16"/>
-        <v>-4.5611159102509902E-5</v>
+        <v>-5.4733533442263838E-5</v>
       </c>
       <c r="AG53" s="8">
         <f t="shared" si="17"/>
-        <v>0.449981689453125</v>
+        <v>0.456451416015625</v>
       </c>
       <c r="AH53" s="8">
         <f t="shared" si="18"/>
-        <v>-1.2550514059128659E-5</v>
+        <v>-2.1279217886416291E-5</v>
       </c>
       <c r="AI53" s="8">
         <f t="shared" si="19"/>
-        <v>-2.574169752807908E-10</v>
+        <v>-2.5908483503021787E-10</v>
       </c>
       <c r="AJ53" s="8">
         <f t="shared" si="20"/>
-        <v>5.724434935692046E-10</v>
+        <v>1.1646867838113848E-9</v>
       </c>
       <c r="AK53" s="8">
         <f t="shared" si="21"/>
@@ -15308,40 +16535,52 @@
       </c>
     </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
+        <v>20</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54">
+        <v>40.873500379260243</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
       <c r="AB54" s="8">
         <v>15</v>
       </c>
       <c r="AC54" s="8">
         <f t="shared" si="22"/>
-        <v>0.449951171875</v>
+        <v>0.4564208984375</v>
       </c>
       <c r="AD54" s="8">
         <f t="shared" si="15"/>
-        <v>2.0510472644230671E-5</v>
+        <v>1.217548673138058E-5</v>
       </c>
       <c r="AE54" s="8">
         <f t="shared" si="23"/>
-        <v>0.449981689453125</v>
+        <v>0.456451416015625</v>
       </c>
       <c r="AF54" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2550514059128659E-5</v>
+        <v>-2.1279217886416291E-5</v>
       </c>
       <c r="AG54" s="8">
         <f t="shared" si="17"/>
-        <v>0.4499664306640625</v>
+        <v>0.4564361572265625</v>
       </c>
       <c r="AH54" s="8">
         <f t="shared" si="18"/>
-        <v>3.9799365807446918E-6</v>
+        <v>-4.5519142151118075E-6</v>
       </c>
       <c r="AI54" s="8">
         <f t="shared" si="19"/>
-        <v>8.1630380365136954E-11</v>
+        <v>-5.5421771128476461E-11</v>
       </c>
       <c r="AJ54" s="8">
         <f t="shared" si="20"/>
-        <v>-4.99502500110767E-11</v>
+        <v>9.6861174383639745E-11</v>
       </c>
       <c r="AK54" s="8">
         <f t="shared" si="21"/>
@@ -15354,40 +16593,52 @@
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
+      <c r="G55" s="1">
+        <v>6</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55">
+        <v>23.21527784186987</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
       <c r="AB55" s="8">
         <v>16</v>
       </c>
       <c r="AC55" s="8">
         <f t="shared" si="22"/>
-        <v>0.4499664306640625</v>
+        <v>0.4564208984375</v>
       </c>
       <c r="AD55" s="8">
         <f t="shared" si="15"/>
-        <v>3.9799365807446918E-6</v>
+        <v>1.217548673138058E-5</v>
       </c>
       <c r="AE55" s="8">
         <f t="shared" si="23"/>
-        <v>0.449981689453125</v>
+        <v>0.4564361572265625</v>
       </c>
       <c r="AF55" s="8">
         <f t="shared" si="16"/>
-        <v>-1.2550514059128659E-5</v>
+        <v>-4.5519142151118075E-6</v>
       </c>
       <c r="AG55" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997406005859375</v>
+        <v>0.45642852783203125</v>
       </c>
       <c r="AH55" s="8">
         <f t="shared" si="18"/>
-        <v>-4.2852994165953895E-6</v>
+        <v>3.8117740981391535E-6</v>
       </c>
       <c r="AI55" s="8">
         <f t="shared" si="19"/>
-        <v>-1.7055219907551878E-11</v>
+        <v>4.6410204954913441E-11</v>
       </c>
       <c r="AJ55" s="8">
         <f t="shared" si="20"/>
-        <v>5.3782710575556278E-11</v>
+        <v>-1.7350868702114604E-11</v>
       </c>
       <c r="AK55" s="8">
         <f t="shared" si="21"/>
@@ -15402,40 +16653,52 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
+      <c r="G56" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <v>160.02087517267341</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
       <c r="AB56" s="8">
         <v>17</v>
       </c>
       <c r="AC56" s="8">
         <f t="shared" si="22"/>
-        <v>0.4499664306640625</v>
+        <v>0.45642852783203125</v>
       </c>
       <c r="AD56" s="8">
         <f t="shared" si="15"/>
-        <v>3.9799365807446918E-6</v>
+        <v>3.8117740981391535E-6</v>
       </c>
       <c r="AE56" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997406005859375</v>
+        <v>0.4564361572265625</v>
       </c>
       <c r="AF56" s="8">
         <f t="shared" si="16"/>
-        <v>-4.2852994165953895E-6</v>
+        <v>-4.5519142151118075E-6</v>
       </c>
       <c r="AG56" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643234252929688</v>
       </c>
       <c r="AH56" s="8">
         <f t="shared" si="18"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-3.7007309838799074E-7</v>
       </c>
       <c r="AI56" s="8">
         <f t="shared" si="19"/>
-        <v>-6.0767298441386293E-13</v>
+        <v>-1.4106350508534455E-12</v>
       </c>
       <c r="AJ56" s="8">
         <f t="shared" si="20"/>
-        <v>6.5429703030651211E-13</v>
+        <v>1.6845409971827656E-12</v>
       </c>
       <c r="AK56" s="8">
         <f t="shared" si="21"/>
@@ -15453,40 +16716,49 @@
       <c r="D57" t="s">
         <v>18</v>
       </c>
+      <c r="J57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57">
+        <v>11.964251380071035</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
       <c r="AB57" s="8">
         <v>18</v>
       </c>
       <c r="AC57" s="8">
         <f t="shared" si="22"/>
-        <v>0.4499664306640625</v>
+        <v>0.45642852783203125</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="15"/>
-        <v>3.9799365807446918E-6</v>
+        <v>3.8117740981391535E-6</v>
       </c>
       <c r="AE57" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643234252929688</v>
       </c>
       <c r="AF57" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-3.7007309838799074E-7</v>
       </c>
       <c r="AG57" s="8">
         <f t="shared" si="17"/>
-        <v>0.44996833801269531</v>
+        <v>0.45643043518066406</v>
       </c>
       <c r="AH57" s="8">
         <f t="shared" si="18"/>
-        <v>1.9136255793306134E-6</v>
+        <v>1.7208497398724099E-6</v>
       </c>
       <c r="AI57" s="8">
         <f t="shared" si="19"/>
-        <v>7.6161084450266616E-12</v>
+        <v>6.5594904652351517E-12</v>
       </c>
       <c r="AJ57" s="8">
         <f t="shared" si="20"/>
-        <v>-2.9218017504815543E-13</v>
+        <v>-6.3684019509475056E-13</v>
       </c>
       <c r="AK57" s="8">
         <f t="shared" si="21"/>
@@ -15505,40 +16777,49 @@
       <c r="D58" t="s">
         <v>14</v>
       </c>
+      <c r="J58" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>81.231772721223109</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
       <c r="AB58" s="8">
         <v>19</v>
       </c>
       <c r="AC58" s="8">
         <f t="shared" si="22"/>
-        <v>0.44996833801269531</v>
+        <v>0.45643043518066406</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="15"/>
-        <v>1.9136255793306134E-6</v>
+        <v>1.7208497398724099E-6</v>
       </c>
       <c r="AE58" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643234252929688</v>
       </c>
       <c r="AF58" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-3.7007309838799074E-7</v>
       </c>
       <c r="AG58" s="8">
         <f t="shared" si="17"/>
-        <v>0.44996929168701172</v>
+        <v>0.45643138885498047</v>
       </c>
       <c r="AH58" s="8">
         <f t="shared" si="18"/>
-        <v>8.8047057916762483E-7</v>
+        <v>6.7538813075529447E-7</v>
       </c>
       <c r="AI58" s="8">
         <f t="shared" si="19"/>
-        <v>1.6848910221432068E-12</v>
+        <v>1.1622414891231616E-12</v>
       </c>
       <c r="AJ58" s="8">
         <f t="shared" si="20"/>
-        <v>-1.3443384679041322E-13</v>
+        <v>-2.4994297816308524E-13</v>
       </c>
       <c r="AK58" s="8">
         <f t="shared" si="21"/>
@@ -15546,40 +16827,49 @@
       </c>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="J59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59">
+        <v>9.8135391340138352</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
       <c r="AB59" s="8">
         <v>20</v>
       </c>
       <c r="AC59" s="8">
         <f t="shared" si="22"/>
-        <v>0.44996929168701172</v>
+        <v>0.45643138885498047</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="15"/>
-        <v>8.8047057916762483E-7</v>
+        <v>6.7538813075529447E-7</v>
       </c>
       <c r="AE59" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643234252929688</v>
       </c>
       <c r="AF59" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-3.7007309838799074E-7</v>
       </c>
       <c r="AG59" s="8">
         <f t="shared" si="17"/>
-        <v>0.44996976852416992</v>
+        <v>0.45643186569213867</v>
       </c>
       <c r="AH59" s="8">
         <f t="shared" si="18"/>
-        <v>3.6389320418050985E-7</v>
+        <v>1.5265746866610641E-7</v>
       </c>
       <c r="AI59" s="8">
         <f t="shared" si="19"/>
-        <v>3.2039726023997628E-13</v>
+        <v>1.0310304240823655E-13</v>
       </c>
       <c r="AJ59" s="8">
         <f t="shared" si="20"/>
-        <v>-5.5560701761463241E-14</v>
+        <v>-5.6494422421333613E-14</v>
       </c>
       <c r="AK59" s="8">
         <f t="shared" si="21"/>
@@ -15592,40 +16882,49 @@
       </c>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
+      <c r="J60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60">
+        <v>5.2207724142141938</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
       <c r="AB60" s="8">
         <v>21</v>
       </c>
       <c r="AC60" s="8">
         <f t="shared" si="22"/>
-        <v>0.44996976852416992</v>
+        <v>0.45643186569213867</v>
       </c>
       <c r="AD60" s="8">
         <f t="shared" si="15"/>
-        <v>3.6389320418050985E-7</v>
+        <v>1.5265746866610641E-7</v>
       </c>
       <c r="AE60" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643234252929688</v>
       </c>
       <c r="AF60" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-3.7007309838799074E-7</v>
       </c>
       <c r="AG60" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997000694274902</v>
+        <v>0.45643210411071777</v>
       </c>
       <c r="AH60" s="8">
         <f t="shared" si="18"/>
-        <v>1.0560454799524166E-7</v>
+        <v>-1.0870782674032853E-7</v>
       </c>
       <c r="AI60" s="8">
         <f t="shared" si="19"/>
-        <v>3.8428777346022924E-14</v>
+        <v>-1.6595061654372228E-14</v>
       </c>
       <c r="AJ60" s="8">
         <f t="shared" si="20"/>
-        <v>-1.6124134027265834E-14</v>
+        <v>4.0229842260818253E-14</v>
       </c>
       <c r="AK60" s="8">
         <f t="shared" si="21"/>
@@ -15639,40 +16938,49 @@
       <c r="C61" s="1">
         <v>1.2</v>
       </c>
+      <c r="J61" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61">
+        <v>20.40701767180639</v>
+      </c>
+      <c r="L61" t="s">
+        <v>12</v>
+      </c>
       <c r="AB61" s="8">
         <v>22</v>
       </c>
       <c r="AC61" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997000694274902</v>
+        <v>0.45643186569213867</v>
       </c>
       <c r="AD61" s="8">
         <f t="shared" si="15"/>
-        <v>1.0560454799524166E-7</v>
+        <v>1.5265746866610641E-7</v>
       </c>
       <c r="AE61" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997024536132812</v>
+        <v>0.45643210411071777</v>
       </c>
       <c r="AF61" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5268408731783367E-7</v>
+        <v>-1.0870782674032853E-7</v>
       </c>
       <c r="AG61" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997012615203857</v>
+        <v>0.45643198490142822</v>
       </c>
       <c r="AH61" s="8">
         <f t="shared" si="18"/>
-        <v>-2.353977229807569E-8</v>
+        <v>2.1974817965286775E-8</v>
       </c>
       <c r="AI61" s="8">
         <f t="shared" si="19"/>
-        <v>-2.4859070134491941E-15</v>
+        <v>3.354620084979158E-15</v>
       </c>
       <c r="AJ61" s="8">
         <f t="shared" si="20"/>
-        <v>3.5941486490013105E-15</v>
+        <v>-2.3888347040206534E-15</v>
       </c>
       <c r="AK61" s="8">
         <f t="shared" si="21"/>
@@ -15689,40 +16997,49 @@
       <c r="D62" t="s">
         <v>18</v>
       </c>
+      <c r="J62" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K62">
+        <v>5.613175418363693</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
       <c r="AB62" s="8">
         <v>23</v>
       </c>
       <c r="AC62" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997000694274902</v>
+        <v>0.45643198490142822</v>
       </c>
       <c r="AD62" s="8">
         <f t="shared" si="15"/>
-        <v>1.0560454799524166E-7</v>
+        <v>2.1974817965286775E-8</v>
       </c>
       <c r="AE62" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997012615203857</v>
+        <v>0.45643210411071777</v>
       </c>
       <c r="AF62" s="8">
         <f t="shared" si="16"/>
-        <v>-2.353977229807569E-8</v>
+        <v>-1.0870782674032853E-7</v>
       </c>
       <c r="AG62" s="8">
         <f t="shared" si="17"/>
-        <v>0.4499700665473938</v>
+        <v>0.456432044506073</v>
       </c>
       <c r="AH62" s="8">
         <f t="shared" si="18"/>
-        <v>4.1032387210204746E-8</v>
+        <v>-4.3366505109165843E-8</v>
       </c>
       <c r="AI62" s="8">
         <f t="shared" si="19"/>
-        <v>4.3332067044994069E-15</v>
+        <v>-9.5297105556459819E-16</v>
       </c>
       <c r="AJ62" s="8">
         <f t="shared" si="20"/>
-        <v>-9.6589305177469293E-16</v>
+        <v>4.7142785237407721E-15</v>
       </c>
       <c r="AK62" s="8">
         <f t="shared" si="21"/>
@@ -15740,40 +17057,49 @@
       <c r="D63" t="s">
         <v>14</v>
       </c>
+      <c r="J63" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>6.0916470662108626</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
       <c r="AB63" s="8">
         <v>24</v>
       </c>
       <c r="AC63" s="8">
         <f t="shared" si="22"/>
-        <v>0.4499700665473938</v>
+        <v>0.45643198490142822</v>
       </c>
       <c r="AD63" s="8">
         <f t="shared" si="15"/>
-        <v>4.1032387210204746E-8</v>
+        <v>2.1974817965286775E-8</v>
       </c>
       <c r="AE63" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997012615203857</v>
+        <v>0.456432044506073</v>
       </c>
       <c r="AF63" s="8">
         <f t="shared" si="16"/>
-        <v>-2.353977229807569E-8</v>
+        <v>-4.3366505109165843E-8</v>
       </c>
       <c r="AG63" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997009634971619</v>
+        <v>0.45643201470375061</v>
       </c>
       <c r="AH63" s="8">
         <f t="shared" si="18"/>
-        <v>8.7463072895310745E-9</v>
+        <v>-1.0695843766228563E-8</v>
       </c>
       <c r="AI63" s="8">
         <f t="shared" si="19"/>
-        <v>3.5888186736347538E-16</v>
+        <v>-2.3503921974801999E-16</v>
       </c>
       <c r="AJ63" s="8">
         <f t="shared" si="20"/>
-        <v>-2.0588608204456106E-16</v>
+        <v>4.6384136333499064E-16</v>
       </c>
       <c r="AK63" s="8">
         <f t="shared" si="21"/>
@@ -15790,257 +17116,336 @@
       <c r="D64" t="s">
         <v>62</v>
       </c>
+      <c r="J64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64">
+        <v>12.363851461833493</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
       <c r="AB64" s="8">
         <v>25</v>
       </c>
       <c r="AC64" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997009634971619</v>
+        <v>0.45643198490142822</v>
       </c>
       <c r="AD64" s="8">
         <f t="shared" si="15"/>
-        <v>8.7463072895310745E-9</v>
+        <v>2.1974817965286775E-8</v>
       </c>
       <c r="AE64" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997012615203857</v>
+        <v>0.45643201470375061</v>
       </c>
       <c r="AF64" s="8">
         <f t="shared" si="16"/>
-        <v>-2.353977229807569E-8</v>
+        <v>-1.0695843766228563E-8</v>
       </c>
       <c r="AG64" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997011125087738</v>
+        <v>0.45643199980258942</v>
       </c>
       <c r="AH64" s="8">
         <f t="shared" si="18"/>
-        <v>-7.3967325042723076E-9</v>
+        <v>5.6394870995291058E-9</v>
       </c>
       <c r="AI64" s="8">
         <f t="shared" si="19"/>
-        <v>-6.4694095420828326E-17</v>
+        <v>1.239267024297352E-16</v>
       </c>
       <c r="AJ64" s="8">
         <f t="shared" si="20"/>
-        <v>1.7411739890034528E-16</v>
+        <v>-6.0319072938224787E-17</v>
       </c>
       <c r="AK64" s="8">
         <f t="shared" si="21"/>
         <v>2.9802322387695312E-8</v>
       </c>
     </row>
-    <row r="65" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:37" x14ac:dyDescent="0.2">
       <c r="AB65" s="8">
         <v>26</v>
       </c>
       <c r="AC65" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997009634971619</v>
+        <v>0.45643199980258942</v>
       </c>
       <c r="AD65" s="8">
         <f t="shared" si="15"/>
-        <v>8.7463072895310745E-9</v>
+        <v>5.6394870995291058E-9</v>
       </c>
       <c r="AE65" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997011125087738</v>
+        <v>0.45643201470375061</v>
       </c>
       <c r="AF65" s="8">
         <f t="shared" si="16"/>
-        <v>-7.3967325042723076E-9</v>
+        <v>-1.0695843766228563E-8</v>
       </c>
       <c r="AG65" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997010380029678</v>
+        <v>0.45643200725317001</v>
       </c>
       <c r="AH65" s="8">
         <f t="shared" si="18"/>
-        <v>6.7478739262938348E-10</v>
+        <v>-2.5281783333497287E-9</v>
       </c>
       <c r="AI65" s="8">
         <f t="shared" si="19"/>
-        <v>5.9018978910380439E-18</v>
+        <v>-1.425762909623479E-17</v>
       </c>
       <c r="AJ65" s="8">
         <f t="shared" si="20"/>
-        <v>-4.9912218405349205E-18</v>
+        <v>2.7041000466672815E-17</v>
       </c>
       <c r="AK65" s="8">
         <f t="shared" si="21"/>
         <v>1.4901161193847656E-8</v>
       </c>
     </row>
-    <row r="66" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J66" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="AB66" s="8">
         <v>27</v>
       </c>
       <c r="AC66" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997010380029678</v>
+        <v>0.45643199980258942</v>
       </c>
       <c r="AD66" s="8">
         <f t="shared" si="15"/>
-        <v>6.7478739262938348E-10</v>
+        <v>5.6394870995291058E-9</v>
       </c>
       <c r="AE66" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997011125087738</v>
+        <v>0.45643200725317001</v>
       </c>
       <c r="AF66" s="8">
         <f t="shared" si="16"/>
-        <v>-7.3967325042723076E-9</v>
+        <v>-2.5281783333497287E-9</v>
       </c>
       <c r="AG66" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997010752558708</v>
+        <v>0.45643200352787971</v>
       </c>
       <c r="AH66" s="8">
         <f t="shared" si="18"/>
-        <v>-3.360972555821462E-9</v>
+        <v>1.5556543830896885E-9</v>
       </c>
       <c r="AI66" s="8">
         <f t="shared" si="19"/>
-        <v>-2.2679419076416794E-18</v>
+        <v>8.7730928247602078E-18</v>
       </c>
       <c r="AJ66" s="8">
         <f t="shared" si="20"/>
-        <v>2.4860214949611781E-17</v>
+        <v>-3.9329717055078891E-18</v>
       </c>
       <c r="AK66" s="8">
         <f t="shared" si="21"/>
         <v>7.4505805969238281E-9</v>
       </c>
     </row>
-    <row r="67" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K67">
+        <v>1164.3186685523688</v>
+      </c>
+      <c r="L67" t="s">
+        <v>12</v>
+      </c>
       <c r="AB67" s="8">
         <v>28</v>
       </c>
       <c r="AC67" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997010380029678</v>
+        <v>0.45643200352787971</v>
       </c>
       <c r="AD67" s="8">
         <f t="shared" si="15"/>
-        <v>6.7478739262938348E-10</v>
+        <v>1.5556543830896885E-9</v>
       </c>
       <c r="AE67" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997010752558708</v>
+        <v>0.45643200725317001</v>
       </c>
       <c r="AF67" s="8">
         <f t="shared" si="16"/>
-        <v>-3.360972555821462E-9</v>
+        <v>-2.5281783333497287E-9</v>
       </c>
       <c r="AG67" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997010566294193</v>
+        <v>0.45643200539052486</v>
       </c>
       <c r="AH67" s="8">
         <f t="shared" si="18"/>
-        <v>-1.3430925815960393E-9</v>
+        <v>-4.8626197513002012E-10</v>
       </c>
       <c r="AI67" s="8">
         <f t="shared" si="19"/>
-        <v>-9.0630194119505882E-19</v>
+        <v>-7.564555729408649E-19</v>
       </c>
       <c r="AJ67" s="8">
         <f t="shared" si="20"/>
-        <v>4.5140973066716857E-18</v>
+        <v>1.2293569898555615E-18</v>
       </c>
       <c r="AK67" s="8">
         <f t="shared" si="21"/>
         <v>3.7252902984619141E-9</v>
       </c>
     </row>
-    <row r="68" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J68" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68">
+        <v>202.24983079170909</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
       <c r="AB68" s="8">
         <v>29</v>
       </c>
       <c r="AC68" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997010380029678</v>
+        <v>0.45643200352787971</v>
       </c>
       <c r="AD68" s="8">
         <f t="shared" si="15"/>
-        <v>6.7478739262938348E-10</v>
+        <v>1.5556543830896885E-9</v>
       </c>
       <c r="AE68" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997010566294193</v>
+        <v>0.45643200539052486</v>
       </c>
       <c r="AF68" s="8">
         <f t="shared" si="16"/>
-        <v>-1.3430925815960393E-9</v>
+        <v>-4.8626197513002012E-10</v>
       </c>
       <c r="AG68" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997010473161936</v>
+        <v>0.45643200445920229</v>
       </c>
       <c r="AH68" s="8">
         <f t="shared" si="18"/>
-        <v>-3.341525944833279E-10</v>
+        <v>5.3469617622425858E-10</v>
       </c>
       <c r="AI68" s="8">
         <f t="shared" si="19"/>
-        <v>-2.2548195797174854E-19</v>
+        <v>8.3180245016456435E-19</v>
       </c>
       <c r="AJ68" s="8">
         <f t="shared" si="20"/>
-        <v>4.4879787077162731E-19</v>
+        <v>-2.6000241874527728E-19</v>
       </c>
       <c r="AK68" s="8">
         <f t="shared" si="21"/>
         <v>1.862645149230957E-9</v>
       </c>
     </row>
-    <row r="69" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69">
+        <v>67.099143770220167</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
       <c r="AB69" s="8">
         <v>30</v>
       </c>
       <c r="AC69" s="8">
         <f t="shared" si="22"/>
-        <v>0.44997010380029678</v>
+        <v>0.45643200445920229</v>
       </c>
       <c r="AD69" s="8">
         <f t="shared" si="15"/>
-        <v>6.7478739262938348E-10</v>
+        <v>5.3469617622425858E-10</v>
       </c>
       <c r="AE69" s="8">
         <f t="shared" si="23"/>
-        <v>0.44997010473161936</v>
+        <v>0.45643200539052486</v>
       </c>
       <c r="AF69" s="8">
         <f t="shared" si="16"/>
-        <v>-3.341525944833279E-10</v>
+        <v>-4.8626197513002012E-10</v>
       </c>
       <c r="AG69" s="8">
         <f t="shared" si="17"/>
-        <v>0.44997010426595807</v>
+        <v>0.45643200492486358</v>
       </c>
       <c r="AH69" s="8">
         <f t="shared" si="18"/>
-        <v>1.7031737131745217E-10</v>
+        <v>2.4217072791543615E-11</v>
       </c>
       <c r="AI69" s="8">
         <f t="shared" si="19"/>
-        <v>1.1492801491079409E-19</v>
+        <v>1.2948776220982902E-20</v>
       </c>
       <c r="AJ69" s="8">
         <f t="shared" si="20"/>
-        <v>-5.6911991511306978E-20</v>
+        <v>-1.1775841647483468E-20</v>
       </c>
       <c r="AK69" s="8">
         <f t="shared" si="21"/>
         <v>9.3132257461547852E-10</v>
       </c>
     </row>
-    <row r="72" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J70" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70">
+        <v>82.233160449029171</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J71" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K71">
+        <v>47.469416866632521</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J72" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72">
+        <v>164.73242963959723</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
       <c r="AB72" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J73" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>13.732424713984726</v>
+      </c>
+      <c r="L73" t="s">
+        <v>12</v>
+      </c>
       <c r="AB73" s="7" t="s">
         <v>63</v>
       </c>
@@ -16072,7 +17477,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74">
+        <v>114.6496826955896</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
       <c r="AB74" s="8">
         <v>0</v>
       </c>
@@ -16081,14 +17495,14 @@
       </c>
       <c r="AD74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC74^2)) - AC74</f>
-        <v>0.53271980277561104</v>
+        <v>0.49070901884812357</v>
       </c>
       <c r="AE74" s="9">
         <v>1</v>
       </c>
       <c r="AF74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE74^2)) - AE74</f>
-        <v>-0.58342905121181887</v>
+        <v>-0.58494319811440976</v>
       </c>
       <c r="AG74" s="8">
         <f xml:space="preserve"> (AC74 + AE74)/2</f>
@@ -16096,22 +17510,31 @@
       </c>
       <c r="AH74" s="8">
         <f xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG74^2)) - AG74</f>
-        <v>-7.9103184245693126E-2</v>
+        <v>-8.2125594539020019E-2</v>
       </c>
       <c r="AI74" s="8">
         <f>AD74*AH74</f>
-        <v>-4.2139832710288462E-2</v>
+        <v>-4.029976991856133E-2</v>
       </c>
       <c r="AJ74" s="8">
         <f>AF74*AH74</f>
-        <v>4.615109573229844E-2</v>
+        <v>4.8038807916701676E-2</v>
       </c>
       <c r="AK74" s="8">
         <f>AE74-AC74</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J75" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75">
+        <v>11.734195716688115</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
       <c r="AB75" s="8">
         <v>1</v>
       </c>
@@ -16121,7 +17544,7 @@
       </c>
       <c r="AD75" s="8">
         <f t="shared" ref="AD75:AD104" si="24" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AC75^2)) - AC75</f>
-        <v>0.53271980277561104</v>
+        <v>0.49070901884812357</v>
       </c>
       <c r="AE75" s="8">
         <f>IF(AJ74&gt;0, AG74, AE74)</f>
@@ -16129,7 +17552,7 @@
       </c>
       <c r="AF75" s="8">
         <f t="shared" ref="AF75:AF104" si="25" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AE75^2)) - AE75</f>
-        <v>-7.9103184245693126E-2</v>
+        <v>-8.2125594539020019E-2</v>
       </c>
       <c r="AG75" s="8">
         <f t="shared" ref="AG75:AG104" si="26" xml:space="preserve"> (AC75 + AE75)/2</f>
@@ -16137,22 +17560,31 @@
       </c>
       <c r="AH75" s="8">
         <f t="shared" ref="AH75:AH104" si="27" xml:space="preserve"> $W$19 * TAN($W$16/180*PI()) + $W$20 / (2 * SQRT($W$19^2 + AG75^2)) - AG75</f>
-        <v>0.1794323684350575</v>
+        <v>0.17343393929305001</v>
       </c>
       <c r="AI75" s="8">
         <f t="shared" ref="AI75:AI104" si="28">AD75*AH75</f>
-        <v>9.5587175924284604E-2</v>
+        <v>8.5105598185457598E-2</v>
       </c>
       <c r="AJ75" s="8">
         <f t="shared" ref="AJ75:AJ104" si="29">AF75*AH75</f>
-        <v>-1.4193671699959444E-2</v>
+        <v>-1.4243365377686038E-2</v>
       </c>
       <c r="AK75" s="8">
         <f t="shared" ref="AK75:AK104" si="30">AE75-AC75</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J76" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76">
+        <v>5.8527093626715798</v>
+      </c>
+      <c r="L76" t="s">
+        <v>12</v>
+      </c>
       <c r="AB76" s="8">
         <v>2</v>
       </c>
@@ -16162,7 +17594,7 @@
       </c>
       <c r="AD76" s="8">
         <f t="shared" si="24"/>
-        <v>0.1794323684350575</v>
+        <v>0.17343393929305001</v>
       </c>
       <c r="AE76" s="8">
         <f t="shared" ref="AE76:AE104" si="32">IF(AJ75&gt;0, AG75, AE75)</f>
@@ -16170,7 +17602,7 @@
       </c>
       <c r="AF76" s="8">
         <f t="shared" si="25"/>
-        <v>-7.9103184245693126E-2</v>
+        <v>-8.2125594539020019E-2</v>
       </c>
       <c r="AG76" s="8">
         <f t="shared" si="26"/>
@@ -16178,22 +17610,31 @@
       </c>
       <c r="AH76" s="8">
         <f t="shared" si="27"/>
-        <v>4.8763157149251446E-2</v>
+        <v>4.4741363882476792E-2</v>
       </c>
       <c r="AI76" s="8">
         <f t="shared" si="28"/>
-        <v>8.7496887796610929E-3</v>
+        <v>7.7596709874817402E-3</v>
       </c>
       <c r="AJ76" s="8">
         <f t="shared" si="29"/>
-        <v>-3.8573210043789251E-3</v>
+        <v>-3.6744111093350434E-3</v>
       </c>
       <c r="AK76" s="8">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J77" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K77">
+        <v>24.962992253762788</v>
+      </c>
+      <c r="L77" t="s">
+        <v>12</v>
+      </c>
       <c r="AB77" s="8">
         <v>3</v>
       </c>
@@ -16203,7 +17644,7 @@
       </c>
       <c r="AD77" s="8">
         <f t="shared" si="24"/>
-        <v>4.8763157149251446E-2</v>
+        <v>4.4741363882476792E-2</v>
       </c>
       <c r="AE77" s="8">
         <f t="shared" si="32"/>
@@ -16211,7 +17652,7 @@
       </c>
       <c r="AF77" s="8">
         <f t="shared" si="25"/>
-        <v>-7.9103184245693126E-2</v>
+        <v>-8.2125594539020019E-2</v>
       </c>
       <c r="AG77" s="8">
         <f t="shared" si="26"/>
@@ -16219,22 +17660,31 @@
       </c>
       <c r="AH77" s="8">
         <f t="shared" si="27"/>
-        <v>-1.5372650881238015E-2</v>
+        <v>-1.8824100818922995E-2</v>
       </c>
       <c r="AI77" s="8">
         <f t="shared" si="28"/>
-        <v>-7.4961899072238799E-4</v>
+        <v>-8.4221594449986309E-4</v>
       </c>
       <c r="AJ77" s="8">
         <f t="shared" si="29"/>
-        <v>1.2160256350032875E-3</v>
+        <v>1.5459404714165046E-3</v>
       </c>
       <c r="AK77" s="8">
         <f t="shared" si="30"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="78" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J78" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78">
+        <v>6.0843677430285634</v>
+      </c>
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
       <c r="AB78" s="8">
         <v>4</v>
       </c>
@@ -16244,7 +17694,7 @@
       </c>
       <c r="AD78" s="8">
         <f t="shared" si="24"/>
-        <v>4.8763157149251446E-2</v>
+        <v>4.4741363882476792E-2</v>
       </c>
       <c r="AE78" s="8">
         <f t="shared" si="32"/>
@@ -16252,7 +17702,7 @@
       </c>
       <c r="AF78" s="8">
         <f t="shared" si="25"/>
-        <v>-1.5372650881238015E-2</v>
+        <v>-1.8824100818922995E-2</v>
       </c>
       <c r="AG78" s="8">
         <f t="shared" si="26"/>
@@ -16260,22 +17710,31 @@
       </c>
       <c r="AH78" s="8">
         <f t="shared" si="27"/>
-        <v>1.6633078292032255E-2</v>
+        <v>1.2918134665271697E-2</v>
       </c>
       <c r="AI78" s="8">
         <f t="shared" si="28"/>
-        <v>8.1108141063017164E-4</v>
+        <v>5.7797496374175847E-4</v>
       </c>
       <c r="AJ78" s="8">
         <f t="shared" si="29"/>
-        <v>-2.5569450566371055E-4</v>
+        <v>-2.4317226933149848E-4</v>
       </c>
       <c r="AK78" s="8">
         <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="79" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J79" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>7.4516394787351601</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
       <c r="AB79" s="8">
         <v>5</v>
       </c>
@@ -16285,7 +17744,7 @@
       </c>
       <c r="AD79" s="8">
         <f t="shared" si="24"/>
-        <v>1.6633078292032255E-2</v>
+        <v>1.2918134665271697E-2</v>
       </c>
       <c r="AE79" s="8">
         <f t="shared" si="32"/>
@@ -16293,7 +17752,7 @@
       </c>
       <c r="AF79" s="8">
         <f t="shared" si="25"/>
-        <v>-1.5372650881238015E-2</v>
+        <v>-1.8824100818922995E-2</v>
       </c>
       <c r="AG79" s="8">
         <f t="shared" si="26"/>
@@ -16301,56 +17760,65 @@
       </c>
       <c r="AH79" s="8">
         <f t="shared" si="27"/>
-        <v>6.1637116302643014E-4</v>
+        <v>-2.9619992572078591E-3</v>
       </c>
       <c r="AI79" s="8">
         <f t="shared" si="28"/>
-        <v>1.0252149811569589E-5</v>
+        <v>-3.8263505283045862E-5</v>
       </c>
       <c r="AJ79" s="8">
         <f t="shared" si="29"/>
-        <v>-9.475258702467951E-6</v>
+        <v>5.5756972643255765E-5</v>
       </c>
       <c r="AK79" s="8">
         <f t="shared" si="30"/>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="80" spans="28:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:37" x14ac:dyDescent="0.2">
+      <c r="J80" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>16.066675069990328</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
       <c r="AB80" s="8">
         <v>6</v>
       </c>
       <c r="AC80" s="8">
         <f t="shared" si="31"/>
-        <v>0.421875</v>
+        <v>0.40625</v>
       </c>
       <c r="AD80" s="8">
         <f t="shared" si="24"/>
-        <v>6.1637116302643014E-4</v>
+        <v>1.2918134665271697E-2</v>
       </c>
       <c r="AE80" s="8">
         <f t="shared" si="32"/>
-        <v>0.4375</v>
+        <v>0.421875</v>
       </c>
       <c r="AF80" s="8">
         <f t="shared" si="25"/>
-        <v>-1.5372650881238015E-2</v>
+        <v>-2.9619992572078591E-3</v>
       </c>
       <c r="AG80" s="8">
         <f t="shared" si="26"/>
-        <v>0.4296875</v>
+        <v>0.4140625</v>
       </c>
       <c r="AH80" s="8">
         <f t="shared" si="27"/>
-        <v>-7.3814144171517326E-3</v>
+        <v>4.975687970925069E-3</v>
       </c>
       <c r="AI80" s="8">
         <f t="shared" si="28"/>
-        <v>-4.5496909890798727E-6</v>
+        <v>6.4276607260782518E-5</v>
       </c>
       <c r="AJ80" s="8">
         <f t="shared" si="29"/>
-        <v>1.1347190684461057E-4</v>
+        <v>-1.4737984073978134E-5</v>
       </c>
       <c r="AK80" s="8">
         <f t="shared" si="30"/>
@@ -16363,35 +17831,35 @@
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="31"/>
-        <v>0.421875</v>
+        <v>0.4140625</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="24"/>
-        <v>6.1637116302643014E-4</v>
+        <v>4.975687970925069E-3</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="32"/>
-        <v>0.4296875</v>
+        <v>0.421875</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="25"/>
-        <v>-7.3814144171517326E-3</v>
+        <v>-2.9619992572078591E-3</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="26"/>
-        <v>0.42578125</v>
+        <v>0.41796875</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="27"/>
-        <v>-3.3833624784970207E-3</v>
+        <v>1.006265855144628E-3</v>
       </c>
       <c r="AI81" s="8">
         <f t="shared" si="28"/>
-        <v>-2.0854070658111938E-6</v>
+        <v>5.0068649109957536E-6</v>
       </c>
       <c r="AJ81" s="8">
         <f t="shared" si="29"/>
-        <v>2.4974000577228127E-5</v>
+        <v>-2.9805587154920192E-6</v>
       </c>
       <c r="AK81" s="8">
         <f t="shared" si="30"/>
@@ -16404,35 +17872,35 @@
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="31"/>
-        <v>0.421875</v>
+        <v>0.41796875</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="24"/>
-        <v>6.1637116302643014E-4</v>
+        <v>1.006265855144628E-3</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="32"/>
-        <v>0.42578125</v>
+        <v>0.421875</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="25"/>
-        <v>-3.3833624784970207E-3</v>
+        <v>-2.9619992572078591E-3</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="26"/>
-        <v>0.423828125</v>
+        <v>0.419921875</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="27"/>
-        <v>-1.3837087350446753E-3</v>
+        <v>-9.7800933814445878E-4</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="28"/>
-        <v>-8.5287816230931695E-7</v>
+        <v>-9.8413740298736552E-7</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="29"/>
-        <v>4.6815882153187295E-6</v>
+        <v>2.896862933126237E-6</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="30"/>
@@ -16445,35 +17913,35 @@
       </c>
       <c r="AC83" s="8">
         <f t="shared" si="31"/>
-        <v>0.421875</v>
+        <v>0.41796875</v>
       </c>
       <c r="AD83" s="8">
         <f t="shared" si="24"/>
-        <v>6.1637116302643014E-4</v>
+        <v>1.006265855144628E-3</v>
       </c>
       <c r="AE83" s="8">
         <f t="shared" si="32"/>
-        <v>0.423828125</v>
+        <v>0.419921875</v>
       </c>
       <c r="AF83" s="8">
         <f t="shared" si="25"/>
-        <v>-1.3837087350446753E-3</v>
+        <v>-9.7800933814445878E-4</v>
       </c>
       <c r="AG83" s="8">
         <f t="shared" si="26"/>
-        <v>0.4228515625</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AH83" s="8">
         <f t="shared" si="27"/>
-        <v>-3.8372241907663751E-4</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AI83" s="8">
         <f t="shared" si="28"/>
-        <v>-2.3651543372558227E-7</v>
+        <v>1.418065417134547E-8</v>
       </c>
       <c r="AJ83" s="8">
         <f t="shared" si="29"/>
-        <v>5.3096006310881689E-7</v>
+        <v>-1.3782453344379565E-8</v>
       </c>
       <c r="AK83" s="8">
         <f t="shared" si="30"/>
@@ -16486,35 +17954,35 @@
       </c>
       <c r="AC84" s="8">
         <f t="shared" si="31"/>
-        <v>0.421875</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD84" s="8">
         <f t="shared" si="24"/>
-        <v>6.1637116302643014E-4</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE84" s="8">
         <f t="shared" si="32"/>
-        <v>0.4228515625</v>
+        <v>0.419921875</v>
       </c>
       <c r="AF84" s="8">
         <f t="shared" si="25"/>
-        <v>-3.8372241907663751E-4</v>
+        <v>-9.7800933814445878E-4</v>
       </c>
       <c r="AG84" s="8">
         <f t="shared" si="26"/>
-        <v>0.42236328125</v>
+        <v>0.41943359375</v>
       </c>
       <c r="AH84" s="8">
         <f t="shared" si="27"/>
-        <v>1.1631091787922543E-4</v>
+        <v>-4.8196743766559802E-4</v>
       </c>
       <c r="AI84" s="8">
         <f t="shared" si="28"/>
-        <v>7.1690695725889787E-8</v>
+        <v>-6.7920555193667268E-9</v>
       </c>
       <c r="AJ84" s="8">
         <f t="shared" si="29"/>
-        <v>-4.4631106773640512E-8</v>
+        <v>4.7136865471851222E-7</v>
       </c>
       <c r="AK84" s="8">
         <f t="shared" si="30"/>
@@ -16527,35 +17995,35 @@
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="31"/>
-        <v>0.42236328125</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="24"/>
-        <v>1.1631091787922543E-4</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="32"/>
-        <v>0.4228515625</v>
+        <v>0.41943359375</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="25"/>
-        <v>-3.8372241907663751E-4</v>
+        <v>-4.8196743766559802E-4</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="26"/>
-        <v>0.422607421875</v>
+        <v>0.419189453125</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="27"/>
-        <v>-1.337091083777886E-4</v>
+        <v>-2.3393978225899614E-4</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="28"/>
-        <v>-1.5551829124233423E-8</v>
+        <v>-3.2967621152740798E-9</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="29"/>
-        <v>5.1307182519305341E-8</v>
+        <v>1.127513574234163E-7</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="30"/>
@@ -16568,35 +18036,35 @@
       </c>
       <c r="AC86" s="8">
         <f t="shared" si="31"/>
-        <v>0.42236328125</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD86" s="8">
         <f t="shared" si="24"/>
-        <v>1.1631091787922543E-4</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE86" s="8">
         <f t="shared" si="32"/>
-        <v>0.422607421875</v>
+        <v>0.419189453125</v>
       </c>
       <c r="AF86" s="8">
         <f t="shared" si="25"/>
-        <v>-1.337091083777886E-4</v>
+        <v>-2.3393978225899614E-4</v>
       </c>
       <c r="AG86" s="8">
         <f t="shared" si="26"/>
-        <v>0.4224853515625</v>
+        <v>0.4190673828125</v>
       </c>
       <c r="AH86" s="8">
         <f t="shared" si="27"/>
-        <v>-8.6999354111383376E-6</v>
+        <v>-1.0992427489614487E-4</v>
       </c>
       <c r="AI86" s="8">
         <f t="shared" si="28"/>
-        <v>-1.0118974731594764E-9</v>
+        <v>-1.5490917428715703E-9</v>
       </c>
       <c r="AJ86" s="8">
         <f t="shared" si="29"/>
-        <v>1.1632606067676567E-9</v>
+        <v>2.5715660934182166E-8</v>
       </c>
       <c r="AK86" s="8">
         <f t="shared" si="30"/>
@@ -16609,35 +18077,35 @@
       </c>
       <c r="AC87" s="8">
         <f t="shared" si="31"/>
-        <v>0.42236328125</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD87" s="8">
         <f t="shared" si="24"/>
-        <v>1.1631091787922543E-4</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE87" s="8">
         <f t="shared" si="32"/>
-        <v>0.4224853515625</v>
+        <v>0.4190673828125</v>
       </c>
       <c r="AF87" s="8">
         <f t="shared" si="25"/>
-        <v>-8.6999354111383376E-6</v>
+        <v>-1.0992427489614487E-4</v>
       </c>
       <c r="AG87" s="8">
         <f t="shared" si="26"/>
-        <v>0.42242431640625</v>
+        <v>0.41900634765625</v>
       </c>
       <c r="AH87" s="8">
         <f t="shared" si="27"/>
-        <v>5.3805281103880276E-5</v>
+        <v>-4.7916100878009349E-5</v>
       </c>
       <c r="AI87" s="8">
         <f t="shared" si="28"/>
-        <v>6.2581416319420585E-9</v>
+        <v>-6.7525063313680003E-10</v>
       </c>
       <c r="AJ87" s="8">
         <f t="shared" si="29"/>
-        <v>-4.6810247038190051E-10</v>
+        <v>5.2671426448657082E-9</v>
       </c>
       <c r="AK87" s="8">
         <f t="shared" si="30"/>
@@ -16650,35 +18118,35 @@
       </c>
       <c r="AC88" s="8">
         <f t="shared" si="31"/>
-        <v>0.42242431640625</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD88" s="8">
         <f t="shared" si="24"/>
-        <v>5.3805281103880276E-5</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE88" s="8">
         <f t="shared" si="32"/>
-        <v>0.4224853515625</v>
+        <v>0.41900634765625</v>
       </c>
       <c r="AF88" s="8">
         <f t="shared" si="25"/>
-        <v>-8.6999354111383376E-6</v>
+        <v>-4.7916100878009349E-5</v>
       </c>
       <c r="AG88" s="8">
         <f t="shared" si="26"/>
-        <v>0.422454833984375</v>
+        <v>0.418975830078125</v>
       </c>
       <c r="AH88" s="8">
         <f t="shared" si="27"/>
-        <v>2.2552620325022588E-5</v>
+        <v>-1.6911908731986891E-5</v>
       </c>
       <c r="AI88" s="8">
         <f t="shared" si="28"/>
-        <v>1.2134500762169241E-9</v>
+        <v>-2.3832859664228076E-10</v>
       </c>
       <c r="AJ88" s="8">
         <f t="shared" si="29"/>
-        <v>-1.9620634017962221E-10</v>
+        <v>8.1035272484157107E-10</v>
       </c>
       <c r="AK88" s="8">
         <f t="shared" si="30"/>
@@ -16691,35 +18159,35 @@
       </c>
       <c r="AC89" s="8">
         <f t="shared" si="31"/>
-        <v>0.422454833984375</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" si="24"/>
-        <v>2.2552620325022588E-5</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" si="32"/>
-        <v>0.4224853515625</v>
+        <v>0.418975830078125</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" si="25"/>
-        <v>-8.6999354111383376E-6</v>
+        <v>-1.6911908731986891E-5</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" si="26"/>
-        <v>0.4224700927734375</v>
+        <v>0.4189605712890625</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" si="27"/>
-        <v>6.9263293280275029E-6</v>
+        <v>-1.4097863680895273E-6</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" si="28"/>
-        <v>1.5620687558107311E-10</v>
+        <v>-1.9867207894559218E-11</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" si="29"/>
-        <v>-6.0258617790112481E-11</v>
+        <v>2.3842178388729363E-11</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" si="30"/>
@@ -16732,35 +18200,35 @@
       </c>
       <c r="AC90" s="8">
         <f t="shared" si="31"/>
-        <v>0.4224700927734375</v>
+        <v>0.4189453125</v>
       </c>
       <c r="AD90" s="8">
         <f t="shared" si="24"/>
-        <v>6.9263293280275029E-6</v>
+        <v>1.409235352550775E-5</v>
       </c>
       <c r="AE90" s="8">
         <f t="shared" si="32"/>
-        <v>0.4224853515625</v>
+        <v>0.4189605712890625</v>
       </c>
       <c r="AF90" s="8">
         <f t="shared" si="25"/>
-        <v>-8.6999354111383376E-6</v>
+        <v>-1.4097863680895273E-6</v>
       </c>
       <c r="AG90" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247772216796875</v>
+        <v>0.41895294189453125</v>
       </c>
       <c r="AH90" s="8">
         <f t="shared" si="27"/>
-        <v>-8.8680632359672273E-7</v>
+        <v>6.3412813873786611E-6</v>
       </c>
       <c r="AI90" s="8">
         <f t="shared" si="28"/>
-        <v>-6.1423126474082289E-12</v>
+        <v>8.9363579115662358E-11</v>
       </c>
       <c r="AJ90" s="8">
         <f t="shared" si="29"/>
-        <v>7.7151577374805309E-12</v>
+        <v>-8.939852056146282E-12</v>
       </c>
       <c r="AK90" s="8">
         <f t="shared" si="30"/>
@@ -16773,35 +18241,35 @@
       </c>
       <c r="AC91" s="8">
         <f t="shared" si="31"/>
-        <v>0.4224700927734375</v>
+        <v>0.41895294189453125</v>
       </c>
       <c r="AD91" s="8">
         <f t="shared" si="24"/>
-        <v>6.9263293280275029E-6</v>
+        <v>6.3412813873786611E-6</v>
       </c>
       <c r="AE91" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247772216796875</v>
+        <v>0.4189605712890625</v>
       </c>
       <c r="AF91" s="8">
         <f t="shared" si="25"/>
-        <v>-8.8680632359672273E-7</v>
+        <v>-1.4097863680895273E-6</v>
       </c>
       <c r="AG91" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247390747070312</v>
+        <v>0.41895675659179688</v>
       </c>
       <c r="AH91" s="8">
         <f t="shared" si="27"/>
-        <v>3.0197606816773082E-6</v>
+        <v>2.465746961832771E-6</v>
       </c>
       <c r="AI91" s="8">
         <f t="shared" si="28"/>
-        <v>2.0915856973125865E-11</v>
+        <v>1.5635995315055633E-11</v>
       </c>
       <c r="AJ91" s="8">
         <f t="shared" si="29"/>
-        <v>-2.6779428682601871E-12</v>
+        <v>-3.4761764539500086E-12</v>
       </c>
       <c r="AK91" s="8">
         <f t="shared" si="30"/>
@@ -16814,35 +18282,35 @@
       </c>
       <c r="AC92" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247390747070312</v>
+        <v>0.41895675659179688</v>
       </c>
       <c r="AD92" s="8">
         <f t="shared" si="24"/>
-        <v>3.0197606816773082E-6</v>
+        <v>2.465746961832771E-6</v>
       </c>
       <c r="AE92" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247772216796875</v>
+        <v>0.4189605712890625</v>
       </c>
       <c r="AF92" s="8">
         <f t="shared" si="25"/>
-        <v>-8.8680632359672273E-7</v>
+        <v>-1.4097863680895273E-6</v>
       </c>
       <c r="AG92" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247581481933594</v>
+        <v>0.41895866394042969</v>
       </c>
       <c r="AH92" s="8">
         <f t="shared" si="27"/>
-        <v>1.0664769738988333E-6</v>
+        <v>5.2798015992561176E-7</v>
       </c>
       <c r="AI92" s="8">
         <f t="shared" si="28"/>
-        <v>3.2205052336938937E-12</v>
+        <v>1.3018654752445577E-12</v>
       </c>
       <c r="AJ92" s="8">
         <f t="shared" si="29"/>
-        <v>-9.4575852442378243E-13</v>
+        <v>-7.4433923208485596E-13</v>
       </c>
       <c r="AK92" s="8">
         <f t="shared" si="30"/>
@@ -16855,35 +18323,35 @@
       </c>
       <c r="AC93" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247581481933594</v>
+        <v>0.41895866394042969</v>
       </c>
       <c r="AD93" s="8">
         <f t="shared" si="24"/>
-        <v>1.0664769738988333E-6</v>
+        <v>5.2798015992561176E-7</v>
       </c>
       <c r="AE93" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247772216796875</v>
+        <v>0.4189605712890625</v>
       </c>
       <c r="AF93" s="8">
         <f t="shared" si="25"/>
-        <v>-8.8680632359672273E-7</v>
+        <v>-1.4097863680895273E-6</v>
       </c>
       <c r="AG93" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247676849365234</v>
+        <v>0.41895961761474609</v>
       </c>
       <c r="AH93" s="8">
         <f t="shared" si="27"/>
-        <v>8.9835273886507139E-8</v>
+        <v>-4.4090313833233807E-7</v>
       </c>
       <c r="AI93" s="8">
         <f t="shared" si="28"/>
-        <v>9.5807251043855018E-14</v>
+        <v>-2.3278810948841197E-13</v>
       </c>
       <c r="AJ93" s="8">
         <f t="shared" si="29"/>
-        <v>-7.9666488964598066E-14</v>
+        <v>6.2157923406882132E-13</v>
       </c>
       <c r="AK93" s="8">
         <f t="shared" si="30"/>
@@ -16896,35 +18364,35 @@
       </c>
       <c r="AC94" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247676849365234</v>
+        <v>0.41895866394042969</v>
       </c>
       <c r="AD94" s="8">
         <f t="shared" si="24"/>
-        <v>8.9835273886507139E-8</v>
+        <v>5.2798015992561176E-7</v>
       </c>
       <c r="AE94" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247772216796875</v>
+        <v>0.41895961761474609</v>
       </c>
       <c r="AF94" s="8">
         <f t="shared" si="25"/>
-        <v>-8.8680632359672273E-7</v>
+        <v>-4.4090313833233807E-7</v>
       </c>
       <c r="AG94" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247724533081055</v>
+        <v>0.41895914077758789</v>
       </c>
       <c r="AH94" s="8">
         <f t="shared" si="27"/>
-        <v>-3.9848553767818373E-7</v>
+        <v>4.3538502247919553E-8</v>
       </c>
       <c r="AI94" s="8">
         <f t="shared" si="28"/>
-        <v>-3.5798057417131698E-14</v>
+        <v>2.2987465379778173E-14</v>
       </c>
       <c r="AJ94" s="8">
         <f t="shared" si="29"/>
-        <v>3.5337949467485347E-13</v>
+        <v>-1.9196262279397285E-14</v>
       </c>
       <c r="AK94" s="8">
         <f t="shared" si="30"/>
@@ -16937,35 +18405,35 @@
       </c>
       <c r="AC95" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247676849365234</v>
+        <v>0.41895914077758789</v>
       </c>
       <c r="AD95" s="8">
         <f t="shared" si="24"/>
-        <v>8.9835273886507139E-8</v>
+        <v>4.3538502247919553E-8</v>
       </c>
       <c r="AE95" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247724533081055</v>
+        <v>0.41895961761474609</v>
       </c>
       <c r="AF95" s="8">
         <f t="shared" si="25"/>
-        <v>-3.9848553767818373E-7</v>
+        <v>-4.4090313833233807E-7</v>
       </c>
       <c r="AG95" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247700691223145</v>
+        <v>0.41895937919616699</v>
       </c>
       <c r="AH95" s="8">
         <f t="shared" si="27"/>
-        <v>-1.5432513511548507E-7</v>
+        <v>-1.9868232020714416E-7</v>
       </c>
       <c r="AI95" s="8">
         <f t="shared" si="28"/>
-        <v>-1.3863840780671822E-14</v>
+        <v>-8.6503306449606179E-15</v>
       </c>
       <c r="AJ95" s="8">
         <f t="shared" si="29"/>
-        <v>6.1496334443752416E-14</v>
+        <v>8.7599658510480372E-14</v>
       </c>
       <c r="AK95" s="8">
         <f t="shared" si="30"/>
@@ -16978,35 +18446,35 @@
       </c>
       <c r="AC96" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247676849365234</v>
+        <v>0.41895914077758789</v>
       </c>
       <c r="AD96" s="8">
         <f t="shared" si="24"/>
-        <v>8.9835273886507139E-8</v>
+        <v>4.3538502247919553E-8</v>
       </c>
       <c r="AE96" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247700691223145</v>
+        <v>0.41895937919616699</v>
       </c>
       <c r="AF96" s="8">
         <f t="shared" si="25"/>
-        <v>-1.5432513511548507E-7</v>
+        <v>-1.9868232020714416E-7</v>
       </c>
       <c r="AG96" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247688770294189</v>
+        <v>0.41895925998687744</v>
       </c>
       <c r="AH96" s="8">
         <f t="shared" si="27"/>
-        <v>-3.2244931447156233E-8</v>
+        <v>-7.757190950696824E-8</v>
       </c>
       <c r="AI96" s="8">
         <f t="shared" si="28"/>
-        <v>-2.8967322480069272E-15</v>
+        <v>-3.3773647564445487E-15</v>
       </c>
       <c r="AJ96" s="8">
         <f t="shared" si="29"/>
-        <v>4.9762034023719391E-15</v>
+        <v>1.5412166963743074E-14</v>
       </c>
       <c r="AK96" s="8">
         <f t="shared" si="30"/>
@@ -17019,35 +18487,35 @@
       </c>
       <c r="AC97" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247676849365234</v>
+        <v>0.41895914077758789</v>
       </c>
       <c r="AD97" s="8">
         <f t="shared" si="24"/>
-        <v>8.9835273886507139E-8</v>
+        <v>4.3538502247919553E-8</v>
       </c>
       <c r="AE97" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247688770294189</v>
+        <v>0.41895925998687744</v>
       </c>
       <c r="AF97" s="8">
         <f t="shared" si="25"/>
-        <v>-3.2244931447156233E-8</v>
+        <v>-7.757190950696824E-8</v>
       </c>
       <c r="AG97" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247682809829712</v>
+        <v>0.41895920038223267</v>
       </c>
       <c r="AH97" s="8">
         <f t="shared" si="27"/>
-        <v>2.8795171025386423E-8</v>
+        <v>-1.7016703768302222E-8</v>
       </c>
       <c r="AI97" s="8">
         <f t="shared" si="28"/>
-        <v>2.586822075674404E-15</v>
+        <v>-7.4088179526840735E-16</v>
       </c>
       <c r="AJ97" s="8">
         <f t="shared" si="29"/>
-        <v>-9.2849831572272469E-16</v>
+        <v>1.3200182048216254E-15</v>
       </c>
       <c r="AK97" s="8">
         <f t="shared" si="30"/>
@@ -17060,35 +18528,35 @@
       </c>
       <c r="AC98" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247682809829712</v>
+        <v>0.41895914077758789</v>
       </c>
       <c r="AD98" s="8">
         <f t="shared" si="24"/>
-        <v>2.8795171025386423E-8</v>
+        <v>4.3538502247919553E-8</v>
       </c>
       <c r="AE98" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247688770294189</v>
+        <v>0.41895920038223267</v>
       </c>
       <c r="AF98" s="8">
         <f t="shared" si="25"/>
-        <v>-3.2244931447156233E-8</v>
+        <v>-1.7016703768302222E-8</v>
       </c>
       <c r="AG98" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895917057991028</v>
       </c>
       <c r="AH98" s="8">
         <f t="shared" si="27"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>1.326089921205309E-8</v>
       </c>
       <c r="AI98" s="8">
         <f t="shared" si="28"/>
-        <v>-4.9668221469961982E-17</v>
+        <v>5.7735969015340804E-16</v>
       </c>
       <c r="AJ98" s="8">
         <f t="shared" si="29"/>
-        <v>5.5618645049516776E-17</v>
+        <v>-2.256567935928198E-16</v>
       </c>
       <c r="AK98" s="8">
         <f t="shared" si="30"/>
@@ -17101,35 +18569,35 @@
       </c>
       <c r="AC99" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247682809829712</v>
+        <v>0.41895917057991028</v>
       </c>
       <c r="AD99" s="8">
         <f t="shared" si="24"/>
-        <v>2.8795171025386423E-8</v>
+        <v>1.326089921205309E-8</v>
       </c>
       <c r="AE99" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895920038223267</v>
       </c>
       <c r="AF99" s="8">
         <f t="shared" si="25"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>-1.7016703768302222E-8</v>
       </c>
       <c r="AG99" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247684299945831</v>
+        <v>0.41895918548107147</v>
       </c>
       <c r="AH99" s="8">
         <f t="shared" si="27"/>
-        <v>1.3535145393372972E-8</v>
+        <v>-1.8779022781245658E-9</v>
       </c>
       <c r="AI99" s="8">
         <f t="shared" si="28"/>
-        <v>3.8974682645564593E-16</v>
+        <v>-2.4902672840294757E-17</v>
       </c>
       <c r="AJ99" s="8">
         <f t="shared" si="29"/>
-        <v>-2.3346504816154771E-17</v>
+        <v>3.1955706772665625E-17</v>
       </c>
       <c r="AK99" s="8">
         <f t="shared" si="30"/>
@@ -17142,35 +18610,35 @@
       </c>
       <c r="AC100" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247684299945831</v>
+        <v>0.41895917057991028</v>
       </c>
       <c r="AD100" s="8">
         <f t="shared" si="24"/>
-        <v>1.3535145393372972E-8</v>
+        <v>1.326089921205309E-8</v>
       </c>
       <c r="AE100" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895918548107147</v>
       </c>
       <c r="AF100" s="8">
         <f t="shared" si="25"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>-1.8779022781245658E-9</v>
       </c>
       <c r="AG100" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685045003891</v>
+        <v>0.41895917803049088</v>
       </c>
       <c r="AH100" s="8">
         <f t="shared" si="27"/>
-        <v>5.9051325496106699E-9</v>
+        <v>5.6914984392086865E-9</v>
       </c>
       <c r="AI100" s="8">
         <f t="shared" si="28"/>
-        <v>7.9926827626119646E-17</v>
+        <v>7.5474387167903865E-17</v>
       </c>
       <c r="AJ100" s="8">
         <f t="shared" si="29"/>
-        <v>-1.0185646441376121E-17</v>
+        <v>-1.0688077884932403E-17</v>
       </c>
       <c r="AK100" s="8">
         <f t="shared" si="30"/>
@@ -17183,35 +18651,35 @@
       </c>
       <c r="AC101" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247685045003891</v>
+        <v>0.41895917803049088</v>
       </c>
       <c r="AD101" s="8">
         <f t="shared" si="24"/>
-        <v>5.9051325496106699E-9</v>
+        <v>5.6914984392086865E-9</v>
       </c>
       <c r="AE101" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895918548107147</v>
       </c>
       <c r="AF101" s="8">
         <f t="shared" si="25"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>-1.8779022781245658E-9</v>
       </c>
       <c r="AG101" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685417532921</v>
+        <v>0.41895918175578117</v>
       </c>
       <c r="AH101" s="8">
         <f t="shared" si="27"/>
-        <v>2.0901261277295191E-9</v>
+        <v>1.9067980527864847E-9</v>
       </c>
       <c r="AI101" s="8">
         <f t="shared" si="28"/>
-        <v>1.2342471829647292E-17</v>
+        <v>1.085253814132044E-17</v>
       </c>
       <c r="AJ101" s="8">
         <f t="shared" si="29"/>
-        <v>-3.6052172539867963E-18</v>
+        <v>-3.5807804072512257E-18</v>
       </c>
       <c r="AK101" s="8">
         <f t="shared" si="30"/>
@@ -17224,35 +18692,35 @@
       </c>
       <c r="AC102" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247685417532921</v>
+        <v>0.41895918175578117</v>
       </c>
       <c r="AD102" s="8">
         <f t="shared" si="24"/>
-        <v>2.0901261277295191E-9</v>
+        <v>1.9067980527864847E-9</v>
       </c>
       <c r="AE102" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895918548107147</v>
       </c>
       <c r="AF102" s="8">
         <f t="shared" si="25"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>-1.8779022781245658E-9</v>
       </c>
       <c r="AG102" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685603797436</v>
+        <v>0.41895918361842632</v>
       </c>
       <c r="AH102" s="8">
         <f t="shared" si="27"/>
-        <v>1.8262297230009494E-10</v>
+        <v>1.4447887330959475E-11</v>
       </c>
       <c r="AI102" s="8">
         <f t="shared" si="28"/>
-        <v>3.8170504592805267E-19</v>
+        <v>2.7549203429552048E-20</v>
       </c>
       <c r="AJ102" s="8">
         <f t="shared" si="29"/>
-        <v>-3.1500275604222162E-19</v>
+        <v>-2.713172053289585E-20</v>
       </c>
       <c r="AK102" s="8">
         <f t="shared" si="30"/>
@@ -17265,35 +18733,35 @@
       </c>
       <c r="AC103" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247685603797436</v>
+        <v>0.41895918361842632</v>
       </c>
       <c r="AD103" s="8">
         <f t="shared" si="24"/>
-        <v>1.8262297230009494E-10</v>
+        <v>1.4447887330959475E-11</v>
       </c>
       <c r="AE103" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685790061951</v>
+        <v>0.41895918548107147</v>
       </c>
       <c r="AF103" s="8">
         <f t="shared" si="25"/>
-        <v>-1.7248802386404805E-9</v>
+        <v>-1.8779022781245658E-9</v>
       </c>
       <c r="AG103" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685696929693</v>
+        <v>0.4189591845497489</v>
       </c>
       <c r="AH103" s="8">
         <f t="shared" si="27"/>
-        <v>-7.7112866092576837E-10</v>
+        <v>-9.3172719539680315E-10</v>
       </c>
       <c r="AI103" s="8">
         <f t="shared" si="28"/>
-        <v>-1.408258080840559E-19</v>
+        <v>-1.3461489542283875E-20</v>
       </c>
       <c r="AJ103" s="8">
         <f t="shared" si="29"/>
-        <v>1.3301045886801535E-18</v>
+        <v>1.7496926228262691E-18</v>
       </c>
       <c r="AK103" s="8">
         <f t="shared" si="30"/>
@@ -17306,35 +18774,35 @@
       </c>
       <c r="AC104" s="8">
         <f t="shared" si="31"/>
-        <v>0.42247685603797436</v>
+        <v>0.41895918361842632</v>
       </c>
       <c r="AD104" s="8">
         <f t="shared" si="24"/>
-        <v>1.8262297230009494E-10</v>
+        <v>1.4447887330959475E-11</v>
       </c>
       <c r="AE104" s="8">
         <f t="shared" si="32"/>
-        <v>0.42247685696929693</v>
+        <v>0.4189591845497489</v>
       </c>
       <c r="AF104" s="8">
         <f t="shared" si="25"/>
-        <v>-7.7112866092576837E-10</v>
+        <v>-9.3172719539680315E-10</v>
       </c>
       <c r="AG104" s="8">
         <f t="shared" si="26"/>
-        <v>0.42247685650363564</v>
+        <v>0.41895918408408761</v>
       </c>
       <c r="AH104" s="8">
         <f t="shared" si="27"/>
-        <v>-2.9425284431283671E-10</v>
+        <v>-4.5863968178849746E-10</v>
       </c>
       <c r="AI104" s="8">
         <f t="shared" si="28"/>
-        <v>-5.3737329036167329E-20</v>
+        <v>-6.6263744479873173E-21</v>
       </c>
       <c r="AJ104" s="8">
         <f t="shared" si="29"/>
-        <v>2.2690680180855637E-19</v>
+        <v>4.2732706441047899E-19</v>
       </c>
       <c r="AK104" s="8">
         <f t="shared" si="30"/>
@@ -17342,14 +18810,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="25">
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="V15:X15"/>
@@ -17361,12 +18829,13 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
